--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A66A4B7-32D2-D442-8A1C-C795F893AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB8D8E-194C-374A-81A2-B3B243FB6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28360" windowHeight="16940" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28360" windowHeight="16940" activeTab="2" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
-    <sheet name="機能要求" sheetId="2" r:id="rId2"/>
+    <sheet name="機能詳細" sheetId="2" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -46,33 +47,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アプリケーション名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発目的</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">カイハツモクテキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターゲットユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターゲットデバイス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -148,6 +123,252 @@
   </si>
   <si>
     <t>React Native</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発目的(Development Goal)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイハツモクテキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">モクテキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース目標</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">モクヒョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC0_001】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り場マップ作成</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツリバ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC0_002】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレース番号</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能(トップレベル)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣果記録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android / iOS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC0_003】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【Rev.1.0.0】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ナイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">モクヒョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッセキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り人 ・・・　釣り前後のプロセスを楽しむ人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツリ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ビト </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ツリ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ゼンゴ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">タノシムヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iOS(T.B.D)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットデバイス (T.B.D)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション名 (T.B.D.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆アプリ概要検討</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆スケジュール検討</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆機能詳細検討</t>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">キノウショウサイ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧</t>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">キノウイチラｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実現手法検討</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">ジツゲンシュホウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リスク検討</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆設計</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">セッケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆設計環境構築</t>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">セッケイカンキョウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">コウチク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ReactNative実行環境</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">カンキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GitHubレポジトリ作成</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -155,6 +376,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="180" formatCode="d"/>
+    <numFmt numFmtId="181" formatCode="yyyy"/>
+    <numFmt numFmtId="183" formatCode="mm"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -170,15 +396,39 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,34 +436,834 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF73FDD6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -522,185 +1572,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE64E8C-6EAB-244E-ABE9-249F7AF9AA96}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="2"/>
+    </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="2:4" ht="19" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19" customHeight="1">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19" customHeight="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="19" customHeight="1">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="15"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="19" customHeight="1">
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="16"/>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="19" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" t="s">
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C20:D20"/>
+  <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:B15 B17:B18 B21:B1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -709,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -718,4 +1853,924 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1CCEB-B7EE-0145-95D5-14C4BE27F322}">
+  <dimension ref="A1:BF21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="7" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="33">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="24">
+        <f>G3</f>
+        <v>44636</v>
+      </c>
+      <c r="H1" s="24">
+        <f>H3</f>
+        <v>44637</v>
+      </c>
+      <c r="I1" s="24">
+        <f t="shared" ref="I1:AW1" si="0">I3</f>
+        <v>44638</v>
+      </c>
+      <c r="J1" s="24">
+        <f t="shared" si="0"/>
+        <v>44639</v>
+      </c>
+      <c r="K1" s="24">
+        <f t="shared" si="0"/>
+        <v>44640</v>
+      </c>
+      <c r="L1" s="24">
+        <f t="shared" si="0"/>
+        <v>44641</v>
+      </c>
+      <c r="M1" s="24">
+        <f t="shared" si="0"/>
+        <v>44642</v>
+      </c>
+      <c r="N1" s="24">
+        <f t="shared" si="0"/>
+        <v>44643</v>
+      </c>
+      <c r="O1" s="24">
+        <f t="shared" si="0"/>
+        <v>44644</v>
+      </c>
+      <c r="P1" s="24">
+        <f t="shared" si="0"/>
+        <v>44645</v>
+      </c>
+      <c r="Q1" s="24">
+        <f t="shared" si="0"/>
+        <v>44646</v>
+      </c>
+      <c r="R1" s="24">
+        <f t="shared" si="0"/>
+        <v>44647</v>
+      </c>
+      <c r="S1" s="24">
+        <f t="shared" si="0"/>
+        <v>44648</v>
+      </c>
+      <c r="T1" s="24">
+        <f t="shared" si="0"/>
+        <v>44649</v>
+      </c>
+      <c r="U1" s="24">
+        <f t="shared" si="0"/>
+        <v>44650</v>
+      </c>
+      <c r="V1" s="24">
+        <f t="shared" si="0"/>
+        <v>44651</v>
+      </c>
+      <c r="W1" s="24">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="X1" s="24">
+        <f t="shared" si="0"/>
+        <v>44653</v>
+      </c>
+      <c r="Y1" s="24">
+        <f t="shared" si="0"/>
+        <v>44654</v>
+      </c>
+      <c r="Z1" s="24">
+        <f t="shared" si="0"/>
+        <v>44655</v>
+      </c>
+      <c r="AA1" s="24">
+        <f t="shared" si="0"/>
+        <v>44656</v>
+      </c>
+      <c r="AB1" s="24">
+        <f t="shared" si="0"/>
+        <v>44657</v>
+      </c>
+      <c r="AC1" s="24">
+        <f t="shared" si="0"/>
+        <v>44658</v>
+      </c>
+      <c r="AD1" s="24">
+        <f t="shared" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="AE1" s="24">
+        <f t="shared" si="0"/>
+        <v>44660</v>
+      </c>
+      <c r="AF1" s="24">
+        <f t="shared" si="0"/>
+        <v>44661</v>
+      </c>
+      <c r="AG1" s="24">
+        <f t="shared" si="0"/>
+        <v>44662</v>
+      </c>
+      <c r="AH1" s="24">
+        <f t="shared" si="0"/>
+        <v>44663</v>
+      </c>
+      <c r="AI1" s="24">
+        <f t="shared" si="0"/>
+        <v>44664</v>
+      </c>
+      <c r="AJ1" s="24">
+        <f t="shared" si="0"/>
+        <v>44665</v>
+      </c>
+      <c r="AK1" s="24">
+        <f t="shared" si="0"/>
+        <v>44666</v>
+      </c>
+      <c r="AL1" s="24">
+        <f t="shared" si="0"/>
+        <v>44667</v>
+      </c>
+      <c r="AM1" s="24">
+        <f t="shared" si="0"/>
+        <v>44668</v>
+      </c>
+      <c r="AN1" s="24">
+        <f t="shared" si="0"/>
+        <v>44669</v>
+      </c>
+      <c r="AO1" s="24">
+        <f t="shared" si="0"/>
+        <v>44670</v>
+      </c>
+      <c r="AP1" s="24">
+        <f t="shared" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="AQ1" s="24">
+        <f t="shared" si="0"/>
+        <v>44672</v>
+      </c>
+      <c r="AR1" s="24">
+        <f t="shared" si="0"/>
+        <v>44673</v>
+      </c>
+      <c r="AS1" s="24">
+        <f t="shared" si="0"/>
+        <v>44674</v>
+      </c>
+      <c r="AT1" s="24">
+        <f t="shared" si="0"/>
+        <v>44675</v>
+      </c>
+      <c r="AU1" s="24">
+        <f t="shared" si="0"/>
+        <v>44676</v>
+      </c>
+      <c r="AV1" s="24">
+        <f t="shared" si="0"/>
+        <v>44677</v>
+      </c>
+      <c r="AW1" s="24">
+        <f t="shared" si="0"/>
+        <v>44678</v>
+      </c>
+      <c r="AX1" s="24">
+        <f t="shared" ref="AX1:BA1" si="1">AX3</f>
+        <v>44679</v>
+      </c>
+      <c r="AY1" s="24">
+        <f t="shared" si="1"/>
+        <v>44680</v>
+      </c>
+      <c r="AZ1" s="24">
+        <f t="shared" si="1"/>
+        <v>44681</v>
+      </c>
+      <c r="BA1" s="24">
+        <f t="shared" si="1"/>
+        <v>44682</v>
+      </c>
+      <c r="BB1" s="24">
+        <f t="shared" ref="BB1:BF1" si="2">BB3</f>
+        <v>44683</v>
+      </c>
+      <c r="BC1" s="24">
+        <f t="shared" si="2"/>
+        <v>44684</v>
+      </c>
+      <c r="BD1" s="24">
+        <f t="shared" si="2"/>
+        <v>44685</v>
+      </c>
+      <c r="BE1" s="24">
+        <f t="shared" si="2"/>
+        <v>44686</v>
+      </c>
+      <c r="BF1" s="24">
+        <f t="shared" si="2"/>
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="19" thickBot="1">
+      <c r="B2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="30">
+        <f>G3</f>
+        <v>44636</v>
+      </c>
+      <c r="H2" s="25">
+        <f>H3</f>
+        <v>44637</v>
+      </c>
+      <c r="I2" s="25">
+        <f t="shared" ref="I2:AW2" si="3">I3</f>
+        <v>44638</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="shared" si="3"/>
+        <v>44639</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="shared" si="3"/>
+        <v>44640</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="shared" si="3"/>
+        <v>44641</v>
+      </c>
+      <c r="M2" s="25">
+        <f t="shared" si="3"/>
+        <v>44642</v>
+      </c>
+      <c r="N2" s="25">
+        <f t="shared" si="3"/>
+        <v>44643</v>
+      </c>
+      <c r="O2" s="25">
+        <f t="shared" si="3"/>
+        <v>44644</v>
+      </c>
+      <c r="P2" s="25">
+        <f t="shared" si="3"/>
+        <v>44645</v>
+      </c>
+      <c r="Q2" s="25">
+        <f t="shared" si="3"/>
+        <v>44646</v>
+      </c>
+      <c r="R2" s="25">
+        <f t="shared" si="3"/>
+        <v>44647</v>
+      </c>
+      <c r="S2" s="25">
+        <f t="shared" si="3"/>
+        <v>44648</v>
+      </c>
+      <c r="T2" s="25">
+        <f t="shared" si="3"/>
+        <v>44649</v>
+      </c>
+      <c r="U2" s="25">
+        <f t="shared" si="3"/>
+        <v>44650</v>
+      </c>
+      <c r="V2" s="25">
+        <f t="shared" si="3"/>
+        <v>44651</v>
+      </c>
+      <c r="W2" s="25">
+        <f t="shared" si="3"/>
+        <v>44652</v>
+      </c>
+      <c r="X2" s="25">
+        <f t="shared" si="3"/>
+        <v>44653</v>
+      </c>
+      <c r="Y2" s="25">
+        <f t="shared" si="3"/>
+        <v>44654</v>
+      </c>
+      <c r="Z2" s="25">
+        <f t="shared" si="3"/>
+        <v>44655</v>
+      </c>
+      <c r="AA2" s="25">
+        <f t="shared" si="3"/>
+        <v>44656</v>
+      </c>
+      <c r="AB2" s="25">
+        <f t="shared" si="3"/>
+        <v>44657</v>
+      </c>
+      <c r="AC2" s="25">
+        <f t="shared" si="3"/>
+        <v>44658</v>
+      </c>
+      <c r="AD2" s="25">
+        <f t="shared" si="3"/>
+        <v>44659</v>
+      </c>
+      <c r="AE2" s="25">
+        <f t="shared" si="3"/>
+        <v>44660</v>
+      </c>
+      <c r="AF2" s="25">
+        <f t="shared" si="3"/>
+        <v>44661</v>
+      </c>
+      <c r="AG2" s="25">
+        <f t="shared" si="3"/>
+        <v>44662</v>
+      </c>
+      <c r="AH2" s="25">
+        <f t="shared" si="3"/>
+        <v>44663</v>
+      </c>
+      <c r="AI2" s="25">
+        <f t="shared" si="3"/>
+        <v>44664</v>
+      </c>
+      <c r="AJ2" s="25">
+        <f t="shared" si="3"/>
+        <v>44665</v>
+      </c>
+      <c r="AK2" s="25">
+        <f t="shared" si="3"/>
+        <v>44666</v>
+      </c>
+      <c r="AL2" s="25">
+        <f t="shared" si="3"/>
+        <v>44667</v>
+      </c>
+      <c r="AM2" s="25">
+        <f t="shared" si="3"/>
+        <v>44668</v>
+      </c>
+      <c r="AN2" s="25">
+        <f t="shared" si="3"/>
+        <v>44669</v>
+      </c>
+      <c r="AO2" s="25">
+        <f t="shared" si="3"/>
+        <v>44670</v>
+      </c>
+      <c r="AP2" s="25">
+        <f t="shared" si="3"/>
+        <v>44671</v>
+      </c>
+      <c r="AQ2" s="25">
+        <f t="shared" si="3"/>
+        <v>44672</v>
+      </c>
+      <c r="AR2" s="25">
+        <f t="shared" si="3"/>
+        <v>44673</v>
+      </c>
+      <c r="AS2" s="25">
+        <f t="shared" si="3"/>
+        <v>44674</v>
+      </c>
+      <c r="AT2" s="25">
+        <f t="shared" si="3"/>
+        <v>44675</v>
+      </c>
+      <c r="AU2" s="25">
+        <f t="shared" si="3"/>
+        <v>44676</v>
+      </c>
+      <c r="AV2" s="25">
+        <f t="shared" si="3"/>
+        <v>44677</v>
+      </c>
+      <c r="AW2" s="25">
+        <f t="shared" si="3"/>
+        <v>44678</v>
+      </c>
+      <c r="AX2" s="25">
+        <f t="shared" ref="AX2" si="4">AX3</f>
+        <v>44679</v>
+      </c>
+      <c r="AY2" s="25">
+        <f t="shared" ref="AY2" si="5">AY3</f>
+        <v>44680</v>
+      </c>
+      <c r="AZ2" s="25">
+        <f t="shared" ref="AZ2" si="6">AZ3</f>
+        <v>44681</v>
+      </c>
+      <c r="BA2" s="25">
+        <f t="shared" ref="BA2" si="7">BA3</f>
+        <v>44682</v>
+      </c>
+      <c r="BB2" s="25">
+        <f t="shared" ref="BB2" si="8">BB3</f>
+        <v>44683</v>
+      </c>
+      <c r="BC2" s="25">
+        <f t="shared" ref="BC2" si="9">BC3</f>
+        <v>44684</v>
+      </c>
+      <c r="BD2" s="25">
+        <f t="shared" ref="BD2" si="10">BD3</f>
+        <v>44685</v>
+      </c>
+      <c r="BE2" s="25">
+        <f t="shared" ref="BE2" si="11">BE3</f>
+        <v>44686</v>
+      </c>
+      <c r="BF2" s="25">
+        <f t="shared" ref="BF2" si="12">BF3</f>
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="19" thickBot="1">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="31">
+        <v>44636</v>
+      </c>
+      <c r="H3" s="29">
+        <f>G3+1</f>
+        <v>44637</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" ref="I3:AW3" si="13">H3+1</f>
+        <v>44638</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="13"/>
+        <v>44639</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" si="13"/>
+        <v>44640</v>
+      </c>
+      <c r="L3" s="26">
+        <f t="shared" si="13"/>
+        <v>44641</v>
+      </c>
+      <c r="M3" s="26">
+        <f t="shared" si="13"/>
+        <v>44642</v>
+      </c>
+      <c r="N3" s="26">
+        <f t="shared" si="13"/>
+        <v>44643</v>
+      </c>
+      <c r="O3" s="26">
+        <f t="shared" si="13"/>
+        <v>44644</v>
+      </c>
+      <c r="P3" s="26">
+        <f t="shared" si="13"/>
+        <v>44645</v>
+      </c>
+      <c r="Q3" s="26">
+        <f t="shared" si="13"/>
+        <v>44646</v>
+      </c>
+      <c r="R3" s="26">
+        <f t="shared" si="13"/>
+        <v>44647</v>
+      </c>
+      <c r="S3" s="26">
+        <f t="shared" si="13"/>
+        <v>44648</v>
+      </c>
+      <c r="T3" s="26">
+        <f t="shared" si="13"/>
+        <v>44649</v>
+      </c>
+      <c r="U3" s="26">
+        <f t="shared" si="13"/>
+        <v>44650</v>
+      </c>
+      <c r="V3" s="26">
+        <f t="shared" si="13"/>
+        <v>44651</v>
+      </c>
+      <c r="W3" s="26">
+        <f t="shared" si="13"/>
+        <v>44652</v>
+      </c>
+      <c r="X3" s="26">
+        <f t="shared" si="13"/>
+        <v>44653</v>
+      </c>
+      <c r="Y3" s="26">
+        <f t="shared" si="13"/>
+        <v>44654</v>
+      </c>
+      <c r="Z3" s="26">
+        <f t="shared" si="13"/>
+        <v>44655</v>
+      </c>
+      <c r="AA3" s="26">
+        <f t="shared" si="13"/>
+        <v>44656</v>
+      </c>
+      <c r="AB3" s="26">
+        <f t="shared" si="13"/>
+        <v>44657</v>
+      </c>
+      <c r="AC3" s="26">
+        <f t="shared" si="13"/>
+        <v>44658</v>
+      </c>
+      <c r="AD3" s="26">
+        <f t="shared" si="13"/>
+        <v>44659</v>
+      </c>
+      <c r="AE3" s="26">
+        <f t="shared" si="13"/>
+        <v>44660</v>
+      </c>
+      <c r="AF3" s="26">
+        <f t="shared" si="13"/>
+        <v>44661</v>
+      </c>
+      <c r="AG3" s="26">
+        <f t="shared" si="13"/>
+        <v>44662</v>
+      </c>
+      <c r="AH3" s="26">
+        <f t="shared" si="13"/>
+        <v>44663</v>
+      </c>
+      <c r="AI3" s="26">
+        <f t="shared" si="13"/>
+        <v>44664</v>
+      </c>
+      <c r="AJ3" s="26">
+        <f t="shared" si="13"/>
+        <v>44665</v>
+      </c>
+      <c r="AK3" s="26">
+        <f t="shared" si="13"/>
+        <v>44666</v>
+      </c>
+      <c r="AL3" s="26">
+        <f t="shared" si="13"/>
+        <v>44667</v>
+      </c>
+      <c r="AM3" s="26">
+        <f t="shared" si="13"/>
+        <v>44668</v>
+      </c>
+      <c r="AN3" s="26">
+        <f t="shared" si="13"/>
+        <v>44669</v>
+      </c>
+      <c r="AO3" s="26">
+        <f t="shared" si="13"/>
+        <v>44670</v>
+      </c>
+      <c r="AP3" s="26">
+        <f t="shared" si="13"/>
+        <v>44671</v>
+      </c>
+      <c r="AQ3" s="26">
+        <f t="shared" si="13"/>
+        <v>44672</v>
+      </c>
+      <c r="AR3" s="26">
+        <f t="shared" si="13"/>
+        <v>44673</v>
+      </c>
+      <c r="AS3" s="26">
+        <f t="shared" si="13"/>
+        <v>44674</v>
+      </c>
+      <c r="AT3" s="26">
+        <f t="shared" si="13"/>
+        <v>44675</v>
+      </c>
+      <c r="AU3" s="26">
+        <f t="shared" si="13"/>
+        <v>44676</v>
+      </c>
+      <c r="AV3" s="26">
+        <f t="shared" si="13"/>
+        <v>44677</v>
+      </c>
+      <c r="AW3" s="26">
+        <f t="shared" si="13"/>
+        <v>44678</v>
+      </c>
+      <c r="AX3" s="26">
+        <f t="shared" ref="AX3:BA3" si="14">AW3+1</f>
+        <v>44679</v>
+      </c>
+      <c r="AY3" s="26">
+        <f t="shared" si="14"/>
+        <v>44680</v>
+      </c>
+      <c r="AZ3" s="26">
+        <f t="shared" si="14"/>
+        <v>44681</v>
+      </c>
+      <c r="BA3" s="26">
+        <f t="shared" si="14"/>
+        <v>44682</v>
+      </c>
+      <c r="BB3" s="26">
+        <f t="shared" ref="BB3:BF3" si="15">BA3+1</f>
+        <v>44683</v>
+      </c>
+      <c r="BC3" s="26">
+        <f t="shared" si="15"/>
+        <v>44684</v>
+      </c>
+      <c r="BD3" s="26">
+        <f t="shared" si="15"/>
+        <v>44685</v>
+      </c>
+      <c r="BE3" s="26">
+        <f t="shared" si="15"/>
+        <v>44686</v>
+      </c>
+      <c r="BF3" s="26">
+        <f t="shared" si="15"/>
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="A4" s="27"/>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="23">
+        <v>44640</v>
+      </c>
+      <c r="D4" s="23">
+        <v>44640</v>
+      </c>
+      <c r="E4" s="23">
+        <v>44640</v>
+      </c>
+      <c r="F4" s="23">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
+      <c r="A5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:58">
+      <c r="A6" s="27"/>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23">
+        <v>44641</v>
+      </c>
+      <c r="D6" s="23">
+        <v>44641</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:58">
+      <c r="A7" s="27"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:58">
+      <c r="A8" s="27"/>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
+      <c r="A9" s="27"/>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="23">
+        <v>44641</v>
+      </c>
+      <c r="D9" s="23">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
+      <c r="A10" s="27"/>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="23">
+        <v>44641</v>
+      </c>
+      <c r="D10" s="23">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
+      <c r="A11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13" s="27"/>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14" s="27"/>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="23">
+        <v>44638</v>
+      </c>
+      <c r="D14" s="23">
+        <v>44640</v>
+      </c>
+      <c r="E14" s="23">
+        <v>44640</v>
+      </c>
+      <c r="F14" s="23">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15" s="27"/>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
+      <c r="A16" s="27"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="27"/>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="27"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="27"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="27"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G1:BF1">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>YEAR(G1)=YEAR(F1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:BF2">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MONTH(G2)=MONTH(F1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:BF20">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B1048576">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>B4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:BF28">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(G$3&gt;=$C4, G$3&lt;=$D4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:BF3">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>G1 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BF1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR(A1="n/a", A1="-")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($F4&lt;&gt;"", G$3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB8D8E-194C-374A-81A2-B3B243FB6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103431D-AAFA-0A46-B373-D46DD8A49CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28360" windowHeight="16940" activeTab="2" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【FC0_001】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>釣り場マップ作成</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ツリバ </t>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【FC0_002】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,10 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【FC0_003】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ分析</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,10 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bottom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆アプリ概要検討</t>
     <rPh sb="4" eb="6">
       <t xml:space="preserve">ガイヨウ </t>
@@ -369,6 +353,445 @@
     <rPh sb="12" eb="14">
       <t xml:space="preserve">サクセイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑ここよりうえに作成</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キノウメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能説明</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">セツメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現手法</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジツゲｎ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シュホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図表示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図作成</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーレイ表示</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図の保存</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ホゾｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図の共有</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キョウユウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_03】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_02_02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_03】</t>
+  </si>
+  <si>
+    <t>【FC_01_04】</t>
+  </si>
+  <si>
+    <t>【FC_01_05】</t>
+  </si>
+  <si>
+    <t>実装優先度
+(3&gt;2&gt;1)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ユウセンド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用APIなど</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー表示</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別釣行結果</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒベツ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">チョウコウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録(1釣行単位)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">チョウコウ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">タンイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録(1アクション単位)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タンイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣果</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チョウカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り場の地図を表示する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツリバ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒョウジスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleMapなどの埋め込み、厳しければ画像ファイル</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ウメコミ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">キビシケレバ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り場の情報を伝える地図の作成機能。
+RPGゲームのマップのようなに、陸、水、障害物がわかるようなアイコンを配置してマップの作成をする。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツリバ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ツタエル </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">リク </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">ミズ </t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t xml:space="preserve">ショウガイブツ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SVG形式の多種多様なアイコンを事前に用意する
+・アイコンを選択し配置していく
+・配置されたSVGを１つのSVGに変換(T.B.D.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成した地図を実際の地図に重ねて表示可能にする。地図作成時の補助としてではなく、閲覧モードとして実装。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジッサイノ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">カサネテ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="24" eb="29">
+      <t xml:space="preserve">チズサクセイジ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ホジョ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">エツランモード </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図閲覧</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">エツラｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleMapのAPIであれば、SVGのオーバーレイ作成などが可能。不可能な場合、画像を重ねて透明度の選択を可能にするなど、別途検討。</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">フカノウナバアイ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t xml:space="preserve">カサネテ </t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t xml:space="preserve">トウメイド </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t xml:space="preserve">ベットケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React Google Maps Api</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名（大）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キノウメイ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名（中）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キノウメイ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名（小）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キノウメイ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_02_01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_02_03】</t>
+  </si>
+  <si>
+    <t>【FC_02_04】</t>
+  </si>
+  <si>
+    <t>【FC_02_05】</t>
+  </si>
+  <si>
+    <t>【FC_01_01_01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定範囲の地図表示</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">トクテイハンイ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_01_02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_02_01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SVG画像でアイコン作成</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_03_01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_02_02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FC_01_03_02】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -377,11 +800,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="d"/>
-    <numFmt numFmtId="181" formatCode="yyyy"/>
-    <numFmt numFmtId="183" formatCode="mm"/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="yyyy"/>
+    <numFmt numFmtId="178" formatCode="mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,8 +818,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MeiryoUI"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +853,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,53 +1009,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -613,46 +1141,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -674,7 +1217,7 @@
       <fill>
         <patternFill>
           <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -725,231 +1268,13 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
     </dxf>
     <dxf>
@@ -960,302 +1285,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1574,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE64E8C-6EAB-244E-ABE9-249F7AF9AA96}">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1589,226 +1621,226 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" ht="19" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19" customHeight="1">
+      <c r="B10" s="34"/>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19" customHeight="1">
+      <c r="B11" s="34"/>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="36"/>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="37"/>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="19" customHeight="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="36"/>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1832,7 +1864,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B21:B1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1842,933 +1874,1378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="2:11" ht="19">
+      <c r="B4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="76">
+      <c r="B5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="57">
+      <c r="B6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="19">
+      <c r="B7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="19">
+      <c r="B8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19">
+      <c r="B9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19">
+      <c r="B10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19">
+      <c r="B11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="19">
+      <c r="B12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="19">
+      <c r="B13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14, 概要!$C$18:$D$20, 2, FALSE)</f>
+        <v>データ分析</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B4:K1048576">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>COUNTA($B4:$G4)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:G1048576 B12:G13 B10:B13 C10:C14 D11:D13 B4:G10">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>B4=B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:G14">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>B14=B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:G11">
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>B11=B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>D14=D13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1CCEB-B7EE-0145-95D5-14C4BE27F322}">
-  <dimension ref="A1:BF21"/>
+  <dimension ref="A1:BG25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="7" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="59" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="33">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="24">
-        <f>G3</f>
+    <row r="1" spans="1:59" ht="33">
+      <c r="A1" s="11"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="14">
+        <f>H3</f>
         <v>44636</v>
       </c>
-      <c r="H1" s="24">
-        <f>H3</f>
+      <c r="I1" s="14">
+        <f>I3</f>
         <v>44637</v>
       </c>
-      <c r="I1" s="24">
-        <f t="shared" ref="I1:AW1" si="0">I3</f>
+      <c r="J1" s="14">
+        <f t="shared" ref="J1:AX1" si="0">J3</f>
         <v>44638</v>
       </c>
-      <c r="J1" s="24">
+      <c r="K1" s="14">
         <f t="shared" si="0"/>
         <v>44639</v>
       </c>
-      <c r="K1" s="24">
+      <c r="L1" s="14">
         <f t="shared" si="0"/>
         <v>44640</v>
       </c>
-      <c r="L1" s="24">
+      <c r="M1" s="14">
         <f t="shared" si="0"/>
         <v>44641</v>
       </c>
-      <c r="M1" s="24">
+      <c r="N1" s="14">
         <f t="shared" si="0"/>
         <v>44642</v>
       </c>
-      <c r="N1" s="24">
+      <c r="O1" s="14">
         <f t="shared" si="0"/>
         <v>44643</v>
       </c>
-      <c r="O1" s="24">
+      <c r="P1" s="14">
         <f t="shared" si="0"/>
         <v>44644</v>
       </c>
-      <c r="P1" s="24">
+      <c r="Q1" s="14">
         <f t="shared" si="0"/>
         <v>44645</v>
       </c>
-      <c r="Q1" s="24">
+      <c r="R1" s="14">
         <f t="shared" si="0"/>
         <v>44646</v>
       </c>
-      <c r="R1" s="24">
+      <c r="S1" s="14">
         <f t="shared" si="0"/>
         <v>44647</v>
       </c>
-      <c r="S1" s="24">
+      <c r="T1" s="14">
         <f t="shared" si="0"/>
         <v>44648</v>
       </c>
-      <c r="T1" s="24">
+      <c r="U1" s="14">
         <f t="shared" si="0"/>
         <v>44649</v>
       </c>
-      <c r="U1" s="24">
+      <c r="V1" s="14">
         <f t="shared" si="0"/>
         <v>44650</v>
       </c>
-      <c r="V1" s="24">
+      <c r="W1" s="14">
         <f t="shared" si="0"/>
         <v>44651</v>
       </c>
-      <c r="W1" s="24">
+      <c r="X1" s="14">
         <f t="shared" si="0"/>
         <v>44652</v>
       </c>
-      <c r="X1" s="24">
+      <c r="Y1" s="14">
         <f t="shared" si="0"/>
         <v>44653</v>
       </c>
-      <c r="Y1" s="24">
+      <c r="Z1" s="14">
         <f t="shared" si="0"/>
         <v>44654</v>
       </c>
-      <c r="Z1" s="24">
+      <c r="AA1" s="14">
         <f t="shared" si="0"/>
         <v>44655</v>
       </c>
-      <c r="AA1" s="24">
+      <c r="AB1" s="14">
         <f t="shared" si="0"/>
         <v>44656</v>
       </c>
-      <c r="AB1" s="24">
+      <c r="AC1" s="14">
         <f t="shared" si="0"/>
         <v>44657</v>
       </c>
-      <c r="AC1" s="24">
+      <c r="AD1" s="14">
         <f t="shared" si="0"/>
         <v>44658</v>
       </c>
-      <c r="AD1" s="24">
+      <c r="AE1" s="14">
         <f t="shared" si="0"/>
         <v>44659</v>
       </c>
-      <c r="AE1" s="24">
+      <c r="AF1" s="14">
         <f t="shared" si="0"/>
         <v>44660</v>
       </c>
-      <c r="AF1" s="24">
+      <c r="AG1" s="14">
         <f t="shared" si="0"/>
         <v>44661</v>
       </c>
-      <c r="AG1" s="24">
+      <c r="AH1" s="14">
         <f t="shared" si="0"/>
         <v>44662</v>
       </c>
-      <c r="AH1" s="24">
+      <c r="AI1" s="14">
         <f t="shared" si="0"/>
         <v>44663</v>
       </c>
-      <c r="AI1" s="24">
+      <c r="AJ1" s="14">
         <f t="shared" si="0"/>
         <v>44664</v>
       </c>
-      <c r="AJ1" s="24">
+      <c r="AK1" s="14">
         <f t="shared" si="0"/>
         <v>44665</v>
       </c>
-      <c r="AK1" s="24">
+      <c r="AL1" s="14">
         <f t="shared" si="0"/>
         <v>44666</v>
       </c>
-      <c r="AL1" s="24">
+      <c r="AM1" s="14">
         <f t="shared" si="0"/>
         <v>44667</v>
       </c>
-      <c r="AM1" s="24">
+      <c r="AN1" s="14">
         <f t="shared" si="0"/>
         <v>44668</v>
       </c>
-      <c r="AN1" s="24">
+      <c r="AO1" s="14">
         <f t="shared" si="0"/>
         <v>44669</v>
       </c>
-      <c r="AO1" s="24">
+      <c r="AP1" s="14">
         <f t="shared" si="0"/>
         <v>44670</v>
       </c>
-      <c r="AP1" s="24">
+      <c r="AQ1" s="14">
         <f t="shared" si="0"/>
         <v>44671</v>
       </c>
-      <c r="AQ1" s="24">
+      <c r="AR1" s="14">
         <f t="shared" si="0"/>
         <v>44672</v>
       </c>
-      <c r="AR1" s="24">
+      <c r="AS1" s="14">
         <f t="shared" si="0"/>
         <v>44673</v>
       </c>
-      <c r="AS1" s="24">
+      <c r="AT1" s="14">
         <f t="shared" si="0"/>
         <v>44674</v>
       </c>
-      <c r="AT1" s="24">
+      <c r="AU1" s="14">
         <f t="shared" si="0"/>
         <v>44675</v>
       </c>
-      <c r="AU1" s="24">
+      <c r="AV1" s="14">
         <f t="shared" si="0"/>
         <v>44676</v>
       </c>
-      <c r="AV1" s="24">
+      <c r="AW1" s="14">
         <f t="shared" si="0"/>
         <v>44677</v>
       </c>
-      <c r="AW1" s="24">
+      <c r="AX1" s="14">
         <f t="shared" si="0"/>
         <v>44678</v>
       </c>
-      <c r="AX1" s="24">
-        <f t="shared" ref="AX1:BA1" si="1">AX3</f>
+      <c r="AY1" s="14">
+        <f t="shared" ref="AY1:BB1" si="1">AY3</f>
         <v>44679</v>
       </c>
-      <c r="AY1" s="24">
+      <c r="AZ1" s="14">
         <f t="shared" si="1"/>
         <v>44680</v>
       </c>
-      <c r="AZ1" s="24">
+      <c r="BA1" s="14">
         <f t="shared" si="1"/>
         <v>44681</v>
       </c>
-      <c r="BA1" s="24">
+      <c r="BB1" s="14">
         <f t="shared" si="1"/>
         <v>44682</v>
       </c>
-      <c r="BB1" s="24">
-        <f t="shared" ref="BB1:BF1" si="2">BB3</f>
+      <c r="BC1" s="14">
+        <f t="shared" ref="BC1:BG1" si="2">BC3</f>
         <v>44683</v>
       </c>
-      <c r="BC1" s="24">
+      <c r="BD1" s="14">
         <f t="shared" si="2"/>
         <v>44684</v>
       </c>
-      <c r="BD1" s="24">
+      <c r="BE1" s="14">
         <f t="shared" si="2"/>
         <v>44685</v>
       </c>
-      <c r="BE1" s="24">
+      <c r="BF1" s="14">
         <f t="shared" si="2"/>
         <v>44686</v>
       </c>
-      <c r="BF1" s="24">
+      <c r="BG1" s="14">
         <f t="shared" si="2"/>
         <v>44687</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="19" thickBot="1">
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="30">
-        <f>G3</f>
+    <row r="2" spans="1:59" ht="19" thickBot="1">
+      <c r="B2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="19">
+        <f>H3</f>
         <v>44636</v>
       </c>
-      <c r="H2" s="25">
-        <f>H3</f>
+      <c r="I2" s="15">
+        <f>I3</f>
         <v>44637</v>
       </c>
-      <c r="I2" s="25">
-        <f t="shared" ref="I2:AW2" si="3">I3</f>
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:AX2" si="3">J3</f>
         <v>44638</v>
       </c>
-      <c r="J2" s="25">
+      <c r="K2" s="15">
         <f t="shared" si="3"/>
         <v>44639</v>
       </c>
-      <c r="K2" s="25">
+      <c r="L2" s="15">
         <f t="shared" si="3"/>
         <v>44640</v>
       </c>
-      <c r="L2" s="25">
+      <c r="M2" s="15">
         <f t="shared" si="3"/>
         <v>44641</v>
       </c>
-      <c r="M2" s="25">
+      <c r="N2" s="15">
         <f t="shared" si="3"/>
         <v>44642</v>
       </c>
-      <c r="N2" s="25">
+      <c r="O2" s="15">
         <f t="shared" si="3"/>
         <v>44643</v>
       </c>
-      <c r="O2" s="25">
+      <c r="P2" s="15">
         <f t="shared" si="3"/>
         <v>44644</v>
       </c>
-      <c r="P2" s="25">
+      <c r="Q2" s="15">
         <f t="shared" si="3"/>
         <v>44645</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="15">
         <f t="shared" si="3"/>
         <v>44646</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="15">
         <f t="shared" si="3"/>
         <v>44647</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="15">
         <f t="shared" si="3"/>
         <v>44648</v>
       </c>
-      <c r="T2" s="25">
+      <c r="U2" s="15">
         <f t="shared" si="3"/>
         <v>44649</v>
       </c>
-      <c r="U2" s="25">
+      <c r="V2" s="15">
         <f t="shared" si="3"/>
         <v>44650</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="15">
         <f t="shared" si="3"/>
         <v>44651</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="15">
         <f t="shared" si="3"/>
         <v>44652</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Y2" s="15">
         <f t="shared" si="3"/>
         <v>44653</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Z2" s="15">
         <f t="shared" si="3"/>
         <v>44654</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="AA2" s="15">
         <f t="shared" si="3"/>
         <v>44655</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AB2" s="15">
         <f t="shared" si="3"/>
         <v>44656</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AC2" s="15">
         <f t="shared" si="3"/>
         <v>44657</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AD2" s="15">
         <f t="shared" si="3"/>
         <v>44658</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AE2" s="15">
         <f t="shared" si="3"/>
         <v>44659</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AF2" s="15">
         <f t="shared" si="3"/>
         <v>44660</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AG2" s="15">
         <f t="shared" si="3"/>
         <v>44661</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AH2" s="15">
         <f t="shared" si="3"/>
         <v>44662</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AI2" s="15">
         <f t="shared" si="3"/>
         <v>44663</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AJ2" s="15">
         <f t="shared" si="3"/>
         <v>44664</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AK2" s="15">
         <f t="shared" si="3"/>
         <v>44665</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AL2" s="15">
         <f t="shared" si="3"/>
         <v>44666</v>
       </c>
-      <c r="AL2" s="25">
+      <c r="AM2" s="15">
         <f t="shared" si="3"/>
         <v>44667</v>
       </c>
-      <c r="AM2" s="25">
+      <c r="AN2" s="15">
         <f t="shared" si="3"/>
         <v>44668</v>
       </c>
-      <c r="AN2" s="25">
+      <c r="AO2" s="15">
         <f t="shared" si="3"/>
         <v>44669</v>
       </c>
-      <c r="AO2" s="25">
+      <c r="AP2" s="15">
         <f t="shared" si="3"/>
         <v>44670</v>
       </c>
-      <c r="AP2" s="25">
+      <c r="AQ2" s="15">
         <f t="shared" si="3"/>
         <v>44671</v>
       </c>
-      <c r="AQ2" s="25">
+      <c r="AR2" s="15">
         <f t="shared" si="3"/>
         <v>44672</v>
       </c>
-      <c r="AR2" s="25">
+      <c r="AS2" s="15">
         <f t="shared" si="3"/>
         <v>44673</v>
       </c>
-      <c r="AS2" s="25">
+      <c r="AT2" s="15">
         <f t="shared" si="3"/>
         <v>44674</v>
       </c>
-      <c r="AT2" s="25">
+      <c r="AU2" s="15">
         <f t="shared" si="3"/>
         <v>44675</v>
       </c>
-      <c r="AU2" s="25">
+      <c r="AV2" s="15">
         <f t="shared" si="3"/>
         <v>44676</v>
       </c>
-      <c r="AV2" s="25">
+      <c r="AW2" s="15">
         <f t="shared" si="3"/>
         <v>44677</v>
       </c>
-      <c r="AW2" s="25">
+      <c r="AX2" s="15">
         <f t="shared" si="3"/>
         <v>44678</v>
       </c>
-      <c r="AX2" s="25">
-        <f t="shared" ref="AX2" si="4">AX3</f>
+      <c r="AY2" s="15">
+        <f t="shared" ref="AY2" si="4">AY3</f>
         <v>44679</v>
       </c>
-      <c r="AY2" s="25">
-        <f t="shared" ref="AY2" si="5">AY3</f>
+      <c r="AZ2" s="15">
+        <f t="shared" ref="AZ2" si="5">AZ3</f>
         <v>44680</v>
       </c>
-      <c r="AZ2" s="25">
-        <f t="shared" ref="AZ2" si="6">AZ3</f>
+      <c r="BA2" s="15">
+        <f t="shared" ref="BA2" si="6">BA3</f>
         <v>44681</v>
       </c>
-      <c r="BA2" s="25">
-        <f t="shared" ref="BA2" si="7">BA3</f>
+      <c r="BB2" s="15">
+        <f t="shared" ref="BB2" si="7">BB3</f>
         <v>44682</v>
       </c>
-      <c r="BB2" s="25">
-        <f t="shared" ref="BB2" si="8">BB3</f>
+      <c r="BC2" s="15">
+        <f t="shared" ref="BC2" si="8">BC3</f>
         <v>44683</v>
       </c>
-      <c r="BC2" s="25">
-        <f t="shared" ref="BC2" si="9">BC3</f>
+      <c r="BD2" s="15">
+        <f t="shared" ref="BD2" si="9">BD3</f>
         <v>44684</v>
       </c>
-      <c r="BD2" s="25">
-        <f t="shared" ref="BD2" si="10">BD3</f>
+      <c r="BE2" s="15">
+        <f t="shared" ref="BE2" si="10">BE3</f>
         <v>44685</v>
       </c>
-      <c r="BE2" s="25">
-        <f t="shared" ref="BE2" si="11">BE3</f>
+      <c r="BF2" s="15">
+        <f t="shared" ref="BF2" si="11">BF3</f>
         <v>44686</v>
       </c>
-      <c r="BF2" s="25">
-        <f t="shared" ref="BF2" si="12">BF3</f>
+      <c r="BG2" s="15">
+        <f t="shared" ref="BG2" si="12">BG3</f>
         <v>44687</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="19" thickBot="1">
+    <row r="3" spans="1:59" ht="19" thickBot="1">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="31">
+        <v>39</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="20">
         <v>44636</v>
       </c>
-      <c r="H3" s="29">
-        <f>G3+1</f>
+      <c r="I3" s="18">
+        <f>H3+1</f>
         <v>44637</v>
       </c>
-      <c r="I3" s="26">
-        <f t="shared" ref="I3:AW3" si="13">H3+1</f>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:AX3" si="13">I3+1</f>
         <v>44638</v>
       </c>
-      <c r="J3" s="26">
+      <c r="K3" s="16">
         <f t="shared" si="13"/>
         <v>44639</v>
       </c>
-      <c r="K3" s="26">
+      <c r="L3" s="16">
         <f t="shared" si="13"/>
         <v>44640</v>
       </c>
-      <c r="L3" s="26">
+      <c r="M3" s="16">
         <f t="shared" si="13"/>
         <v>44641</v>
       </c>
-      <c r="M3" s="26">
+      <c r="N3" s="16">
         <f t="shared" si="13"/>
         <v>44642</v>
       </c>
-      <c r="N3" s="26">
+      <c r="O3" s="16">
         <f t="shared" si="13"/>
         <v>44643</v>
       </c>
-      <c r="O3" s="26">
+      <c r="P3" s="16">
         <f t="shared" si="13"/>
         <v>44644</v>
       </c>
-      <c r="P3" s="26">
+      <c r="Q3" s="16">
         <f t="shared" si="13"/>
         <v>44645</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="R3" s="16">
         <f t="shared" si="13"/>
         <v>44646</v>
       </c>
-      <c r="R3" s="26">
+      <c r="S3" s="16">
         <f t="shared" si="13"/>
         <v>44647</v>
       </c>
-      <c r="S3" s="26">
+      <c r="T3" s="16">
         <f t="shared" si="13"/>
         <v>44648</v>
       </c>
-      <c r="T3" s="26">
+      <c r="U3" s="16">
         <f t="shared" si="13"/>
         <v>44649</v>
       </c>
-      <c r="U3" s="26">
+      <c r="V3" s="16">
         <f t="shared" si="13"/>
         <v>44650</v>
       </c>
-      <c r="V3" s="26">
+      <c r="W3" s="16">
         <f t="shared" si="13"/>
         <v>44651</v>
       </c>
-      <c r="W3" s="26">
+      <c r="X3" s="16">
         <f t="shared" si="13"/>
         <v>44652</v>
       </c>
-      <c r="X3" s="26">
+      <c r="Y3" s="16">
         <f t="shared" si="13"/>
         <v>44653</v>
       </c>
-      <c r="Y3" s="26">
+      <c r="Z3" s="16">
         <f t="shared" si="13"/>
         <v>44654</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="AA3" s="16">
         <f t="shared" si="13"/>
         <v>44655</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AB3" s="16">
         <f t="shared" si="13"/>
         <v>44656</v>
       </c>
-      <c r="AB3" s="26">
+      <c r="AC3" s="16">
         <f t="shared" si="13"/>
         <v>44657</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AD3" s="16">
         <f t="shared" si="13"/>
         <v>44658</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AE3" s="16">
         <f t="shared" si="13"/>
         <v>44659</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AF3" s="16">
         <f t="shared" si="13"/>
         <v>44660</v>
       </c>
-      <c r="AF3" s="26">
+      <c r="AG3" s="16">
         <f t="shared" si="13"/>
         <v>44661</v>
       </c>
-      <c r="AG3" s="26">
+      <c r="AH3" s="16">
         <f t="shared" si="13"/>
         <v>44662</v>
       </c>
-      <c r="AH3" s="26">
+      <c r="AI3" s="16">
         <f t="shared" si="13"/>
         <v>44663</v>
       </c>
-      <c r="AI3" s="26">
+      <c r="AJ3" s="16">
         <f t="shared" si="13"/>
         <v>44664</v>
       </c>
-      <c r="AJ3" s="26">
+      <c r="AK3" s="16">
         <f t="shared" si="13"/>
         <v>44665</v>
       </c>
-      <c r="AK3" s="26">
+      <c r="AL3" s="16">
         <f t="shared" si="13"/>
         <v>44666</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AM3" s="16">
         <f t="shared" si="13"/>
         <v>44667</v>
       </c>
-      <c r="AM3" s="26">
+      <c r="AN3" s="16">
         <f t="shared" si="13"/>
         <v>44668</v>
       </c>
-      <c r="AN3" s="26">
+      <c r="AO3" s="16">
         <f t="shared" si="13"/>
         <v>44669</v>
       </c>
-      <c r="AO3" s="26">
+      <c r="AP3" s="16">
         <f t="shared" si="13"/>
         <v>44670</v>
       </c>
-      <c r="AP3" s="26">
+      <c r="AQ3" s="16">
         <f t="shared" si="13"/>
         <v>44671</v>
       </c>
-      <c r="AQ3" s="26">
+      <c r="AR3" s="16">
         <f t="shared" si="13"/>
         <v>44672</v>
       </c>
-      <c r="AR3" s="26">
+      <c r="AS3" s="16">
         <f t="shared" si="13"/>
         <v>44673</v>
       </c>
-      <c r="AS3" s="26">
+      <c r="AT3" s="16">
         <f t="shared" si="13"/>
         <v>44674</v>
       </c>
-      <c r="AT3" s="26">
+      <c r="AU3" s="16">
         <f t="shared" si="13"/>
         <v>44675</v>
       </c>
-      <c r="AU3" s="26">
+      <c r="AV3" s="16">
         <f t="shared" si="13"/>
         <v>44676</v>
       </c>
-      <c r="AV3" s="26">
+      <c r="AW3" s="16">
         <f t="shared" si="13"/>
         <v>44677</v>
       </c>
-      <c r="AW3" s="26">
+      <c r="AX3" s="16">
         <f t="shared" si="13"/>
         <v>44678</v>
       </c>
-      <c r="AX3" s="26">
-        <f t="shared" ref="AX3:BA3" si="14">AW3+1</f>
+      <c r="AY3" s="16">
+        <f t="shared" ref="AY3:BB3" si="14">AX3+1</f>
         <v>44679</v>
       </c>
-      <c r="AY3" s="26">
+      <c r="AZ3" s="16">
         <f t="shared" si="14"/>
         <v>44680</v>
       </c>
-      <c r="AZ3" s="26">
+      <c r="BA3" s="16">
         <f t="shared" si="14"/>
         <v>44681</v>
       </c>
-      <c r="BA3" s="26">
+      <c r="BB3" s="16">
         <f t="shared" si="14"/>
         <v>44682</v>
       </c>
-      <c r="BB3" s="26">
-        <f t="shared" ref="BB3:BF3" si="15">BA3+1</f>
+      <c r="BC3" s="16">
+        <f t="shared" ref="BC3:BG3" si="15">BB3+1</f>
         <v>44683</v>
       </c>
-      <c r="BC3" s="26">
+      <c r="BD3" s="16">
         <f t="shared" si="15"/>
         <v>44684</v>
       </c>
-      <c r="BD3" s="26">
+      <c r="BE3" s="16">
         <f t="shared" si="15"/>
         <v>44685</v>
       </c>
-      <c r="BE3" s="26">
+      <c r="BF3" s="16">
         <f t="shared" si="15"/>
         <v>44686</v>
       </c>
-      <c r="BF3" s="26">
+      <c r="BG3" s="16">
         <f t="shared" si="15"/>
         <v>44687</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:59">
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="13">
+        <v>44640</v>
+      </c>
+      <c r="E4" s="13">
+        <v>44640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>44640</v>
+      </c>
+      <c r="G4" s="13">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="A5" s="17"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:59">
+      <c r="A6" s="17"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13">
+        <v>44641</v>
+      </c>
+      <c r="E6" s="13">
+        <v>44641</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:59">
+      <c r="A7" s="17"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="A8" s="17"/>
+      <c r="B8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
+      <c r="A9" s="17"/>
+      <c r="B9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="13">
+        <v>44641</v>
+      </c>
+      <c r="E9" s="13">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="A10" s="17"/>
+      <c r="B10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="23">
+      <c r="D10" s="13">
+        <v>44641</v>
+      </c>
+      <c r="E10" s="13">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
+      <c r="A11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:59">
+      <c r="A13" s="17"/>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
+      <c r="A14" s="17"/>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="13">
+        <v>44638</v>
+      </c>
+      <c r="E14" s="13">
         <v>44640</v>
       </c>
-      <c r="D4" s="23">
+      <c r="F14" s="13">
         <v>44640</v>
       </c>
-      <c r="E4" s="23">
+      <c r="G14" s="13">
         <v>44640</v>
       </c>
-      <c r="F4" s="23">
+    </row>
+    <row r="15" spans="1:59">
+      <c r="A15" s="17"/>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="13">
+        <v>44638</v>
+      </c>
+      <c r="E15" s="13">
         <v>44640</v>
       </c>
-    </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="27"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="27"/>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="23">
-        <v>44641</v>
-      </c>
-      <c r="D6" s="23">
-        <v>44641</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:58">
-      <c r="A7" s="27"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:58">
-      <c r="A8" s="27"/>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
-      <c r="A9" s="27"/>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="23">
-        <v>44641</v>
-      </c>
-      <c r="D9" s="23">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58">
-      <c r="A10" s="27"/>
-      <c r="B10" t="s">
+      <c r="F15" s="13">
+        <v>44640</v>
+      </c>
+      <c r="G15" s="13">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17"/>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="23">
-        <v>44641</v>
-      </c>
-      <c r="D10" s="23">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58">
-      <c r="A11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
-      <c r="A12" s="27"/>
-    </row>
-    <row r="13" spans="1:58">
-      <c r="A13" s="27"/>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
-      <c r="A14" s="27"/>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="23">
-        <v>44638</v>
-      </c>
-      <c r="D14" s="23">
-        <v>44640</v>
-      </c>
-      <c r="E14" s="23">
-        <v>44640</v>
-      </c>
-      <c r="F14" s="23">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
-      <c r="A15" s="27"/>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58">
-      <c r="A16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="27"/>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17"/>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>特定範囲の地図表示</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17"/>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="e">
+        <f>VLOOKUP(B19,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17"/>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>SVG画像でアイコン作成</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17"/>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="e">
+        <f>VLOOKUP(B21,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17"/>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(B22,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>オーバーレイ表示</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="e">
+        <f>VLOOKUP(B23,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="27"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="27"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="27"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G1:BF1">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>YEAR(G1)=YEAR(F1)</formula>
+  <conditionalFormatting sqref="H1:BG1">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:BF2">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MONTH(G2)=MONTH(F1)</formula>
+  <conditionalFormatting sqref="H2:BG2">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:BF20">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="B4:BG24">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>B4&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B4:C1048576">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:BF28">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(G$3&gt;=$C4, G$3&lt;=$D4)</formula>
+  <conditionalFormatting sqref="H4:BG32">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:BF3">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>G1 = TODAY()</formula>
+  <conditionalFormatting sqref="H1:BG3">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BF1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($F4&lt;&gt;"", G$3&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="H4:XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103431D-AAFA-0A46-B373-D46DD8A49CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76581D42-C531-2648-85F1-A73BC8CAE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -287,19 +287,6 @@
     <t>・機能一覧</t>
     <rPh sb="1" eb="5">
       <t xml:space="preserve">キノウイチラｎ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・実現手法検討</t>
-    <rPh sb="0" eb="1">
-      <t>・</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t xml:space="preserve">ジツゲンシュホウ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ケントウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -792,6 +779,33 @@
   </si>
   <si>
     <t>【FC_01_03_02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実現手法検討
+（着手しつつ検討）</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">ジツゲンシュホウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">チャクシュ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GoogleMapPlatform API key取得</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1118,6 +1132,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1146,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,44 +1169,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1281,6 +1272,29 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1754,7 +1768,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>14</v>
@@ -1763,7 +1777,7 @@
     <row r="19" spans="2:4">
       <c r="B19" s="37"/>
       <c r="C19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>18</v>
@@ -1772,7 +1786,7 @@
     <row r="20" spans="2:4">
       <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>20</v>
@@ -1876,11 +1890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="1"/>
@@ -1899,161 +1913,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="2:11" ht="19">
       <c r="B4" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>73</v>
-      </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="76">
       <c r="B5" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
         <v>90</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="57">
       <c r="B6" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19">
       <c r="B7" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -2061,17 +2075,17 @@
     </row>
     <row r="8" spans="2:11" ht="19">
       <c r="B8" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -2079,20 +2093,20 @@
     </row>
     <row r="9" spans="2:11" ht="19">
       <c r="B9" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
         <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2100,20 +2114,20 @@
     </row>
     <row r="10" spans="2:11" ht="19">
       <c r="B10" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2121,17 +2135,17 @@
     </row>
     <row r="11" spans="2:11" ht="19">
       <c r="B11" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2139,17 +2153,17 @@
     </row>
     <row r="12" spans="2:11" ht="19">
       <c r="B12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2157,17 +2171,17 @@
     </row>
     <row r="13" spans="2:11" ht="19">
       <c r="B13" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13, 概要!$C$18:$D$20, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2175,7 +2189,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14, 概要!$C$18:$D$20, 2, FALSE)</f>
@@ -2197,27 +2211,27 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B4:K1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>COUNTA($B4:$G4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:G1048576 B12:G13 B10:B13 C10:C14 D11:D13 B4:G10">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>B4=B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:G14">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>B14=B9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:G11">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>B11=B9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>D14=D13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2227,31 +2241,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1CCEB-B7EE-0145-95D5-14C4BE27F322}">
-  <dimension ref="A1:BG25"/>
+  <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="8" max="59" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -2462,18 +2476,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -2685,13 +2699,13 @@
     </row>
     <row r="3" spans="1:59" ht="19" thickBot="1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>23</v>
@@ -2955,8 +2969,12 @@
       <c r="E6" s="13">
         <v>44641</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13">
+        <v>44641</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44641</v>
+      </c>
     </row>
     <row r="7" spans="1:59">
       <c r="A7" s="17"/>
@@ -2986,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" outlineLevel="1">
       <c r="A9" s="17"/>
       <c r="B9" s="25" t="s">
         <v>15</v>
@@ -3000,31 +3018,40 @@
       <c r="E9" s="13">
         <v>44641</v>
       </c>
-    </row>
-    <row r="10" spans="1:59">
+      <c r="F9" s="13">
+        <v>44641</v>
+      </c>
+      <c r="G9" s="13">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" ht="38" outlineLevel="1">
       <c r="A10" s="17"/>
       <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="C10" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="13">
         <v>44641</v>
       </c>
       <c r="E10" s="13">
+        <v>44651</v>
+      </c>
+      <c r="F10" s="13">
         <v>44641</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" outlineLevel="1">
       <c r="A11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>15</v>
@@ -3048,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -3063,13 +3090,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" outlineLevel="1">
       <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="13">
         <v>44638</v>
@@ -3084,13 +3111,13 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" outlineLevel="1">
       <c r="A15" s="17"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="13">
         <v>44638</v>
@@ -3105,68 +3132,79 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" outlineLevel="1">
       <c r="A16" s="17"/>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="13">
+        <v>44644</v>
+      </c>
+      <c r="E16" s="13">
+        <v>44644</v>
+      </c>
+      <c r="F16" s="13">
+        <v>44644</v>
+      </c>
+      <c r="G16" s="13">
+        <v>44644</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(B18,機能詳細!$F$3:$G$80, 2, FALSE)</f>
-        <v>特定範囲の地図表示</v>
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="e">
+        <v>86</v>
+      </c>
+      <c r="C19" t="str">
         <f>VLOOKUP(B19,機能詳細!$F$3:$G$80, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>特定範囲の地図表示</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17"/>
       <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="str">
+        <v>88</v>
+      </c>
+      <c r="C20" t="e">
         <f>VLOOKUP(B20,機能詳細!$F$3:$G$80, 2, FALSE)</f>
-        <v>SVG画像でアイコン作成</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" t="e">
+        <v>89</v>
+      </c>
+      <c r="C21" t="str">
         <f>VLOOKUP(B21,機能詳細!$F$3:$G$80, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>SVG画像でアイコン作成</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3174,27 +3212,37 @@
       <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" t="e">
         <f>VLOOKUP(B22,機能詳細!$F$3:$G$80, 2, FALSE)</f>
-        <v>オーバーレイ表示</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="e">
+        <v>91</v>
+      </c>
+      <c r="C23" t="str">
         <f>VLOOKUP(B23,機能詳細!$F$3:$G$80, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>オーバーレイ表示</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17"/>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="e">
+        <f>VLOOKUP(B24,機能詳細!$F$3:$G$80, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>44</v>
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3206,45 +3254,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:BG24">
-    <cfRule type="expression" dxfId="8" priority="7">
+  <conditionalFormatting sqref="B4:BG25">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BG32">
-    <cfRule type="expression" dxfId="6" priority="5">
+  <conditionalFormatting sqref="H4:BG33">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73165EE1-D45E-5E48-81F9-CA59EB632E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FF8E0-3ADE-9144-AB09-D2216A5AD116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="-29260" yWindow="2240" windowWidth="10620" windowHeight="13080" firstSheet="4" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -8605,8 +8605,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2735203" y="1401233"/>
-          <a:ext cx="4041658" cy="7738369"/>
+          <a:off x="2754810" y="1329935"/>
+          <a:ext cx="4090675" cy="7267801"/>
           <a:chOff x="2857500" y="486833"/>
           <a:chExt cx="4724400" cy="8356600"/>
         </a:xfrm>
@@ -12463,8 +12463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FF8E0-3ADE-9144-AB09-D2216A5AD116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12703197-529C-D841-8A2C-4860C9289994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29260" yWindow="2240" windowWidth="10620" windowHeight="13080" firstSheet="4" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -369,29 +369,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実現手法</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジツゲｎ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">シュホウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地図表示</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">チズ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地図作成</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">チズ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">サクセイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,79 +453,6 @@
     <rPh sb="9" eb="11">
       <t xml:space="preserve">タンイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>釣り場の地図を表示する</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツリバ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">チズ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ヒョウジスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GoogleMapなどの埋め込み、厳しければ画像ファイル</t>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">ウメコミ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">キビシケレバ </t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>釣り場の情報を伝える地図の作成機能。
-RPGゲームのマップのようなに、陸、水、障害物がわかるようなアイコンを配置してマップの作成をする。</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツリバ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">ツタエル </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">チズ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">サクセイ </t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t xml:space="preserve">リク </t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t xml:space="preserve">ミズ </t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t xml:space="preserve">ショウガイブツ </t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t xml:space="preserve">ハイチ </t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t xml:space="preserve">サクセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・SVG形式の多種多様なアイコンを事前に用意する
-・アイコンを選択し配置していく
-・配置されたSVGを１つのSVGに変換(T.B.D.)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -678,39 +585,6 @@
     <t>・GoogleMapPlatform API key取得</t>
     <rPh sb="26" eb="28">
       <t xml:space="preserve">シュトク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SVG画像の選択</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">センタク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SVG画像の配置</t>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ハイチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SVG画像の連結</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">レンケツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -801,23 +675,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SVG画像の表示</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SVG画像の表示</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能名（モジュールレベル）</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">キノウメイ </t>
@@ -839,35 +696,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>地図に重ねてSVG画像を表示する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">チズニ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">カサネテ </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配置したSVGを１つのSVG画像に連結</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ハイチ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">レンケツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SVG画像と、画像を地図のどこにマッピングするかのメタデータを記録する。</t>
     <rPh sb="0" eb="2">
       <t>SVG</t>
@@ -888,16 +716,6 @@
   </si>
   <si>
     <t>T.B.D.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>多角形描画</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">タカッケイ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ビョウガ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -995,6 +813,247 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの一覧表示(SVG)</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン単体表示(SVG)</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">タンタイ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの選択</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現手法（想定）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジツゲｎ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シュホウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ソウテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現手法（実施内容）</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ジツゲンシュホウ </t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t xml:space="preserve">ジッシナイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン選択</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリゴン系描画機能</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ケイ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ビョウガ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン配置</t>
+    <rPh sb="0" eb="2">
+      <t>アイコン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッド表示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">グリッドヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン表示</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン配置</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図形描画</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ズケイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ビョウガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GoogleMapのAPIで地図を表示。</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">チズヲ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・釣り場の地図を表示する</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ツリバ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヒョウジスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・React-native-svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイコン（SVG画像）のレンダリング
+・画像サイズが指定できると尚良し</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ナオヨシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイコンを等間隔に一覧表示するレンダリング機能
+・アイコンが多い場合はスクロールして表示可能</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">トウカンカク </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">オオイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t xml:space="preserve">ヒョウジカノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・View で領域を区分けして、その中でSVGを順番にレンダリングする。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">リョウイキヲ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">クワケ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ジュンバｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タップしたアイコンの情報を取得</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ジョウホウヲ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイコン配置のためのグリッド線表示</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ハイチノタメノ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">セン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GoogleMap上にSVG画像を重ねてレンダリング</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ジョウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">カサネテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・&lt;Overlay /&gt;関数でレンダリング
+・SVGは直接サポートしてないので, react-native-svgを使用する。</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">シヨウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1203,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,11 +1356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1321,20 +1377,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1360,11 +1410,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1446,44 +1551,6 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
     </dxf>
     <dxf>
@@ -10309,7 +10376,7 @@
   <dimension ref="B1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -10377,29 +10444,29 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -10427,7 +10494,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -10438,7 +10505,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -10448,51 +10515,51 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="36"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -10506,60 +10573,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -10572,10 +10634,15 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10585,58 +10652,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10.85546875" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18" customWidth="1" outlineLevel="2"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" style="30" customWidth="1"/>
-    <col min="12" max="12" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="5.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39" style="30" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="38" customHeight="1">
-      <c r="C2" s="41" t="s">
-        <v>97</v>
+    <row r="2" spans="2:14" ht="38" customHeight="1">
+      <c r="C2" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="43" t="s">
-        <v>98</v>
+      <c r="F2" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="45"/>
+      <c r="I2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="42"/>
       <c r="K2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>51</v>
+      <c r="L2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C3" s="28" t="s">
         <v>43</v>
       </c>
@@ -10658,15 +10729,16 @@
         <v>42</v>
       </c>
       <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="2:13" ht="35" customHeight="1">
+    <row r="4" spans="2:14" ht="35" customHeight="1" collapsed="1">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(C4, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10680,7 +10752,7 @@
         <v>[FC_01_01]</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -10690,25 +10762,25 @@
         <v>[FC_01_01_01]</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="5" spans="2:13" ht="35" customHeight="1">
+    <row r="5" spans="2:14" ht="35" customHeight="1">
       <c r="B5">
         <f>IF(C5=C4, B4, B4+1)</f>
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(C5, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10719,44 +10791,44 @@
         <v>2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F19" si="0">"[FC_"&amp;TEXT(B5,"00")&amp;"_"&amp;TEXT(E5,"00")&amp;"]"</f>
+        <f t="shared" ref="F5:F20" si="0">"[FC_"&amp;TEXT(B5,"00")&amp;"_"&amp;TEXT(E5,"00")&amp;"]"</f>
         <v>[FC_01_02]</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <f>IF(G5=G4, H4+1, 1)</f>
         <v>1</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I19" si="1">"[FC_"&amp;TEXT(B5,"00")&amp;"_"&amp;TEXT(E5,"00")&amp;"_"&amp;TEXT(H5,"00"&amp;"]")</f>
+        <f t="shared" ref="I5:I6" si="1">"[FC_"&amp;TEXT(B5,"00")&amp;"_"&amp;TEXT(E5,"00")&amp;"_"&amp;TEXT(H5,"00"&amp;"]")</f>
         <v>[FC_01_02_01]</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="35" customHeight="1">
+    <row r="6" spans="2:14" ht="35" customHeight="1">
       <c r="B6">
-        <f t="shared" ref="B6:B19" si="2">IF(C6=C5, B5, B5+1)</f>
+        <f t="shared" ref="B6:B20" si="2">IF(C6=C5, B5, B5+1)</f>
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(C6, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E19" si="3">IF(G6=G5, E5, E5+1)</f>
+        <f t="shared" ref="E6:E20" si="3">IF(G6=G5, E5, E5+1)</f>
         <v>2</v>
       </c>
       <c r="F6" t="str">
@@ -10764,10 +10836,10 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H19" si="4">IF(G6=G5, H5+1, 1)</f>
+        <f>IF(G6=G5, H5+1, 1)</f>
         <v>2</v>
       </c>
       <c r="I6" t="str">
@@ -10775,19 +10847,22 @@
         <v>[FC_01_02_02]</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="35" customHeight="1">
+    <row r="7" spans="2:14" ht="35" customHeight="1">
       <c r="B7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(C7, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10802,30 +10877,33 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f>IF(G7=G6, H6+1, 1)</f>
         <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(B7,"00")&amp;"_"&amp;TEXT(E7,"00")&amp;"_"&amp;TEXT(H7,"00"&amp;"]")</f>
         <v>[FC_01_02_03]</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>100</v>
+        <v>117</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="35" customHeight="1">
+    <row r="8" spans="2:14" ht="29" customHeight="1">
       <c r="B8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(C8, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10833,37 +10911,40 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_02]</v>
+        <v>[FC_01_03]</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="H8:H20" si="4">IF(G8=G7, H7+1, 1)</f>
+        <v>1</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_02_04]</v>
+        <f t="shared" ref="I8:I20" si="5">"[FC_"&amp;TEXT(B8,"00")&amp;"_"&amp;TEXT(E8,"00")&amp;"_"&amp;TEXT(H8,"00"&amp;"]")</f>
+        <v>[FC_01_03_01]</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="35" customHeight="1">
+    <row r="9" spans="2:14" ht="19">
       <c r="B9">
-        <f>IF(C9=C8, B8, B8+1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(C9, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10871,29 +10952,40 @@
       </c>
       <c r="E9">
         <f>IF(G9=G8, E8, E8+1)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_03]</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9">
-        <f>IF(G9=G8, H8+1, 1)</f>
-        <v>5</v>
+      <c r="I9" t="str">
+        <f t="shared" si="5"/>
+        <v>[FC_01_03_02]</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>106</v>
+        <v>119</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="35" customHeight="1">
+    <row r="10" spans="2:14" ht="35" customHeight="1">
       <c r="B10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(C10, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10901,29 +10993,40 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_04]</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="5"/>
+        <v>[FC_01_04_01]</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>105</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="64" customHeight="1">
+    <row r="11" spans="2:14" ht="35" customHeight="1">
       <c r="B11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(C11, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10931,40 +11034,40 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_03]</v>
+        <v>[FC_01_04]</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_03_01]</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>[FC_01_04_02]</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="35" customHeight="1">
+    <row r="12" spans="2:14" ht="64" customHeight="1">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(C12, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -10972,37 +11075,43 @@
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_04]</v>
+        <v>[FC_01_05]</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_04_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_01_05_01]</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="35" customHeight="1">
+    <row r="13" spans="2:14" ht="35" customHeight="1">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(C13, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -11010,72 +11119,75 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_05]</v>
+        <v>[FC_01_06]</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_05_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_01_06_01]</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="35" customHeight="1">
+    <row r="14" spans="2:14" ht="35" customHeight="1">
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(C14, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
+        <v>釣り場マップ作成</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_06]</v>
+        <v>[FC_01_07]</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_02_06_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_01_07_01]</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="35" customHeight="1">
+    <row r="15" spans="2:14" ht="35" customHeight="1">
       <c r="B15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(C15, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -11083,34 +11195,37 @@
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_07]</v>
+        <v>[FC_02_08]</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_02_07_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_02_08_01]</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="35" customHeight="1">
+    <row r="16" spans="2:14" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -11118,11 +11233,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_08]</v>
+        <v>[FC_02_09]</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>52</v>
@@ -11132,20 +11247,20 @@
         <v>1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_02_08_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_02_09_01]</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="35" customHeight="1">
+    <row r="17" spans="2:10" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -11153,130 +11268,171 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_09]</v>
+        <v>[FC_02_10]</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_02_09_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_02_10_01]</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="35" customHeight="1">
+    <row r="18" spans="2:10" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>データ分析</v>
+        <v>釣果記録</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_03_10]</v>
+        <v>[FC_02_11]</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_03_10_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_02_11_01]</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="35" customHeight="1">
+    <row r="19" spans="2:10" ht="35" customHeight="1" collapsed="1">
       <c r="B19">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(C19, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
+        <v>データ分析</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_04_11]</v>
+        <v>[FC_03_12]</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_04_11_01]</v>
+        <f t="shared" si="5"/>
+        <v>[FC_03_12_01]</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="35" customHeight="1">
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_04_13]</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="5"/>
+        <v>[FC_04_13_01]</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D4:J6 H7:I10 D12:J1003 D8:J10 E6:E19 H6:H19">
-    <cfRule type="expression" dxfId="13" priority="6">
+  <conditionalFormatting sqref="D9:J1001 H8:I20 D4:J7 D7:D11 F5:F20 E6:F20 G7:G11">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:M1048575">
-    <cfRule type="expression" dxfId="12" priority="22">
+  <conditionalFormatting sqref="C4:N1048576">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>COUNTA($C4:$I4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:J14 J15:J19 C15:C19">
-    <cfRule type="expression" dxfId="11" priority="24">
-      <formula>C14=#REF!</formula>
+  <conditionalFormatting sqref="C15:J15 J16:J20 C16:C20">
+    <cfRule type="expression" dxfId="3" priority="24">
+      <formula>C15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:J7 E13 E19 H13 H19">
-    <cfRule type="expression" dxfId="10" priority="26">
-      <formula>D7=D5</formula>
+  <conditionalFormatting sqref="E14 E20 H14:I14 H20:I20">
+    <cfRule type="expression" dxfId="2" priority="26">
+      <formula>E14=E12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="9" priority="27">
-      <formula>D11=D8</formula>
+  <conditionalFormatting sqref="D12:J12 D8:J8 F16 G9:G11">
+    <cfRule type="expression" dxfId="1" priority="27">
+      <formula>D8=D5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:J8 F16 G9:G11">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>D8=D6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11304,12 +11460,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -11520,18 +11676,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -12075,7 +12231,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10" s="13">
         <v>44641</v>
@@ -12182,7 +12338,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D16" s="13">
         <v>44644</v>
@@ -12224,10 +12380,10 @@
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -12237,70 +12393,70 @@
     <row r="20" spans="1:7">
       <c r="A20" s="17"/>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$I$3:$J$84, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$I$3:$J$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12321,45 +12477,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12446,10 +12602,10 @@
   <sheetData>
     <row r="1" spans="3:9">
       <c r="C1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -12463,7 +12619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -12471,12 +12627,12 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12703197-529C-D841-8A2C-4860C9289994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155FF09-EBF0-A943-8935-0285399A782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1054,6 +1054,13 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了状況</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カンリョウジョウキョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1359,6 +1366,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1377,20 +1387,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,66 +1429,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1547,6 +1511,49 @@
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -10444,7 +10451,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -10455,7 +10462,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
@@ -10464,7 +10471,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
@@ -10494,7 +10501,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -10505,7 +10512,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -10515,11 +10522,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -10530,7 +10537,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
@@ -10539,7 +10546,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="7" t="s">
         <v>83</v>
       </c>
@@ -10548,7 +10555,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="35"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="7" t="s">
         <v>84</v>
       </c>
@@ -10558,8 +10565,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -10573,55 +10580,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -10634,11 +10646,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -10652,787 +10659,791 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="5.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39" style="30" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" style="30" customWidth="1"/>
-    <col min="13" max="13" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="39" style="30" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="38" customHeight="1">
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:15" ht="38" customHeight="1">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="M2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="2:15" hidden="1" outlineLevel="1">
+      <c r="D3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
     </row>
-    <row r="4" spans="2:14" ht="35" customHeight="1" collapsed="1">
-      <c r="B4">
+    <row r="4" spans="2:15" ht="35" customHeight="1" collapsed="1">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E4" t="str">
+        <f>VLOOKUP(D4, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
-        <f>"[FC_"&amp;TEXT(B4,"00")&amp;"_"&amp;TEXT(E4,"00")&amp;"]"</f>
+      <c r="G4" t="str">
+        <f>"[FC_"&amp;TEXT(C4,"00")&amp;"_"&amp;TEXT(F4,"00")&amp;"]"</f>
         <v>[FC_01_01]</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" t="str">
-        <f>"[FC_"&amp;TEXT(B4,"00")&amp;"_"&amp;TEXT(E4,"00")&amp;"_"&amp;TEXT(H4,"00"&amp;"]")</f>
+      <c r="J4" t="str">
+        <f>"[FC_"&amp;TEXT(C4,"00")&amp;"_"&amp;TEXT(F4,"00")&amp;"_"&amp;TEXT(I4,"00"&amp;"]")</f>
         <v>[FC_01_01_01]</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="35" customHeight="1">
-      <c r="B5">
-        <f>IF(C5=C4, B4, B4+1)</f>
+    <row r="5" spans="2:15" ht="35" customHeight="1">
+      <c r="C5">
+        <f>IF(D5=D4, C4, C4+1)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E5" t="str">
+        <f>VLOOKUP(D5, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E5">
-        <f>IF(G5=G4, E4, E4+1)</f>
+      <c r="F5">
+        <f>IF(H5=H4, F4, F4+1)</f>
         <v>2</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" ref="F5:F20" si="0">"[FC_"&amp;TEXT(B5,"00")&amp;"_"&amp;TEXT(E5,"00")&amp;"]"</f>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G20" si="0">"[FC_"&amp;TEXT(C5,"00")&amp;"_"&amp;TEXT(F5,"00")&amp;"]"</f>
         <v>[FC_01_02]</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H5">
-        <f>IF(G5=G4, H4+1, 1)</f>
+      <c r="I5">
+        <f>IF(H5=H4, I4+1, 1)</f>
         <v>1</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5:I6" si="1">"[FC_"&amp;TEXT(B5,"00")&amp;"_"&amp;TEXT(E5,"00")&amp;"_"&amp;TEXT(H5,"00"&amp;"]")</f>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J6" si="1">"[FC_"&amp;TEXT(C5,"00")&amp;"_"&amp;TEXT(F5,"00")&amp;"_"&amp;TEXT(I5,"00"&amp;"]")</f>
         <v>[FC_01_02_01]</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="L5" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="35" customHeight="1">
-      <c r="B6">
-        <f t="shared" ref="B6:B20" si="2">IF(C6=C5, B5, B5+1)</f>
+    <row r="6" spans="2:15" ht="35" customHeight="1">
+      <c r="C6">
+        <f t="shared" ref="C6:C20" si="2">IF(D6=D5, C5, C5+1)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E6" t="str">
+        <f>VLOOKUP(D6, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E20" si="3">IF(G6=G5, E5, E5+1)</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F20" si="3">IF(H6=H5, F5, F5+1)</f>
         <v>2</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H6">
-        <f>IF(G6=G5, H5+1, 1)</f>
+      <c r="I6">
+        <f>IF(H6=H5, I5+1, 1)</f>
         <v>2</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="1"/>
         <v>[FC_01_02_02]</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="L6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="M6" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="35" customHeight="1">
-      <c r="B7">
+    <row r="7" spans="2:15" ht="35" customHeight="1">
+      <c r="C7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E7" t="str">
+        <f>VLOOKUP(D7, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="H7" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H7">
-        <f>IF(G7=G6, H6+1, 1)</f>
+      <c r="I7">
+        <f>IF(H7=H6, I6+1, 1)</f>
         <v>3</v>
       </c>
-      <c r="I7" t="str">
-        <f>"[FC_"&amp;TEXT(B7,"00")&amp;"_"&amp;TEXT(E7,"00")&amp;"_"&amp;TEXT(H7,"00"&amp;"]")</f>
+      <c r="J7" t="str">
+        <f>"[FC_"&amp;TEXT(C7,"00")&amp;"_"&amp;TEXT(F7,"00")&amp;"_"&amp;TEXT(I7,"00"&amp;"]")</f>
         <v>[FC_01_02_03]</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="L7" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="M7" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="29" customHeight="1">
-      <c r="B8">
+    <row r="8" spans="2:15" ht="29" customHeight="1">
+      <c r="C8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E8" t="str">
+        <f>VLOOKUP(D8, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="H8" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H20" si="4">IF(G8=G7, H7+1, 1)</f>
+      <c r="I8">
+        <f t="shared" ref="I8:I20" si="4">IF(H8=H7, I7+1, 1)</f>
         <v>1</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" ref="I8:I20" si="5">"[FC_"&amp;TEXT(B8,"00")&amp;"_"&amp;TEXT(E8,"00")&amp;"_"&amp;TEXT(H8,"00"&amp;"]")</f>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8:J20" si="5">"[FC_"&amp;TEXT(C8,"00")&amp;"_"&amp;TEXT(F8,"00")&amp;"_"&amp;TEXT(I8,"00"&amp;"]")</f>
         <v>[FC_01_03_01]</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="L8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="M8" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="19">
-      <c r="B9">
+    <row r="9" spans="2:15" ht="19">
+      <c r="C9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E9" t="str">
+        <f>VLOOKUP(D9, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E9">
-        <f>IF(G9=G8, E8, E8+1)</f>
+      <c r="F9">
+        <f>IF(H9=H8, F8, F8+1)</f>
         <v>3</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="H9" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="5"/>
         <v>[FC_01_03_02]</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="M9" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="35" customHeight="1">
-      <c r="B10">
+    <row r="10" spans="2:15" ht="35" customHeight="1">
+      <c r="C10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E10" t="str">
+        <f>VLOOKUP(D10, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_04]</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="H10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="5"/>
         <v>[FC_01_04_01]</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="K10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="L10" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="M10" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="35" customHeight="1">
-      <c r="B11">
+    <row r="11" spans="2:15" ht="35" customHeight="1">
+      <c r="C11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E11" t="str">
+        <f>VLOOKUP(D11, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_04]</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="H11" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="5"/>
         <v>[FC_01_04_02]</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="K11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="L11" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="M11" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="64" customHeight="1">
-      <c r="B12">
+    <row r="12" spans="2:15" ht="64" customHeight="1">
+      <c r="C12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(C12, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E12" t="str">
+        <f>VLOOKUP(D12, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_05]</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="H12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="5"/>
         <v>[FC_01_05_01]</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="L12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="M12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="N12" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="35" customHeight="1">
-      <c r="B13">
+    <row r="13" spans="2:15" ht="35" customHeight="1">
+      <c r="C13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E13" t="str">
+        <f>VLOOKUP(D13, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_06]</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="H13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="5"/>
         <v>[FC_01_06_01]</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="L13" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="35" customHeight="1">
-      <c r="B14">
+    <row r="14" spans="2:15" ht="35" customHeight="1">
+      <c r="C14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(C14, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E14" t="str">
+        <f>VLOOKUP(D14, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_07]</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="H14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="5"/>
         <v>[FC_01_07_01]</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="L14" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="35" customHeight="1">
-      <c r="B15">
+    <row r="15" spans="2:15" ht="35" customHeight="1">
+      <c r="C15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(C15, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E15" t="str">
+        <f>VLOOKUP(D15, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>[FC_02_08]</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="H15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="5"/>
         <v>[FC_02_08_01]</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B16">
+    <row r="16" spans="2:15" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="C16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(C16, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E16" t="str">
+        <f>VLOOKUP(D16, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>[FC_02_09]</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="H16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="5"/>
         <v>[FC_02_09_01]</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B17">
+    <row r="17" spans="3:11" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="C17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(C17, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E17" t="str">
+        <f>VLOOKUP(D17, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>[FC_02_10]</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="H17" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="5"/>
         <v>[FC_02_10_01]</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B18">
+    <row r="18" spans="3:11" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="C18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(C18, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E18" t="str">
+        <f>VLOOKUP(D18, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>[FC_02_11]</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="H18" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="5"/>
         <v>[FC_02_11_01]</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="35" customHeight="1" collapsed="1">
-      <c r="B19">
+    <row r="19" spans="3:11" ht="35" customHeight="1" collapsed="1">
+      <c r="C19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(C19, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E19" t="str">
+        <f>VLOOKUP(D19, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>データ分析</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>[FC_03_12]</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="H19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="5"/>
         <v>[FC_03_12_01]</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="35" customHeight="1">
-      <c r="B20">
+    <row r="20" spans="3:11" ht="35" customHeight="1">
+      <c r="C20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(C20, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E20" t="str">
+        <f>VLOOKUP(D20, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>[FC_04_13]</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="H20" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="5"/>
         <v>[FC_04_13_01]</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D9:J1001 H8:I20 D4:J7 D7:D11 F5:F20 E6:F20 G7:G11">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>D4=D3</formula>
+  <conditionalFormatting sqref="I8:J20 E7:E11 G5:G20 F6:G20 H7:H11 E9:K1001 E4:K7">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>E4=E3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:N1048576">
-    <cfRule type="expression" dxfId="4" priority="22">
-      <formula>COUNTA($C4:$I4)&gt;=1</formula>
+  <conditionalFormatting sqref="D4:O1048576">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>COUNTA($D4:$J4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:J15 J16:J20 C16:C20">
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>C15=#REF!</formula>
+  <conditionalFormatting sqref="D15:K15 K16:K20 D16:D20">
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>D15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14 E20 H14:I14 H20:I20">
-    <cfRule type="expression" dxfId="2" priority="26">
-      <formula>E14=E12</formula>
+  <conditionalFormatting sqref="F14 F20 I14:J14 I20:J20">
+    <cfRule type="expression" dxfId="11" priority="26">
+      <formula>F14=F12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12 D8:J8 F16 G9:G11">
-    <cfRule type="expression" dxfId="1" priority="27">
-      <formula>D8=D5</formula>
+  <conditionalFormatting sqref="G16 H9:H11 E12:K12 E8:K8">
+    <cfRule type="expression" dxfId="10" priority="27">
+      <formula>E8=E5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:J8 F16 G9:G11">
-    <cfRule type="expression" dxfId="0" priority="29">
-      <formula>D8=D6</formula>
+  <conditionalFormatting sqref="G16 H9:H11 E8:K8">
+    <cfRule type="expression" dxfId="9" priority="29">
+      <formula>E8=E6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11460,12 +11471,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -11676,18 +11687,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -12383,7 +12394,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -12396,7 +12407,7 @@
         <v>59</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12406,7 +12417,7 @@
         <v>60</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12416,7 +12427,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12426,7 +12437,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12436,7 +12447,7 @@
         <v>69</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12446,7 +12457,7 @@
         <v>61</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12456,7 +12467,7 @@
         <v>63</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$I$3:$J$85, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$J$3:$K$85, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12477,45 +12488,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12591,8 +12602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC67A91-BABB-AD4B-96E9-145DE3E9B023}">
   <dimension ref="C1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12620,7 +12631,7 @@
   <dimension ref="D2:D3"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155FF09-EBF0-A943-8935-0285399A782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2198AFA4-C85D-E147-8512-E911AFD1EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -954,10 +954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・React-native-svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・アイコン（SVG画像）のレンダリング
 ・画像サイズが指定できると尚良し</t>
     <rPh sb="9" eb="11">
@@ -1058,10 +1054,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了状況</t>
-    <rPh sb="0" eb="4">
+    <t>完了日</t>
+    <rPh sb="0" eb="2">
       <t xml:space="preserve">カンリョウジョウキョウ </t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手中</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">チャクシュチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>here</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1269,7 +1279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,9 +1376,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,6 +1392,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,11 +1439,133 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1518,6 +1650,20 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -1563,14 +1709,58 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8AD8"/>
       <color rgb="FF73FDD6"/>
     </mruColors>
   </colors>
@@ -10451,7 +10641,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -10462,7 +10652,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
@@ -10471,7 +10661,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
@@ -10501,7 +10691,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -10512,7 +10702,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -10522,11 +10712,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -10537,7 +10727,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
@@ -10546,7 +10736,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>83</v>
       </c>
@@ -10555,7 +10745,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="36"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="7" t="s">
         <v>84</v>
       </c>
@@ -10565,8 +10755,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -10580,60 +10770,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -10646,10 +10831,15 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10659,19 +10849,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="B2:O20"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="53" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
@@ -10687,9 +10877,12 @@
     <col min="15" max="15" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="38" customHeight="1">
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" ht="38" customHeight="1">
+      <c r="A2" t="s">
         <v>121</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>120</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>86</v>
@@ -10718,7 +10911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:15" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:15" hidden="1" outlineLevel="1">
       <c r="D3" s="28" t="s">
         <v>43</v>
       </c>
@@ -10744,7 +10937,10 @@
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
     </row>
-    <row r="4" spans="2:15" ht="35" customHeight="1" collapsed="1">
+    <row r="4" spans="1:15" ht="35" customHeight="1" collapsed="1">
+      <c r="B4" s="54">
+        <v>44653</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -10785,7 +10981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="35" customHeight="1">
+    <row r="5" spans="1:15" ht="35" customHeight="1">
       <c r="C5">
         <f>IF(D5=D4, C4, C4+1)</f>
         <v>1</v>
@@ -10820,13 +11016,10 @@
         <v>100</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="35" customHeight="1">
+    <row r="6" spans="1:15" ht="35" customHeight="1">
       <c r="C6">
         <f t="shared" ref="C6:C20" si="2">IF(D6=D5, C5, C5+1)</f>
         <v>1</v>
@@ -10861,13 +11054,13 @@
         <v>99</v>
       </c>
       <c r="L6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="7" spans="2:15" ht="35" customHeight="1">
+    <row r="7" spans="1:15" ht="35" customHeight="1">
       <c r="C7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -10902,13 +11095,13 @@
         <v>101</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="29" customHeight="1">
+    <row r="8" spans="1:15" ht="29" customHeight="1">
       <c r="C8">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -10943,13 +11136,16 @@
         <v>107</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="19">
+    <row r="9" spans="1:15" ht="19">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
       <c r="C9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -10984,13 +11180,13 @@
         <v>108</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="35" customHeight="1">
+    <row r="10" spans="1:15" ht="35" customHeight="1">
       <c r="C10">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11031,7 +11227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="35" customHeight="1">
+    <row r="11" spans="1:15" ht="35" customHeight="1">
       <c r="C11">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11072,7 +11268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="64" customHeight="1">
+    <row r="12" spans="1:15" ht="64" customHeight="1">
       <c r="C12">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11110,13 +11306,13 @@
         <v>54</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N12" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="35" customHeight="1">
+    <row r="13" spans="1:15" ht="35" customHeight="1">
       <c r="C13">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11154,7 +11350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="35" customHeight="1">
+    <row r="14" spans="1:15" ht="35" customHeight="1">
       <c r="C14">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11192,7 +11388,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="35" customHeight="1">
+    <row r="15" spans="1:15" ht="35" customHeight="1">
       <c r="C15">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11230,7 +11426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:15" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C16">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11417,33 +11613,43 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I8:J20 E7:E11 G5:G20 F6:G20 H7:H11 E9:K1001 E4:K7">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>E4=E3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:O1048576">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>COUNTA($D4:$J4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:K15 K16:K20 D16:D20">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>D15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F20 I14:J14 I20:J20">
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>F14=F12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 H9:H11 E12:K12 E8:K8">
-    <cfRule type="expression" dxfId="10" priority="27">
+    <cfRule type="expression" dxfId="11" priority="29">
       <formula>E8=E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 H9:H11 E8:K8">
-    <cfRule type="expression" dxfId="9" priority="29">
+    <cfRule type="expression" dxfId="10" priority="31">
       <formula>E8=E6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:P1000">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$B4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD100">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12488,45 +12694,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12602,7 +12808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC67A91-BABB-AD4B-96E9-145DE3E9B023}">
   <dimension ref="C1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2198AFA4-C85D-E147-8512-E911AFD1EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B832CC-741F-9A40-AB1C-3F4AAD080CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -356,16 +356,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能説明</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">セツメイ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1020,16 +1010,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・アイコン配置のためのグリッド線表示</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ハイチノタメノ </t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t xml:space="preserve">セン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・GoogleMap上にSVG画像を重ねてレンダリング</t>
     <rPh sb="10" eb="11">
       <t xml:space="preserve">ジョウ </t>
@@ -1071,7 +1051,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>here</t>
+    <t>機能説明 / 作業内容</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">セツメイ </t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">サギョウナイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留中</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ホリュウチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【バグ】地図上、グリッド線開始位置ずれ</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ジョウ </t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t xml:space="preserve">カイシイチズレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlexGrowの動作理解
+→正しい開始位置を指定</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">リカイ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">タダシイ </t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t xml:space="preserve">カイシイチ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・何らかの図形描画コンポーネント使用
+→react-native-art というものがあるがサポート終了。
+→react-native-svgが推奨されているので試す。</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ナンラカノ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ズケイビョウガ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ビョウガ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">シュウリョウ </t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">スイショウ </t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t xml:space="preserve">タメス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイコン配置のためのグリッド線表示
+ props: 左上座標、右下座標、垂直分割数、水平分割数</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ハイチノタメノ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">セン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ヒダリウエ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ザヒョウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ミギシタ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ザヒョウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">スイチョク </t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t xml:space="preserve">ブンカツスウ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">スイヘイ </t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t xml:space="preserve">ブンカツスウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1449,7 +1544,42 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1506,6 +1636,127 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
     </dxf>
     <dxf>
@@ -1655,6 +1906,150 @@
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -10645,7 +11040,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
@@ -10654,7 +11049,7 @@
     <row r="10" spans="2:4" ht="19" customHeight="1">
       <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
@@ -10663,7 +11058,7 @@
     <row r="11" spans="2:4" ht="19" customHeight="1">
       <c r="B11" s="33"/>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -10720,7 +11115,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
@@ -10729,7 +11124,7 @@
     <row r="19" spans="2:4">
       <c r="B19" s="37"/>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -10738,7 +11133,7 @@
     <row r="20" spans="2:4">
       <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -10747,10 +11142,10 @@
     <row r="21" spans="2:4">
       <c r="B21" s="35"/>
       <c r="C21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -10839,7 +11234,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10849,806 +11244,872 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A2:O20"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="53" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="39" style="30" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" style="30" customWidth="1"/>
-    <col min="14" max="14" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39" style="30" customWidth="1"/>
+    <col min="14" max="14" width="42.7109375" style="30" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="38" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="38" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="39" t="s">
+      <c r="N2" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" outlineLevel="1">
+      <c r="E3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+    </row>
+    <row r="4" spans="1:16" ht="35" customHeight="1" collapsed="1">
+      <c r="C4" s="54">
+        <v>44653</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
+        <v>[FC_01_01]</v>
+      </c>
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" outlineLevel="1">
-      <c r="D3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-    </row>
-    <row r="4" spans="1:15" ht="35" customHeight="1" collapsed="1">
-      <c r="B4" s="54">
-        <v>44653</v>
-      </c>
-      <c r="C4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(D4, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f>"[FC_"&amp;TEXT(C4,"00")&amp;"_"&amp;TEXT(F4,"00")&amp;"]"</f>
-        <v>[FC_01_01]</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"[FC_"&amp;TEXT(C4,"00")&amp;"_"&amp;TEXT(F4,"00")&amp;"_"&amp;TEXT(I4,"00"&amp;"]")</f>
+      <c r="K4" t="str">
+        <f>"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
         <v>[FC_01_01_01]</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>112</v>
+      <c r="L4" t="s">
+        <v>66</v>
       </c>
       <c r="M4" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="O4" t="s">
-        <v>57</v>
+      <c r="N4" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="35" customHeight="1">
-      <c r="C5">
-        <f>IF(D5=D4, C4, C4+1)</f>
+    <row r="5" spans="1:16" ht="35" customHeight="1">
+      <c r="D5">
+        <f>IF(E5=E4, D4, D4+1)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(D5, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F5">
-        <f>IF(H5=H4, F4, F4+1)</f>
+      <c r="G5">
+        <f>IF(I5=I4, G4, G4+1)</f>
         <v>2</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G20" si="0">"[FC_"&amp;TEXT(C5,"00")&amp;"_"&amp;TEXT(F5,"00")&amp;"]"</f>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H21" si="0">"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"]"</f>
         <v>[FC_01_02]</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5">
-        <f>IF(H5=H4, I4+1, 1)</f>
+      <c r="I5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5">
+        <f>IF(I5=I4, J4+1, 1)</f>
         <v>1</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J6" si="1">"[FC_"&amp;TEXT(C5,"00")&amp;"_"&amp;TEXT(F5,"00")&amp;"_"&amp;TEXT(I5,"00"&amp;"]")</f>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K21" si="1">"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"_"&amp;TEXT(J5,"00"&amp;"]")</f>
         <v>[FC_01_02_01]</v>
       </c>
-      <c r="K5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>113</v>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="35" customHeight="1">
-      <c r="C6">
-        <f t="shared" ref="C6:C20" si="2">IF(D6=D5, C5, C5+1)</f>
+    <row r="6" spans="1:16" ht="35" customHeight="1">
+      <c r="D6">
+        <f t="shared" ref="D6:D8" si="2">IF(E6=E5, D5, D5+1)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(D6, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F20" si="3">IF(H6=H5, F5, F5+1)</f>
+      <c r="G6">
+        <f t="shared" ref="G6:G21" si="3">IF(I6=I5, G5, G5+1)</f>
         <v>2</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6">
-        <f>IF(H6=H5, I5+1, 1)</f>
+      <c r="I6" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6">
+        <f>IF(I6=I5, J5+1, 1)</f>
         <v>2</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v>[FC_01_02_02]</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="7" spans="1:15" ht="35" customHeight="1">
-      <c r="C7">
+    <row r="7" spans="1:16" ht="35" customHeight="1">
+      <c r="D7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(D7, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7">
-        <f>IF(H7=H6, I6+1, 1)</f>
+      <c r="I7" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J21" si="4">IF(I7=I6, J6+1, 1)</f>
         <v>3</v>
       </c>
-      <c r="J7" t="str">
-        <f>"[FC_"&amp;TEXT(C7,"00")&amp;"_"&amp;TEXT(F7,"00")&amp;"_"&amp;TEXT(I7,"00"&amp;"]")</f>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
         <v>[FC_01_02_03]</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>116</v>
+      <c r="L7" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>90</v>
+        <v>115</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" customHeight="1">
-      <c r="C8">
+    <row r="8" spans="1:16" ht="57">
+      <c r="D8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(D8, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_01]</v>
+      </c>
+      <c r="L8" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I20" si="4">IF(H8=H7, I7+1, 1)</f>
+      <c r="M8" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="44" customHeight="1">
+      <c r="A9" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <f>IF(E9=E8, D8, D8+1)</f>
         <v>1</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" ref="J8:J20" si="5">"[FC_"&amp;TEXT(C8,"00")&amp;"_"&amp;TEXT(F8,"00")&amp;"_"&amp;TEXT(I8,"00"&amp;"]")</f>
-        <v>[FC_01_03_01]</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(D9, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E9" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F9">
-        <f>IF(H9=H8, F8, F8+1)</f>
+      <c r="G9">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="I9" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9">
+        <f>IF(I9=I8, J8+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_02]</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19">
+      <c r="C10" s="54"/>
+      <c r="D10">
+        <f t="shared" ref="D10:D21" si="5">IF(E10=E9, D9, D9+1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_03]</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_03]</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="35" customHeight="1">
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_04]</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I9">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_04_01]</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="35" customHeight="1">
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_04]</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_04_02]</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="64" customHeight="1">
+      <c r="D13">
         <f t="shared" si="5"/>
-        <v>[FC_01_03_02]</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="35" customHeight="1">
-      <c r="C10">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(D10, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E13" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F10">
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G10" t="str">
+        <v>5</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_04]</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10">
+        <v>[FC_01_05]</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_05_01]</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="35" customHeight="1">
+      <c r="D14">
         <f t="shared" si="5"/>
-        <v>[FC_01_04_01]</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="35" customHeight="1">
-      <c r="C11">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(D11, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E14" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F11">
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G11" t="str">
+        <v>6</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_04]</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="5"/>
-        <v>[FC_01_04_02]</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="64" customHeight="1">
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(D12, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_05]</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12">
+        <v>[FC_01_06]</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_06_01]</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="35" customHeight="1">
+      <c r="D15">
         <f t="shared" si="5"/>
-        <v>[FC_01_05_01]</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="35" customHeight="1">
-      <c r="C13">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="str">
-        <f>VLOOKUP(D13, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="F13">
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G13" t="str">
+        <v>7</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_06]</v>
-      </c>
-      <c r="H13" s="30" t="s">
+        <v>[FC_01_07]</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I13">
+      <c r="J15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_07_01]</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="35" customHeight="1">
+      <c r="D16">
         <f t="shared" si="5"/>
-        <v>[FC_01_06_01]</v>
-      </c>
-      <c r="K13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="35" customHeight="1">
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(D14, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G14" t="str">
+        <v>8</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_07]</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14">
+        <v>[FC_02_08]</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_02_08_01]</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="35" customHeight="1" outlineLevel="1">
+      <c r="D17">
         <f t="shared" si="5"/>
-        <v>[FC_01_07_01]</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="35" customHeight="1">
-      <c r="C15">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(D15, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="F15">
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G15" t="str">
+        <v>9</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_08]</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15">
+        <v>[FC_02_09]</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_02_09_01]</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="35" customHeight="1" outlineLevel="1">
+      <c r="D18">
         <f t="shared" si="5"/>
-        <v>[FC_02_08_01]</v>
-      </c>
-      <c r="K15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C16">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(D16, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="F16">
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G16" t="str">
+        <v>10</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_09]</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16">
+        <v>[FC_02_10]</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_02_10_01]</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="35" customHeight="1" outlineLevel="1">
+      <c r="D19">
         <f t="shared" si="5"/>
-        <v>[FC_02_09_01]</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C17">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(D17, 概要!$C$18:$D$40, 2, FALSE)</f>
+      <c r="E19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="F17">
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G17" t="str">
+        <v>11</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_10]</v>
-      </c>
-      <c r="H17" s="30" t="s">
+        <v>[FC_02_11]</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I17">
+      <c r="J19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_02_11_01]</v>
+      </c>
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="35" customHeight="1">
+      <c r="D20">
         <f t="shared" si="5"/>
-        <v>[FC_02_10_01]</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(D18, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>データ分析</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G18" t="str">
+        <v>12</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_02_11]</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18">
+        <v>[FC_03_12]</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_03_12_01]</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="35" customHeight="1">
+      <c r="D21">
         <f t="shared" si="5"/>
-        <v>[FC_02_11_01]</v>
-      </c>
-      <c r="K18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="35" customHeight="1" collapsed="1">
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(D19, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>データ分析</v>
-      </c>
-      <c r="F19">
+      <c r="F21" t="str">
+        <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="G19" t="str">
+        <v>13</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_03_12]</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19">
+        <v>[FC_04_13]</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="5"/>
-        <v>[FC_03_12_01]</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_04_13_01]</v>
+      </c>
+      <c r="L21" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="35" customHeight="1">
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(D20, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_04_13]</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="5"/>
-        <v>[FC_04_13_01]</v>
-      </c>
-      <c r="K20" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I8:J20 E7:E11 G5:G20 F6:G20 H7:H11 E9:K1001 E4:K7">
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>E4=E3</formula>
+  <conditionalFormatting sqref="D4:W1000">
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:O1048576">
-    <cfRule type="expression" dxfId="14" priority="24">
-      <formula>COUNTA($D4:$J4)&gt;=1</formula>
+  <conditionalFormatting sqref="E4:P1048575">
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:K15 K16:K20 D16:D20">
-    <cfRule type="expression" dxfId="13" priority="26">
-      <formula>D15=#REF!</formula>
+  <conditionalFormatting sqref="E16:L16 L17:L21 E17:E21">
+    <cfRule type="expression" dxfId="21" priority="27">
+      <formula>E16=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F20 I14:J14 I20:J20">
-    <cfRule type="expression" dxfId="12" priority="28">
-      <formula>F14=F12</formula>
+  <conditionalFormatting sqref="G15 G21 J15:K15 J21:K21">
+    <cfRule type="expression" dxfId="20" priority="29">
+      <formula>G15=G13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16 H9:H11 E12:K12 E8:K8">
-    <cfRule type="expression" dxfId="11" priority="29">
-      <formula>E8=E5</formula>
+  <conditionalFormatting sqref="H17 F13:L13 F8:L9">
+    <cfRule type="expression" dxfId="19" priority="30">
+      <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16 H9:H11 E8:K8">
-    <cfRule type="expression" dxfId="10" priority="31">
-      <formula>E8=E6</formula>
+  <conditionalFormatting sqref="H17 I12 F8:L10">
+    <cfRule type="expression" dxfId="18" priority="32">
+      <formula>F8=F6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:P1000">
-    <cfRule type="expression" dxfId="9" priority="2">
+  <conditionalFormatting sqref="C4:Q1001">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$C4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD101">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I12">
+    <cfRule type="expression" dxfId="15" priority="54">
+      <formula>I10=I6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1048576:P1048576">
+    <cfRule type="expression" dxfId="14" priority="59">
+      <formula>COUNTA($D1048576:$J1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="expression" dxfId="13" priority="73">
+      <formula>I10=I7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD100">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12448,7 +12909,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="13">
         <v>44641</v>
@@ -12555,7 +13016,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="13">
         <v>44644</v>
@@ -12597,10 +13058,10 @@
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -12610,70 +13071,70 @@
     <row r="20" spans="1:7">
       <c r="A20" s="17"/>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$J$3:$K$85, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$K$3:$L$86, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12694,45 +13155,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="39" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12819,10 +13280,10 @@
   <sheetData>
     <row r="1" spans="3:9">
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -12844,12 +13305,12 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B832CC-741F-9A40-AB1C-3F4AAD080CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE27D8-DC21-7948-95B3-033E5D9BD695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1169,6 +1169,64 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>◆地図作成オプション選択</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">サクセイジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・react-native-svg で罫線の描画を実施
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MeiryoUI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・forで生成した&lt;Line /&gt;を return する方法に悩み中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MeiryoUI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+〜</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ケイセｎ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ビョウガヲ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ジッシ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t xml:space="preserve">ナヤミチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1179,7 +1237,7 @@
     <numFmt numFmtId="177" formatCode="yyyy"/>
     <numFmt numFmtId="178" formatCode="mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1196,6 +1254,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="MeiryoUI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="MeiryoUI"/>
       <charset val="128"/>
     </font>
@@ -1544,7 +1608,90 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1637,6 +1784,13 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1818,96 +1972,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -1993,164 +2057,6 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2174,13 +2080,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2239,13 +2145,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>259462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>150215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>696452</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>150215</xdr:rowOff>
@@ -2307,13 +2213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95592</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>942258</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95592</xdr:rowOff>
@@ -2375,13 +2281,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>259462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>150214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>696452</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>163871</xdr:rowOff>
@@ -2443,13 +2349,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>792548</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>179548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>172470</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
@@ -2518,14 +2424,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>300429</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641827</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641828</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
@@ -2563,14 +2469,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314087</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641828</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641829</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
@@ -2607,13 +2513,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>873978</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>191182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>532582</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>54623</xdr:rowOff>
@@ -2675,13 +2581,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>409676</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>68278</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>40966</xdr:rowOff>
@@ -2743,13 +2649,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>75108</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>225322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>867151</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>218495</xdr:rowOff>
@@ -2811,13 +2717,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>75109</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>211668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>867152</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>204841</xdr:rowOff>
@@ -2879,13 +2785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>300934</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>81933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>627160</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>109752</xdr:rowOff>
@@ -2950,13 +2856,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>290819</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>179548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>721235</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
@@ -3025,13 +2931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>235185</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>179548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>627160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
@@ -3100,13 +3006,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>890576</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>97052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>498928</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3175,13 +3081,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>240457</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>97052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>801309</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3250,13 +3156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>527719</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>97052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3324,13 +3230,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>799861</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>97052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>408213</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3348,8 +3254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3644661" y="6734919"/>
-          <a:ext cx="556619" cy="614148"/>
+          <a:off x="3657361" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3399,88 +3305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>452124</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>112171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15119</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543F79F7-4A19-9E40-889F-175543949DC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2348657" y="6750038"/>
-          <a:ext cx="1131143" cy="614148"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>決定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>363190</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>125077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>558029</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>192425</xdr:rowOff>
@@ -3549,13 +3380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>317132</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>630399</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>96631</xdr:rowOff>
@@ -3615,13 +3446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3680,13 +3511,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>259462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>150215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>696452</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>150215</xdr:rowOff>
@@ -3748,13 +3579,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95592</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>942258</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95592</xdr:rowOff>
@@ -3816,13 +3647,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>259462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>150214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>696452</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>163871</xdr:rowOff>
@@ -3884,13 +3715,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>792548</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>179548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>172470</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
@@ -3959,14 +3790,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>300429</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>641827</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>641828</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
@@ -4004,14 +3835,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>314087</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>641828</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>641829</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
@@ -4048,13 +3879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>873978</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>191182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>532582</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>54623</xdr:rowOff>
@@ -4116,13 +3947,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>409676</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>68278</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>40966</xdr:rowOff>
@@ -4184,13 +4015,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>75108</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>225322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>867151</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>218495</xdr:rowOff>
@@ -4252,13 +4083,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>75109</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>211668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>867152</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>204841</xdr:rowOff>
@@ -4320,13 +4151,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>300934</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>81933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>627160</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>109752</xdr:rowOff>
@@ -4391,13 +4222,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>290819</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>179548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>721235</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
@@ -4466,13 +4297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>235185</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>179548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>627160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
@@ -4541,387 +4372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>890576</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>498928</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252145E1-3C8C-224D-8D50-0AC664B2C2B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11067509" y="6734919"/>
-          <a:ext cx="556619" cy="614148"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>→</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>240457</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>801309</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3539FDDE-7014-894A-8DC6-2DE7CA905B0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10417390" y="6734919"/>
-          <a:ext cx="560852" cy="614148"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>↑</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527719</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="角丸四角形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C180CDF-3B3F-7548-BF30-7A6B875791BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9756386" y="6734919"/>
-          <a:ext cx="556618" cy="614148"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>↓</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>799861</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>408213</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28D4227-FC42-6245-84F4-B8AB14241AA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9080261" y="6734919"/>
-          <a:ext cx="556619" cy="614148"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>←</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>452124</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>112171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15119</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="角丸四角形 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3D654D-60C4-AE4A-891A-899B8100B3A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7784257" y="6750038"/>
-          <a:ext cx="1131143" cy="614148"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>決定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>363190</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>558029</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>192426</xdr:rowOff>
@@ -4990,13 +4447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440268</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482601</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -5060,13 +4517,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -5120,13 +4577,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -5180,13 +4637,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -5240,13 +4697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -5300,13 +4757,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -5360,13 +4817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5420,13 +4877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>59267</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5480,13 +4937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5540,13 +4997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5600,13 +5057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5660,13 +5117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5720,13 +5177,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -5780,13 +5237,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
@@ -5840,13 +5297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
@@ -5900,13 +5357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
@@ -5960,13 +5417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
@@ -6020,13 +5477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
@@ -6080,13 +5537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6140,13 +5597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>59267</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6200,13 +5657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6260,13 +5717,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6320,13 +5777,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6380,13 +5837,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6440,13 +5897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -6500,13 +5957,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71966</xdr:rowOff>
@@ -6560,13 +6017,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71966</xdr:rowOff>
@@ -6620,13 +6077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71966</xdr:rowOff>
@@ -6680,13 +6137,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71966</xdr:rowOff>
@@ -6740,13 +6197,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71966</xdr:rowOff>
@@ -6800,13 +6257,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -6860,13 +6317,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>59267</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -6920,13 +6377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -6980,13 +6437,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -7040,13 +6497,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -7100,13 +6557,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -7160,13 +6617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207432</xdr:rowOff>
@@ -7220,13 +6677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440268</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482601</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
@@ -7290,13 +6747,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440268</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482601</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
@@ -7360,13 +6817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -7420,13 +6877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -7480,13 +6937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -7540,13 +6997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -7600,13 +7057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -7660,13 +7117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -7720,13 +7177,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>59267</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -7780,13 +7237,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>626534</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -7840,13 +7297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>668867</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -7900,13 +7357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812801</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>287868</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -7960,13 +7417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431802</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>855135</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -8020,13 +7477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>156632</xdr:rowOff>
@@ -8080,13 +7537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>440268</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482601</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
@@ -8143,6 +7600,1739 @@
             </a:rPr>
             <a:t>建造物</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>366907</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927759</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="角丸四角形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F959E10-744D-AD4D-9C15-A3F8B34C5BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2271907" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92702</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653554</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="角丸四角形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B455709-4732-4245-982F-ADB6583D573B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2950202" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>919440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>527792</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="角丸四角形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542001E4-56AC-8941-A81B-50F361A1AFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11137167" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>269321</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>830173</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="角丸四角形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576EA861-FE00-B843-896F-7FE2F57E08FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487048" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>↑</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556583</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>164935</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="角丸四角形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786D1737-A9C3-C845-9EFD-E97B26ED360A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9821810" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>828725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437077</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="角丸四角形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D37857-AEA6-0446-A078-71D17C80B08D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9141452" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>←</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395771</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4123</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="角丸四角形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764681E3-91FD-154B-8E39-589D7A4D1B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7755998" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>682418</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="角丸四角形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CEB100-096B-A641-9726-A3D984A69EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8434293" y="6562507"/>
+          <a:ext cx="560852" cy="595675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="角丸四角形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA45DD1-7429-EC43-A575-64CFBFFD8148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="948267" y="237067"/>
+          <a:ext cx="4741333" cy="8060266"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8096"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259461</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>150215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>696452</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>150215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="角丸四角形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50426554-2493-7944-8D56-1E295DED90D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207728" y="624348"/>
+          <a:ext cx="4230057" cy="6874934"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95592</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942258</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="角丸四角形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2C8CB6-66C8-6945-ADEB-20AD46FAB6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940392" y="7681724"/>
+          <a:ext cx="846666" cy="474135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 47210"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259461</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>150214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>696452</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="角丸四角形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FF013-4455-8E4C-8F49-332BBE86CD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207728" y="624347"/>
+          <a:ext cx="4230057" cy="250724"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>792548</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172469</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="角丸四角形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD75E63F-D502-404F-A8D5-04383A032993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689081" y="890748"/>
+          <a:ext cx="1276455" cy="446823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300428</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641827</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="図 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E9F929-C202-8041-A933-C20CBF79C7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="59000"/>
+        </a:blip>
+        <a:srcRect l="25973" t="17530" r="18507" b="16592"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1248695" y="1362856"/>
+          <a:ext cx="4134465" cy="4847914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300933</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="角丸四角形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9269A6E5-51EC-2D48-A4D5-B6AB1161FF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249200" y="6245666"/>
+          <a:ext cx="4119293" cy="1213153"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>290818</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>721235</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="角丸四角形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4011C50C-FD4C-5C4B-9F36-DD9CB1BAD535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1239085" y="890748"/>
+          <a:ext cx="1378683" cy="446823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>位置確定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235184</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="角丸四角形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96F279E-48C8-A048-866A-03B8329EB756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028251" y="890748"/>
+          <a:ext cx="1340242" cy="446823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>890575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498928</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3410111-4449-334F-A852-3E79A5F7FC43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4683642" y="6734919"/>
+          <a:ext cx="556619" cy="614148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240456</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>801308</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="角丸四角形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A992DF30-D44F-5B47-846C-F23E4A624FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033523" y="6734919"/>
+          <a:ext cx="560852" cy="614148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>↑</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527719</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="角丸四角形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C81EF1-75E3-CE4E-880C-3F13F17C59BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3372519" y="6734919"/>
+          <a:ext cx="556618" cy="614148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799861</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="角丸四角形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48280C2F-4EC9-234E-A7A8-6AE1B36007DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696394" y="6734919"/>
+          <a:ext cx="556619" cy="614148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>←</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>363189</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558029</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>192425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="角丸四角形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB7BD8A-9C81-2445-A1F4-88583D8A8F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311456" y="6288810"/>
+          <a:ext cx="3987906" cy="304415"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>▲</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>366906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>927758</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="角丸四角形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCE4047-4D6C-7843-9B5B-C117947BA156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1315173" y="6734919"/>
+          <a:ext cx="560852" cy="614148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92702</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653554</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="角丸四角形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125B9F46-2223-DA40-965B-27664C085BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1989235" y="6734919"/>
+          <a:ext cx="560852" cy="614148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11234,7 +12424,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11250,7 +12440,7 @@
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -11501,6 +12691,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="57">
+      <c r="A8" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="54"/>
       <c r="D8">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11539,6 +12733,9 @@
       </c>
       <c r="N8" s="30" t="s">
         <v>125</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
@@ -11557,7 +12754,7 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f>IF(I9=I8, G8, G8+1)</f>
         <v>3</v>
       </c>
       <c r="H9" t="str">
@@ -12054,62 +13251,62 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D4:W1000">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P1048575">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:L16 L17:L21 E17:E21">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>E16=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15 G21 J15:K15 J21:K21">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="17" priority="29">
       <formula>G15=G13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17 F13:L13 F8:L9">
-    <cfRule type="expression" dxfId="19" priority="30">
+    <cfRule type="expression" dxfId="16" priority="30">
       <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17 I12 F8:L10">
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="15" priority="32">
       <formula>F8=F6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Q1001">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD101">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I12">
-    <cfRule type="expression" dxfId="15" priority="54">
+    <cfRule type="expression" dxfId="12" priority="54">
       <formula>I10=I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1048576:P1048576">
-    <cfRule type="expression" dxfId="14" priority="59">
+    <cfRule type="expression" dxfId="11" priority="59">
       <formula>COUNTA($D1048576:$J1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="expression" dxfId="13" priority="73">
+    <cfRule type="expression" dxfId="10" priority="73">
       <formula>I10=I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD100">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13155,45 +14352,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="39" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13267,22 +14464,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC67A91-BABB-AD4B-96E9-145DE3E9B023}">
-  <dimension ref="C1:I1"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9">
-      <c r="C1" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -13298,7 +14498,7 @@
   <dimension ref="D2:D3"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE27D8-DC21-7948-95B3-033E5D9BD695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D8D46E-446B-1A43-9AE6-091215EC83FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -635,9 +635,6 @@
     <t>(T.B.D.)5</t>
   </si>
   <si>
-    <t>(T.B.D.)6</t>
-  </si>
-  <si>
     <t>[FC_01]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -739,10 +736,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(T.B.D.)2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆配置アイコン選択画面</t>
     <rPh sb="1" eb="3">
       <t xml:space="preserve">ハイチ </t>
@@ -1224,6 +1217,55 @@
     </rPh>
     <rPh sb="59" eb="60">
       <t xml:space="preserve">ナヤミチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapContainer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロールボタン(controllerLayout)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューバー
+(menuLayout)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ表示
+(mapLayout)</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時保存</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">イチジホゾｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動ボタン</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクジョ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1438,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,6 +1577,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,16 +1604,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,17 +1643,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1705,24 +1755,6 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
@@ -1791,271 +1823,6 @@
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12226,29 +11993,29 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -12276,7 +12043,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -12287,7 +12054,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -12297,42 +12064,42 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="37"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="37"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="35"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>70</v>
@@ -12340,8 +12107,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -12355,55 +12122,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -12416,11 +12188,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -12434,23 +12201,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A2:P21"/>
+  <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6.28515625" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="9" max="9" width="27.85546875" customWidth="1" collapsed="1"/>
@@ -12464,39 +12231,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="38" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="40" t="s">
+      <c r="N2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="42" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12521,20 +12288,20 @@
       <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="35" customHeight="1" collapsed="1">
-      <c r="C4" s="54">
+      <c r="C4" s="33">
         <v>44653</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -12561,10 +12328,10 @@
         <v>66</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P4" t="s">
         <v>56</v>
@@ -12576,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -12587,167 +12354,167 @@
         <v>2</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H21" si="0">"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"]"</f>
+        <f>"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"]"</f>
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J5">
         <f>IF(I5=I4, J4+1, 1)</f>
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K21" si="1">"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"_"&amp;TEXT(J5,"00"&amp;"]")</f>
+        <f>"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"_"&amp;TEXT(J5,"00"&amp;"]")</f>
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
       <c r="D6">
-        <f t="shared" ref="D6:D8" si="2">IF(E6=E5, D5, D5+1)</f>
+        <f t="shared" ref="D6:D8" si="0">IF(E6=E5, D5, D5+1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G21" si="3">IF(I6=I5, G5, G5+1)</f>
+        <f t="shared" ref="G6:G21" si="1">IF(I6=I5, G5, G5+1)</f>
         <v>2</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D6,"00")&amp;"_"&amp;TEXT(G6,"00")&amp;"]"</f>
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6">
         <f>IF(I6=I5, J5+1, 1)</f>
         <v>2</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D6,"00")&amp;"_"&amp;TEXT(G6,"00")&amp;"_"&amp;TEXT(J6,"00"&amp;"]")</f>
         <v>[FC_01_02_02]</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D7,"00")&amp;"_"&amp;TEXT(G7,"00")&amp;"]"</f>
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J21" si="4">IF(I7=I6, J6+1, 1)</f>
+        <f t="shared" ref="J7:J21" si="2">IF(I7=I6, J6+1, 1)</f>
         <v>3</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D7,"00")&amp;"_"&amp;TEXT(G7,"00")&amp;"_"&amp;TEXT(J7,"00"&amp;"]")</f>
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="57">
-      <c r="A8" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="54"/>
+      <c r="A8" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="str">
         <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D8,"00")&amp;"_"&amp;TEXT(G8,"00")&amp;"]"</f>
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D8,"00")&amp;"_"&amp;TEXT(G8,"00")&amp;"_"&amp;TEXT(J8,"00"&amp;"]")</f>
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
-      <c r="A9" s="53" t="s">
-        <v>122</v>
+      <c r="A9" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="D9">
         <f>IF(E9=E8, D8, D8+1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="str">
         <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -12758,183 +12525,183 @@
         <v>3</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D9,"00")&amp;"_"&amp;TEXT(G9,"00")&amp;"]"</f>
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9">
         <f>IF(I9=I8, J8+1, 1)</f>
         <v>2</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D9,"00")&amp;"_"&amp;TEXT(G9,"00")&amp;"_"&amp;TEXT(J9,"00"&amp;"]")</f>
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19">
-      <c r="C10" s="54"/>
+      <c r="C10" s="33"/>
       <c r="D10">
-        <f t="shared" ref="D10:D21" si="5">IF(E10=E9, D9, D9+1)</f>
+        <f t="shared" ref="D10:D21" si="3">IF(E10=E9, D9, D9+1)</f>
         <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="str">
         <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D10,"00")&amp;"_"&amp;TEXT(G10,"00")&amp;"]"</f>
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D10,"00")&amp;"_"&amp;TEXT(G10,"00")&amp;"_"&amp;TEXT(J10,"00"&amp;"]")</f>
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="35" customHeight="1">
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D11,"00")&amp;"_"&amp;TEXT(G11,"00")&amp;"]"</f>
         <v>[FC_01_04]</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D11,"00")&amp;"_"&amp;TEXT(G11,"00")&amp;"_"&amp;TEXT(J11,"00"&amp;"]")</f>
         <v>[FC_01_04_01]</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="35" customHeight="1">
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D12,"00")&amp;"_"&amp;TEXT(G12,"00")&amp;"]"</f>
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D12,"00")&amp;"_"&amp;TEXT(G12,"00")&amp;"_"&amp;TEXT(J12,"00"&amp;"]")</f>
         <v>[FC_01_04_02]</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="64" customHeight="1">
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" t="str">
         <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D13,"00")&amp;"_"&amp;TEXT(G13,"00")&amp;"]"</f>
         <v>[FC_01_05]</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>54</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D13,"00")&amp;"_"&amp;TEXT(G13,"00")&amp;"_"&amp;TEXT(J13,"00"&amp;"]")</f>
         <v>[FC_01_05_01]</v>
       </c>
       <c r="L13" t="s">
@@ -12944,7 +12711,7 @@
         <v>53</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O13" s="30" t="s">
         <v>55</v>
@@ -12952,252 +12719,249 @@
     </row>
     <row r="14" spans="1:16" ht="35" customHeight="1">
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D14,"00")&amp;"_"&amp;TEXT(G14,"00")&amp;"]"</f>
         <v>[FC_01_06]</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>46</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D14,"00")&amp;"_"&amp;TEXT(G14,"00")&amp;"_"&amp;TEXT(J14,"00"&amp;"]")</f>
         <v>[FC_01_06_01]</v>
       </c>
       <c r="L14" t="s">
         <v>67</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="35" customHeight="1">
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D15,"00")&amp;"_"&amp;TEXT(G15,"00")&amp;"]"</f>
         <v>[FC_01_07]</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>47</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D15,"00")&amp;"_"&amp;TEXT(G15,"00")&amp;"_"&amp;TEXT(J15,"00"&amp;"]")</f>
         <v>[FC_01_07_01]</v>
       </c>
       <c r="L15" t="s">
         <v>69</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="35" customHeight="1">
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D16,"00")&amp;"_"&amp;TEXT(G16,"00")&amp;"]"</f>
         <v>[FC_02_08]</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>52</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D16,"00")&amp;"_"&amp;TEXT(G16,"00")&amp;"_"&amp;TEXT(J16,"00"&amp;"]")</f>
         <v>[FC_02_08_01]</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="17" spans="4:12" ht="35" customHeight="1" outlineLevel="1">
+    <row r="17" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D17,"00")&amp;"_"&amp;TEXT(G17,"00")&amp;"]"</f>
         <v>[FC_02_09]</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>51</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D17,"00")&amp;"_"&amp;TEXT(G17,"00")&amp;"_"&amp;TEXT(J17,"00"&amp;"]")</f>
         <v>[FC_02_09_01]</v>
       </c>
       <c r="L17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="4:12" ht="35" customHeight="1" outlineLevel="1">
+    <row r="18" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"]"</f>
         <v>[FC_02_10]</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"_"&amp;TEXT(J18,"00"&amp;"]")</f>
         <v>[FC_02_10_01]</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="35" customHeight="1" outlineLevel="1">
+    <row r="19" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" t="str">
         <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"]"</f>
         <v>[FC_02_11]</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"_"&amp;TEXT(J19,"00"&amp;"]")</f>
         <v>[FC_02_11_01]</v>
       </c>
       <c r="L19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="35" customHeight="1">
+    <row r="20" spans="4:12" ht="35" customHeight="1" collapsed="1">
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>データ分析</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D20,"00")&amp;"_"&amp;TEXT(G20,"00")&amp;"]"</f>
         <v>[FC_03_12]</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D20,"00")&amp;"_"&amp;TEXT(G20,"00")&amp;"_"&amp;TEXT(J20,"00"&amp;"]")</f>
         <v>[FC_03_12_01]</v>
       </c>
       <c r="L20" t="s">
@@ -13206,66 +12970,170 @@
     </row>
     <row r="21" spans="4:12" ht="35" customHeight="1">
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f>"[FC_"&amp;TEXT(D21,"00")&amp;"_"&amp;TEXT(G21,"00")&amp;"]"</f>
         <v>[FC_04_13]</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
+        <f>"[FC_"&amp;TEXT(D21,"00")&amp;"_"&amp;TEXT(G21,"00")&amp;"_"&amp;TEXT(J21,"00"&amp;"]")</f>
         <v>[FC_04_13_01]</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" ht="35" customHeight="1">
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(E22, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="4">IF(I22=I21, G21, G21+1)</f>
+        <v>14</v>
+      </c>
+      <c r="H22" t="str">
+        <f>"[FC_"&amp;TEXT(D22,"00")&amp;"_"&amp;TEXT(G22,"00")&amp;"]"</f>
+        <v>[FC_04_14]</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="5">IF(I22=I21, J21+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <f>"[FC_"&amp;TEXT(D22,"00")&amp;"_"&amp;TEXT(G22,"00")&amp;"_"&amp;TEXT(J22,"00"&amp;"]")</f>
+        <v>[FC_04_14_01]</v>
+      </c>
+      <c r="L22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="35" customHeight="1">
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="35" customHeight="1">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" ht="35" customHeight="1">
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G25">
+        <f>IF(I25=I22, G22, G22+1)</f>
+        <v>15</v>
+      </c>
+      <c r="H25" t="str">
+        <f>"[FC_"&amp;TEXT(D25,"00")&amp;"_"&amp;TEXT(G25,"00")&amp;"]"</f>
+        <v>[FC_04_15]</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25">
+        <f>IF(I25=I22, J22+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <f>"[FC_"&amp;TEXT(D25,"00")&amp;"_"&amp;TEXT(G25,"00")&amp;"_"&amp;TEXT(J25,"00"&amp;"]")</f>
+        <v>[FC_04_15_01]</v>
+      </c>
+      <c r="L25" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D4:W1000">
+  <conditionalFormatting sqref="D26:W1003 D4:W24">
     <cfRule type="expression" dxfId="20" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:P1048575">
+  <conditionalFormatting sqref="E4:P1048576">
     <cfRule type="expression" dxfId="19" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:L16 L17:L21 E17:E21">
+  <conditionalFormatting sqref="E16:L16 L17:L25 E17:E25">
     <cfRule type="expression" dxfId="18" priority="27">
       <formula>E16=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G21 J15:K15 J21:K21">
+  <conditionalFormatting sqref="G15 J15:K15 G21:G24 J21:K24">
     <cfRule type="expression" dxfId="17" priority="29">
       <formula>G15=G13</formula>
     </cfRule>
@@ -13280,34 +13148,34 @@
       <formula>F8=F6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q1001">
+  <conditionalFormatting sqref="C4:Q1004">
     <cfRule type="expression" dxfId="14" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD101">
+  <conditionalFormatting sqref="A4:XFD104">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12">
+  <conditionalFormatting sqref="I10:I12 J25:K25 G25">
     <cfRule type="expression" dxfId="12" priority="54">
-      <formula>I10=I6</formula>
+      <formula>G10=G6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1048576:P1048576">
-    <cfRule type="expression" dxfId="11" priority="59">
-      <formula>COUNTA($D1048576:$J1)&gt;=1</formula>
+  <conditionalFormatting sqref="I10:I11 D25:W25">
+    <cfRule type="expression" dxfId="11" priority="73">
+      <formula>D10=D7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="expression" dxfId="10" priority="73">
-      <formula>I10=I7</formula>
+  <conditionalFormatting sqref="A4:XFD103">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD100">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$A4&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D25:W25">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>D25=D21</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13335,12 +13203,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -13551,18 +13419,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -14258,7 +14126,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -14271,7 +14139,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14281,7 +14149,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14291,7 +14159,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14301,7 +14169,7 @@
         <v>65</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14311,7 +14179,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14321,7 +14189,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14331,7 +14199,7 @@
         <v>62</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$K$3:$L$86, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$K$3:$L$89, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14352,45 +14220,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14477,13 +14345,13 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -14505,12 +14373,12 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D8D46E-446B-1A43-9AE6-091215EC83FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B07D32E-491D-4248-8B3C-D16A5F25583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="UI=&gt;" sheetId="7" r:id="rId7"/>
     <sheet name="TOP" sheetId="8" r:id="rId8"/>
-    <sheet name="View" sheetId="9" r:id="rId9"/>
+    <sheet name="Styles" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1583,9 +1583,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,17 +1601,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1643,22 +1649,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1735,6 +1730,11 @@
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1828,6 +1828,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5B283"/>
       <color rgb="FFFF8AD8"/>
       <color rgb="FF73FDD6"/>
     </mruColors>
@@ -9112,1101 +9113,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>627761</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>188313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>99552</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>210437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C3B2B9-FFAF-F644-BC87-19B54561DCD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12006961" y="899513"/>
-          <a:ext cx="4213124" cy="259191"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>208348</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>226114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>528069</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>484999</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>215737</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D72D426-9F38-894F-907B-55AA161217CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13484081" y="1174381"/>
-          <a:ext cx="1267988" cy="463756"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>保存</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281310</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>43015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>883948</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168922</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右矢印 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96599AC6-507B-2C4C-BEC1-708A34A6BAEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15453577" y="2176615"/>
-          <a:ext cx="602638" cy="837107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>777975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>29358</xdr:rowOff>
+      <xdr:rowOff>151596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>432344</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>155265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="右矢印 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82BF31B-5C4D-CE41-AF29-8E645DC7506F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="12157175" y="2162958"/>
-          <a:ext cx="602636" cy="837107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>434941</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60221</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>278717</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78794</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="右矢印 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A5543E-16EB-0742-9ACD-C0141F332338}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="13741809" y="1688553"/>
-          <a:ext cx="729773" cy="792043"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>434942</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>80434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>278718</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99007</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="右矢印 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E60E07-5BAD-A74A-9C6F-65BB90CB4A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="13741810" y="2657032"/>
-          <a:ext cx="729773" cy="792043"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>669233</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>94632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>30260</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>164785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E415CC4D-221D-3F47-B31C-F07D74A0DFCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12048433" y="6732499"/>
-          <a:ext cx="4102360" cy="1255486"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>659118</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>226114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>137035</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>215737</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6519AB-71D8-2845-9DED-F983A4B9CB8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12038318" y="1174381"/>
-          <a:ext cx="1374450" cy="463756"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>取り消し</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590784</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>226114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>30260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>215737</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DB2263-E362-D54F-B12F-7AD90427EE3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14814784" y="1174381"/>
-          <a:ext cx="1336009" cy="463756"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>終了</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>297908</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>850294</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2E9A12-F547-9A4B-8648-1708914E4269}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15470175" y="7238685"/>
-          <a:ext cx="552386" cy="639548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>→</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596056</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>208641</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDC3FD6-BCC5-C84B-B4DF-74B4BDBA22F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14820056" y="7238685"/>
-          <a:ext cx="560852" cy="639548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>↑</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>887552</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>491670</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2A15E7-E540-4D43-B96D-BBDC04739DDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14163285" y="7238685"/>
-          <a:ext cx="552385" cy="639548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>↓</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215661</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>768046</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D459DDE1-552A-894D-AEA9-C68632AECFFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13491394" y="7238685"/>
-          <a:ext cx="552385" cy="639548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>←</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>820423</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>141804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC58521-12BE-8D43-8D00-FBD71EB7D047}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12199623" y="7253804"/>
-          <a:ext cx="1126910" cy="639548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>決定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>731489</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>137776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>909395</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>213591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA858960-0876-BD40-A90F-7DE41B8DB478}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110689" y="6775643"/>
-          <a:ext cx="3970973" cy="312881"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>▲</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>838670</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>138994</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>131069</xdr:rowOff>
+      <xdr:colOff>733804</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66766</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10221,8 +9137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2754810" y="1329935"/>
-          <a:ext cx="4090675" cy="7267801"/>
+          <a:off x="9057499" y="1523196"/>
+          <a:ext cx="4058805" cy="7458970"/>
           <a:chOff x="2857500" y="486833"/>
           <a:chExt cx="4724400" cy="8356600"/>
         </a:xfrm>
@@ -10388,16 +9304,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151047</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47516</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>732201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>837513</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492996</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>201726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8054549-F7AF-9D47-9A97-D7C74B172A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9268530" y="2062865"/>
+          <a:ext cx="3554719" cy="6016076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825873</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392930</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>80488</xdr:rowOff>
+      <xdr:rowOff>192912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10412,12 +9391,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995847" y="2655249"/>
-          <a:ext cx="3531266" cy="4537239"/>
+          <a:off x="9362202" y="2838501"/>
+          <a:ext cx="3360981" cy="4106310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10440,14 +9425,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>Map Area</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
           </a:endParaRPr>
@@ -10458,16 +9436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151047</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>141094</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>740409</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>837513</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>75778</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478394</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10482,8 +9460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995847" y="1800561"/>
-          <a:ext cx="3531266" cy="171750"/>
+          <a:off x="9276738" y="1877297"/>
+          <a:ext cx="3531909" cy="159747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10518,7 +9496,14 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>Notifications</a:t>
+            <a:t>status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> bar</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
@@ -10531,16 +9516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151047</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131673</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>837513</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>234558</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>65583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10555,15 +9540,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995847" y="2028206"/>
-          <a:ext cx="3531266" cy="577019"/>
+          <a:off x="9362202" y="2091983"/>
+          <a:ext cx="3360981" cy="674359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -10588,20 +9574,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>Menu(Cancel,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t> Save, Exit)</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
@@ -10613,16 +9585,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151047</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>107245</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825873</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>837513</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392930</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>24816</xdr:rowOff>
+      <xdr:rowOff>160760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10637,17 +9609,89 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995847" y="7219245"/>
-          <a:ext cx="3531266" cy="1102904"/>
+          <a:off x="9398373" y="7467600"/>
+          <a:ext cx="3377057" cy="694160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80381</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411794</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形吹き出し 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DC931A-A26C-1A47-8E0B-96A64666C57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7668229" y="4204466"/>
+          <a:ext cx="1279894" cy="537939"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 77523"/>
+            <a:gd name="adj2" fmla="val -10485"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10671,22 +9715,101 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>mainContainer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>153176</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>206941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>588438</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>223756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="四角形吹き出し 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD05680-7BBD-024C-8781-910BFAC381F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13488176" y="7979341"/>
+          <a:ext cx="1387762" cy="474015"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -103866"/>
+            <a:gd name="adj2" fmla="val -74606"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Control</a:t>
+            <a:t>controllerLayout</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" baseline="0">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t> Buttons</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -10695,595 +9818,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>836209</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>149822</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57698</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>149822</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C777FCE-1EAA-F94C-8BE4-AB8DB1E80CC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6525809" y="2046355"/>
-          <a:ext cx="3014556" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>836209</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57698</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71427</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAE5111-B09D-A740-B4AF-2A91F3096ECB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6525809" y="8368760"/>
-          <a:ext cx="3014556" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>669179</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>669179</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>60208</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDBF109-A3DA-F042-957D-1242276CC904}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9203579" y="2099733"/>
-          <a:ext cx="0" cy="6257808"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="triangle" w="lg" len="lg"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>836209</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339634</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>8711</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>911891</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8711</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56BD22A-9121-E043-B5B4-8BDF15EB93CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6525809" y="2616444"/>
-          <a:ext cx="1972215" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>836209</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>118463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>911891</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>118463</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC1C13B-746F-3649-B5B0-4855E85DD255}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6525809" y="7230463"/>
-          <a:ext cx="1972215" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73377</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73377</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>138602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A15EFB-B694-944F-B1E7-E4BEB5D894BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7659510" y="2652262"/>
-          <a:ext cx="0" cy="4598340"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="triangle" w="lg" len="lg"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73377</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>74411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73377</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FFD9A2-4DF2-264C-BEFF-932B985D306A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7659510" y="8371744"/>
-          <a:ext cx="0" cy="670656"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="lg" len="lg"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73377</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73377</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99219</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D899AB4-C348-FB4C-A101-7E23563ED33E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7659510" y="1303867"/>
-          <a:ext cx="0" cy="691885"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="triangle" w="lg" len="lg"/>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>71049</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>568391</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>124336</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11227CD-5F72-E141-BE60-6C2DD0BE23A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7673287" y="1065734"/>
-          <a:ext cx="497342" cy="213147"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="lg" len="lg"/>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>71049</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>22026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>196103</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEACC9D-5F97-3D42-BCAD-CBB19819520E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7691049" y="8538497"/>
-          <a:ext cx="489245" cy="174077"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="lg" len="lg"/>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
+      <xdr:rowOff>150250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52">
+        <xdr:cNvPr id="45" name="四角形吹き出し 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2FB48A-F4A3-434F-9925-347D0CBFCCCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22F5EEF-019C-8B4B-9055-DF4B96FC6471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11291,20 +9842,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8737600" y="4741334"/>
-          <a:ext cx="999067" cy="355600"/>
+          <a:off x="13427868" y="2288507"/>
+          <a:ext cx="1138981" cy="337439"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -118205"/>
+            <a:gd name="adj2" fmla="val -22187"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -11330,14 +9885,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1.0</a:t>
+            <a:t>menuLayout</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11349,23 +9904,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>491066</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825873</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392930</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53">
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF9CAB0-8FF6-6644-B646-5BAF29932A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E60363-7768-454D-9155-C15CD0AE48B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11373,20 +9928,87 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7128933" y="4741334"/>
-          <a:ext cx="999067" cy="355600"/>
+          <a:off x="9398373" y="7099300"/>
+          <a:ext cx="3377057" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
           </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76976</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形吹き出し 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9FC93A-E4E3-2248-8BF1-E4A73517DFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411976" y="6667501"/>
+          <a:ext cx="3237724" cy="947656"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -74436"/>
+            <a:gd name="adj2" fmla="val 12484"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -11410,19 +10032,39 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>0.7</a:t>
+            <a:t>assetButtonLayout</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Touchable Opacity as button)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11431,23 +10073,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541198</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>888604</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>591999</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>118535</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54">
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF93BA2-525A-2A44-8E86-CB933ED5FA92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA3134D-16B0-514A-BC30-37EF0C1BB589}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11455,20 +10097,617 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8161198" y="8890001"/>
-          <a:ext cx="1003301" cy="352481"/>
+          <a:off x="9461104" y="7512050"/>
+          <a:ext cx="482996" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
           </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489824</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7687EF-B6D6-DB43-84EC-285F06AAAE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10014824" y="7512050"/>
+          <a:ext cx="482996" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91044</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>574040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00E15CE-56BB-D547-874A-06BA6C54D9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10568544" y="7512050"/>
+          <a:ext cx="482996" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>644764</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DC7BBD-EA1B-6D48-B783-3948CBEAC68D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11122264" y="7512050"/>
+          <a:ext cx="482996" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>245984</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>728980</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B151BE-8A94-D64F-863E-DB0990F79DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11675984" y="7512050"/>
+          <a:ext cx="482996" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>799704</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4B766-5F24-F54B-A62A-081BF83C05C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12229704" y="7512050"/>
+          <a:ext cx="482996" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>888604</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9D8278-7BEA-D745-B02B-F842A644D552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9461104" y="2178050"/>
+          <a:ext cx="927496" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120254</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAD6B66-E3F1-0346-B772-634D3C7C4907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10597754" y="2178050"/>
+          <a:ext cx="927496" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304404</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9668B8C-D750-7B40-9946-A309C3450C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734404" y="2178050"/>
+          <a:ext cx="927496" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>850504</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2A581-6D0C-8542-AA74-3DCCF5227507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9423004" y="2914650"/>
+          <a:ext cx="3327796" cy="4083050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:srgbClr val="F5B283"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="F5B283"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -11493,18 +10732,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0.1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11513,23 +10743,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541198</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>116975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85634</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>591999</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1561</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
+        <xdr:cNvPr id="42" name="四角形吹き出し 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51050825-F465-5B41-856A-5367DB5810F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D62C96-780A-BD45-BFFA-106CAD86CD6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11537,20 +10767,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8161198" y="818817"/>
-          <a:ext cx="1003301" cy="352481"/>
+          <a:off x="13420634" y="5419210"/>
+          <a:ext cx="1082766" cy="333890"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -118205"/>
+            <a:gd name="adj2" fmla="val -22187"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -11574,19 +10808,261 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>0.2</a:t>
+            <a:t>mapLayout</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98334</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="四角形吹き出し 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7328C474-C2B2-B642-8DDA-351B5D15B0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13433334" y="4276210"/>
+          <a:ext cx="2009866" cy="651390"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91666"/>
+            <a:gd name="adj2" fmla="val -26086"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:srgbClr val="F5B283"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Touchable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Opacity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Invidible)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>206941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334438</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="四角形吹き出し 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71D66A7-011B-FE46-9E52-B8F03BFE18D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="7979341"/>
+          <a:ext cx="1706038" cy="669359"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 94877"/>
+            <a:gd name="adj2" fmla="val -78515"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Touchable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Opacity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(as button)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11993,7 +11469,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -12004,7 +11480,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="36"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
@@ -12013,7 +11489,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
@@ -12043,7 +11519,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -12054,7 +11530,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="38"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -12064,11 +11540,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -12079,7 +11555,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="40"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="7" t="s">
         <v>80</v>
       </c>
@@ -12088,7 +11564,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="40"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
@@ -12097,7 +11573,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="7" t="s">
         <v>82</v>
       </c>
@@ -12107,8 +11583,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -12122,60 +11598,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -12188,6 +11659,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -12203,7 +11679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
   <dimension ref="A2:P25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -12240,30 +11716,30 @@
       <c r="C2" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="44" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12288,10 +11764,10 @@
       <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="35" customHeight="1" collapsed="1">
       <c r="C4" s="33">
@@ -12311,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f>"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
+        <f t="shared" ref="H4:H22" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
         <v>[FC_01_01]</v>
       </c>
       <c r="I4" t="s">
@@ -12321,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f>"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
+        <f t="shared" ref="K4:K22" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
         <v>[FC_01_01_01]</v>
       </c>
       <c r="L4" t="s">
@@ -12354,7 +11830,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="str">
-        <f>"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -12365,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f>"[FC_"&amp;TEXT(D5,"00")&amp;"_"&amp;TEXT(G5,"00")&amp;"_"&amp;TEXT(J5,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
@@ -12377,7 +11853,7 @@
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
       <c r="D6">
-        <f t="shared" ref="D6:D8" si="0">IF(E6=E5, D5, D5+1)</f>
+        <f t="shared" ref="D6:D8" si="2">IF(E6=E5, D5, D5+1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
@@ -12388,11 +11864,11 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G21" si="1">IF(I6=I5, G5, G5+1)</f>
+        <f t="shared" ref="G6:G21" si="3">IF(I6=I5, G5, G5+1)</f>
         <v>2</v>
       </c>
       <c r="H6" t="str">
-        <f>"[FC_"&amp;TEXT(D6,"00")&amp;"_"&amp;TEXT(G6,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -12403,7 +11879,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="str">
-        <f>"[FC_"&amp;TEXT(D6,"00")&amp;"_"&amp;TEXT(G6,"00")&amp;"_"&amp;TEXT(J6,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_02_02]</v>
       </c>
       <c r="L6" s="25" t="s">
@@ -12418,7 +11894,7 @@
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -12429,22 +11905,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H7" t="str">
-        <f>"[FC_"&amp;TEXT(D7,"00")&amp;"_"&amp;TEXT(G7,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>101</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J21" si="2">IF(I7=I6, J6+1, 1)</f>
+        <f t="shared" ref="J7:J21" si="4">IF(I7=I6, J6+1, 1)</f>
         <v>3</v>
       </c>
       <c r="K7" t="str">
-        <f>"[FC_"&amp;TEXT(D7,"00")&amp;"_"&amp;TEXT(G7,"00")&amp;"_"&amp;TEXT(J7,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
@@ -12463,7 +11939,7 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E8" s="27" t="s">
@@ -12474,22 +11950,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H8" t="str">
-        <f>"[FC_"&amp;TEXT(D8,"00")&amp;"_"&amp;TEXT(G8,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K8" t="str">
-        <f>"[FC_"&amp;TEXT(D8,"00")&amp;"_"&amp;TEXT(G8,"00")&amp;"_"&amp;TEXT(J8,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
@@ -12525,7 +12001,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="str">
-        <f>"[FC_"&amp;TEXT(D9,"00")&amp;"_"&amp;TEXT(G9,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
@@ -12536,7 +12012,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="str">
-        <f>"[FC_"&amp;TEXT(D9,"00")&amp;"_"&amp;TEXT(G9,"00")&amp;"_"&amp;TEXT(J9,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
@@ -12552,7 +12028,7 @@
     <row r="10" spans="1:16" ht="19">
       <c r="C10" s="33"/>
       <c r="D10">
-        <f t="shared" ref="D10:D21" si="3">IF(E10=E9, D9, D9+1)</f>
+        <f t="shared" ref="D10:D21" si="5">IF(E10=E9, D9, D9+1)</f>
         <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
@@ -12563,22 +12039,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H10" t="str">
-        <f>"[FC_"&amp;TEXT(D10,"00")&amp;"_"&amp;TEXT(G10,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>106</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K10" t="str">
-        <f>"[FC_"&amp;TEXT(D10,"00")&amp;"_"&amp;TEXT(G10,"00")&amp;"_"&amp;TEXT(J10,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
@@ -12593,7 +12069,7 @@
     </row>
     <row r="11" spans="1:16" ht="35" customHeight="1">
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -12604,22 +12080,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H11" t="str">
-        <f>"[FC_"&amp;TEXT(D11,"00")&amp;"_"&amp;TEXT(G11,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_04]</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>107</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K11" t="str">
-        <f>"[FC_"&amp;TEXT(D11,"00")&amp;"_"&amp;TEXT(G11,"00")&amp;"_"&amp;TEXT(J11,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_04_01]</v>
       </c>
       <c r="L11" s="25" t="s">
@@ -12634,7 +12110,7 @@
     </row>
     <row r="12" spans="1:16" ht="35" customHeight="1">
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -12645,22 +12121,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H12" t="str">
-        <f>"[FC_"&amp;TEXT(D12,"00")&amp;"_"&amp;TEXT(G12,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>107</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K12" t="str">
-        <f>"[FC_"&amp;TEXT(D12,"00")&amp;"_"&amp;TEXT(G12,"00")&amp;"_"&amp;TEXT(J12,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_04_02]</v>
       </c>
       <c r="L12" s="25" t="s">
@@ -12675,7 +12151,7 @@
     </row>
     <row r="13" spans="1:16" ht="64" customHeight="1">
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
@@ -12686,22 +12162,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H13" t="str">
-        <f>"[FC_"&amp;TEXT(D13,"00")&amp;"_"&amp;TEXT(G13,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_05]</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>54</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f>"[FC_"&amp;TEXT(D13,"00")&amp;"_"&amp;TEXT(G13,"00")&amp;"_"&amp;TEXT(J13,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_05_01]</v>
       </c>
       <c r="L13" t="s">
@@ -12719,7 +12195,7 @@
     </row>
     <row r="14" spans="1:16" ht="35" customHeight="1">
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -12730,22 +12206,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H14" t="str">
-        <f>"[FC_"&amp;TEXT(D14,"00")&amp;"_"&amp;TEXT(G14,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_06]</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>46</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f>"[FC_"&amp;TEXT(D14,"00")&amp;"_"&amp;TEXT(G14,"00")&amp;"_"&amp;TEXT(J14,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_06_01]</v>
       </c>
       <c r="L14" t="s">
@@ -12757,7 +12233,7 @@
     </row>
     <row r="15" spans="1:16" ht="35" customHeight="1">
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -12768,22 +12244,22 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H15" t="str">
-        <f>"[FC_"&amp;TEXT(D15,"00")&amp;"_"&amp;TEXT(G15,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_01_07]</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>47</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K15" t="str">
-        <f>"[FC_"&amp;TEXT(D15,"00")&amp;"_"&amp;TEXT(G15,"00")&amp;"_"&amp;TEXT(J15,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_01_07_01]</v>
       </c>
       <c r="L15" t="s">
@@ -12795,7 +12271,7 @@
     </row>
     <row r="16" spans="1:16" ht="35" customHeight="1">
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -12806,22 +12282,22 @@
         <v>釣果記録</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H16" t="str">
-        <f>"[FC_"&amp;TEXT(D16,"00")&amp;"_"&amp;TEXT(G16,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_02_08]</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>52</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f>"[FC_"&amp;TEXT(D16,"00")&amp;"_"&amp;TEXT(G16,"00")&amp;"_"&amp;TEXT(J16,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_02_08_01]</v>
       </c>
       <c r="L16" t="s">
@@ -12830,7 +12306,7 @@
     </row>
     <row r="17" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E17" s="27" t="s">
@@ -12841,22 +12317,22 @@
         <v>釣果記録</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H17" t="str">
-        <f>"[FC_"&amp;TEXT(D17,"00")&amp;"_"&amp;TEXT(G17,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_02_09]</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>51</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K17" t="str">
-        <f>"[FC_"&amp;TEXT(D17,"00")&amp;"_"&amp;TEXT(G17,"00")&amp;"_"&amp;TEXT(J17,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_02_09_01]</v>
       </c>
       <c r="L17" t="s">
@@ -12865,7 +12341,7 @@
     </row>
     <row r="18" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -12876,22 +12352,22 @@
         <v>釣果記録</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H18" t="str">
-        <f>"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_02_10]</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K18" t="str">
-        <f>"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"_"&amp;TEXT(J18,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_02_10_01]</v>
       </c>
       <c r="L18" t="s">
@@ -12900,7 +12376,7 @@
     </row>
     <row r="19" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -12911,22 +12387,22 @@
         <v>釣果記録</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H19" t="str">
-        <f>"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_02_11]</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K19" t="str">
-        <f>"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"_"&amp;TEXT(J19,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_02_11_01]</v>
       </c>
       <c r="L19" t="s">
@@ -12935,7 +12411,7 @@
     </row>
     <row r="20" spans="4:12" ht="35" customHeight="1" collapsed="1">
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -12946,22 +12422,22 @@
         <v>データ分析</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H20" t="str">
-        <f>"[FC_"&amp;TEXT(D20,"00")&amp;"_"&amp;TEXT(G20,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_03_12]</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K20" t="str">
-        <f>"[FC_"&amp;TEXT(D20,"00")&amp;"_"&amp;TEXT(G20,"00")&amp;"_"&amp;TEXT(J20,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_03_12_01]</v>
       </c>
       <c r="L20" t="s">
@@ -12970,7 +12446,7 @@
     </row>
     <row r="21" spans="4:12" ht="35" customHeight="1">
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -12981,22 +12457,22 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H21" t="str">
-        <f>"[FC_"&amp;TEXT(D21,"00")&amp;"_"&amp;TEXT(G21,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_04_13]</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>129</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K21" t="str">
-        <f>"[FC_"&amp;TEXT(D21,"00")&amp;"_"&amp;TEXT(G21,"00")&amp;"_"&amp;TEXT(J21,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_04_13_01]</v>
       </c>
       <c r="L21" t="s">
@@ -13015,22 +12491,22 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="4">IF(I22=I21, G21, G21+1)</f>
+        <f t="shared" ref="G22" si="6">IF(I22=I21, G21, G21+1)</f>
         <v>14</v>
       </c>
       <c r="H22" t="str">
-        <f>"[FC_"&amp;TEXT(D22,"00")&amp;"_"&amp;TEXT(G22,"00")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[FC_04_14]</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>128</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="5">IF(I22=I21, J21+1, 1)</f>
+        <f t="shared" ref="J22" si="7">IF(I22=I21, J21+1, 1)</f>
         <v>1</v>
       </c>
       <c r="K22" t="str">
-        <f>"[FC_"&amp;TEXT(D22,"00")&amp;"_"&amp;TEXT(G22,"00")&amp;"_"&amp;TEXT(J22,"00"&amp;"]")</f>
+        <f t="shared" si="1"/>
         <v>[FC_04_14_01]</v>
       </c>
       <c r="L22" t="s">
@@ -13174,7 +12650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:W25">
-    <cfRule type="expression" dxfId="0" priority="79">
+    <cfRule type="expression" dxfId="9" priority="79">
       <formula>D25=D21</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13203,12 +12679,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -13419,18 +12895,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -14220,45 +13696,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14365,8 +13841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B07D32E-491D-4248-8B3C-D16A5F25583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E53A8-7621-F24E-9B3F-6E05FD2943F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1583,6 +1583,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,9 +1602,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9113,23 +9113,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>484999</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>151596</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71583</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>217571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>733804</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66766</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>952005</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>132741</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23">
+        <xdr:cNvPr id="5" name="グループ化 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E6AE5A-F078-7746-A87C-EDDC567C02BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DEE9AF-F0EE-FD46-8D6E-5D899B1DE010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9137,18 +9137,194 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9057499" y="1523196"/>
-          <a:ext cx="4058805" cy="7458970"/>
-          <a:chOff x="2857500" y="486833"/>
-          <a:chExt cx="4724400" cy="8356600"/>
+          <a:off x="1024083" y="1360571"/>
+          <a:ext cx="9452922" cy="7458970"/>
+          <a:chOff x="1033704" y="1372116"/>
+          <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="グループ化 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E6AE5A-F078-7746-A87C-EDDC567C02BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2909545" y="1372116"/>
+            <a:ext cx="4097289" cy="7535170"/>
+            <a:chOff x="2857500" y="486833"/>
+            <a:chExt cx="4724400" cy="8356600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="角丸四角形 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC9AE9B-1DBC-384A-AE0E-EE0CE3719600}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2857500" y="486833"/>
+              <a:ext cx="4724400" cy="8356600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8096"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="角丸四角形 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65A6B21-D021-EE49-9D30-CF99EC4F8F14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3116961" y="882581"/>
+              <a:ext cx="4213124" cy="7128934"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="角丸四角形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9521E5B5-16A0-7045-8760-E1EA11C69E7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4841158" y="8202424"/>
+              <a:ext cx="846666" cy="491068"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 47210"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="角丸四角形 1">
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC9AE9B-1DBC-384A-AE0E-EE0CE3719600}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8054549-F7AF-9D47-9A97-D7C74B172A84}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9156,49 +9332,47 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2857500" y="486833"/>
-            <a:ext cx="4724400" cy="8356600"/>
+            <a:off x="3156747" y="1950542"/>
+            <a:ext cx="3609279" cy="6168067"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8096"/>
-            </a:avLst>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
           </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="角丸四角形 2">
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65A6B21-D021-EE49-9D30-CF99EC4F8F14}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF02D5A-445C-4740-BDD6-808A2BCD2C6B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9206,52 +9380,53 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3116961" y="882581"/>
-            <a:ext cx="4213124" cy="7128934"/>
+            <a:off x="3250419" y="2743716"/>
+            <a:ext cx="3410044" cy="4211534"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 0"/>
-            </a:avLst>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="角丸四角形 3">
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9521E5B5-16A0-7045-8760-E1EA11C69E7F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD6C41C-F1DA-EF40-9E90-340129C5E21C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9259,43 +9434,1310 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4841158" y="8202424"/>
-            <a:ext cx="846666" cy="491068"/>
+            <a:off x="3164955" y="1759129"/>
+            <a:ext cx="3586469" cy="165592"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>status</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> bar</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30C7B12-C883-1C4D-ABCD-4BB5571AE4CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="1979660"/>
+            <a:ext cx="3410044" cy="691897"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1842D40-A205-BB46-99AC-C27E3DCD21E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="7376556"/>
+            <a:ext cx="3410044" cy="701087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="四角形吹き出し 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DC931A-A26C-1A47-8E0B-96A64666C57B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1537308" y="4144756"/>
+            <a:ext cx="1293533" cy="555476"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
-              <a:gd name="adj" fmla="val 47210"/>
+              <a:gd name="adj1" fmla="val 77523"/>
+              <a:gd name="adj2" fmla="val -10485"/>
             </a:avLst>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>mainContainer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="四角形吹き出し 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD05680-7BBD-024C-8781-910BFAC381F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7382829" y="7892915"/>
+            <a:ext cx="1402883" cy="478633"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -103866"/>
+              <a:gd name="adj2" fmla="val -74606"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>controllerLayout</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="四角形吹き出し 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22F5EEF-019C-8B4B-9055-DF4B96FC6471}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7378787" y="2182030"/>
+            <a:ext cx="1152623" cy="343285"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -118205"/>
+              <a:gd name="adj2" fmla="val -22187"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>menuLayout</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E60363-7768-454D-9155-C15CD0AE48B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="7005947"/>
+            <a:ext cx="3410044" cy="307109"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="四角形吹き出し 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9FC93A-E4E3-2248-8BF1-E4A73517DFEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7306629" y="6569530"/>
+            <a:ext cx="3266588" cy="956892"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -74436"/>
+              <a:gd name="adj2" fmla="val 12484"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>assetButtonLayout</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(Touchable Opacity as button)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="正方形/長方形 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA3134D-16B0-514A-BC30-37EF0C1BB589}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3313150" y="7421006"/>
+            <a:ext cx="487120" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7687EF-B6D6-DB43-84EC-285F06AAAE55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3876491" y="7421006"/>
+            <a:ext cx="487119" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00E15CE-56BB-D547-874A-06BA6C54D9C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4434334" y="7421006"/>
+            <a:ext cx="488494" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="正方形/長方形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DC7BBD-EA1B-6D48-B783-3948CBEAC68D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4993552" y="7421006"/>
+            <a:ext cx="487120" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="正方形/長方形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B151BE-8A94-D64F-863E-DB0990F79DE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5551396" y="7421006"/>
+            <a:ext cx="488494" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="正方形/長方形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4B766-5F24-F54B-A62A-081BF83C05C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6110614" y="7421006"/>
+            <a:ext cx="487119" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9D8278-7BEA-D745-B02B-F842A644D552}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3313150" y="2033897"/>
+            <a:ext cx="937117" cy="572077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAD6B66-E3F1-0346-B772-634D3C7C4907}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4463544" y="2033897"/>
+            <a:ext cx="937118" cy="572077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="正方形/長方形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9668B8C-D750-7B40-9946-A309C3450C78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5609816" y="2033897"/>
+            <a:ext cx="937117" cy="572077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="正方形/長方形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2A581-6D0C-8542-AA74-3DCCF5227507}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3275050" y="2777424"/>
+            <a:ext cx="3360783" cy="4124614"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:srgbClr val="92D050"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:srgbClr val="F5B283"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="F5B283"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="四角形吹き出し 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D62C96-780A-BD45-BFFA-106CAD86CD6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7315287" y="5307384"/>
+            <a:ext cx="1092389" cy="338508"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -118205"/>
+              <a:gd name="adj2" fmla="val -22187"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>mapLayout</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="四角形吹き出し 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7328C474-C2B2-B642-8DDA-351B5D15B0FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7327987" y="4152839"/>
+            <a:ext cx="2029110" cy="658317"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -91666"/>
+              <a:gd name="adj2" fmla="val -26086"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:srgbClr val="92D050"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:srgbClr val="F5B283"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Touchable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Opacity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(Invidible)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="四角形吹き出し 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71D66A7-011B-FE46-9E52-B8F03BFE18D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1033704" y="7892915"/>
+            <a:ext cx="1719781" cy="676286"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 94877"/>
+              <a:gd name="adj2" fmla="val -78515"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Touchable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Opacity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(as button)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -9304,1769 +10746,1635 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>732201</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>37295</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>217571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>492996</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>201726</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278519</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>132741</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="グループ化 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8054549-F7AF-9D47-9A97-D7C74B172A84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4A0B3-B24D-F041-BD32-3C3649C780FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9268530" y="2062865"/>
-          <a:ext cx="3554719" cy="6016076"/>
+          <a:off x="11790218" y="1360571"/>
+          <a:ext cx="9443301" cy="7458970"/>
+          <a:chOff x="1033704" y="1372116"/>
+          <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>825873</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>137742</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>392930</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>192912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF02D5A-445C-4740-BDD6-808A2BCD2C6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9362202" y="2838501"/>
-          <a:ext cx="3360981" cy="4106310"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>740409</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76791</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>478394</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11474</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD6C41C-F1DA-EF40-9E90-340129C5E21C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9276738" y="1877297"/>
-          <a:ext cx="3531909" cy="159747"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="75" name="グループ化 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF238A37-D6DC-4146-8209-A27FB0445574}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2909545" y="1372116"/>
+            <a:ext cx="4097289" cy="7535170"/>
+            <a:chOff x="2857500" y="486833"/>
+            <a:chExt cx="4724400" cy="8356600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="99" name="角丸四角形 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D6A138-739E-484D-8619-CF6DF7994040}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2857500" y="486833"/>
+              <a:ext cx="4724400" cy="8356600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8096"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="角丸四角形 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EFDE43-FA4A-314E-9AA4-277D02D22D3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3116961" y="882581"/>
+              <a:ext cx="4213124" cy="7128934"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="101" name="角丸四角形 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B641108E-E22F-BF4E-AB41-005D20D1E84A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4841158" y="8202424"/>
+              <a:ext cx="846666" cy="491068"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 47210"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00AED25-77BA-C442-9DE2-31C94EFE220B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3156747" y="1950542"/>
+            <a:ext cx="3609279" cy="6168067"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="正方形/長方形 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A990454B-B0DB-D443-9194-596AFA03F1D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="2743716"/>
+            <a:ext cx="3410044" cy="4211534"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t> bar</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>825873</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>392930</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>65583</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30C7B12-C883-1C4D-ABCD-4BB5571AE4CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9362202" y="2091983"/>
-          <a:ext cx="3360981" cy="674359"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>825873</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>392930</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>160760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1842D40-A205-BB46-99AC-C27E3DCD21E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9398373" y="7467600"/>
-          <a:ext cx="3377057" cy="694160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>80381</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>153327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>411794</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>16076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形吹き出し 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DC931A-A26C-1A47-8E0B-96A64666C57B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7668229" y="4204466"/>
-          <a:ext cx="1279894" cy="537939"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 77523"/>
-            <a:gd name="adj2" fmla="val -10485"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="正方形/長方形 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A93BF9-83C4-254A-9780-DB60628677EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3164955" y="1759129"/>
+            <a:ext cx="3586469" cy="165592"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>mainContainer</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>153176</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>206941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>588438</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>223756</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="四角形吹き出し 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD05680-7BBD-024C-8781-910BFAC381F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13488176" y="7979341"/>
-          <a:ext cx="1387762" cy="474015"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -103866"/>
-            <a:gd name="adj2" fmla="val -74606"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>status</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> bar</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE23325-8467-CE44-8851-AE6490396BA0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="1979660"/>
+            <a:ext cx="3410044" cy="691897"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD496E1-E370-C845-B97F-6B73B60A891F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="7376556"/>
+            <a:ext cx="3410044" cy="701087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="四角形吹き出し 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C93592-BA59-BD43-939B-1E2D20C19EC0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1537308" y="4144756"/>
+            <a:ext cx="1293533" cy="555476"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 77523"/>
+              <a:gd name="adj2" fmla="val -10485"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>mainContainer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="四角形吹き出し 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E96101-CE8F-9442-AC44-2ECF8B2DA6CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7382829" y="7892915"/>
+            <a:ext cx="1402883" cy="478633"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -103866"/>
+              <a:gd name="adj2" fmla="val -74606"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>controllerLayout</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>controllerLayout</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="四角形吹き出し 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25BDABC-371D-4D4C-9A5F-0DEACB407359}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7378787" y="2182030"/>
+            <a:ext cx="1152623" cy="343285"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -118205"/>
+              <a:gd name="adj2" fmla="val -22187"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149134</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>339634</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>150250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="四角形吹き出し 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22F5EEF-019C-8B4B-9055-DF4B96FC6471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13427868" y="2288507"/>
-          <a:ext cx="1138981" cy="337439"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -118205"/>
-            <a:gd name="adj2" fmla="val -22187"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>menuLayout</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>menuLayout</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A5D233-9DAB-0C4D-970E-AC1A52AC73FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250419" y="7005947"/>
+            <a:ext cx="3410044" cy="307109"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="四角形吹き出し 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06D8F90-580B-004D-8E11-74AE95C12768}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7306629" y="6569530"/>
+            <a:ext cx="3266588" cy="956892"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -74436"/>
+              <a:gd name="adj2" fmla="val 12484"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>825873</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>392930</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E60363-7768-454D-9155-C15CD0AE48B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9398373" y="7099300"/>
-          <a:ext cx="3377057" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76976</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>71357</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="四角形吹き出し 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9FC93A-E4E3-2248-8BF1-E4A73517DFEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13411976" y="6667501"/>
-          <a:ext cx="3237724" cy="947656"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -74436"/>
-            <a:gd name="adj2" fmla="val 12484"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>assetButtonLayout</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(Touchable Opacity as button)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>assetButtonLayout</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E788E7A-68F6-0749-A18F-F200DEF6FE09}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3313150" y="7421006"/>
+            <a:ext cx="487120" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="正方形/長方形 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D789D5-2AD0-F04B-AA76-EF2081BF366F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3876491" y="7421006"/>
+            <a:ext cx="487119" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="正方形/長方形 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CEE455-AE6F-CC44-9B2A-27D90369E3BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4434334" y="7421006"/>
+            <a:ext cx="488494" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="正方形/長方形 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24002256-3FE6-D54F-AE3E-70DCEBEB77BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4993552" y="7421006"/>
+            <a:ext cx="487120" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="正方形/長方形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18326176-7DE0-F644-A79F-56D81E76EC2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5551396" y="7421006"/>
+            <a:ext cx="488494" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72FA013-4A1E-CE43-9832-DD42A62AA2EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6110614" y="7421006"/>
+            <a:ext cx="487119" cy="603827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C4022D-2795-4E40-B3A9-4C3883C90896}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3313150" y="2033897"/>
+            <a:ext cx="937117" cy="572077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="正方形/長方形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884932C5-15CF-5A48-8923-1525F5BFD1ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4463544" y="2033897"/>
+            <a:ext cx="937118" cy="572077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="正方形/長方形 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E9CC3D-1092-E34D-BB6B-C5FD043319FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5609816" y="2033897"/>
+            <a:ext cx="937117" cy="572077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B117DA-3B6E-9D41-8133-40246F99A44E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3275050" y="2777424"/>
+            <a:ext cx="3360783" cy="4124614"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:srgbClr val="92D050"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:srgbClr val="F5B283"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="F5B283"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="四角形吹き出し 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBF9ACB-770C-9544-9C87-0A0B46E952E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7315287" y="5307384"/>
+            <a:ext cx="1092389" cy="338508"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -118205"/>
+              <a:gd name="adj2" fmla="val -22187"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>mapLayout</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="四角形吹き出し 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817A496C-EC2E-5547-8577-884010308D9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7327987" y="4152839"/>
+            <a:ext cx="2029110" cy="658317"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -91666"/>
+              <a:gd name="adj2" fmla="val -26086"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:srgbClr val="92D050"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:srgbClr val="F5B283"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Touchable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Opacity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(Invidible)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="四角形吹き出し 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B7544A-55BF-9945-A6C8-A7E5E705D424}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1033704" y="7892915"/>
+            <a:ext cx="1719781" cy="676286"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 94877"/>
+              <a:gd name="adj2" fmla="val -78515"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Touchable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Opacity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(as button)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(Touchable Opacity as button)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>888604</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA3134D-16B0-514A-BC30-37EF0C1BB589}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9461104" y="7512050"/>
-          <a:ext cx="482996" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>489824</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7687EF-B6D6-DB43-84EC-285F06AAAE55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10014824" y="7512050"/>
-          <a:ext cx="482996" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91044</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>574040</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00E15CE-56BB-D547-874A-06BA6C54D9C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10568544" y="7512050"/>
-          <a:ext cx="482996" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>644764</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DC7BBD-EA1B-6D48-B783-3948CBEAC68D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11122264" y="7512050"/>
-          <a:ext cx="482996" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>245984</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>728980</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B151BE-8A94-D64F-863E-DB0990F79DE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11675984" y="7512050"/>
-          <a:ext cx="482996" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>799704</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4B766-5F24-F54B-A62A-081BF83C05C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12229704" y="7512050"/>
-          <a:ext cx="482996" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>888604</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9D8278-7BEA-D745-B02B-F842A644D552}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9461104" y="2178050"/>
-          <a:ext cx="927496" cy="565150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>120254</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAD6B66-E3F1-0346-B772-634D3C7C4907}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10597754" y="2178050"/>
-          <a:ext cx="927496" cy="565150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304404</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9668B8C-D750-7B40-9946-A309C3450C78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11734404" y="2178050"/>
-          <a:ext cx="927496" cy="565150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>850504</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2A581-6D0C-8542-AA74-3DCCF5227507}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9423004" y="2914650"/>
-          <a:ext cx="3327796" cy="4083050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:pattFill prst="wdUpDiag">
-          <a:fgClr>
-            <a:srgbClr val="92D050"/>
-          </a:fgClr>
-          <a:bgClr>
-            <a:srgbClr val="F5B283"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="F5B283"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85634</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="四角形吹き出し 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D62C96-780A-BD45-BFFA-106CAD86CD6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13420634" y="5419210"/>
-          <a:ext cx="1082766" cy="333890"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -118205"/>
-            <a:gd name="adj2" fmla="val -22187"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>mapLayout</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>98334</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="四角形吹き出し 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7328C474-C2B2-B642-8DDA-351B5D15B0FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13433334" y="4276210"/>
-          <a:ext cx="2009866" cy="651390"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -91666"/>
-            <a:gd name="adj2" fmla="val -26086"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:pattFill prst="wdUpDiag">
-          <a:fgClr>
-            <a:srgbClr val="92D050"/>
-          </a:fgClr>
-          <a:bgClr>
-            <a:srgbClr val="F5B283"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Touchable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Opacity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(Invidible)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>206941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>334438</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="四角形吹き出し 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71D66A7-011B-FE46-9E52-B8F03BFE18D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7200900" y="7979341"/>
-          <a:ext cx="1706038" cy="669359"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 94877"/>
-            <a:gd name="adj2" fmla="val -78515"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Touchable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Opacity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(as button)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11469,7 +12777,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11480,7 +12788,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
@@ -11489,7 +12797,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
@@ -11519,7 +12827,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -11530,7 +12838,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -11540,11 +12848,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -11555,7 +12863,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="7" t="s">
         <v>80</v>
       </c>
@@ -11564,7 +12872,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
@@ -11573,7 +12881,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="7" t="s">
         <v>82</v>
       </c>
@@ -11583,8 +12891,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -11598,55 +12906,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -11659,11 +12972,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -13841,7 +15149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H7" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E53A8-7621-F24E-9B3F-6E05FD2943F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE74A6-C8A0-2B4C-AD2E-0B9107EAB281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="UI=&gt;" sheetId="7" r:id="rId7"/>
     <sheet name="TOP" sheetId="8" r:id="rId8"/>
     <sheet name="Styles" sheetId="9" r:id="rId9"/>
+    <sheet name="DB=&gt;" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -810,16 +811,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイコン単体表示(SVG)</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">タンタイ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイコンの選択</t>
     <rPh sb="4" eb="5">
       <t>ノ</t>
@@ -933,23 +924,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">ヒョウジスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アイコン（SVG画像）のレンダリング
-・画像サイズが指定できると尚良し</t>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">ガゾウサイズ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">シテイ </t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t xml:space="preserve">ナオヨシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1269,6 +1243,73 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アイコン単体表示</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">タンタイ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイコン（PNG画像）のレンダリング
+・画像サイズが指定できると尚良し</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ナオヨシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Image /&gt;コンポーネント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Image /&gt;コンポーネントで表示できた。
+サイズの指定も可能。縦横比も変更可。</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヒョウジデキタ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シテイモ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">ジュウオウヒ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ヘンコウカ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセット（画像群）の扱い方</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ガゾウグン </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">グｎ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">アツカイカタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1279,7 +1320,7 @@
     <numFmt numFmtId="177" formatCode="yyyy"/>
     <numFmt numFmtId="178" formatCode="mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1303,6 +1344,14 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="MeiryoUI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MeiryoUI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1480,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,9 +1632,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1602,6 +1648,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,6 +1697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9137,8 +9189,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1024083" y="1360571"/>
-          <a:ext cx="9452922" cy="7458970"/>
+          <a:off x="1019850" y="1402904"/>
+          <a:ext cx="9414822" cy="7738370"/>
           <a:chOff x="1033704" y="1372116"/>
           <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
@@ -10770,8 +10822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11790218" y="1360571"/>
-          <a:ext cx="9443301" cy="7458970"/>
+          <a:off x="11739418" y="1402904"/>
+          <a:ext cx="9400968" cy="7738370"/>
           <a:chOff x="1033704" y="1372116"/>
           <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
@@ -12777,7 +12829,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -12788,7 +12840,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="36"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
@@ -12797,7 +12849,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
@@ -12827,7 +12879,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -12838,7 +12890,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="38"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -12848,11 +12900,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -12863,7 +12915,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="40"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="7" t="s">
         <v>80</v>
       </c>
@@ -12872,7 +12924,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="40"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
@@ -12881,7 +12933,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="7" t="s">
         <v>82</v>
       </c>
@@ -12891,8 +12943,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -12906,60 +12958,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -12972,6 +13019,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -12983,15 +13035,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54563889-6F30-0649-809E-000FE7728596}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
   <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -13016,13 +13095,13 @@
   <sheetData>
     <row r="2" spans="1:16" ht="38" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>84</v>
@@ -13039,13 +13118,13 @@
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N2" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="43" t="s">
         <v>99</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>100</v>
       </c>
       <c r="P2" s="44" t="s">
         <v>48</v>
@@ -13112,10 +13191,10 @@
         <v>66</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" t="s">
         <v>56</v>
@@ -13142,7 +13221,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <f>IF(I5=I4, J4+1, 1)</f>
@@ -13153,10 +13232,16 @@
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>110</v>
+        <v>134</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
@@ -13180,7 +13265,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <f>IF(I6=I5, J5+1, 1)</f>
@@ -13194,10 +13279,10 @@
         <v>96</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
@@ -13221,7 +13306,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J21" si="4">IF(I7=I6, J6+1, 1)</f>
@@ -13232,10 +13317,10 @@
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>88</v>
@@ -13243,7 +13328,7 @@
     </row>
     <row r="8" spans="1:16" ht="57">
       <c r="A8" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8">
@@ -13266,7 +13351,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -13277,21 +13362,21 @@
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <f>IF(E9=E8, D8, D8+1)</f>
@@ -13313,7 +13398,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9">
         <f>IF(I9=I8, J8+1, 1)</f>
@@ -13324,13 +13409,13 @@
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19">
@@ -13355,7 +13440,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
@@ -13366,10 +13451,10 @@
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>88</v>
@@ -13396,7 +13481,7 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
@@ -13407,7 +13492,7 @@
         <v>[FC_01_04_01]</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>90</v>
@@ -13437,7 +13522,7 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -13495,7 +13580,7 @@
         <v>53</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O13" s="30" t="s">
         <v>55</v>
@@ -13773,7 +13858,7 @@
         <v>[FC_04_13]</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -13784,7 +13869,7 @@
         <v>[FC_04_13_01]</v>
       </c>
       <c r="L21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="35" customHeight="1">
@@ -13807,7 +13892,7 @@
         <v>[FC_04_14]</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="7">IF(I22=I21, J21+1, 1)</f>
@@ -13818,7 +13903,7 @@
         <v>[FC_04_14_01]</v>
       </c>
       <c r="L22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="35" customHeight="1">
@@ -13833,10 +13918,10 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="35" customHeight="1">
@@ -13851,10 +13936,10 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="35" customHeight="1">
@@ -13877,7 +13962,7 @@
         <v>[FC_04_15]</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25">
         <f>IF(I25=I22, J22+1, 1)</f>
@@ -13888,7 +13973,7 @@
         <v>[FC_04_15_01]</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -15129,7 +15214,7 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
         <v>93</v>
@@ -15149,8 +15234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H7" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE74A6-C8A0-2B4C-AD2E-0B9107EAB281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ABFC4D-6461-3B4A-8446-C43CB2023ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -801,16 +801,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイコンの一覧表示(SVG)</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">イチラｎ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイコンの選択</t>
     <rPh sb="4" eb="5">
       <t>ノ</t>
@@ -1028,17 +1018,6 @@
     <rPh sb="7" eb="11">
       <t xml:space="preserve">サギョウナイヨウ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保留中</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ホリュウチュウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1307,6 +1286,43 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t xml:space="preserve">アツカイカタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの一覧表示</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;TouchableOppacity&gt;のonPressでタッチ判定＋タッチした画像のファイル名or何らかのkeyを親コンポーネントで記録</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t xml:space="preserve">ナンラカ </t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t xml:space="preserve">オヤ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留
+(着手日)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホリュウ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">チャクシュビ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1529,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1648,12 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1648,9 +1670,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1698,8 +1717,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9189,8 +9208,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1019850" y="1402904"/>
-          <a:ext cx="9414822" cy="7738370"/>
+          <a:off x="1032664" y="1333112"/>
+          <a:ext cx="9530152" cy="7277737"/>
           <a:chOff x="1033704" y="1372116"/>
           <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
@@ -10822,8 +10841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11739418" y="1402904"/>
-          <a:ext cx="9400968" cy="7738370"/>
+          <a:off x="11893191" y="1333112"/>
+          <a:ext cx="9529112" cy="7277737"/>
           <a:chOff x="1033704" y="1372116"/>
           <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
@@ -12829,7 +12848,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -12840,7 +12859,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
@@ -12849,7 +12868,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
@@ -12879,7 +12898,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -12890,7 +12909,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -12900,11 +12919,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -12915,7 +12934,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="39"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="7" t="s">
         <v>80</v>
       </c>
@@ -12924,7 +12943,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="39"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
@@ -12933,7 +12952,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="7" t="s">
         <v>82</v>
       </c>
@@ -12943,8 +12962,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -12958,55 +12977,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -13019,11 +13043,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -13042,7 +13061,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -13052,8 +13071,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="56" t="s">
-        <v>137</v>
+      <c r="A1" s="34" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -13067,17 +13086,17 @@
   <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="6.28515625" style="27" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
@@ -13088,49 +13107,49 @@
     <col min="11" max="11" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="12" max="12" width="24.28515625" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="39" style="30" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="43.7109375" style="30" customWidth="1"/>
     <col min="15" max="15" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="38" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>117</v>
+      <c r="A2" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="47"/>
+      <c r="M2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:16" outlineLevel="1">
       <c r="E3" s="28" t="s">
         <v>43</v>
       </c>
@@ -13151,12 +13170,12 @@
       <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
     </row>
-    <row r="4" spans="1:16" ht="35" customHeight="1" collapsed="1">
+    <row r="4" spans="1:16" ht="35" customHeight="1">
       <c r="C4" s="33">
         <v>44653</v>
       </c>
@@ -13191,16 +13210,19 @@
         <v>66</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="35" customHeight="1">
+      <c r="C5" s="33">
+        <v>44664</v>
+      </c>
       <c r="D5">
         <f>IF(E5=E4, D4, D4+1)</f>
         <v>1</v>
@@ -13221,7 +13243,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5">
         <f>IF(I5=I4, J4+1, 1)</f>
@@ -13232,19 +13254,22 @@
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
+      <c r="C6" s="33">
+        <v>44664</v>
+      </c>
       <c r="D6">
         <f t="shared" ref="D6:D8" si="2">IF(E6=E5, D5, D5+1)</f>
         <v>1</v>
@@ -13265,7 +13290,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6">
         <f>IF(I6=I5, J5+1, 1)</f>
@@ -13276,16 +13301,19 @@
         <v>[FC_01_02_02]</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="M6" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
+      <c r="B7" s="33">
+        <v>44664</v>
+      </c>
       <c r="D7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -13306,7 +13334,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J21" si="4">IF(I7=I6, J6+1, 1)</f>
@@ -13317,20 +13345,20 @@
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="57">
-      <c r="A8" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="C8" s="33">
+        <v>44656</v>
+      </c>
       <c r="D8">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -13351,7 +13379,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -13362,21 +13390,21 @@
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N8" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>118</v>
+      <c r="A9" s="33">
+        <v>44656</v>
       </c>
       <c r="D9">
         <f>IF(E9=E8, D8, D8+1)</f>
@@ -13398,7 +13426,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9">
         <f>IF(I9=I8, J8+1, 1)</f>
@@ -13409,13 +13437,13 @@
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19">
@@ -13440,7 +13468,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
@@ -13451,10 +13479,10 @@
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>88</v>
@@ -13481,7 +13509,7 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
@@ -13492,7 +13520,7 @@
         <v>[FC_01_04_01]</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>90</v>
@@ -13522,7 +13550,7 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -13580,7 +13608,7 @@
         <v>53</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="30" t="s">
         <v>55</v>
@@ -13858,7 +13886,7 @@
         <v>[FC_04_13]</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -13869,7 +13897,7 @@
         <v>[FC_04_13_01]</v>
       </c>
       <c r="L21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="35" customHeight="1">
@@ -13892,7 +13920,7 @@
         <v>[FC_04_14]</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="7">IF(I22=I21, J21+1, 1)</f>
@@ -13903,7 +13931,7 @@
         <v>[FC_04_14_01]</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="35" customHeight="1">
@@ -13918,10 +13946,10 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="35" customHeight="1">
@@ -13936,10 +13964,10 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="35" customHeight="1">
@@ -13962,7 +13990,7 @@
         <v>[FC_04_15]</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J25">
         <f>IF(I25=I22, J22+1, 1)</f>
@@ -13973,7 +14001,7 @@
         <v>[FC_04_15_01]</v>
       </c>
       <c r="L25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -14072,12 +14100,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -14288,18 +14316,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -15214,7 +15242,7 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
         <v>93</v>
@@ -15234,8 +15262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96081ADC-0900-694A-B1FA-FDCA6097DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021F6EA-15B4-B04F-A893-8900798BBCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -634,9 +634,6 @@
     <t>(T.B.D.)4</t>
   </si>
   <si>
-    <t>(T.B.D.)5</t>
-  </si>
-  <si>
     <t>[FC_01]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1196,13 +1193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一時保存</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">イチジホゾｎ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動ボタン</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">イドウ </t>
@@ -1367,6 +1357,126 @@
     <t>・ImageObjViewタグをreturnするために覆うView</t>
     <rPh sb="27" eb="28">
       <t xml:space="preserve">オオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width, heightの パーセンテージ指定で一時的に回避中。これで不具合ないなら良い気がする。。</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t xml:space="preserve">イチジテキニ </t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">カイヒチュウ </t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">フグアイ </t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">ヨイキガスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(T.B.D.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー系ボタン</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図領域設定</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">チズリョウイキセッテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図表示情報取得</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ヒョウジジョウホウ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・倍率の設定値
+・緯度経度
+・角度
+・画面上の座標値換算の取得
+・その他、再現に必要な値</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">バイリツ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">セッテイチ </t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">イドケイド </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">カクド </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ジョウ </t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t xml:space="preserve">ザヒョウチ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カンサｎ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">サイゲｎ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ヒツヨウｎ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図移動</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・地図の編集領域を上下左右に移動する</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t xml:space="preserve">ヘンシュウリョウイキ </t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">ジョウゲサユウ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">イドウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1704,6 +1814,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1720,9 +1836,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1770,14 +1883,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1867,6 +2005,118 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
@@ -1940,13 +2190,6 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13564,29 +13807,29 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="37"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -13614,7 +13857,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -13625,7 +13868,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="39"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -13635,42 +13878,42 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="41"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="39"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>70</v>
@@ -13678,8 +13921,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -13693,55 +13936,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -13754,15 +14002,10 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13774,7 +14017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE351FC9-1DAD-834F-981A-94EE3C637F88}">
   <dimension ref="G3:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -13782,38 +14025,38 @@
   <sheetData>
     <row r="3" spans="7:12">
       <c r="G3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="7:12">
       <c r="H7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="7:12">
       <c r="H8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="7:12">
       <c r="I11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="58"/>
+        <v>139</v>
+      </c>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="7:12">
       <c r="I12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="7:12">
       <c r="J15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="7:12">
       <c r="J16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -13841,7 +14084,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -13852,13 +14095,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A2:P25"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -13866,9 +14109,9 @@
     <col min="1" max="1" width="8.28515625" style="32" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6.28515625" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="9" max="9" width="27.85546875" customWidth="1" collapsed="1"/>
@@ -13883,38 +14126,38 @@
   <sheetData>
     <row r="2" spans="1:16" ht="38" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="47" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13939,10 +14182,10 @@
       <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" ht="35" customHeight="1">
       <c r="C4" s="33">
@@ -13952,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -13962,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H22" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
+        <f t="shared" ref="H4:H27" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
         <v>[FC_01_01]</v>
       </c>
       <c r="I4" t="s">
@@ -13972,17 +14215,17 @@
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K22" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
+        <f t="shared" ref="K4:K27" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
         <v>[FC_01_01_01]</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
         <v>56</v>
@@ -13993,11 +14236,10 @@
         <v>44664</v>
       </c>
       <c r="D5">
-        <f>IF(E5=E4, D4, D4+1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14012,7 +14254,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <f>IF(I5=I4, J4+1, 1)</f>
@@ -14023,16 +14265,16 @@
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
@@ -14040,18 +14282,17 @@
         <v>44664</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D8" si="2">IF(E6=E5, D5, D5+1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G21" si="3">IF(I6=I5, G5, G5+1)</f>
+        <f t="shared" ref="G6:G26" si="2">IF(I6=I5, G5, G5+1)</f>
         <v>2</v>
       </c>
       <c r="H6" t="str">
@@ -14059,10 +14300,10 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6">
-        <f>IF(I6=I5, J5+1, 1)</f>
+        <f t="shared" ref="J6:J26" si="3">IF(I6=I5, J5+1, 1)</f>
         <v>2</v>
       </c>
       <c r="K6" t="str">
@@ -14070,32 +14311,32 @@
         <v>[FC_01_02_02]</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
-      <c r="B7" s="33">
-        <v>44664</v>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
+        <v>44666</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H7" t="str">
@@ -14103,10 +14344,10 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J21" si="4">IF(I7=I6, J6+1, 1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K7" t="str">
@@ -14114,13 +14355,13 @@
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="57">
@@ -14129,18 +14370,17 @@
         <v>44656</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="str">
         <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H8" t="str">
@@ -14148,10 +14388,10 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K8" t="str">
@@ -14159,16 +14399,16 @@
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
@@ -14176,18 +14416,17 @@
         <v>44656</v>
       </c>
       <c r="D9">
-        <f>IF(E9=E8, D8, D8+1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="str">
         <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G9">
-        <f>IF(I9=I8, G8, G8+1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H9" t="str">
@@ -14195,10 +14434,10 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <f>IF(I9=I8, J8+1, 1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K9" t="str">
@@ -14206,30 +14445,34 @@
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>117</v>
+      <c r="O9" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19">
-      <c r="C10" s="33"/>
+      <c r="C10" s="33">
+        <v>44671</v>
+      </c>
       <c r="D10">
-        <f t="shared" ref="D10:D21" si="5">IF(E10=E9, D9, D9+1)</f>
         <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" t="str">
         <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H10" t="str">
@@ -14237,10 +14480,10 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K10" t="str">
@@ -14248,70 +14491,73 @@
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="35" customHeight="1">
+    <row r="11" spans="1:16" ht="19">
+      <c r="B11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="33"/>
       <c r="D11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>[FC_01_04]</v>
+        <v>[FC_01_03]</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(I11=I10, J10+1, 1)</f>
+        <v>4</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>[FC_01_04_01]</v>
+        <v>[FC_01_03_04]</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="35" customHeight="1">
+    <row r="12" spans="1:16" ht="95">
+      <c r="B12" s="33">
+        <v>44672</v>
+      </c>
+      <c r="C12" s="33"/>
       <c r="D12">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f>IF(I12=I11, G11, G11+1)</f>
         <v>4</v>
       </c>
       <c r="H12" t="str">
@@ -14319,458 +14565,576 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>[FC_01_04_02]</v>
+        <v>[FC_01_04_01]</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="64" customHeight="1">
+    <row r="13" spans="1:16" ht="35" customHeight="1">
       <c r="D13">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="str">
         <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="G13" t="e">
+        <f>IF(I13=#REF!,#REF!,#REF!+ 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" t="e">
         <f t="shared" si="0"/>
-        <v>[FC_01_05]</v>
+        <v>#REF!</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K13" t="str">
+        <v>104</v>
+      </c>
+      <c r="J13" t="e">
+        <f>IF(I13=#REF!,#REF!+ 1, 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_01_05_01]</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="35" customHeight="1">
       <c r="D14">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="e">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_06]</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="64" customHeight="1">
+      <c r="B15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_06_01]</v>
-      </c>
-      <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="35" customHeight="1">
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="E15" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_07]</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_01_07_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="35" customHeight="1">
       <c r="D16">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="G16">
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_02_08]</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_02_08_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="17" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="17" spans="3:13" ht="35" customHeight="1">
       <c r="D17">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="G17">
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_02_09]</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_02_09_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="18" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="18" spans="3:13" ht="35" customHeight="1">
       <c r="D18">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_02_10]</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_02_10_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="19" spans="3:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D19">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" t="str">
         <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣果記録</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_02_11]</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_02_11_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="35" customHeight="1" collapsed="1">
+    <row r="20" spans="3:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D20">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>データ分析</v>
-      </c>
-      <c r="G20">
+        <v>釣果記録</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_03_12]</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_03_12_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:12" ht="35" customHeight="1">
+    <row r="21" spans="3:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D21">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>82</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G21">
+        <v>釣果記録</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_04_13]</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_04_13_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="22" spans="4:12" ht="35" customHeight="1">
+    <row r="22" spans="3:13" ht="35" customHeight="1" collapsed="1">
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" t="str">
         <f>VLOOKUP(E22, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22" si="6">IF(I22=I21, G21, G21+1)</f>
-        <v>14</v>
-      </c>
-      <c r="H22" t="str">
+        <v>データ分析</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="0"/>
-        <v>[FC_04_14]</v>
+        <v>#REF!</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="7">IF(I22=I21, J21+1, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" t="e">
         <f t="shared" si="1"/>
-        <v>[FC_04_14_01]</v>
+        <v>#REF!</v>
       </c>
       <c r="L22" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="23" spans="4:12" ht="35" customHeight="1">
+    <row r="23" spans="3:13" ht="35" customHeight="1">
+      <c r="C23" s="33">
+        <v>44652</v>
+      </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
+      <c r="G23" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
       <c r="I23" s="30" t="s">
         <v>123</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
       <c r="L23" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="24" spans="4:12" ht="35" customHeight="1">
+    <row r="24" spans="3:13" ht="35" customHeight="1">
+      <c r="C24" s="33">
+        <v>44652</v>
+      </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
+      <c r="G24" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
       <c r="I24" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="L24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="25" spans="4:12" ht="35" customHeight="1">
+    <row r="25" spans="3:13" ht="35" customHeight="1">
+      <c r="C25" s="33">
+        <v>44652</v>
+      </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="str">
         <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="G25">
-        <f>IF(I25=I22, G22, G22+1)</f>
-        <v>15</v>
-      </c>
-      <c r="H25" t="str">
-        <f>"[FC_"&amp;TEXT(D25,"00")&amp;"_"&amp;TEXT(G25,"00")&amp;"]"</f>
-        <v>[FC_04_15]</v>
+      <c r="G25" t="e">
+        <f>IF(I25=I24, G24, G24+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J25">
-        <f>IF(I25=I22, J22+1, 1)</f>
+        <f>IF(I25=I24, J24+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="35" customHeight="1">
+      <c r="C26" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="K25" t="str">
-        <f>"[FC_"&amp;TEXT(D25,"00")&amp;"_"&amp;TEXT(G25,"00")&amp;"_"&amp;TEXT(J25,"00"&amp;"]")</f>
-        <v>[FC_04_15_01]</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="E26" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(E26, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="30" t="s">
         <v>122</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="35" customHeight="1">
+      <c r="C27" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(E27, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G27" t="e">
+        <f>IF(I27=I26, G26, G26+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27">
+        <f>IF(I27=I26, J26+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -14784,64 +15148,104 @@
     <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D26:W1003 D4:W24">
-    <cfRule type="expression" dxfId="20" priority="9">
+  <conditionalFormatting sqref="D28:W1005 D14:W26 D4:W11 D5:D12 D14:D27 G12:H12 G14:H27 J11:K12 J14:K27">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:P1048576">
-    <cfRule type="expression" dxfId="19" priority="25">
+  <conditionalFormatting sqref="E4:P1048574">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:L16 L17:L25 E17:E25">
-    <cfRule type="expression" dxfId="18" priority="27">
-      <formula>E16=#REF!</formula>
+  <conditionalFormatting sqref="E18:L18 L19:L27 E19:E27">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>E18=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 J15:K15 G21:G24 J21:K24">
-    <cfRule type="expression" dxfId="17" priority="29">
-      <formula>G15=G13</formula>
+  <conditionalFormatting sqref="G17 J17:K17 G23:G26 J23:K26">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>G17=G15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 F13:L13 F8:L9">
-    <cfRule type="expression" dxfId="16" priority="30">
+  <conditionalFormatting sqref="F8:L9 G16:G17 H17:H19 J16:J17">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 I12 F8:L10">
-    <cfRule type="expression" dxfId="15" priority="32">
-      <formula>F8=F6</formula>
+  <conditionalFormatting sqref="D12:W12 F8:L11 G16:G20 H17:H21 J16:J20 K13:K14">
+    <cfRule type="expression" dxfId="23" priority="32">
+      <formula>D8=D6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q1004">
-    <cfRule type="expression" dxfId="14" priority="3">
+  <conditionalFormatting sqref="C4:Q1006">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD104">
-    <cfRule type="expression" dxfId="13" priority="2">
+  <conditionalFormatting sqref="A4:XFD106">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 J25:K25 G25">
-    <cfRule type="expression" dxfId="12" priority="54">
+  <conditionalFormatting sqref="J27:K27 G27 I10:I11">
+    <cfRule type="expression" dxfId="20" priority="54">
       <formula>G10=G6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11 D25:W25">
-    <cfRule type="expression" dxfId="11" priority="73">
+  <conditionalFormatting sqref="D27:W27 F12:L12 I10:I11 G20:G21 H21:H22 J20:J21 K16:K27 D13:W13">
+    <cfRule type="expression" dxfId="19" priority="73">
       <formula>D10=D7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD103">
-    <cfRule type="expression" dxfId="10" priority="1">
+  <conditionalFormatting sqref="A4:XFD105">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:W25">
-    <cfRule type="expression" dxfId="9" priority="79">
-      <formula>D25=D21</formula>
+  <conditionalFormatting sqref="D27:W27 I12 K26">
+    <cfRule type="expression" dxfId="17" priority="79">
+      <formula>D12=D8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I14">
+    <cfRule type="expression" dxfId="16" priority="88">
+      <formula>I13=I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:L15">
+    <cfRule type="expression" dxfId="15" priority="92">
+      <formula>F15=F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="14" priority="94">
+      <formula>I13=I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="13" priority="103">
+      <formula>I12=I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="12" priority="107">
+      <formula>I14=I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13 G13:H13 J13:K13">
+    <cfRule type="expression" dxfId="2" priority="109">
+      <formula>D13=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1048575:P1048576">
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>COUNTA($E1048575:$K1048576)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="0" priority="126">
+      <formula>K15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14869,12 +15273,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -15085,18 +15489,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -15792,7 +16196,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -15805,7 +16209,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15815,7 +16219,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15825,7 +16229,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15835,7 +16239,7 @@
         <v>65</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15845,7 +16249,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15855,7 +16259,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15865,7 +16269,7 @@
         <v>62</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$K$3:$L$89, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$K$3:$L$91, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15886,45 +16290,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16011,13 +16415,13 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -16039,12 +16443,12 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021F6EA-15B4-B04F-A893-8900798BBCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E00E00F-194C-9E40-A1BD-B41B2F156606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1817,9 +1817,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,6 +1833,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,35 +1887,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1993,6 +1965,34 @@
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2110,86 +2110,6 @@
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13807,7 +13727,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -13818,7 +13738,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>77</v>
       </c>
@@ -13827,7 +13747,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="39"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="4" t="s">
         <v>78</v>
       </c>
@@ -13857,7 +13777,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -13868,7 +13788,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="41"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -13878,11 +13798,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -13893,7 +13813,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="7" t="s">
         <v>79</v>
       </c>
@@ -13902,7 +13822,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="43"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="7" t="s">
         <v>80</v>
       </c>
@@ -13911,7 +13831,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="7" t="s">
         <v>81</v>
       </c>
@@ -13921,8 +13841,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -13936,60 +13856,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -14002,6 +13917,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -14101,7 +14021,7 @@
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -14663,8 +14583,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="64" customHeight="1">
-      <c r="B15" s="32" t="s">
-        <v>12</v>
+      <c r="A15" s="33">
+        <v>44672</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -15234,17 +15154,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 G13:H13 J13:K13">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="11" priority="109">
       <formula>D13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1048575:P1048576">
-    <cfRule type="expression" dxfId="1" priority="118">
+    <cfRule type="expression" dxfId="10" priority="118">
       <formula>COUNTA($E1048575:$K1048576)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="0" priority="126">
+    <cfRule type="expression" dxfId="9" priority="126">
       <formula>K15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16290,45 +16210,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E00E00F-194C-9E40-A1BD-B41B2F156606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D6075-77EC-9A4D-948F-F011456BD42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
@@ -17,13 +17,11 @@
     <sheet name="機能詳細" sheetId="2" r:id="rId2"/>
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
     <sheet name="Functions=&gt;" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
-    <sheet name="UI=&gt;" sheetId="7" r:id="rId7"/>
-    <sheet name="TOP" sheetId="8" r:id="rId8"/>
-    <sheet name="Styles" sheetId="9" r:id="rId9"/>
-    <sheet name="Layers" sheetId="11" r:id="rId10"/>
-    <sheet name="DB=&gt;" sheetId="10" r:id="rId11"/>
+    <sheet name="UI=&gt;" sheetId="7" r:id="rId5"/>
+    <sheet name="TOP" sheetId="8" r:id="rId6"/>
+    <sheet name="Styles" sheetId="9" r:id="rId7"/>
+    <sheet name="Layers" sheetId="11" r:id="rId8"/>
+    <sheet name="DB=&gt;" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -118,10 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>React Native</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開発目的(Development Goal)</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">カイハツモクテキ </t>
@@ -176,10 +170,6 @@
   </si>
   <si>
     <t>データ分析</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【Rev.1.0.0】</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -682,25 +672,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SVG画像と、画像を地図のどこにマッピングするかのメタデータを記録する。</t>
-    <rPh sb="0" eb="2">
-      <t>SVG</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">チズ </t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t xml:space="preserve">キロク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>T.B.D.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1477,6 +1448,108 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Rev.1.0.0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React Native / TypeScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シンキサクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閲覧モード</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エツラｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図初期位置設定　などのイニシャライズを行う</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ショキイチ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータに対して編集を加える</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータを閲覧モードで表示する</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">エツランモード </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータ保存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージへの保存、読み出し、削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>ストレージヘノヘ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ホゾｎ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>、</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ヨミダシ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>、</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">サクジョキノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージへの保存</t>
+    <rPh sb="0" eb="2">
+      <t>ストレージヘノヘ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ホゾｎ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1887,7 +1960,62 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1977,22 +2105,19 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2030,38 +2155,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -2075,29 +2168,6 @@
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -13659,7 +13729,7 @@
   <dimension ref="B1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -13674,10 +13744,10 @@
     </row>
     <row r="2" spans="2:4">
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -13685,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
@@ -13698,10 +13768,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>3</v>
@@ -13714,10 +13784,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -13728,10 +13798,10 @@
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
       <c r="B9" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
@@ -13740,7 +13810,7 @@
     <row r="10" spans="2:4" ht="19" customHeight="1">
       <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
@@ -13749,7 +13819,7 @@
     <row r="11" spans="2:4" ht="19" customHeight="1">
       <c r="B11" s="38"/>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -13765,10 +13835,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -13778,22 +13848,22 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="40"/>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -13803,40 +13873,40 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="42"/>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="42"/>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="40"/>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -13849,10 +13919,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -13925,7 +13995,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13933,95 +14003,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE351FC9-1DAD-834F-981A-94EE3C637F88}">
-  <dimension ref="G3:L16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="3" spans="7:12">
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="7:12">
-      <c r="H7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12">
-      <c r="H8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12">
-      <c r="I11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="7:12">
-      <c r="I12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12">
-      <c r="J15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12">
-      <c r="J16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54563889-6F30-0649-809E-000FE7728596}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A2:P27"/>
+  <dimension ref="A2:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -14029,9 +14019,9 @@
     <col min="1" max="1" width="8.28515625" style="32" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6.28515625" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6.28515625" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="9" max="9" width="27.85546875" customWidth="1" collapsed="1"/>
@@ -14046,61 +14036,61 @@
   <sheetData>
     <row r="2" spans="1:16" ht="38" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="31"/>
       <c r="H2" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I2" s="49"/>
       <c r="J2" s="31"/>
       <c r="K2" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P2" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" outlineLevel="1">
       <c r="E3" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" s="46"/>
       <c r="N3" s="52"/>
@@ -14115,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14125,30 +14115,30 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H27" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
+        <f t="shared" ref="H4:H31" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
         <v>[FC_01_01]</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K27" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
+        <f t="shared" ref="K4:K31" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
         <v>[FC_01_01_01]</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="35" customHeight="1">
@@ -14159,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14174,7 +14164,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <f>IF(I5=I4, J4+1, 1)</f>
@@ -14185,16 +14175,16 @@
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
@@ -14205,14 +14195,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G26" si="2">IF(I6=I5, G5, G5+1)</f>
+        <f t="shared" ref="G6:G30" si="2">IF(I6=I5, G5, G5+1)</f>
         <v>2</v>
       </c>
       <c r="H6" t="str">
@@ -14220,10 +14210,10 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J26" si="3">IF(I6=I5, J5+1, 1)</f>
+        <f t="shared" ref="J6:J30" si="3">IF(I6=I5, J5+1, 1)</f>
         <v>2</v>
       </c>
       <c r="K6" t="str">
@@ -14231,13 +14221,13 @@
         <v>[FC_01_02_02]</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
@@ -14249,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14264,7 +14254,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -14275,13 +14265,13 @@
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="57">
@@ -14293,7 +14283,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" t="str">
         <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14308,7 +14298,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -14319,16 +14309,16 @@
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
@@ -14339,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" t="str">
         <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14354,7 +14344,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -14365,16 +14355,16 @@
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19">
@@ -14385,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" t="str">
         <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14400,7 +14390,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -14411,25 +14401,22 @@
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19">
-      <c r="B11" s="32" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="33"/>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14444,7 +14431,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <f>IF(I11=I10, J10+1, 1)</f>
@@ -14455,10 +14442,10 @@
         <v>[FC_01_03_04]</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="95">
@@ -14470,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14485,7 +14472,7 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -14496,10 +14483,10 @@
         <v>[FC_01_04_01]</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="35" customHeight="1">
@@ -14507,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" t="str">
         <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14522,7 +14509,7 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J13" t="e">
         <f>IF(I13=#REF!,#REF!+ 1, 1)</f>
@@ -14533,13 +14520,13 @@
         <v>#REF!</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="35" customHeight="1">
@@ -14547,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14562,7 +14549,7 @@
         <v>#REF!</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J14" t="e">
         <f t="shared" si="3"/>
@@ -14573,13 +14560,13 @@
         <v>#REF!</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="64" customHeight="1">
@@ -14590,14 +14577,14 @@
         <v>1</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(I15=I14, G14, G14+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H15" t="e">
@@ -14605,10 +14592,10 @@
         <v>#REF!</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f>IF(I15=I14, J14+1, 1)</f>
         <v>1</v>
       </c>
       <c r="K15" t="e">
@@ -14616,24 +14603,25 @@
         <v>#REF!</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="35" customHeight="1">
+      <c r="B16" s="33"/>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14648,7 +14636,7 @@
         <v>#REF!</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -14659,62 +14647,57 @@
         <v>#REF!</v>
       </c>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="35" customHeight="1">
+    <row r="17" spans="2:13" ht="35" customHeight="1">
+      <c r="B17" s="33">
+        <v>44678</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>釣り場マップ作成</v>
       </c>
       <c r="G17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G17" si="4">IF(I17=I16, G16, G16+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H17" si="5">"[FC_"&amp;TEXT(D17,"00")&amp;"_"&amp;TEXT(G17,"00")&amp;"]"</f>
         <v>#REF!</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="35" customHeight="1">
+    <row r="18" spans="2:13" ht="35" customHeight="1">
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
+        <v>釣り場マップ作成</v>
       </c>
       <c r="G18" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(I18=I16, G16, G16+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H18" t="e">
@@ -14722,10 +14705,10 @@
         <v>#REF!</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f>IF(I18=I16, J16+1, 1)</f>
         <v>1</v>
       </c>
       <c r="K18" t="e">
@@ -14733,15 +14716,18 @@
         <v>#REF!</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="19" spans="2:13" ht="35" customHeight="1">
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" t="str">
         <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14756,7 +14742,7 @@
         <v>#REF!</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -14767,15 +14753,15 @@
         <v>#REF!</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="20" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14801,15 +14787,15 @@
         <v>#REF!</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="21" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -14824,7 +14810,7 @@
         <v>#REF!</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -14835,10 +14821,10 @@
         <v>#REF!</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="35" customHeight="1" collapsed="1">
+    <row r="22" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D22">
         <v>1</v>
       </c>
@@ -14847,7 +14833,7 @@
       </c>
       <c r="F22" t="str">
         <f>VLOOKUP(E22, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>データ分析</v>
+        <v>釣果記録</v>
       </c>
       <c r="G22" t="e">
         <f t="shared" si="2"/>
@@ -14858,7 +14844,7 @@
         <v>#REF!</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -14869,22 +14855,19 @@
         <v>#REF!</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="35" customHeight="1">
-      <c r="C23" s="33">
-        <v>44652</v>
-      </c>
+    <row r="23" spans="2:13" ht="35" customHeight="1" collapsed="1">
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
+        <v>データ分析</v>
       </c>
       <c r="G23" t="e">
         <f t="shared" si="2"/>
@@ -14895,7 +14878,7 @@
         <v>#REF!</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -14906,10 +14889,10 @@
         <v>#REF!</v>
       </c>
       <c r="L23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="35" customHeight="1">
+    <row r="24" spans="2:13" ht="35" customHeight="1">
       <c r="C24" s="33">
         <v>44652</v>
       </c>
@@ -14917,14 +14900,14 @@
         <v>1</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
       <c r="G24" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(I24=I23, G23, G23+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H24" t="e">
@@ -14932,10 +14915,10 @@
         <v>#REF!</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f>IF(I24=I23, J23+1, 1)</f>
         <v>1</v>
       </c>
       <c r="K24" t="e">
@@ -14943,118 +14926,217 @@
         <v>#REF!</v>
       </c>
       <c r="L24" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="35" customHeight="1">
-      <c r="C25" s="33">
-        <v>44652</v>
-      </c>
+    <row r="25" spans="2:13" ht="35" customHeight="1">
+      <c r="C25" s="33"/>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" t="str">
         <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="G25" t="e">
-        <f>IF(I25=I24, G24, G24+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
       <c r="I25" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25">
-        <f>IF(I25=I24, J24+1, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="K25" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s">
-        <v>126</v>
+        <v>151</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="35" customHeight="1">
-      <c r="C26" s="33">
-        <v>44652</v>
-      </c>
+    <row r="26" spans="2:13" ht="35" customHeight="1">
+      <c r="C26" s="33"/>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" t="str">
         <f>VLOOKUP(E26, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="G26" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K26" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
+      <c r="I26" s="30"/>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>152</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="35" customHeight="1">
-      <c r="C27" s="33">
-        <v>44652</v>
-      </c>
+    <row r="27" spans="2:13" ht="35" customHeight="1">
+      <c r="C27" s="33"/>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" t="str">
         <f>VLOOKUP(E27, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="G27" t="e">
-        <f>IF(I27=I26, G26, G26+1)</f>
+      <c r="I27" s="30"/>
+      <c r="L27" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="35" customHeight="1">
+      <c r="C28" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(E28, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G28" t="e">
+        <f>IF(I28=I24, G24, G24+1)</f>
         <v>#REF!</v>
       </c>
-      <c r="H27" t="e">
+      <c r="H28" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I27" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27">
-        <f>IF(I27=I26, J26+1, 1)</f>
+      <c r="I28" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28">
+        <f>IF(I28=I24, J24+1, 1)</f>
         <v>1</v>
       </c>
-      <c r="K27" t="e">
+      <c r="K28" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="35" customHeight="1">
+      <c r="C29" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(E29, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G29" t="e">
+        <f>IF(I29=I28, G28, G28+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29">
+        <f>IF(I29=I28, J28+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="35" customHeight="1">
+      <c r="C30" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(E30, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="35" customHeight="1">
+      <c r="C31" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(E31, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G31" t="e">
+        <f>IF(I31=I30, G30, G30+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="30" t="s">
         <v>121</v>
+      </c>
+      <c r="J31">
+        <f>IF(I31=I30, J30+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L31" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -15068,104 +15150,114 @@
     <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D28:W1005 D14:W26 D4:W11 D5:D12 D14:D27 G12:H12 G14:H27 J11:K12 J14:K27">
-    <cfRule type="expression" dxfId="28" priority="9">
+  <conditionalFormatting sqref="D32:W1009 D4:W11 D5:D12 G12:H12 J11:K12 D29:W30 D29:D31 G29:H31 J29:K31 D26:F27 D19:W26 D14:W17">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:P1048574">
-    <cfRule type="expression" dxfId="27" priority="25">
+  <conditionalFormatting sqref="E4:P1048576">
+    <cfRule type="expression" dxfId="5" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:L18 L19:L27 E19:E27">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>E18=#REF!</formula>
+  <conditionalFormatting sqref="E19:L19 L20:L31 E20:E31">
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>E19=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 J17:K17 G23:G26 J23:K26">
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>G17=G15</formula>
+  <conditionalFormatting sqref="G30 J30:K30 G24:G26 J24:K26">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>G24=G22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:L9 G16:G17 H17:H19 J16:J17">
-    <cfRule type="expression" dxfId="24" priority="30">
+  <conditionalFormatting sqref="F8:L9 G27 J27:K27 J18:K18 J16:J17 G16:G18">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:W12 F8:L11 G16:G20 H17:H21 J16:J20 K13:K14">
-    <cfRule type="expression" dxfId="23" priority="32">
+  <conditionalFormatting sqref="D12:W12 F8:L11 K13:K14 D27:W27 D18:W18 G20:G21 H20:H22 J16:J17 J20:J21 G16:G17">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>D8=D6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q1006">
-    <cfRule type="expression" dxfId="22" priority="3">
+  <conditionalFormatting sqref="C4:Q1010">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD106">
-    <cfRule type="expression" dxfId="21" priority="2">
+  <conditionalFormatting sqref="A4:XFD110">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:K27 G27 I10:I11">
-    <cfRule type="expression" dxfId="20" priority="54">
+  <conditionalFormatting sqref="I10:I11 G18 J18 H18:H20">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>G10=G6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:W27 F12:L12 I10:I11 G20:G21 H21:H22 J20:J21 K16:K27 D13:W13">
-    <cfRule type="expression" dxfId="19" priority="73">
+  <conditionalFormatting sqref="F12:L12 I10:I11 G21:G22 H22:H23 J21:J22 D13:W13 D31:W31 G18:H19 J18:J19 K16:K17 K21:K26">
+    <cfRule type="expression" dxfId="27" priority="73">
       <formula>D10=D7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD105">
-    <cfRule type="expression" dxfId="18" priority="1">
+  <conditionalFormatting sqref="A4:XFD109">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:W27 I12 K26">
-    <cfRule type="expression" dxfId="17" priority="79">
+  <conditionalFormatting sqref="I12 K27 D28:W28 K18:K20">
+    <cfRule type="expression" dxfId="26" priority="79">
       <formula>D12=D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="expression" dxfId="16" priority="88">
+    <cfRule type="expression" dxfId="25" priority="88">
       <formula>I13=I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:L15">
-    <cfRule type="expression" dxfId="15" priority="92">
+  <conditionalFormatting sqref="F15:L15 G28:G29 J28:K29">
+    <cfRule type="expression" dxfId="24" priority="92">
       <formula>F15=F10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="14" priority="94">
+    <cfRule type="expression" dxfId="23" priority="94">
       <formula>I13=I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="13" priority="103">
+    <cfRule type="expression" dxfId="22" priority="103">
       <formula>I12=I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="12" priority="107">
+    <cfRule type="expression" dxfId="21" priority="107">
       <formula>I14=I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 G13:H13 J13:K13">
-    <cfRule type="expression" dxfId="11" priority="109">
+    <cfRule type="expression" dxfId="20" priority="109">
       <formula>D13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1048575:P1048576">
-    <cfRule type="expression" dxfId="10" priority="118">
-      <formula>COUNTA($E1048575:$K1048576)&gt;=1</formula>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="19" priority="126">
+      <formula>K15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="9" priority="126">
-      <formula>K15=#REF!</formula>
+  <conditionalFormatting sqref="D31:W31 K30">
+    <cfRule type="expression" dxfId="18" priority="133">
+      <formula>D30=D23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31 J31:K31">
+    <cfRule type="expression" dxfId="17" priority="147">
+      <formula>G31=G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:K30">
+    <cfRule type="expression" dxfId="16" priority="149">
+      <formula>K28=K22</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15180,7 +15272,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1"/>
@@ -15410,15 +15502,15 @@
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
       <c r="B2" s="57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="53"/>
       <c r="F2" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="19">
@@ -15632,25 +15724,25 @@
     </row>
     <row r="3" spans="1:59" ht="19" thickBot="1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="20">
         <v>44636</v>
@@ -15863,10 +15955,10 @@
     <row r="4" spans="1:59">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="13">
         <v>44640</v>
@@ -15891,10 +15983,10 @@
     <row r="6" spans="1:59">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="13">
         <v>44641</v>
@@ -15919,31 +16011,31 @@
     <row r="8" spans="1:59">
       <c r="A8" s="17"/>
       <c r="B8" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:59" outlineLevel="1">
       <c r="A9" s="17"/>
       <c r="B9" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13">
         <v>44641</v>
@@ -15961,10 +16053,10 @@
     <row r="10" spans="1:59" ht="38" outlineLevel="1">
       <c r="A10" s="17"/>
       <c r="B10" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="13">
         <v>44641</v>
@@ -15978,25 +16070,25 @@
     </row>
     <row r="11" spans="1:59" outlineLevel="1">
       <c r="A11" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -16005,31 +16097,31 @@
     <row r="13" spans="1:59">
       <c r="A13" s="17"/>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:59" outlineLevel="1">
       <c r="A14" s="17"/>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13">
         <v>44638</v>
@@ -16047,10 +16139,10 @@
     <row r="15" spans="1:59" outlineLevel="1">
       <c r="A15" s="17"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13">
         <v>44638</v>
@@ -16068,10 +16160,10 @@
     <row r="16" spans="1:59" outlineLevel="1">
       <c r="A16" s="17"/>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="13">
         <v>44644</v>
@@ -16092,31 +16184,31 @@
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -16126,70 +16218,70 @@
     <row r="20" spans="1:7">
       <c r="A20" s="17"/>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$K$3:$L$91, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$K$3:$L$95, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16198,7 +16290,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -16210,45 +16302,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16275,34 +16367,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F109B59-BBA1-B848-8F83-705E0AB4787D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451DF3BB-FEDC-344A-9D5C-9513C0E18240}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDEC24F-6385-5942-9F41-DE45E3D45689}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -16320,7 +16384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC67A91-BABB-AD4B-96E9-145DE3E9B023}">
   <dimension ref="B1:N1"/>
   <sheetViews>
@@ -16335,13 +16399,13 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -16351,7 +16415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
@@ -16363,12 +16427,12 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -16376,4 +16440,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE351FC9-1DAD-834F-981A-94EE3C637F88}">
+  <dimension ref="G3:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="7:12">
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12">
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12">
+      <c r="H8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12">
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="7:12">
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12">
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12">
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54563889-6F30-0649-809E-000FE7728596}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D6075-77EC-9A4D-948F-F011456BD42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A5E72-8DC9-224F-8BF4-A41C6C462A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1550,6 +1550,23 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t xml:space="preserve">ホゾｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータ読み出し</t>
+    <rPh sb="0" eb="2">
+      <t>セーブデータ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ヨミダシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータ新規作成</t>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">シンキサクセイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1890,6 +1907,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1906,9 +1926,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,61 +1978,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF8AD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2155,6 +2117,38 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF8AD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -2168,6 +2162,29 @@
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -13797,7 +13814,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -13808,7 +13825,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
@@ -13817,7 +13834,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
@@ -13847,7 +13864,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -13858,7 +13875,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -13868,11 +13885,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -13883,7 +13900,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
@@ -13892,7 +13909,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="42"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="7" t="s">
         <v>78</v>
       </c>
@@ -13901,7 +13918,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
@@ -13911,8 +13928,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -13926,55 +13943,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -13987,11 +14009,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -14005,13 +14022,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A2:P31"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -14115,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H31" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
+        <f t="shared" ref="H4:H33" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
         <v>[FC_01_01]</v>
       </c>
       <c r="I4" t="s">
@@ -14125,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K31" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
+        <f t="shared" ref="K4:K33" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
         <v>[FC_01_01_01]</v>
       </c>
       <c r="L4" t="s">
@@ -14202,7 +14219,7 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G30" si="2">IF(I6=I5, G5, G5+1)</f>
+        <f t="shared" ref="G6:G32" si="2">IF(I6=I5, G5, G5+1)</f>
         <v>2</v>
       </c>
       <c r="H6" t="str">
@@ -14213,7 +14230,7 @@
         <v>95</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J30" si="3">IF(I6=I5, J5+1, 1)</f>
+        <f t="shared" ref="J6:J32" si="3">IF(I6=I5, J5+1, 1)</f>
         <v>2</v>
       </c>
       <c r="K6" t="str">
@@ -14654,9 +14671,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="35" customHeight="1">
-      <c r="B17" s="33">
-        <v>44678</v>
-      </c>
+      <c r="B17" s="33"/>
       <c r="D17">
         <v>1</v>
       </c>
@@ -14686,6 +14701,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
+      <c r="B18" s="33"/>
       <c r="D18">
         <v>1</v>
       </c>
@@ -14697,78 +14713,62 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="G18" t="e">
-        <f>IF(I18=I16, G16, G16+1)</f>
+        <f t="shared" ref="G18" si="6">IF(I18=I17, G17, G17+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H18" si="7">"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"]"</f>
         <v>#REF!</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18">
-        <f>IF(I18=I16, J16+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
+      <c r="B19" s="33">
+        <v>44685</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F19" t="str">
         <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
+        <v>釣り場マップ作成</v>
       </c>
       <c r="G19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G19" si="8">IF(I19=I18, G18, G18+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H19" si="9">"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"]"</f>
         <v>#REF!</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K19" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="20" spans="2:13" ht="35" customHeight="1">
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
+        <v>釣り場マップ作成</v>
       </c>
       <c r="G20" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(I20=I16, G16, G16+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H20" t="e">
@@ -14776,10 +14776,10 @@
         <v>#REF!</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f>IF(I20=I16, J16+1, 1)</f>
         <v>1</v>
       </c>
       <c r="K20" t="e">
@@ -14787,10 +14787,13 @@
         <v>#REF!</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="21" spans="2:13" ht="35" customHeight="1">
       <c r="D21">
         <v>1</v>
       </c>
@@ -14810,7 +14813,7 @@
         <v>#REF!</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -14821,7 +14824,7 @@
         <v>#REF!</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
@@ -14844,7 +14847,7 @@
         <v>#REF!</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -14855,19 +14858,19 @@
         <v>#REF!</v>
       </c>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="35" customHeight="1" collapsed="1">
+    <row r="23" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>データ分析</v>
+        <v>釣果記録</v>
       </c>
       <c r="G23" t="e">
         <f t="shared" si="2"/>
@@ -14878,7 +14881,7 @@
         <v>#REF!</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -14889,25 +14892,22 @@
         <v>#REF!</v>
       </c>
       <c r="L23" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="35" customHeight="1">
-      <c r="C24" s="33">
-        <v>44652</v>
-      </c>
+    <row r="24" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
+        <v>釣果記録</v>
       </c>
       <c r="G24" t="e">
-        <f>IF(I24=I23, G23, G23+1)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H24" t="e">
@@ -14915,10 +14915,10 @@
         <v>#REF!</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <f>IF(I24=I23, J23+1, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K24" t="e">
@@ -14926,33 +14926,47 @@
         <v>#REF!</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="35" customHeight="1">
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:13" ht="35" customHeight="1" collapsed="1">
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" t="str">
         <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
+        <v>データ分析</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>150</v>
+        <v>69</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
       <c r="L25" t="s">
-        <v>151</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="35" customHeight="1">
-      <c r="C26" s="33"/>
+      <c r="C26" s="33">
+        <v>44652</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -14963,16 +14977,33 @@
         <f>VLOOKUP(E26, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="G26" t="e">
+        <f>IF(I26=I25, G25, G25+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26">
+        <f>IF(I26=I25, J25+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
       <c r="L26" t="s">
-        <v>152</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="35" customHeight="1">
-      <c r="C27" s="33"/>
+      <c r="C27" s="33">
+        <v>44684</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -14983,17 +15014,19 @@
         <f>VLOOKUP(E27, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="L27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="35" customHeight="1">
       <c r="C28" s="33">
-        <v>44652</v>
+        <v>44684</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -15005,32 +15038,17 @@
         <f>VLOOKUP(E28, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="G28" t="e">
-        <f>IF(I28=I24, G24, G24+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28">
-        <f>IF(I28=I24, J24+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
+      <c r="I28" s="30"/>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>152</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="35" customHeight="1">
       <c r="C29" s="33">
-        <v>44652</v>
+        <v>44684</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -15042,27 +15060,12 @@
         <f>VLOOKUP(E29, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
-      <c r="G29" t="e">
-        <f>IF(I29=I28, G28, G28+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29">
-        <f>IF(I29=I28, J28+1, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="K29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
+      <c r="I29" s="30"/>
       <c r="L29" t="s">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="35" customHeight="1">
@@ -15080,7 +15083,7 @@
         <v>ユーザインターフェース</v>
       </c>
       <c r="G30" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(I30=I26, G26, G26+1)</f>
         <v>#REF!</v>
       </c>
       <c r="H30" t="e">
@@ -15091,15 +15094,15 @@
         <v>119</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(I30=I26, J26+1, 1)</f>
+        <v>1</v>
       </c>
       <c r="K30" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="35" customHeight="1">
@@ -15125,17 +15128,91 @@
         <v>#REF!</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J31">
         <f>IF(I31=I30, J30+1, 1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="L31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="35" customHeight="1">
+      <c r="C32" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(E32, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="35" customHeight="1">
+      <c r="C33" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(E33, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G33" t="e">
+        <f>IF(I33=I32, G32, G32+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33">
+        <f>IF(I33=I32, J32+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15150,114 +15227,114 @@
     <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D32:W1009 D4:W11 D5:D12 G12:H12 J11:K12 D29:W30 D29:D31 G29:H31 J29:K31 D26:F27 D19:W26 D14:W17">
-    <cfRule type="expression" dxfId="6" priority="9">
+  <conditionalFormatting sqref="D34:W1011 D4:W11 D5:D12 G12:H12 J11:K12 D31:W32 D31:D33 G31:H33 J31:K33 D28:F29 D21:W28 D14:W19">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P1048576">
-    <cfRule type="expression" dxfId="5" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:L19 L20:L31 E20:E31">
-    <cfRule type="expression" dxfId="30" priority="27">
-      <formula>E19=#REF!</formula>
+  <conditionalFormatting sqref="E21:L21 L22:L33 E22:E33">
+    <cfRule type="expression" dxfId="28" priority="27">
+      <formula>E21=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30 J30:K30 G24:G26 J24:K26">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>G24=G22</formula>
+  <conditionalFormatting sqref="G32 J32:K32 G26:G28 J26:K28">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>G26=G24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:L9 G27 J27:K27 J18:K18 J16:J17 G16:G18">
-    <cfRule type="expression" dxfId="4" priority="30">
+  <conditionalFormatting sqref="F8:L9 G29 J29:K29 J16:J19 G16:G19">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:W12 F8:L11 K13:K14 D27:W27 D18:W18 G20:G21 H20:H22 J16:J17 J20:J21 G16:G17">
-    <cfRule type="expression" dxfId="3" priority="32">
+  <conditionalFormatting sqref="D12:W12 F8:L11 K13:K14 D29:W29 G22:G23 H22:H24 J16:J19 J22:J23 G16:G19">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>D8=D6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q1010">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C4:Q1012">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD110">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A4:XFD112">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11 G18 J18 H18:H20">
-    <cfRule type="expression" dxfId="28" priority="54">
-      <formula>G10=G6</formula>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="expression" dxfId="22" priority="54">
+      <formula>I10=I6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:L12 I10:I11 G21:G22 H22:H23 J21:J22 D13:W13 D31:W31 G18:H19 J18:J19 K16:K17 K21:K26">
-    <cfRule type="expression" dxfId="27" priority="73">
+  <conditionalFormatting sqref="F12:L12 I10:I11 G23:G24 H24:H25 J23:J24 D13:W13 D33:W33 K16:K19 K23:K28">
+    <cfRule type="expression" dxfId="21" priority="73">
       <formula>D10=D7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD109">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A4:XFD111">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 K27 D28:W28 K18:K20">
-    <cfRule type="expression" dxfId="26" priority="79">
+  <conditionalFormatting sqref="I12 K29 D30:W30 D20:W20">
+    <cfRule type="expression" dxfId="19" priority="79">
       <formula>D12=D8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I14">
-    <cfRule type="expression" dxfId="25" priority="88">
-      <formula>I13=I7</formula>
+  <conditionalFormatting sqref="I13:I14 H20:H22 G20 J20">
+    <cfRule type="expression" dxfId="18" priority="88">
+      <formula>G13=G7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:L15 G28:G29 J28:K29">
-    <cfRule type="expression" dxfId="24" priority="92">
+  <conditionalFormatting sqref="F15:L15 G30:G31 J30:K31 J20:K20 G20">
+    <cfRule type="expression" dxfId="17" priority="92">
       <formula>F15=F10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="23" priority="94">
-      <formula>I13=I8</formula>
+  <conditionalFormatting sqref="I13 G20:H21 J20:J21">
+    <cfRule type="expression" dxfId="16" priority="94">
+      <formula>G13=G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="22" priority="103">
+    <cfRule type="expression" dxfId="15" priority="103">
       <formula>I12=I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="21" priority="107">
+    <cfRule type="expression" dxfId="14" priority="107">
       <formula>I14=I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 G13:H13 J13:K13">
-    <cfRule type="expression" dxfId="20" priority="109">
+    <cfRule type="expression" dxfId="13" priority="109">
       <formula>D13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="19" priority="126">
+    <cfRule type="expression" dxfId="12" priority="126">
       <formula>K15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:W31 K30">
-    <cfRule type="expression" dxfId="18" priority="133">
-      <formula>D30=D23</formula>
+  <conditionalFormatting sqref="D33:W33 K32">
+    <cfRule type="expression" dxfId="11" priority="133">
+      <formula>D32=D25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31 J31:K31">
-    <cfRule type="expression" dxfId="17" priority="147">
-      <formula>G31=G24</formula>
+  <conditionalFormatting sqref="G33 J33:K33">
+    <cfRule type="expression" dxfId="10" priority="147">
+      <formula>G33=G26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K30">
-    <cfRule type="expression" dxfId="16" priority="149">
-      <formula>K28=K22</formula>
+  <conditionalFormatting sqref="K30:K32 K20:K22">
+    <cfRule type="expression" dxfId="9" priority="149">
+      <formula>K20=K14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16208,7 +16285,7 @@
         <v>55</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B19,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13">
@@ -16221,7 +16298,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B20,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16231,7 +16308,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B21,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16241,7 +16318,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B22,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16251,7 +16328,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B23,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16261,7 +16338,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B24,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16271,7 +16348,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B25,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16281,7 +16358,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$K$3:$L$95, 2, FALSE)</f>
+        <f>VLOOKUP(B26,機能詳細!$K$3:$L$97, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16302,45 +16379,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A5E72-8DC9-224F-8BF4-A41C6C462A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF148D-C97C-BC4C-BE8C-29EDE4D736E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <sheet name="UI=&gt;" sheetId="7" r:id="rId5"/>
     <sheet name="TOP" sheetId="8" r:id="rId6"/>
     <sheet name="Styles" sheetId="9" r:id="rId7"/>
-    <sheet name="Layers" sheetId="11" r:id="rId8"/>
-    <sheet name="DB=&gt;" sheetId="10" r:id="rId9"/>
+    <sheet name="MapEditor" sheetId="15" r:id="rId8"/>
+    <sheet name="Layers" sheetId="11" r:id="rId9"/>
+    <sheet name="DB=&gt;" sheetId="10" r:id="rId10"/>
+    <sheet name="遷移図=&gt;" sheetId="13" r:id="rId11"/>
+    <sheet name="遷移図1" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1907,9 +1910,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1926,6 +1926,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9511,8 +9514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1019850" y="1402904"/>
-          <a:ext cx="9414822" cy="7738370"/>
+          <a:off x="1031139" y="1346460"/>
+          <a:ext cx="9516422" cy="7365837"/>
           <a:chOff x="1033704" y="1372116"/>
           <a:chExt cx="9539513" cy="7535170"/>
         </a:xfrm>
@@ -11116,1758 +11119,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>312263</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>217571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>557152</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>132741</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="75" name="グループ化 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF238A37-D6DC-4146-8209-A27FB0445574}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="13587996" y="1402904"/>
-          <a:ext cx="4037956" cy="7738370"/>
-          <a:chOff x="2857500" y="486833"/>
-          <a:chExt cx="4724400" cy="8356600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="角丸四角形 98">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D6A138-739E-484D-8619-CF6DF7994040}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2857500" y="486833"/>
-            <a:ext cx="4724400" cy="8356600"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8096"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="角丸四角形 99">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EFDE43-FA4A-314E-9AA4-277D02D22D3F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3116961" y="882581"/>
-            <a:ext cx="4213124" cy="7128934"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 0"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="角丸四角形 100">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B641108E-E22F-BF4E-AB41-005D20D1E84A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4841158" y="8202424"/>
-            <a:ext cx="846666" cy="491068"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 47210"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>556026</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>319694</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>35585</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00AED25-77BA-C442-9DE2-31C94EFE220B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13839934" y="1970536"/>
-          <a:ext cx="3559070" cy="6239762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>648395</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>203735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>215599</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>26520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A990454B-B0DB-D443-9194-596AFA03F1D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13932303" y="2772930"/>
-          <a:ext cx="3362606" cy="4260487"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>564120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>141955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>305295</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>75909</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A93BF9-83C4-254A-9780-DB60628677EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13848028" y="1776898"/>
-          <a:ext cx="3536577" cy="167517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t> bar</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>648395</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>215599</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130737</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="正方形/長方形 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE23325-8467-CE44-8851-AE6490396BA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13932303" y="1999993"/>
-          <a:ext cx="3362606" cy="699939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>648395</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>219160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>215599</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>227707</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD496E1-E370-C845-B97F-6B73B60A891F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13932303" y="7459620"/>
-          <a:ext cx="3362606" cy="709236"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>856816</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>219680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234653</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="四角形吹き出し 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C93592-BA59-BD43-939B-1E2D20C19EC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12243023" y="4190255"/>
-          <a:ext cx="1275538" cy="561933"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 77523"/>
-            <a:gd name="adj2" fmla="val -10485"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>mainContainer</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>927916</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>40832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>413582</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57901</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="四角形吹き出し 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E96101-CE8F-9442-AC44-2ECF8B2DA6CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18007226" y="7981981"/>
-          <a:ext cx="1383367" cy="484196"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -103866"/>
-            <a:gd name="adj2" fmla="val -74606"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>controllerLayout</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>923930</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>102646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>162818</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>216358</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="四角形吹き出し 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25BDABC-371D-4D4C-9A5F-0DEACB407359}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18003240" y="2204715"/>
-          <a:ext cx="1136589" cy="347275"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -118205"/>
-            <a:gd name="adj2" fmla="val -22187"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>menuLayout</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>648395</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>215599</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>154923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A5D233-9DAB-0C4D-970E-AC1A52AC73FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13932303" y="7084704"/>
-          <a:ext cx="3362606" cy="310679"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>852776</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>103444</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>278519</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>137206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="四角形吹き出し 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06D8F90-580B-004D-8E11-74AE95C12768}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17932086" y="6643214"/>
-          <a:ext cx="3221146" cy="968015"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -74436"/>
-            <a:gd name="adj2" fmla="val 12484"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>assetButtonLayout</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(Touchable Opacity as button)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>710253</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241746</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E788E7A-68F6-0749-A18F-F200DEF6FE09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13994161" y="7504587"/>
-          <a:ext cx="480344" cy="610846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>316906</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>797249</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D789D5-2AD0-F04B-AA76-EF2081BF366F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14549665" y="7504587"/>
-          <a:ext cx="480343" cy="610846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>866989</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>399837</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CEE455-AE6F-CC44-9B2A-27D90369E3BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15099748" y="7504587"/>
-          <a:ext cx="481698" cy="610846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>469578</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1071</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24002256-3FE6-D54F-AE3E-70DCEBEB77BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15651187" y="7504587"/>
-          <a:ext cx="480344" cy="610846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>70811</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552509</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18326176-7DE0-F644-A79F-56D81E76EC2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16201271" y="7504587"/>
-          <a:ext cx="481698" cy="610846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>622249</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>153742</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72FA013-4A1E-CE43-9832-DD42A62AA2EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16752709" y="7504587"/>
-          <a:ext cx="480343" cy="610846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>710253</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>186354</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>685483</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C4022D-2795-4E40-B3A9-4C3883C90896}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13994161" y="2054860"/>
-          <a:ext cx="924081" cy="578727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>895793</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>186354</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>871025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884932C5-15CF-5A48-8923-1525F5BFD1ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15128552" y="2054860"/>
-          <a:ext cx="924082" cy="578727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>128418</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>186354</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>103649</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="正方形/長方形 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E9CC3D-1092-E34D-BB6B-C5FD043319FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16258878" y="2054860"/>
-          <a:ext cx="924081" cy="578727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>875912</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>55404</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>117920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="四角形吹き出し 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBF9ACB-770C-9544-9C87-0A0B46E952E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17955222" y="6081684"/>
-          <a:ext cx="1077193" cy="342443"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -115495"/>
-            <a:gd name="adj2" fmla="val -56290"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>mapLayout</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>40832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158374</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>24289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="四角形吹き出し 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B7544A-55BF-9945-A6C8-A7E5E705D424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11746425" y="7981981"/>
-          <a:ext cx="1695857" cy="684147"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 94877"/>
-            <a:gd name="adj2" fmla="val -78515"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Touchable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Opacity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(as button)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13417,6 +11668,7541 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443184</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>716058</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>164755</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E37EA27-1433-C5D3-ACC5-4B70465A480D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5205684" y="1358899"/>
+          <a:ext cx="1225374" cy="863256"/>
+          <a:chOff x="3739697" y="615795"/>
+          <a:chExt cx="1221454" cy="871700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="角丸四角形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD227B2C-F714-3BDE-B529-952E5092B8BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="615795"/>
+            <a:ext cx="1209361" cy="868605"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S0</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>メニュー画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>App.tsx</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="円/楕円 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A08EF89-C4BC-7EFA-5EA9-93232B222CBC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="円/楕円 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DF2C66-D56C-B151-4F4B-0CA1D44F5E20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="円/楕円 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AECF6F8-C01A-0173-30EC-4CD3329BB080}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="円/楕円 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A90664-C388-FC9A-0D30-8B063DC0D9B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="円/楕円 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002224B8-1092-B64B-1FDB-1E9FA35145AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="円/楕円 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEE7D03-5855-7D63-7808-13064C98E201}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="円/楕円 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B3B068-80A9-F6B2-E389-DE7C7ACEB378}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="円/楕円 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800EEFF6-657A-C2B7-0DEE-F98F6B3747AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="円/楕円 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F6B905-0507-C262-D9DA-4CCE12DF1FD4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="円/楕円 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7BBF4-6724-00A1-D4EC-6BE690180E7F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="円/楕円 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33E500D-9CC2-6078-7CD4-209DBF593C4F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="円/楕円 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C33D40C-CD86-39B1-5C43-905273AD2BAC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619179</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>188796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="曲線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3054E8A4-62F8-F4E1-CE37-83D05AD3B6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="73" idx="0"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3495384" y="1770291"/>
+          <a:ext cx="1700486" cy="1737896"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>748672</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4027</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="グループ化 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46A67F8-EFED-CFF1-3530-D666A559C59D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2653672" y="3465426"/>
+          <a:ext cx="1638457" cy="882001"/>
+          <a:chOff x="3739697" y="772163"/>
+          <a:chExt cx="1221454" cy="715332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="角丸四角形 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97419A27-D1DB-4471-B5E3-F05C2A940C9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="791673"/>
+            <a:ext cx="1209361" cy="692727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>新規ファイル名入力</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>StorageControl.tsx</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="円/楕円 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165B4695-92E5-948D-AAE6-589FCDC7F2A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="円/楕円 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AFA4C2-05A1-1078-09FD-B7C6F1CDFFC7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="円/楕円 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69558622-A5EA-07DF-F72D-90A07D675BA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="円/楕円 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDB2E4F-5B2C-9F7C-9535-A3690102F5DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="円/楕円 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB46C57-B36F-7B90-3DBF-9386C829F4BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="円/楕円 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8926F4-9BCD-32E5-86B2-C2BEE1840B56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="円/楕円 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE2B6C3-5F1D-BC70-D328-A879E2D74537}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="円/楕円 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44C0D71-0F9A-40E2-D7A2-6D5626E866C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="円/楕円 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137E34F7-34CE-EA01-95F7-65DB956E4679}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="円/楕円 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C0ABFC-8EEE-CE5E-BF37-07B80C4DFDF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="円/楕円 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49ED1742-B254-D87F-4F9B-3735ACEF4F19}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="円/楕円 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71D2029-65C7-E262-2805-7D386682302D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>925062</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>540926</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129352</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="グループ化 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EBA579-E358-496B-3C98-D06161D7F127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4735062" y="3353271"/>
+          <a:ext cx="1520864" cy="1119481"/>
+          <a:chOff x="3739697" y="772163"/>
+          <a:chExt cx="1221454" cy="715332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="角丸四角形 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF2EFB3-5689-29B5-75AB-E6ADA9B79811}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="791673"/>
+            <a:ext cx="1209361" cy="692727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>セーブデータ選択</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>Edit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>モード）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>StorageControl.tsx</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="円/楕円 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABA1A10-A25F-CEEF-5D6C-9FF7F4142D4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="円/楕円 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A6C22E-1983-CA92-DD2D-2701199F44F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="円/楕円 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1AA1DA-2115-1460-55F5-3C8C000E1D49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="円/楕円 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC1E4E0-9CCB-601F-6494-4077475CF174}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="円/楕円 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8B24C4-44A3-2790-325D-D3630D3DA13D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="円/楕円 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5803E60-919B-3224-4037-7FDC11FC2ED0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="円/楕円 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864B311D-543F-392D-FB5F-63CED30681AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="円/楕円 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BDEAB6-273C-28A1-B497-A8A408A6B519}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="円/楕円 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEE52C-E737-DC5D-9560-D04D402F7AE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="円/楕円 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDF239C-44D5-D60C-0CA2-74B81B5B15F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="円/楕円 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103D7C20-A3B0-6EEE-9677-2236AEA2F35E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="円/楕円 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFFADD0-2E1B-83B7-0CB6-6ED85D73A22B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815309</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129352</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="グループ化 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6B22C7-E4DB-1664-F737-E4FF518240C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6910525" y="3353271"/>
+          <a:ext cx="1524784" cy="1119481"/>
+          <a:chOff x="3739697" y="772163"/>
+          <a:chExt cx="1221454" cy="715332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="角丸四角形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B0EB63-FAFF-B735-4595-7E8667EE7414}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="791673"/>
+            <a:ext cx="1209361" cy="692727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S3</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>セーブデータ選択</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>GALLERY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>モード）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>StorageControl.tsx</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="円/楕円 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC2902D-5255-DA4A-47B3-F9EDD12263ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="円/楕円 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8245F843-84E5-5668-7B69-2C878F182CF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="円/楕円 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B783D7-5ED9-66D6-85F3-3DDC2FBD196C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="円/楕円 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A2C939-0909-A407-AE93-6CA6C1B55420}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="円/楕円 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9844D4F7-5E30-1D76-F385-B3EA9372C4F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="円/楕円 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DFB75C-7F11-DF7F-2B99-3D8DEBDEFCAF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="円/楕円 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A97559D-1A60-C843-8353-FFB0540D190A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="円/楕円 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291DBA08-92D2-11E5-7565-F740DFB8CE12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="円/楕円 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83313360-420F-9E36-C25D-BBD093042C4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="円/楕円 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59230B9B-F753-2669-C627-0D722DBCE58B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="円/楕円 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51376DED-FA27-BAEA-4E33-110CBA56C6A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="円/楕円 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109EE7CC-B920-5E1A-8ADD-AFDE70E76A94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>837572</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>574948</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38981</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="グループ化 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308FC6CF-2283-C7B2-0EAC-91A89E195738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2742572" y="5563037"/>
+          <a:ext cx="1642376" cy="876744"/>
+          <a:chOff x="3739697" y="772163"/>
+          <a:chExt cx="1221454" cy="715332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="角丸四角形 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB8782-03B2-DC25-EF84-FF0333BE4A0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="791673"/>
+            <a:ext cx="1209361" cy="692727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S4</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>初期設定</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>MapEditor.tsx</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="円/楕円 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D738509-BE52-585D-CB0E-D1F724889423}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="円/楕円 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F55D573-50FE-95E9-4209-18F5CDC6ED59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="円/楕円 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DA061E-C74D-FFC8-E682-DDDC1C061FED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="円/楕円 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2B0C4A-3E40-6E01-4B4F-CA4D35178C81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="円/楕円 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93B99E3-FF74-0F60-E9AB-5168A71CC6F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="円/楕円 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5CC129-61E3-9BE8-A664-98515338B777}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="円/楕円 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED82A500-D543-FDAE-2B9A-AF56195D4D83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="円/楕円 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61ED893-95BF-A85D-4339-E1F72E99BC6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="円/楕円 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094DBC0D-123D-6308-B277-012656CE516A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="円/楕円 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F7C2F4-5254-2EC3-727D-71ACCBAE41B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="円/楕円 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4210D25E-5E1D-FAE3-09C6-39B6D6A5BB33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="円/楕円 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1413E4-4E0C-A36A-ED09-516883111EE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>777051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>232148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506588</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>199750</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="128" name="グループ化 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B73755-5406-FA9B-1723-A131EA085352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4587051" y="7318748"/>
+          <a:ext cx="1634537" cy="882002"/>
+          <a:chOff x="3739697" y="772163"/>
+          <a:chExt cx="1221454" cy="715332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="角丸四角形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B7984D-6C1B-DF36-EE97-2265548F22CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="791673"/>
+            <a:ext cx="1209361" cy="692727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S5</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>地図編集画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>MapEditor.tsx</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="円/楕円 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DBA6A6-B4DD-37D6-1C18-0FA430093DDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="円/楕円 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF66D36-561B-D36B-CE83-2664F5096101}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="円/楕円 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991C385D-59DD-0889-B119-7633B77C3246}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="円/楕円 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1F50E2-B3DC-D5F8-0E53-DDC22E97AA66}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="円/楕円 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1BD06D-9315-20F3-9E8E-FDD176EC4A5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="円/楕円 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE79DC3-0C8D-E518-665B-7228D1A28B14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="円/楕円 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF651E8-D800-2E7C-2328-0CB4494EFD69}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="円/楕円 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A65E58-B87E-B645-D4C9-FBC807A1947D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="円/楕円 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2A244D-048D-1AD1-50B3-418C54B9EE00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="円/楕円 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F31A818-B008-FD54-FA04-F4299A9A96B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="円/楕円 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C64C493-5874-4E90-A4E2-24C48BEDAEC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="円/楕円 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7DA26C-308B-B193-CBC0-AEB2CED2AB36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438081</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32154</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="142" name="グループ化 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29E7EE0-1302-A20F-2203-4621C328C144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6419624" y="5560122"/>
+          <a:ext cx="1638457" cy="872832"/>
+          <a:chOff x="3739697" y="772163"/>
+          <a:chExt cx="1221454" cy="715332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="角丸四角形 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555AB04B-11C4-FF95-B1C7-410B988A4691}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3748560" y="791673"/>
+            <a:ext cx="1209360" cy="692727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>S6</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>地図閲覧画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>MapViewer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="円/楕円 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A245ECC5-D83B-7AC6-286E-7F48E15A9A78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="1334159"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="円/楕円 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3737D15D-0EAA-2040-6518-28D3A2FEA927}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835143" y="1437674"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="円/楕円 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A80BCF-0B54-B791-E69C-9AE4D16B5847}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="1329031"/>
+            <a:ext cx="45719" cy="43904"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="円/楕円 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAD1FEA-6A00-9251-33EF-075CD6081EF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4823140" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="円/楕円 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4177432B-2F0E-38F9-CF28-F9F6264B896C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="円/楕円 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504C54EC-3CAA-6594-89F8-2720CC2A39FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="1441618"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="円/楕円 149">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECC7E17-AFE2-52F9-9147-E47EA21B86F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4233498" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="円/楕円 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE235FB4-2FCC-B6E0-D603-B3C1874F321C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4363653" y="772163"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="円/楕円 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8696D2-0588-3AE8-F9F6-85CA1B1E9176}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3739697" y="906262"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="円/楕円 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3715B5-A6BB-771A-360A-B9912545206C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3823311" y="787939"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="円/楕円 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693091EF-1314-D0C0-1597-0ED37FA12140}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4915432" y="910505"/>
+            <a:ext cx="45719" cy="48028"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="円/楕円 154">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9333D617-588E-D045-3FCF-DC260D166367}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816709" y="792182"/>
+            <a:ext cx="45719" cy="45877"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65385</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488718</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="フリーフォーム 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1FF16D-FC2D-6AC7-DB50-63100009D176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3891064" y="2278461"/>
+          <a:ext cx="1379753" cy="1312033"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1378085"/>
+            <a:gd name="connsiteY0" fmla="*/ 1251986 h 1251986"/>
+            <a:gd name="connsiteX1" fmla="*/ 927730 w 1378085"/>
+            <a:gd name="connsiteY1" fmla="*/ 540425 h 1251986"/>
+            <a:gd name="connsiteX2" fmla="*/ 1378085 w 1378085"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 1251986"/>
+            <a:gd name="connsiteX3" fmla="*/ 1378085 w 1378085"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1251986"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1378085" h="1251986">
+              <a:moveTo>
+                <a:pt x="0" y="1251986"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="349024" y="1000537"/>
+                <a:pt x="698049" y="749089"/>
+                <a:pt x="927730" y="540425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1157411" y="331761"/>
+                <a:pt x="1378085" y="0"/>
+                <a:pt x="1378085" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1378085" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>829526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231739</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>202632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="フリーフォーム 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31449653-6538-1EB4-E9DA-88C8138FE2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5611625" y="2267302"/>
+          <a:ext cx="358633" cy="1227923"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 135106 w 136464"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1152908"/>
+            <a:gd name="connsiteX1" fmla="*/ 117092 w 136464"/>
+            <a:gd name="connsiteY1" fmla="*/ 540426 h 1152908"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 136464"/>
+            <a:gd name="connsiteY2" fmla="*/ 1152908 h 1152908"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="136464" h="1152908">
+              <a:moveTo>
+                <a:pt x="135106" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="137358" y="174137"/>
+                <a:pt x="139610" y="348275"/>
+                <a:pt x="117092" y="540426"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="94574" y="732577"/>
+                <a:pt x="47287" y="942742"/>
+                <a:pt x="0" y="1152908"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>724570</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23235</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="フリーフォーム 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C0A0E8-22B8-BBB9-CE0F-D09D9A14AF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6463089" y="1953205"/>
+          <a:ext cx="1211504" cy="1546218"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1306028"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 1107872 w 1306028"/>
+            <a:gd name="connsiteY1" fmla="*/ 684539 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1306028"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1309143"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 1107872 w 1309143"/>
+            <a:gd name="connsiteY1" fmla="*/ 684539 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1309143"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1309143" h="1486170">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="445100" y="218422"/>
+                <a:pt x="890201" y="436844"/>
+                <a:pt x="1107872" y="684539"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1325543" y="932234"/>
+                <a:pt x="1313390" y="1181212"/>
+                <a:pt x="1306028" y="1486170"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619006</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>807309</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="フリーフォーム 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5290A90-926F-6AF4-A22E-CC85E3779918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5401105" y="4556635"/>
+          <a:ext cx="188303" cy="2987322"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 721101 w 842903"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2109492"/>
+            <a:gd name="connsiteX1" fmla="*/ 785678 w 842903"/>
+            <a:gd name="connsiteY1" fmla="*/ 1000932 h 2109492"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 842903"/>
+            <a:gd name="connsiteY2" fmla="*/ 2109492 h 2109492"/>
+            <a:gd name="connsiteX0" fmla="*/ 721101 w 746944"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2109492"/>
+            <a:gd name="connsiteX1" fmla="*/ 517424 w 746944"/>
+            <a:gd name="connsiteY1" fmla="*/ 1243592 h 2109492"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 746944"/>
+            <a:gd name="connsiteY2" fmla="*/ 2109492 h 2109492"/>
+            <a:gd name="connsiteX0" fmla="*/ 721101 w 746944"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2109492"/>
+            <a:gd name="connsiteX1" fmla="*/ 517424 w 746944"/>
+            <a:gd name="connsiteY1" fmla="*/ 1243592 h 2109492"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 746944"/>
+            <a:gd name="connsiteY2" fmla="*/ 2109492 h 2109492"/>
+            <a:gd name="connsiteX0" fmla="*/ 721101 w 721101"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2109492"/>
+            <a:gd name="connsiteX1" fmla="*/ 517424 w 721101"/>
+            <a:gd name="connsiteY1" fmla="*/ 1243592 h 2109492"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 721101"/>
+            <a:gd name="connsiteY2" fmla="*/ 2109492 h 2109492"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="721101" h="2109492">
+              <a:moveTo>
+                <a:pt x="721101" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="694257" y="397473"/>
+                <a:pt x="637608" y="807079"/>
+                <a:pt x="517424" y="1243592"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="397240" y="1680105"/>
+                <a:pt x="332747" y="1731003"/>
+                <a:pt x="0" y="2109492"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635796</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77595</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>196066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="フリーフォーム 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989E9BD4-E694-D82D-47DE-A14057DBC6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5417895" y="2254720"/>
+          <a:ext cx="398219" cy="1233939"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 135106 w 136464"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1152908"/>
+            <a:gd name="connsiteX1" fmla="*/ 117092 w 136464"/>
+            <a:gd name="connsiteY1" fmla="*/ 540426 h 1152908"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 136464"/>
+            <a:gd name="connsiteY2" fmla="*/ 1152908 h 1152908"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="136464" h="1152908">
+              <a:moveTo>
+                <a:pt x="135106" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="137358" y="174137"/>
+                <a:pt x="139610" y="348275"/>
+                <a:pt x="117092" y="540426"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="94574" y="732577"/>
+                <a:pt x="47287" y="942742"/>
+                <a:pt x="0" y="1152908"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>303615</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105766</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CB7542-61B7-41F7-9284-790E9793374A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3172874" y="2222433"/>
+          <a:ext cx="607859" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[NEW]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>422004</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127292</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639727" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161EF047-F2A5-68D8-F158-FBACDD40792A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247683" y="2479144"/>
+          <a:ext cx="639727" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[cancel]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77597</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105768</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639727" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288EC1CB-0F91-5227-4ADA-A88E0ECFEE0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4859696" y="2927990"/>
+          <a:ext cx="639727" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[close]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174462</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>213394</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639727" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="テキスト ボックス 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7242E7DC-E728-E007-CCE3-74AF080DF33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5912981" y="2565246"/>
+          <a:ext cx="639727" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[EDIT]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150028</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224157</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774699" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="テキスト ボックス 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF18D830-9393-E43D-39B1-A40966F4D291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6844966" y="1870453"/>
+          <a:ext cx="774699" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[GALLERY]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>706171</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>696603</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="フリーフォーム 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D0EE2B-FA65-A73E-466F-B56CFFE73DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10483963">
+          <a:off x="6444690" y="2186739"/>
+          <a:ext cx="946851" cy="1343991"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1306028"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 1107872 w 1306028"/>
+            <a:gd name="connsiteY1" fmla="*/ 684539 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1306028"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1309143"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 1107872 w 1309143"/>
+            <a:gd name="connsiteY1" fmla="*/ 684539 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1309143"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1306173"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 821960 w 1306173"/>
+            <a:gd name="connsiteY1" fmla="*/ 728032 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1306173"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1306173"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 821960 w 1306173"/>
+            <a:gd name="connsiteY1" fmla="*/ 728032 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1306173"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1306028"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1486170"/>
+            <a:gd name="connsiteX1" fmla="*/ 821960 w 1306028"/>
+            <a:gd name="connsiteY1" fmla="*/ 728032 h 1486170"/>
+            <a:gd name="connsiteX2" fmla="*/ 1306028 w 1306028"/>
+            <a:gd name="connsiteY2" fmla="*/ 1486170 h 1486170"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1306028" h="1486170">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="193680" y="111044"/>
+                <a:pt x="604289" y="480337"/>
+                <a:pt x="821960" y="728032"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1039631" y="975727"/>
+                <a:pt x="1200279" y="1160365"/>
+                <a:pt x="1306028" y="1486170"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>732661</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10497</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639727" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="テキスト ボックス 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8EEB63-86F0-1194-0195-16C70E667C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6471180" y="3067904"/>
+          <a:ext cx="639727" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[close]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508158</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="フリーフォーム 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39295883-D2A3-D6F1-2020-AF17983769BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3377417" y="4470190"/>
+          <a:ext cx="97442" cy="1287771"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 107884 w 107884"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 764153"/>
+            <a:gd name="connsiteX1" fmla="*/ 257 w 107884"/>
+            <a:gd name="connsiteY1" fmla="*/ 333644 h 764153"/>
+            <a:gd name="connsiteX2" fmla="*/ 75596 w 107884"/>
+            <a:gd name="connsiteY2" fmla="*/ 764153 h 764153"/>
+            <a:gd name="connsiteX3" fmla="*/ 75596 w 107884"/>
+            <a:gd name="connsiteY3" fmla="*/ 764153 h 764153"/>
+            <a:gd name="connsiteX0" fmla="*/ 46700 w 77810"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 756457"/>
+            <a:gd name="connsiteX1" fmla="*/ 2471 w 77810"/>
+            <a:gd name="connsiteY1" fmla="*/ 325948 h 756457"/>
+            <a:gd name="connsiteX2" fmla="*/ 77810 w 77810"/>
+            <a:gd name="connsiteY2" fmla="*/ 756457 h 756457"/>
+            <a:gd name="connsiteX3" fmla="*/ 77810 w 77810"/>
+            <a:gd name="connsiteY3" fmla="*/ 756457 h 756457"/>
+            <a:gd name="connsiteX0" fmla="*/ 46700 w 77810"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 756457"/>
+            <a:gd name="connsiteX1" fmla="*/ 2471 w 77810"/>
+            <a:gd name="connsiteY1" fmla="*/ 325948 h 756457"/>
+            <a:gd name="connsiteX2" fmla="*/ 77810 w 77810"/>
+            <a:gd name="connsiteY2" fmla="*/ 756457 h 756457"/>
+            <a:gd name="connsiteX3" fmla="*/ 77810 w 77810"/>
+            <a:gd name="connsiteY3" fmla="*/ 756457 h 756457"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="77810" h="756457">
+              <a:moveTo>
+                <a:pt x="46700" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="-4423" y="172409"/>
+                <a:pt x="-2714" y="199872"/>
+                <a:pt x="2471" y="325948"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7656" y="452024"/>
+                <a:pt x="77810" y="756457"/>
+                <a:pt x="77810" y="756457"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="77810" y="756457"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>886645</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>644452</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>233723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="フリーフォーム 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750E3F89-E0A5-756D-E4BC-53C5BE130D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20563996">
+          <a:off x="3755904" y="6506725"/>
+          <a:ext cx="714227" cy="1252924"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 107884 w 107884"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 764153"/>
+            <a:gd name="connsiteX1" fmla="*/ 257 w 107884"/>
+            <a:gd name="connsiteY1" fmla="*/ 333644 h 764153"/>
+            <a:gd name="connsiteX2" fmla="*/ 75596 w 107884"/>
+            <a:gd name="connsiteY2" fmla="*/ 764153 h 764153"/>
+            <a:gd name="connsiteX3" fmla="*/ 75596 w 107884"/>
+            <a:gd name="connsiteY3" fmla="*/ 764153 h 764153"/>
+            <a:gd name="connsiteX0" fmla="*/ 46527 w 77866"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 749104"/>
+            <a:gd name="connsiteX1" fmla="*/ 2527 w 77866"/>
+            <a:gd name="connsiteY1" fmla="*/ 318595 h 749104"/>
+            <a:gd name="connsiteX2" fmla="*/ 77866 w 77866"/>
+            <a:gd name="connsiteY2" fmla="*/ 749104 h 749104"/>
+            <a:gd name="connsiteX3" fmla="*/ 77866 w 77866"/>
+            <a:gd name="connsiteY3" fmla="*/ 749104 h 749104"/>
+            <a:gd name="connsiteX0" fmla="*/ 45383 w 76722"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 749104"/>
+            <a:gd name="connsiteX1" fmla="*/ 1383 w 76722"/>
+            <a:gd name="connsiteY1" fmla="*/ 318595 h 749104"/>
+            <a:gd name="connsiteX2" fmla="*/ 76722 w 76722"/>
+            <a:gd name="connsiteY2" fmla="*/ 749104 h 749104"/>
+            <a:gd name="connsiteX3" fmla="*/ 76722 w 76722"/>
+            <a:gd name="connsiteY3" fmla="*/ 749104 h 749104"/>
+            <a:gd name="connsiteX0" fmla="*/ 34501 w 80039"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 4700 w 80039"/>
+            <a:gd name="connsiteY1" fmla="*/ 321967 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 80039 w 80039"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 80039 w 80039"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 25470 w 71008"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 10817 w 71008"/>
+            <a:gd name="connsiteY1" fmla="*/ 343344 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 71008 w 71008"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 71008 w 71008"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 18126 w 63664"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 3473 w 63664"/>
+            <a:gd name="connsiteY1" fmla="*/ 343344 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 63664 w 63664"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 63664 w 63664"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 9746 w 55284"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 9653 w 55284"/>
+            <a:gd name="connsiteY1" fmla="*/ 373318 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 55284 w 55284"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 55284 w 55284"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 3675 w 49213"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 3582 w 49213"/>
+            <a:gd name="connsiteY1" fmla="*/ 373318 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 49213 w 49213"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 49213 w 49213"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 70 w 45608"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 16769 w 45608"/>
+            <a:gd name="connsiteY1" fmla="*/ 466900 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 45608 w 45608"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 45608 w 45608"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 70 w 45608"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 752476"/>
+            <a:gd name="connsiteX1" fmla="*/ 16769 w 45608"/>
+            <a:gd name="connsiteY1" fmla="*/ 466900 h 752476"/>
+            <a:gd name="connsiteX2" fmla="*/ 45608 w 45608"/>
+            <a:gd name="connsiteY2" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX3" fmla="*/ 45608 w 45608"/>
+            <a:gd name="connsiteY3" fmla="*/ 752476 h 752476"/>
+            <a:gd name="connsiteX0" fmla="*/ 48 w 51397"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 751469"/>
+            <a:gd name="connsiteX1" fmla="*/ 22558 w 51397"/>
+            <a:gd name="connsiteY1" fmla="*/ 465893 h 751469"/>
+            <a:gd name="connsiteX2" fmla="*/ 51397 w 51397"/>
+            <a:gd name="connsiteY2" fmla="*/ 751469 h 751469"/>
+            <a:gd name="connsiteX3" fmla="*/ 51397 w 51397"/>
+            <a:gd name="connsiteY3" fmla="*/ 751469 h 751469"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="51397" h="751469">
+              <a:moveTo>
+                <a:pt x="48" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="-958" y="252302"/>
+                <a:pt x="14000" y="340648"/>
+                <a:pt x="22558" y="465893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31116" y="591138"/>
+                <a:pt x="34460" y="614431"/>
+                <a:pt x="51397" y="751469"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="51397" y="751469"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17758</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12218</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="590013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="テキスト ボックス 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61597D5B-6240-2B82-D222-3C81C9B514BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2887017" y="4715922"/>
+          <a:ext cx="607859" cy="590013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[OK]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152937</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="フリーフォーム 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A459538F-B3DB-1D87-C299-A69AA23F6BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416838" y="4574286"/>
+          <a:ext cx="387457" cy="1154400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 387457 w 387457"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1108559"/>
+            <a:gd name="connsiteX1" fmla="*/ 258305 w 387457"/>
+            <a:gd name="connsiteY1" fmla="*/ 667288 h 1108559"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 387457"/>
+            <a:gd name="connsiteY2" fmla="*/ 1108559 h 1108559"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="387457" h="1108559">
+              <a:moveTo>
+                <a:pt x="387457" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="355169" y="241264"/>
+                <a:pt x="322881" y="482528"/>
+                <a:pt x="258305" y="667288"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="193729" y="852048"/>
+                <a:pt x="96864" y="980303"/>
+                <a:pt x="0" y="1108559"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>475819</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>861815</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="フリーフォーム 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427AB429-88D4-148B-FA1B-094EBB14E7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7170757" y="4574286"/>
+          <a:ext cx="385996" cy="1154400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 387457 w 387457"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1108559"/>
+            <a:gd name="connsiteX1" fmla="*/ 258305 w 387457"/>
+            <a:gd name="connsiteY1" fmla="*/ 667288 h 1108559"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 387457"/>
+            <a:gd name="connsiteY2" fmla="*/ 1108559 h 1108559"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="387457" h="1108559">
+              <a:moveTo>
+                <a:pt x="387457" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="355169" y="241264"/>
+                <a:pt x="322881" y="482528"/>
+                <a:pt x="258305" y="667288"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="193729" y="852048"/>
+                <a:pt x="96864" y="980303"/>
+                <a:pt x="0" y="1108559"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18193</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203054</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="564257"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="テキスト ボックス 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5F4746-7333-55EF-8B26-6F85F159F34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669551" y="4906758"/>
+          <a:ext cx="607859" cy="564257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>953087</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>234921</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607860" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="テキスト ボックス 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8616BC4-0D83-4A7E-F355-3CB7FED57656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6691606" y="4938625"/>
+          <a:ext cx="607860" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[close]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90377</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="564257"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="テキスト ボックス 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94E8644-B851-C141-1EAD-9930DD8F0FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5026998" y="4794081"/>
+          <a:ext cx="607859" cy="564257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>909214</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25508</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="611386" cy="500522"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="テキスト ボックス 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE9582A-8AD3-9897-D54E-500BF79CFDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6624214" y="7340708"/>
+          <a:ext cx="611386" cy="500522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[DONE]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>187556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>785514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219507</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="フリーフォーム 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CB1196-22F8-3734-60BA-3167450DC374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6222999" y="1330556"/>
+          <a:ext cx="3135015" cy="6661351"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4014452"/>
+            <a:gd name="connsiteY0" fmla="*/ 7207456 h 7207456"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4014452"/>
+            <a:gd name="connsiteY1" fmla="*/ 6156963 h 7207456"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4014452"/>
+            <a:gd name="connsiteY2" fmla="*/ 2974123 h 7207456"/>
+            <a:gd name="connsiteX3" fmla="*/ 3088765 w 4014452"/>
+            <a:gd name="connsiteY3" fmla="*/ 308691 h 7207456"/>
+            <a:gd name="connsiteX4" fmla="*/ 1379753 w 4014452"/>
+            <a:gd name="connsiteY4" fmla="*/ 89185 h 7207456"/>
+            <a:gd name="connsiteX5" fmla="*/ 156790 w 4014452"/>
+            <a:gd name="connsiteY5" fmla="*/ 606592 h 7207456"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4014452"/>
+            <a:gd name="connsiteY0" fmla="*/ 7231769 h 7231769"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4014452"/>
+            <a:gd name="connsiteY1" fmla="*/ 6181276 h 7231769"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4014452"/>
+            <a:gd name="connsiteY2" fmla="*/ 2998436 h 7231769"/>
+            <a:gd name="connsiteX3" fmla="*/ 3088765 w 4014452"/>
+            <a:gd name="connsiteY3" fmla="*/ 333004 h 7231769"/>
+            <a:gd name="connsiteX4" fmla="*/ 1379753 w 4014452"/>
+            <a:gd name="connsiteY4" fmla="*/ 113498 h 7231769"/>
+            <a:gd name="connsiteX5" fmla="*/ 156790 w 4014452"/>
+            <a:gd name="connsiteY5" fmla="*/ 630905 h 7231769"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4014417"/>
+            <a:gd name="connsiteY0" fmla="*/ 7176342 h 7176342"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4014417"/>
+            <a:gd name="connsiteY1" fmla="*/ 6125849 h 7176342"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4014417"/>
+            <a:gd name="connsiteY2" fmla="*/ 2943009 h 7176342"/>
+            <a:gd name="connsiteX3" fmla="*/ 3088765 w 4014417"/>
+            <a:gd name="connsiteY3" fmla="*/ 277577 h 7176342"/>
+            <a:gd name="connsiteX4" fmla="*/ 1379753 w 4014417"/>
+            <a:gd name="connsiteY4" fmla="*/ 58071 h 7176342"/>
+            <a:gd name="connsiteX5" fmla="*/ 156790 w 4014417"/>
+            <a:gd name="connsiteY5" fmla="*/ 575478 h 7176342"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4017025"/>
+            <a:gd name="connsiteY0" fmla="*/ 7121531 h 7121531"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4017025"/>
+            <a:gd name="connsiteY1" fmla="*/ 6071038 h 7121531"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4017025"/>
+            <a:gd name="connsiteY2" fmla="*/ 2888198 h 7121531"/>
+            <a:gd name="connsiteX3" fmla="*/ 3228570 w 4017025"/>
+            <a:gd name="connsiteY3" fmla="*/ 755852 h 7121531"/>
+            <a:gd name="connsiteX4" fmla="*/ 1379753 w 4017025"/>
+            <a:gd name="connsiteY4" fmla="*/ 3260 h 7121531"/>
+            <a:gd name="connsiteX5" fmla="*/ 156790 w 4017025"/>
+            <a:gd name="connsiteY5" fmla="*/ 520667 h 7121531"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4016708"/>
+            <a:gd name="connsiteY0" fmla="*/ 6849150 h 6849150"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4016708"/>
+            <a:gd name="connsiteY1" fmla="*/ 5798657 h 6849150"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4016708"/>
+            <a:gd name="connsiteY2" fmla="*/ 2615817 h 6849150"/>
+            <a:gd name="connsiteX3" fmla="*/ 3228570 w 4016708"/>
+            <a:gd name="connsiteY3" fmla="*/ 483471 h 6849150"/>
+            <a:gd name="connsiteX4" fmla="*/ 1879059 w 4016708"/>
+            <a:gd name="connsiteY4" fmla="*/ 13101 h 6849150"/>
+            <a:gd name="connsiteX5" fmla="*/ 156790 w 4016708"/>
+            <a:gd name="connsiteY5" fmla="*/ 248286 h 6849150"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4016411"/>
+            <a:gd name="connsiteY0" fmla="*/ 6849150 h 6849150"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4016411"/>
+            <a:gd name="connsiteY1" fmla="*/ 5798657 h 6849150"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4016411"/>
+            <a:gd name="connsiteY2" fmla="*/ 2615817 h 6849150"/>
+            <a:gd name="connsiteX3" fmla="*/ 3228570 w 4016411"/>
+            <a:gd name="connsiteY3" fmla="*/ 483471 h 6849150"/>
+            <a:gd name="connsiteX4" fmla="*/ 1879059 w 4016411"/>
+            <a:gd name="connsiteY4" fmla="*/ 13101 h 6849150"/>
+            <a:gd name="connsiteX5" fmla="*/ 156790 w 4016411"/>
+            <a:gd name="connsiteY5" fmla="*/ 248286 h 6849150"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4016411"/>
+            <a:gd name="connsiteY0" fmla="*/ 6839134 h 6839134"/>
+            <a:gd name="connsiteX1" fmla="*/ 2963333 w 4016411"/>
+            <a:gd name="connsiteY1" fmla="*/ 5788641 h 6839134"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4016411"/>
+            <a:gd name="connsiteY2" fmla="*/ 2605801 h 6839134"/>
+            <a:gd name="connsiteX3" fmla="*/ 3228570 w 4016411"/>
+            <a:gd name="connsiteY3" fmla="*/ 473455 h 6839134"/>
+            <a:gd name="connsiteX4" fmla="*/ 1879059 w 4016411"/>
+            <a:gd name="connsiteY4" fmla="*/ 3085 h 6839134"/>
+            <a:gd name="connsiteX5" fmla="*/ 254414 w 4016411"/>
+            <a:gd name="connsiteY5" fmla="*/ 329543 h 6839134"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4016411" h="6839134">
+              <a:moveTo>
+                <a:pt x="0" y="6839134"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1147181" y="6666665"/>
+                <a:pt x="2294362" y="6494196"/>
+                <a:pt x="2963333" y="5788641"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3632304" y="5083086"/>
+                <a:pt x="3969621" y="3491665"/>
+                <a:pt x="4013827" y="2605801"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4058033" y="1719937"/>
+                <a:pt x="3524448" y="734772"/>
+                <a:pt x="3228570" y="473455"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2932692" y="212138"/>
+                <a:pt x="2374752" y="27070"/>
+                <a:pt x="1879059" y="3085"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1383366" y="-20900"/>
+                <a:pt x="621564" y="95664"/>
+                <a:pt x="254414" y="329543"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -13703,15 +19489,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr>
-        <a:ln w="25400">
+        <a:ln w="12700">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:headEnd type="triangle" w="lg" len="lg"/>
-          <a:tailEnd type="none" w="lg" len="lg"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </a:spPr>
       <a:bodyPr/>
@@ -13814,7 +19634,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -13825,7 +19645,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
@@ -13834,7 +19654,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="39"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
@@ -13864,7 +19684,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -13875,7 +19695,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="41"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -13885,11 +19705,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -13900,7 +19720,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
@@ -13909,7 +19729,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="43"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="7" t="s">
         <v>78</v>
       </c>
@@ -13918,7 +19738,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
@@ -13928,8 +19748,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -13943,60 +19763,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -14009,6 +19824,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -14020,15 +19840,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54563889-6F30-0649-809E-000FE7728596}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84157A-542F-0544-9F85-98F0420FC1CF}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2948B-CB17-CC43-978A-D5EB3695E688}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
   <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -16496,8 +22377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -16520,11 +22401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D113EB-BB1A-734C-B52F-FED93580043A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE351FC9-1DAD-834F-981A-94EE3C637F88}">
   <dimension ref="G3:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -16570,31 +22464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54563889-6F30-0649-809E-000FE7728596}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF148D-C97C-BC4C-BE8C-29EDE4D736E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0ACDFA-29D5-1B4C-B71B-361D0F602E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="179">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1571,6 +1571,78 @@
     <rPh sb="6" eb="10">
       <t xml:space="preserve">シンキサクセイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Next State</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>State ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1|S2|S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asEditMode
+(boolean)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asViewMode
+(boolean)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapEditorIsOpen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asInitMode
+(boolean)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storageControl
+IsOpen</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1798,7 +1870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,6 +1982,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1980,7 +2061,47 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -11696,8 +11817,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5205684" y="1358899"/>
-          <a:ext cx="1225374" cy="863256"/>
+          <a:off x="5222754" y="1622458"/>
+          <a:ext cx="1228788" cy="877458"/>
           <a:chOff x="3739697" y="615795"/>
           <a:chExt cx="1221454" cy="871700"/>
         </a:xfrm>
@@ -11721,6 +11842,9 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -12507,8 +12631,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2653672" y="3465426"/>
-          <a:ext cx="1638457" cy="882001"/>
+          <a:off x="2660500" y="3764491"/>
+          <a:ext cx="1645285" cy="896203"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -13256,8 +13380,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4735062" y="3353271"/>
-          <a:ext cx="1520864" cy="1119481"/>
+          <a:off x="4748718" y="3648785"/>
+          <a:ext cx="1527692" cy="1137234"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -14021,8 +14145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6910525" y="3353271"/>
-          <a:ext cx="1524784" cy="1119481"/>
+          <a:off x="6934423" y="3648785"/>
+          <a:ext cx="1528198" cy="1137234"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -14786,8 +14910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2742572" y="5563037"/>
-          <a:ext cx="1642376" cy="876744"/>
+          <a:off x="2749400" y="5894056"/>
+          <a:ext cx="1649204" cy="890947"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -15535,8 +15659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4587051" y="7318748"/>
-          <a:ext cx="1634537" cy="882002"/>
+          <a:off x="4600707" y="7674621"/>
+          <a:ext cx="1641365" cy="896204"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -16284,8 +16408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6419624" y="5560122"/>
-          <a:ext cx="1638457" cy="872832"/>
+          <a:off x="6440108" y="5891141"/>
+          <a:ext cx="1645285" cy="887035"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -18995,13 +19119,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>187556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>785514</xdr:colOff>
+      <xdr:colOff>797702</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>219507</xdr:rowOff>
     </xdr:to>
@@ -19018,8 +19142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6222999" y="1330556"/>
-          <a:ext cx="3135015" cy="6661351"/>
+          <a:off x="6223000" y="1584556"/>
+          <a:ext cx="3147202" cy="6661351"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -19108,6 +19232,18 @@
             <a:gd name="connsiteY4" fmla="*/ 3085 h 6839134"/>
             <a:gd name="connsiteX5" fmla="*/ 254414 w 4016411"/>
             <a:gd name="connsiteY5" fmla="*/ 329543 h 6839134"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4032024"/>
+            <a:gd name="connsiteY0" fmla="*/ 6839134 h 6839134"/>
+            <a:gd name="connsiteX1" fmla="*/ 3435180 w 4032024"/>
+            <a:gd name="connsiteY1" fmla="*/ 6179810 h 6839134"/>
+            <a:gd name="connsiteX2" fmla="*/ 4013827 w 4032024"/>
+            <a:gd name="connsiteY2" fmla="*/ 2605801 h 6839134"/>
+            <a:gd name="connsiteX3" fmla="*/ 3228570 w 4032024"/>
+            <a:gd name="connsiteY3" fmla="*/ 473455 h 6839134"/>
+            <a:gd name="connsiteX4" fmla="*/ 1879059 w 4032024"/>
+            <a:gd name="connsiteY4" fmla="*/ 3085 h 6839134"/>
+            <a:gd name="connsiteX5" fmla="*/ 254414 w 4032024"/>
+            <a:gd name="connsiteY5" fmla="*/ 329543 h 6839134"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -19132,22 +19268,22 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="4016411" h="6839134">
+            <a:path w="4032024" h="6839134">
               <a:moveTo>
                 <a:pt x="0" y="6839134"/>
               </a:moveTo>
               <a:cubicBezTo>
                 <a:pt x="1147181" y="6666665"/>
-                <a:pt x="2294362" y="6494196"/>
-                <a:pt x="2963333" y="5788641"/>
+                <a:pt x="2766209" y="6885365"/>
+                <a:pt x="3435180" y="6179810"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="3632304" y="5083086"/>
-                <a:pt x="3969621" y="3491665"/>
+                <a:pt x="4104151" y="5474255"/>
+                <a:pt x="4048262" y="3556860"/>
                 <a:pt x="4013827" y="2605801"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="4058033" y="1719937"/>
+                <a:pt x="3979392" y="1654742"/>
                 <a:pt x="3524448" y="734772"/>
                 <a:pt x="3228570" y="473455"/>
               </a:cubicBezTo>
@@ -19634,7 +19770,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -19645,7 +19781,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="38"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
@@ -19654,7 +19790,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
@@ -19684,7 +19820,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -19695,7 +19831,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -19705,11 +19841,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -19720,7 +19856,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="42"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
@@ -19729,7 +19865,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="7" t="s">
         <v>78</v>
       </c>
@@ -19738,7 +19874,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="40"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
@@ -19748,8 +19884,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -19763,52 +19899,52 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -19832,7 +19968,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19887,15 +20023,226 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2948B-CB17-CC43-978A-D5EB3695E688}">
-  <dimension ref="A1"/>
+  <dimension ref="L4:R12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="93" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="9.42578125" style="32" customWidth="1"/>
+    <col min="13" max="14" width="16.85546875" style="32" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="32" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="12:18">
+      <c r="M4" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+    </row>
+    <row r="5" spans="12:18" ht="38">
+      <c r="L5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="12:18">
+      <c r="L6" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="12:18">
+      <c r="L7" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="12:18">
+      <c r="L8" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" spans="12:18">
+      <c r="L9" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="37"/>
+    </row>
+    <row r="10" spans="12:18">
+      <c r="L10" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="12:18">
+      <c r="L11" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="12:18">
+      <c r="L12" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="O6:Q12">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19909,7 +20256,7 @@
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -19942,30 +20289,30 @@
       <c r="C2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="49"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="46" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="50" t="s">
         <v>46</v>
       </c>
     </row>
@@ -19990,10 +20337,10 @@
       <c r="L3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" ht="35" customHeight="1">
       <c r="C4" s="33">
@@ -21109,112 +21456,112 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D34:W1011 D4:W11 D5:D12 G12:H12 J11:K12 D31:W32 D31:D33 G31:H33 J31:K33 D28:F29 D21:W28 D14:W19">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P1048576">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:L21 L22:L33 E22:E33">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>E21=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32 J32:K32 G26:G28 J26:K28">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>G26=G24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:L9 G29 J29:K29 J16:J19 G16:G19">
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:W12 F8:L11 K13:K14 D29:W29 G22:G23 H22:H24 J16:J19 J22:J23 G16:G19">
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>D8=D6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Q1012">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD112">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="expression" dxfId="22" priority="54">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>I10=I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:L12 I10:I11 G23:G24 H24:H25 J23:J24 D13:W13 D33:W33 K16:K19 K23:K28">
-    <cfRule type="expression" dxfId="21" priority="73">
+    <cfRule type="expression" dxfId="25" priority="73">
       <formula>D10=D7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD111">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12 K29 D30:W30 D20:W20">
-    <cfRule type="expression" dxfId="19" priority="79">
+    <cfRule type="expression" dxfId="23" priority="79">
       <formula>D12=D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 H20:H22 G20 J20">
-    <cfRule type="expression" dxfId="18" priority="88">
+    <cfRule type="expression" dxfId="22" priority="88">
       <formula>G13=G7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 G30:G31 J30:K31 J20:K20 G20">
-    <cfRule type="expression" dxfId="17" priority="92">
+    <cfRule type="expression" dxfId="21" priority="92">
       <formula>F15=F10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13 G20:H21 J20:J21">
-    <cfRule type="expression" dxfId="16" priority="94">
+    <cfRule type="expression" dxfId="20" priority="94">
       <formula>G13=G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="15" priority="103">
+    <cfRule type="expression" dxfId="19" priority="103">
       <formula>I12=I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="14" priority="107">
+    <cfRule type="expression" dxfId="18" priority="107">
       <formula>I14=I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 G13:H13 J13:K13">
-    <cfRule type="expression" dxfId="13" priority="109">
+    <cfRule type="expression" dxfId="17" priority="109">
       <formula>D13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="12" priority="126">
+    <cfRule type="expression" dxfId="16" priority="126">
       <formula>K15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:W33 K32">
-    <cfRule type="expression" dxfId="11" priority="133">
+    <cfRule type="expression" dxfId="15" priority="133">
       <formula>D32=D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33 J33:K33">
-    <cfRule type="expression" dxfId="10" priority="147">
+    <cfRule type="expression" dxfId="14" priority="147">
       <formula>G33=G26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K32 K20:K22">
-    <cfRule type="expression" dxfId="9" priority="149">
+    <cfRule type="expression" dxfId="13" priority="149">
       <formula>K20=K14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21243,12 +21590,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -21459,18 +21806,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -22260,45 +22607,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0ACDFA-29D5-1B4C-B71B-361D0F602E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB173D5-C6FA-B94A-9BC3-BB2A3CF4C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1602,15 +1602,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Next State</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>State ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S1|S2|S3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1633,16 +1625,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Window Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mode</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>storageControl
 IsOpen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rendered Component</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11817,8 +11809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5222754" y="1622458"/>
-          <a:ext cx="1228788" cy="877458"/>
+          <a:off x="5220248" y="1625716"/>
+          <a:ext cx="1228287" cy="880966"/>
           <a:chOff x="3739697" y="615795"/>
           <a:chExt cx="1221454" cy="871700"/>
         </a:xfrm>
@@ -12631,8 +12623,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2660500" y="3764491"/>
-          <a:ext cx="1645285" cy="896203"/>
+          <a:off x="2659498" y="3776518"/>
+          <a:ext cx="1644282" cy="899711"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -13380,8 +13372,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4748718" y="3648785"/>
-          <a:ext cx="1527692" cy="1137234"/>
+          <a:off x="4746713" y="3659935"/>
+          <a:ext cx="1526690" cy="1141619"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -14145,8 +14137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6934423" y="3648785"/>
-          <a:ext cx="1528198" cy="1137234"/>
+          <a:off x="6930915" y="3659935"/>
+          <a:ext cx="1527697" cy="1141619"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -14910,8 +14902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2749400" y="5894056"/>
-          <a:ext cx="1649204" cy="890947"/>
+          <a:off x="2748398" y="5913976"/>
+          <a:ext cx="1648201" cy="894455"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -15659,8 +15651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4600707" y="7674621"/>
-          <a:ext cx="1641365" cy="896204"/>
+          <a:off x="4598702" y="7700680"/>
+          <a:ext cx="1640363" cy="899712"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -16408,8 +16400,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6440108" y="5891141"/>
-          <a:ext cx="1645285" cy="887035"/>
+          <a:off x="6437101" y="5911061"/>
+          <a:ext cx="1644283" cy="890543"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -20023,10 +20015,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2948B-CB17-CC43-978A-D5EB3695E688}">
-  <dimension ref="L4:R12"/>
+  <dimension ref="L4:Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="93" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -20036,44 +20028,40 @@
     <col min="15" max="15" width="13.28515625" style="32" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="32" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="32" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="12:18">
+    <row r="4" spans="12:17">
       <c r="M4" s="50" t="s">
         <v>176</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
     </row>
-    <row r="5" spans="12:18" ht="38">
+    <row r="5" spans="12:17" ht="38">
       <c r="L5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="Q5" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="6" spans="12:18">
+    <row r="6" spans="12:17">
       <c r="L6" s="37" t="s">
         <v>162</v>
       </c>
@@ -20092,11 +20080,8 @@
       <c r="Q6" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="37" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="7" spans="12:18">
+    <row r="7" spans="12:17">
       <c r="L7" s="37" t="s">
         <v>163</v>
       </c>
@@ -20115,9 +20100,8 @@
       <c r="Q7" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="R7" s="37"/>
     </row>
-    <row r="8" spans="12:18">
+    <row r="8" spans="12:17">
       <c r="L8" s="37" t="s">
         <v>164</v>
       </c>
@@ -20136,9 +20120,8 @@
       <c r="Q8" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="R8" s="37"/>
     </row>
-    <row r="9" spans="12:18">
+    <row r="9" spans="12:17">
       <c r="L9" s="37" t="s">
         <v>165</v>
       </c>
@@ -20157,9 +20140,8 @@
       <c r="Q9" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="37"/>
     </row>
-    <row r="10" spans="12:18">
+    <row r="10" spans="12:17">
       <c r="L10" s="37" t="s">
         <v>166</v>
       </c>
@@ -20178,9 +20160,8 @@
       <c r="Q10" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="R10" s="37"/>
     </row>
-    <row r="11" spans="12:18">
+    <row r="11" spans="12:17">
       <c r="L11" s="37" t="s">
         <v>167</v>
       </c>
@@ -20199,9 +20180,8 @@
       <c r="Q11" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="R11" s="37"/>
     </row>
-    <row r="12" spans="12:18">
+    <row r="12" spans="12:17">
       <c r="L12" s="37" t="s">
         <v>168</v>
       </c>
@@ -20220,7 +20200,6 @@
       <c r="Q12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="R12" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB173D5-C6FA-B94A-9BC3-BB2A3CF4C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712A302-BBE1-CD43-857A-74C03DDE8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1983,6 +1983,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1999,9 +2002,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,17 +2053,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19762,7 +19752,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -19773,7 +19763,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
@@ -19782,7 +19772,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
@@ -19812,7 +19802,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -19823,7 +19813,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -19833,11 +19823,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -19848,7 +19838,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
@@ -19857,7 +19847,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="7" t="s">
         <v>78</v>
       </c>
@@ -19866,7 +19856,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="43"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
@@ -19876,8 +19866,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -19891,55 +19881,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -19952,15 +19947,10 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20208,7 +20198,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O6:Q12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21435,112 +21425,112 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D34:W1011 D4:W11 D5:D12 G12:H12 J11:K12 D31:W32 D31:D33 G31:H33 J31:K33 D28:F29 D21:W28 D14:W19">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>D4=D3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P1048576">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>COUNTA($E4:$K4)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:L21 L22:L33 E22:E33">
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>E21=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32 J32:K32 G26:G28 J26:K28">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>G26=G24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:L9 G29 J29:K29 J16:J19 G16:G19">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>F8=F5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:W12 F8:L11 K13:K14 D29:W29 G22:G23 H22:H24 J16:J19 J22:J23 G16:G19">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>D8=D6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Q1012">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$C4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD112">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>I10=I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:L12 I10:I11 G23:G24 H24:H25 J23:J24 D13:W13 D33:W33 K16:K19 K23:K28">
-    <cfRule type="expression" dxfId="25" priority="73">
+    <cfRule type="expression" dxfId="24" priority="73">
       <formula>D10=D7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD111">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12 K29 D30:W30 D20:W20">
-    <cfRule type="expression" dxfId="23" priority="79">
+    <cfRule type="expression" dxfId="22" priority="79">
       <formula>D12=D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 H20:H22 G20 J20">
-    <cfRule type="expression" dxfId="22" priority="88">
+    <cfRule type="expression" dxfId="21" priority="88">
       <formula>G13=G7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 G30:G31 J30:K31 J20:K20 G20">
-    <cfRule type="expression" dxfId="21" priority="92">
+    <cfRule type="expression" dxfId="20" priority="92">
       <formula>F15=F10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13 G20:H21 J20:J21">
-    <cfRule type="expression" dxfId="20" priority="94">
+    <cfRule type="expression" dxfId="19" priority="94">
       <formula>G13=G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="19" priority="103">
+    <cfRule type="expression" dxfId="18" priority="103">
       <formula>I12=I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="18" priority="107">
+    <cfRule type="expression" dxfId="17" priority="107">
       <formula>I14=I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 G13:H13 J13:K13">
-    <cfRule type="expression" dxfId="17" priority="109">
+    <cfRule type="expression" dxfId="16" priority="109">
       <formula>D13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="16" priority="126">
+    <cfRule type="expression" dxfId="15" priority="126">
       <formula>K15=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:W33 K32">
-    <cfRule type="expression" dxfId="15" priority="133">
+    <cfRule type="expression" dxfId="14" priority="133">
       <formula>D32=D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33 J33:K33">
-    <cfRule type="expression" dxfId="14" priority="147">
+    <cfRule type="expression" dxfId="13" priority="147">
       <formula>G33=G26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K32 K20:K22">
-    <cfRule type="expression" dxfId="13" priority="149">
+    <cfRule type="expression" dxfId="12" priority="149">
       <formula>K20=K14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22586,45 +22576,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KOTA/work/TsuriMapMaker/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712A302-BBE1-CD43-857A-74C03DDE8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BFE35-5D1C-264B-B5D1-305A6701F5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="DB=&gt;" sheetId="10" r:id="rId10"/>
     <sheet name="遷移図=&gt;" sheetId="13" r:id="rId11"/>
     <sheet name="遷移図1" sheetId="14" r:id="rId12"/>
+    <sheet name="Asset.js" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="179">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -523,30 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【FC_01_01_01】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【FC_01_01_02】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【FC_01_02_01】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【FC_01_03_01】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【FC_01_02_02】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【FC_01_03_02】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・実現手法検討
 （着手しつつ検討）</t>
     <rPh sb="0" eb="1">
@@ -574,9 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【FC_01_02_03】</t>
-  </si>
-  <si>
     <t>任意範囲の地図表示</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ニンイ </t>
@@ -598,9 +570,6 @@
       <t xml:space="preserve">ホゾｎ </t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【FC_01_02_04】</t>
   </si>
   <si>
     <t>地図の共有(T.B.D.)</t>
@@ -1637,6 +1606,51 @@
     <t>Rendered Component</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>忘れた</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ワスレタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忘れた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和sれた</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ワｓレタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export default images;</t>
+  </si>
+  <si>
+    <t>DIR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Asset0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Asset1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const images = [</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>];</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1647,7 +1661,7 @@
     <numFmt numFmtId="177" formatCode="yyyy"/>
     <numFmt numFmtId="178" formatCode="mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1687,8 +1701,14 @@
       <name val="MeiryoUI"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,6 +1760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1862,7 +1888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2048,6 +2074,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11799,8 +11834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5220248" y="1625716"/>
-          <a:ext cx="1228287" cy="880966"/>
+          <a:off x="5188239" y="1597547"/>
+          <a:ext cx="1221885" cy="842043"/>
           <a:chOff x="3739697" y="615795"/>
           <a:chExt cx="1221454" cy="871700"/>
         </a:xfrm>
@@ -12613,8 +12648,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2659498" y="3776518"/>
-          <a:ext cx="1644282" cy="899711"/>
+          <a:off x="2646694" y="3651041"/>
+          <a:ext cx="1631479" cy="860788"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -13362,8 +13397,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4746713" y="3659935"/>
-          <a:ext cx="1526690" cy="1141619"/>
+          <a:off x="4721106" y="3544190"/>
+          <a:ext cx="1513886" cy="1092964"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -14127,8 +14162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6930915" y="3659935"/>
-          <a:ext cx="1527697" cy="1141619"/>
+          <a:off x="6886102" y="3544190"/>
+          <a:ext cx="1521295" cy="1092964"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -14892,8 +14927,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2748398" y="5913976"/>
-          <a:ext cx="1648201" cy="894455"/>
+          <a:off x="2735594" y="5700923"/>
+          <a:ext cx="1635398" cy="855531"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -15641,8 +15676,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4598702" y="7700680"/>
-          <a:ext cx="1640363" cy="899712"/>
+          <a:off x="4573095" y="7419511"/>
+          <a:ext cx="1627559" cy="860788"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -16390,8 +16425,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6437101" y="5911061"/>
-          <a:ext cx="1644283" cy="890543"/>
+          <a:off x="6398690" y="5698008"/>
+          <a:ext cx="1631479" cy="851619"/>
           <a:chOff x="3739697" y="772163"/>
           <a:chExt cx="1221454" cy="715332"/>
         </a:xfrm>
@@ -19742,7 +19777,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -19756,7 +19791,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
@@ -19765,7 +19800,7 @@
     <row r="10" spans="2:4" ht="19" customHeight="1">
       <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
@@ -19774,7 +19809,7 @@
     <row r="11" spans="2:4" ht="19" customHeight="1">
       <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -19831,7 +19866,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
@@ -19840,7 +19875,7 @@
     <row r="19" spans="2:4">
       <c r="B19" s="46"/>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>14</v>
@@ -19849,7 +19884,7 @@
     <row r="20" spans="2:4">
       <c r="B20" s="46"/>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>16</v>
@@ -19858,10 +19893,10 @@
     <row r="21" spans="2:4">
       <c r="B21" s="44"/>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -19877,7 +19912,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -19976,7 +20011,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -20007,8 +20042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2948B-CB17-CC43-978A-D5EB3695E688}">
   <dimension ref="L4:Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="91" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -20022,38 +20057,38 @@
   <sheetData>
     <row r="4" spans="12:17">
       <c r="M4" s="50" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="12:17" ht="38">
       <c r="L5" s="37" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="12:17">
       <c r="L6" s="37" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M6" s="38" t="b">
         <v>0</v>
@@ -20073,7 +20108,7 @@
     </row>
     <row r="7" spans="12:17">
       <c r="L7" s="37" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M7" s="38" t="b">
         <v>1</v>
@@ -20093,7 +20128,7 @@
     </row>
     <row r="8" spans="12:17">
       <c r="L8" s="37" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M8" s="38" t="b">
         <v>1</v>
@@ -20113,7 +20148,7 @@
     </row>
     <row r="9" spans="12:17">
       <c r="L9" s="37" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M9" s="38" t="b">
         <v>1</v>
@@ -20133,7 +20168,7 @@
     </row>
     <row r="10" spans="12:17">
       <c r="L10" s="37" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M10" s="38" t="b">
         <v>0</v>
@@ -20153,7 +20188,7 @@
     </row>
     <row r="11" spans="12:17">
       <c r="L11" s="37" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M11" s="38" t="b">
         <v>0</v>
@@ -20173,7 +20208,7 @@
     </row>
     <row r="12" spans="12:17">
       <c r="L12" s="37" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M12" s="38" t="b">
         <v>0</v>
@@ -20217,15 +20252,1792 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D7CDE-3391-9D46-8031-EC40E3D62D72}">
+  <dimension ref="B1:G148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="62"/>
+    <col min="4" max="4" width="1.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="64" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="62">
+        <v>0</v>
+      </c>
+      <c r="F3" s="62" t="str">
+        <f>"require('./" &amp; B3 &amp; "/" &amp; B3 &amp; "_" &amp; C3 &amp; ".png'),"</f>
+        <v>require('./Asset0/Asset0_0.png'),</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="62">
+        <v>1</v>
+      </c>
+      <c r="F4" s="62" t="str">
+        <f t="shared" ref="F4:F67" si="0">"require('./" &amp; B4 &amp; "/" &amp; B4 &amp; "_" &amp; C4 &amp; ".png'),"</f>
+        <v>require('./Asset0/Asset0_1.png'),</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="62">
+        <v>2</v>
+      </c>
+      <c r="F5" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_2.png'),</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="62">
+        <v>3</v>
+      </c>
+      <c r="F6" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_3.png'),</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="62">
+        <v>4</v>
+      </c>
+      <c r="F7" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_4.png'),</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="62">
+        <v>5</v>
+      </c>
+      <c r="F8" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_5.png'),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="62">
+        <v>6</v>
+      </c>
+      <c r="F9" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_6.png'),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="62">
+        <v>7</v>
+      </c>
+      <c r="F10" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_7.png'),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="62">
+        <v>8</v>
+      </c>
+      <c r="F11" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_8.png'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="62">
+        <v>9</v>
+      </c>
+      <c r="F12" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_9.png'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="62">
+        <v>10</v>
+      </c>
+      <c r="F13" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_10.png'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="62">
+        <v>11</v>
+      </c>
+      <c r="F14" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_11.png'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="62">
+        <v>12</v>
+      </c>
+      <c r="F15" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_12.png'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="62">
+        <v>13</v>
+      </c>
+      <c r="F16" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_13.png'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="62">
+        <v>14</v>
+      </c>
+      <c r="F17" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_14.png'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="62">
+        <v>15</v>
+      </c>
+      <c r="F18" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_15.png'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="62">
+        <v>16</v>
+      </c>
+      <c r="F19" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_16.png'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="62">
+        <v>17</v>
+      </c>
+      <c r="F20" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_17.png'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="62">
+        <v>18</v>
+      </c>
+      <c r="F21" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_18.png'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="62">
+        <v>19</v>
+      </c>
+      <c r="F22" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_19.png'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="62">
+        <v>20</v>
+      </c>
+      <c r="F23" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_20.png'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="62">
+        <v>21</v>
+      </c>
+      <c r="F24" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_21.png'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="62">
+        <v>22</v>
+      </c>
+      <c r="F25" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_22.png'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="62">
+        <v>23</v>
+      </c>
+      <c r="F26" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_23.png'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="62">
+        <v>24</v>
+      </c>
+      <c r="F27" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_24.png'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="62">
+        <v>25</v>
+      </c>
+      <c r="F28" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_25.png'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="62">
+        <v>26</v>
+      </c>
+      <c r="F29" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_26.png'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="62">
+        <v>27</v>
+      </c>
+      <c r="F30" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_27.png'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="62">
+        <v>28</v>
+      </c>
+      <c r="F31" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_28.png'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="62">
+        <v>29</v>
+      </c>
+      <c r="F32" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_29.png'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="62">
+        <v>30</v>
+      </c>
+      <c r="F33" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_30.png'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="62">
+        <v>31</v>
+      </c>
+      <c r="F34" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_31.png'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="62">
+        <v>32</v>
+      </c>
+      <c r="F35" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_32.png'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="62">
+        <v>33</v>
+      </c>
+      <c r="F36" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_33.png'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="62">
+        <v>34</v>
+      </c>
+      <c r="F37" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_34.png'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="62">
+        <v>35</v>
+      </c>
+      <c r="F38" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_35.png'),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="62">
+        <v>36</v>
+      </c>
+      <c r="F39" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_36.png'),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="62">
+        <v>37</v>
+      </c>
+      <c r="F40" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_37.png'),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="62">
+        <v>38</v>
+      </c>
+      <c r="F41" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_38.png'),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="62">
+        <v>39</v>
+      </c>
+      <c r="F42" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_39.png'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="62">
+        <v>40</v>
+      </c>
+      <c r="F43" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_40.png'),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="62">
+        <v>41</v>
+      </c>
+      <c r="F44" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_41.png'),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="62">
+        <v>42</v>
+      </c>
+      <c r="F45" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_42.png'),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="62">
+        <v>43</v>
+      </c>
+      <c r="F46" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_43.png'),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="62">
+        <v>44</v>
+      </c>
+      <c r="F47" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_44.png'),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="62">
+        <v>45</v>
+      </c>
+      <c r="F48" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_45.png'),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="62">
+        <v>46</v>
+      </c>
+      <c r="F49" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_46.png'),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="62">
+        <v>47</v>
+      </c>
+      <c r="F50" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_47.png'),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="62">
+        <v>48</v>
+      </c>
+      <c r="F51" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_48.png'),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="62">
+        <v>49</v>
+      </c>
+      <c r="F52" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_49.png'),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="62">
+        <v>50</v>
+      </c>
+      <c r="F53" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_50.png'),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="62">
+        <v>51</v>
+      </c>
+      <c r="F54" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_51.png'),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="62">
+        <v>52</v>
+      </c>
+      <c r="F55" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_52.png'),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="62">
+        <v>53</v>
+      </c>
+      <c r="F56" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_53.png'),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="62">
+        <v>54</v>
+      </c>
+      <c r="F57" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_54.png'),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="62">
+        <v>55</v>
+      </c>
+      <c r="F58" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_55.png'),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="62">
+        <v>56</v>
+      </c>
+      <c r="F59" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_56.png'),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="62">
+        <v>57</v>
+      </c>
+      <c r="F60" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_57.png'),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="62">
+        <v>58</v>
+      </c>
+      <c r="F61" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_58.png'),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="62">
+        <v>59</v>
+      </c>
+      <c r="F62" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_59.png'),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="62">
+        <v>60</v>
+      </c>
+      <c r="F63" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_60.png'),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="62">
+        <v>61</v>
+      </c>
+      <c r="F64" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_61.png'),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="62">
+        <v>62</v>
+      </c>
+      <c r="F65" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_62.png'),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="62">
+        <v>63</v>
+      </c>
+      <c r="F66" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_63.png'),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="62">
+        <v>64</v>
+      </c>
+      <c r="F67" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>require('./Asset0/Asset0_64.png'),</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="62">
+        <v>65</v>
+      </c>
+      <c r="F68" s="62" t="str">
+        <f t="shared" ref="F68:F131" si="1">"require('./" &amp; B68 &amp; "/" &amp; B68 &amp; "_" &amp; C68 &amp; ".png'),"</f>
+        <v>require('./Asset0/Asset0_65.png'),</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="62">
+        <v>66</v>
+      </c>
+      <c r="F69" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_66.png'),</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="62">
+        <v>67</v>
+      </c>
+      <c r="F70" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_67.png'),</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="62">
+        <v>68</v>
+      </c>
+      <c r="F71" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_68.png'),</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="62">
+        <v>69</v>
+      </c>
+      <c r="F72" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_69.png'),</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="62">
+        <v>70</v>
+      </c>
+      <c r="F73" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_70.png'),</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="62">
+        <v>71</v>
+      </c>
+      <c r="F74" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_71.png'),</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="62">
+        <v>72</v>
+      </c>
+      <c r="F75" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_72.png'),</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="62">
+        <v>73</v>
+      </c>
+      <c r="F76" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_73.png'),</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="62">
+        <v>74</v>
+      </c>
+      <c r="F77" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_74.png'),</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="62">
+        <v>75</v>
+      </c>
+      <c r="F78" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_75.png'),</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="62">
+        <v>76</v>
+      </c>
+      <c r="F79" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_76.png'),</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="62">
+        <v>77</v>
+      </c>
+      <c r="F80" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_77.png'),</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="62">
+        <v>78</v>
+      </c>
+      <c r="F81" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_78.png'),</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="62">
+        <v>79</v>
+      </c>
+      <c r="F82" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_79.png'),</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="62">
+        <v>80</v>
+      </c>
+      <c r="F83" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_80.png'),</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="62">
+        <v>81</v>
+      </c>
+      <c r="F84" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_81.png'),</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="62">
+        <v>82</v>
+      </c>
+      <c r="F85" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_82.png'),</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="62">
+        <v>83</v>
+      </c>
+      <c r="F86" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_83.png'),</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="62">
+        <v>84</v>
+      </c>
+      <c r="F87" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_84.png'),</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="62">
+        <v>85</v>
+      </c>
+      <c r="F88" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_85.png'),</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="62">
+        <v>86</v>
+      </c>
+      <c r="F89" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_86.png'),</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="62">
+        <v>87</v>
+      </c>
+      <c r="F90" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_87.png'),</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="62">
+        <v>88</v>
+      </c>
+      <c r="F91" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_88.png'),</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="62">
+        <v>89</v>
+      </c>
+      <c r="F92" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_89.png'),</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="62">
+        <v>90</v>
+      </c>
+      <c r="F93" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_90.png'),</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="62">
+        <v>91</v>
+      </c>
+      <c r="F94" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_91.png'),</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="62">
+        <v>92</v>
+      </c>
+      <c r="F95" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_92.png'),</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="62">
+        <v>93</v>
+      </c>
+      <c r="F96" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_93.png'),</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="62">
+        <v>94</v>
+      </c>
+      <c r="F97" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_94.png'),</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="62">
+        <v>95</v>
+      </c>
+      <c r="F98" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_95.png'),</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="62">
+        <v>96</v>
+      </c>
+      <c r="F99" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_96.png'),</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="62">
+        <v>97</v>
+      </c>
+      <c r="F100" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_97.png'),</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="62">
+        <v>98</v>
+      </c>
+      <c r="F101" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_98.png'),</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="62">
+        <v>99</v>
+      </c>
+      <c r="F102" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_99.png'),</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="62">
+        <v>100</v>
+      </c>
+      <c r="F103" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_100.png'),</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="62">
+        <v>101</v>
+      </c>
+      <c r="F104" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_101.png'),</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="62">
+        <v>102</v>
+      </c>
+      <c r="F105" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_102.png'),</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" s="62">
+        <v>103</v>
+      </c>
+      <c r="F106" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_103.png'),</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" s="62">
+        <v>104</v>
+      </c>
+      <c r="F107" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_104.png'),</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C108" s="62">
+        <v>105</v>
+      </c>
+      <c r="F108" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_105.png'),</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="62">
+        <v>106</v>
+      </c>
+      <c r="F109" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_106.png'),</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="62">
+        <v>107</v>
+      </c>
+      <c r="F110" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_107.png'),</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="62">
+        <v>108</v>
+      </c>
+      <c r="F111" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_108.png'),</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="62">
+        <v>109</v>
+      </c>
+      <c r="F112" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_109.png'),</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" s="62">
+        <v>110</v>
+      </c>
+      <c r="F113" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_110.png'),</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="62">
+        <v>111</v>
+      </c>
+      <c r="F114" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_111.png'),</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="62">
+        <v>112</v>
+      </c>
+      <c r="F115" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_112.png'),</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="62">
+        <v>113</v>
+      </c>
+      <c r="F116" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_113.png'),</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="62">
+        <v>114</v>
+      </c>
+      <c r="F117" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_114.png'),</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="62">
+        <v>115</v>
+      </c>
+      <c r="F118" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_115.png'),</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" s="62">
+        <v>116</v>
+      </c>
+      <c r="F119" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_116.png'),</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" s="62">
+        <v>117</v>
+      </c>
+      <c r="F120" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_117.png'),</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" s="62">
+        <v>118</v>
+      </c>
+      <c r="F121" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_118.png'),</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" s="62">
+        <v>119</v>
+      </c>
+      <c r="F122" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_119.png'),</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" s="62">
+        <v>120</v>
+      </c>
+      <c r="F123" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_120.png'),</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" s="62">
+        <v>121</v>
+      </c>
+      <c r="F124" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_121.png'),</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" s="62">
+        <v>122</v>
+      </c>
+      <c r="F125" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_122.png'),</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="62">
+        <v>123</v>
+      </c>
+      <c r="F126" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset0/Asset0_123.png'),</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" s="62">
+        <v>1</v>
+      </c>
+      <c r="F127" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset1/Asset1_1.png'),</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="62">
+        <v>2</v>
+      </c>
+      <c r="F128" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset1/Asset1_2.png'),</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C129" s="62">
+        <v>3</v>
+      </c>
+      <c r="F129" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset1/Asset1_3.png'),</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="62">
+        <v>4</v>
+      </c>
+      <c r="F130" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset1/Asset1_4.png'),</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="62">
+        <v>5</v>
+      </c>
+      <c r="F131" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>require('./Asset1/Asset1_5.png'),</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132" s="62">
+        <v>6</v>
+      </c>
+      <c r="F132" s="62" t="str">
+        <f t="shared" ref="F132:F146" si="2">"require('./" &amp; B132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".png'),"</f>
+        <v>require('./Asset1/Asset1_6.png'),</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="62">
+        <v>7</v>
+      </c>
+      <c r="F133" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_7.png'),</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="62">
+        <v>8</v>
+      </c>
+      <c r="F134" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_8.png'),</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="62">
+        <v>9</v>
+      </c>
+      <c r="F135" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_9.png'),</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="62">
+        <v>10</v>
+      </c>
+      <c r="F136" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_10.png'),</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C137" s="62">
+        <v>11</v>
+      </c>
+      <c r="F137" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_11.png'),</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="62">
+        <v>12</v>
+      </c>
+      <c r="F138" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_12.png'),</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="62">
+        <v>13</v>
+      </c>
+      <c r="F139" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_13.png'),</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C140" s="62">
+        <v>14</v>
+      </c>
+      <c r="F140" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_14.png'),</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" s="62">
+        <v>15</v>
+      </c>
+      <c r="F141" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_15.png'),</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" s="62">
+        <v>16</v>
+      </c>
+      <c r="F142" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_16.png'),</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C143" s="62">
+        <v>17</v>
+      </c>
+      <c r="F143" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_17.png'),</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C144" s="62">
+        <v>18</v>
+      </c>
+      <c r="F144" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_18.png'),</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="62">
+        <v>19</v>
+      </c>
+      <c r="F145" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_19.png'),</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" s="62">
+        <v>20</v>
+      </c>
+      <c r="F146" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_20.png'),</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="E147" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="E148" s="63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
   <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="57" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -20250,36 +22062,36 @@
   <sheetData>
     <row r="2" spans="1:16" ht="38" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="31"/>
       <c r="H2" s="51" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I2" s="52"/>
       <c r="J2" s="31"/>
       <c r="K2" s="53" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="49" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P2" s="50" t="s">
         <v>46</v>
@@ -20319,7 +22131,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20343,13 +22155,13 @@
         <v>[FC_01_01_01]</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
         <v>54</v>
@@ -20363,7 +22175,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20378,7 +22190,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <f>IF(I5=I4, J4+1, 1)</f>
@@ -20389,16 +22201,16 @@
         <v>[FC_01_02_01]</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="35" customHeight="1">
@@ -20409,7 +22221,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20424,7 +22236,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J32" si="3">IF(I6=I5, J5+1, 1)</f>
@@ -20435,13 +22247,13 @@
         <v>[FC_01_02_02]</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="35" customHeight="1">
@@ -20453,7 +22265,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20468,7 +22280,7 @@
         <v>[FC_01_02]</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -20479,13 +22291,13 @@
         <v>[FC_01_02_03]</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="57">
@@ -20497,7 +22309,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8" t="str">
         <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20512,7 +22324,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -20523,16 +22335,16 @@
         <v>[FC_01_03_01]</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="44" customHeight="1">
@@ -20543,7 +22355,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F9" t="str">
         <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20558,7 +22370,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -20569,16 +22381,16 @@
         <v>[FC_01_03_02]</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19">
@@ -20589,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F10" t="str">
         <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20604,7 +22416,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -20615,13 +22427,13 @@
         <v>[FC_01_03_03]</v>
       </c>
       <c r="L10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="30" t="s">
-        <v>107</v>
-      </c>
       <c r="N10" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19">
@@ -20630,7 +22442,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20645,7 +22457,7 @@
         <v>[FC_01_03]</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <f>IF(I11=I10, J10+1, 1)</f>
@@ -20656,22 +22468,22 @@
         <v>[FC_01_03_04]</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="95">
-      <c r="B12" s="33">
-        <v>44672</v>
-      </c>
-      <c r="C12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33" t="s">
+        <v>169</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20686,7 +22498,7 @@
         <v>[FC_01_04]</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -20697,10 +22509,10 @@
         <v>[FC_01_04_01]</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="35" customHeight="1">
@@ -20708,7 +22520,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F13" t="str">
         <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20723,7 +22535,7 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J13" t="e">
         <f>IF(I13=#REF!,#REF!+ 1, 1)</f>
@@ -20734,13 +22546,13 @@
         <v>#REF!</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="35" customHeight="1">
@@ -20748,7 +22560,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20763,7 +22575,7 @@
         <v>#REF!</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J14" t="e">
         <f t="shared" si="3"/>
@@ -20774,24 +22586,25 @@
         <v>#REF!</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="64" customHeight="1">
-      <c r="A15" s="33">
-        <v>44672</v>
+      <c r="A15" s="33"/>
+      <c r="C15" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20823,7 +22636,7 @@
         <v>51</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O15" s="30" t="s">
         <v>53</v>
@@ -20831,11 +22644,14 @@
     </row>
     <row r="16" spans="1:16" ht="35" customHeight="1">
       <c r="B16" s="33"/>
+      <c r="C16" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20861,19 +22677,22 @@
         <v>#REF!</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="35" customHeight="1">
       <c r="B17" s="33"/>
+      <c r="C17" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20891,19 +22710,22 @@
         <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
       <c r="B18" s="33"/>
+      <c r="C18" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20921,18 +22743,16 @@
         <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="33">
-        <v>44685</v>
-      </c>
+      <c r="B19" s="33"/>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F19" t="str">
         <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20950,7 +22770,7 @@
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="35" customHeight="1">
@@ -20958,7 +22778,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -20984,10 +22804,10 @@
         <v>#REF!</v>
       </c>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="35" customHeight="1">
@@ -20995,7 +22815,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21021,7 +22841,7 @@
         <v>#REF!</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
@@ -21029,7 +22849,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F22" t="str">
         <f>VLOOKUP(E22, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21055,7 +22875,7 @@
         <v>#REF!</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
@@ -21063,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21089,7 +22909,7 @@
         <v>#REF!</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
@@ -21097,7 +22917,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21123,7 +22943,7 @@
         <v>#REF!</v>
       </c>
       <c r="L24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="35" customHeight="1" collapsed="1">
@@ -21131,7 +22951,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F25" t="str">
         <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21146,7 +22966,7 @@
         <v>#REF!</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -21157,7 +22977,7 @@
         <v>#REF!</v>
       </c>
       <c r="L25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="35" customHeight="1">
@@ -21168,7 +22988,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F26" t="str">
         <f>VLOOKUP(E26, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21183,7 +23003,7 @@
         <v>#REF!</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J26">
         <f>IF(I26=I25, J25+1, 1)</f>
@@ -21194,7 +23014,7 @@
         <v>#REF!</v>
       </c>
       <c r="L26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="35" customHeight="1">
@@ -21205,20 +23025,20 @@
         <v>1</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F27" t="str">
         <f>VLOOKUP(E27, 概要!$C$18:$D$40, 2, FALSE)</f>
         <v>ユーザインターフェース</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="35" customHeight="1">
@@ -21229,7 +23049,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F28" t="str">
         <f>VLOOKUP(E28, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21237,10 +23057,10 @@
       </c>
       <c r="I28" s="30"/>
       <c r="L28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="35" customHeight="1">
@@ -21251,7 +23071,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F29" t="str">
         <f>VLOOKUP(E29, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21259,10 +23079,10 @@
       </c>
       <c r="I29" s="30"/>
       <c r="L29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="35" customHeight="1">
@@ -21273,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F30" t="str">
         <f>VLOOKUP(E30, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21288,7 +23108,7 @@
         <v>#REF!</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J30">
         <f>IF(I30=I26, J26+1, 1)</f>
@@ -21299,7 +23119,7 @@
         <v>#REF!</v>
       </c>
       <c r="L30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="35" customHeight="1">
@@ -21310,7 +23130,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F31" t="str">
         <f>VLOOKUP(E31, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21325,7 +23145,7 @@
         <v>#REF!</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J31">
         <f>IF(I31=I30, J30+1, 1)</f>
@@ -21336,7 +23156,7 @@
         <v>#REF!</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="35" customHeight="1">
@@ -21347,7 +23167,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F32" t="str">
         <f>VLOOKUP(E32, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21362,7 +23182,7 @@
         <v>#REF!</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -21373,7 +23193,7 @@
         <v>#REF!</v>
       </c>
       <c r="L32" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="35" customHeight="1">
@@ -21384,7 +23204,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP(E33, 概要!$C$18:$D$40, 2, FALSE)</f>
@@ -21399,7 +23219,7 @@
         <v>#REF!</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J33">
         <f>IF(I33=I32, J32+1, 1)</f>
@@ -21410,7 +23230,7 @@
         <v>#REF!</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -21546,7 +23366,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1"/>
@@ -22330,7 +24150,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13">
         <v>44641</v>
@@ -22437,7 +24257,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D16" s="13">
         <v>44644</v>
@@ -22478,86 +24298,28 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="e">
-        <f>VLOOKUP(B19,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="13">
-        <v>44648</v>
-      </c>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17"/>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="e">
-        <f>VLOOKUP(B20,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="e">
-        <f>VLOOKUP(B21,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="e">
-        <f>VLOOKUP(B22,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="e">
-        <f>VLOOKUP(B23,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17"/>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="e">
-        <f>VLOOKUP(B24,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="e">
-        <f>VLOOKUP(B25,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17"/>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="e">
-        <f>VLOOKUP(B26,機能詳細!$K$3:$L$97, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17"/>
@@ -22662,8 +24424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC67A91-BABB-AD4B-96E9-145DE3E9B023}">
   <dimension ref="B1:N1"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -22673,13 +24435,13 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -22693,7 +24455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="90" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -22701,12 +24463,12 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -22741,38 +24503,38 @@
   <sheetData>
     <row r="3" spans="7:12">
       <c r="G3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="7:12">
       <c r="H7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="7:12">
       <c r="H8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="7:12">
       <c r="I11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" s="36"/>
     </row>
     <row r="12" spans="7:12">
       <c r="I12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="7:12">
       <c r="J15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="7:12">
       <c r="J16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BFE35-5D1C-264B-B5D1-305A6701F5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9CD07-0E7F-204D-A717-E1850D5BE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="18020" yWindow="500" windowWidth="10780" windowHeight="15880" activeTab="4" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
-    <sheet name="機能詳細" sheetId="2" r:id="rId2"/>
-    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
-    <sheet name="Functions=&gt;" sheetId="4" r:id="rId4"/>
-    <sheet name="UI=&gt;" sheetId="7" r:id="rId5"/>
-    <sheet name="TOP" sheetId="8" r:id="rId6"/>
-    <sheet name="Styles" sheetId="9" r:id="rId7"/>
-    <sheet name="MapEditor" sheetId="15" r:id="rId8"/>
-    <sheet name="Layers" sheetId="11" r:id="rId9"/>
-    <sheet name="DB=&gt;" sheetId="10" r:id="rId10"/>
-    <sheet name="遷移図=&gt;" sheetId="13" r:id="rId11"/>
-    <sheet name="遷移図1" sheetId="14" r:id="rId12"/>
-    <sheet name="Asset.js" sheetId="18" r:id="rId13"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId2"/>
+    <sheet name="Functions=&gt;" sheetId="4" r:id="rId3"/>
+    <sheet name="機能詳細" sheetId="2" r:id="rId4"/>
+    <sheet name="createData" sheetId="19" r:id="rId5"/>
+    <sheet name="UI=&gt;" sheetId="7" r:id="rId6"/>
+    <sheet name="TOP" sheetId="8" r:id="rId7"/>
+    <sheet name="Styles" sheetId="9" r:id="rId8"/>
+    <sheet name="MapEditor" sheetId="15" r:id="rId9"/>
+    <sheet name="Layers" sheetId="11" r:id="rId10"/>
+    <sheet name="DB=&gt;" sheetId="10" r:id="rId11"/>
+    <sheet name="遷移図=&gt;" sheetId="13" r:id="rId12"/>
+    <sheet name="遷移図1" sheetId="14" r:id="rId13"/>
+    <sheet name="Asset.js" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="217">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1651,6 +1652,274 @@
     <t>];</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>角度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カクド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カンスウメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクワリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規セーブデータの作成</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シンキ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初期設定シーケンス実行のフラグ設定（セーブデータ内）</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">ショキセッテイ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存データに同一ファイル名があるか？</t>
+  </si>
+  <si>
+    <t>└</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>｜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">キゾｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエリチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トジル セッテイ シュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ナイ ショリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある： 返り値にデータあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし： 無いデータをloadしたので rejectされ .catch 処理される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データバッファにnull　を代入</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ダイニュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YES：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロー（上から時系列）</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ウエカラ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">ジケイレツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YES：</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シンキサクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・セーブデータを新規作成(storage.save)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■NO：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MapEditorを閉じる設定し ,MapEditor終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createData関数を終了</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み出しデータが null か？（※確認必須ではないが、null ではない場合の例外処理をしておく）</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨミダシデータ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">カクニｎ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・何も処理しない。 createData関数終了</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ナニモ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・keyList にファイル名を追加</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・keyList を作成</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keyList が作成済みか？（keyListBuffer に記録）</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★終了</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)既存データとの重複確認</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キゾｎ </t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">チョウフクカクニｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)新規データ作成</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シンキデータ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3)keyList作成処理</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1708,7 +1977,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,6 +2035,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,7 +2163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2009,8 +2284,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2028,6 +2309,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,13 +2359,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2118,89 +2405,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2326,6 +2530,89 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -19787,7 +20074,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -19798,7 +20085,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
@@ -19807,7 +20094,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
@@ -19837,7 +20124,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -19848,7 +20135,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="44"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -19858,11 +20145,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -19873,7 +20160,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
@@ -19882,7 +20169,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
@@ -19891,7 +20178,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="44"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
@@ -19901,8 +20188,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -19916,60 +20203,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -19982,6 +20264,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -19994,6 +20281,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE351FC9-1DAD-834F-981A-94EE3C637F88}">
+  <dimension ref="G3:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="7:12">
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12">
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12">
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12">
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="7:12">
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12">
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12">
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54563889-6F30-0649-809E-000FE7728596}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -20020,7 +20360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84157A-542F-0544-9F85-98F0420FC1CF}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -20038,7 +20378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2948B-CB17-CC43-978A-D5EB3695E688}">
   <dimension ref="L4:Q12"/>
   <sheetViews>
@@ -20056,15 +20396,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:17">
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50" t="s">
+      <c r="N4" s="53"/>
+      <c r="O4" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="12:17" ht="38">
       <c r="L5" s="37" t="s">
@@ -20252,1774 +20592,1918 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D7CDE-3391-9D46-8031-EC40E3D62D72}">
-  <dimension ref="B1:G148"/>
+  <dimension ref="B1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="62"/>
-    <col min="4" max="4" width="1.7109375" style="64" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" style="64" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="62"/>
+    <col min="1" max="3" width="10.7109375" style="40"/>
+    <col min="4" max="4" width="1.7109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="40">
         <v>0</v>
       </c>
-      <c r="F3" s="62" t="str">
+      <c r="F3" s="40" t="str">
         <f>"require('./" &amp; B3 &amp; "/" &amp; B3 &amp; "_" &amp; C3 &amp; ".png'),"</f>
         <v>require('./Asset0/Asset0_0.png'),</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="F4" s="62" t="str">
+      <c r="F4" s="40" t="str">
         <f t="shared" ref="F4:F67" si="0">"require('./" &amp; B4 &amp; "/" &amp; B4 &amp; "_" &amp; C4 &amp; ".png'),"</f>
         <v>require('./Asset0/Asset0_1.png'),</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="40">
         <v>2</v>
       </c>
-      <c r="F5" s="62" t="str">
+      <c r="F5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_2.png'),</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="40">
         <v>3</v>
       </c>
-      <c r="F6" s="62" t="str">
+      <c r="F6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_3.png'),</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="40">
         <v>4</v>
       </c>
-      <c r="F7" s="62" t="str">
+      <c r="F7" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_4.png'),</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="40">
         <v>5</v>
       </c>
-      <c r="F8" s="62" t="str">
+      <c r="F8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_5.png'),</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="40">
         <v>6</v>
       </c>
-      <c r="F9" s="62" t="str">
+      <c r="F9" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_6.png'),</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="40">
         <v>7</v>
       </c>
-      <c r="F10" s="62" t="str">
+      <c r="F10" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_7.png'),</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="40">
         <v>8</v>
       </c>
-      <c r="F11" s="62" t="str">
+      <c r="F11" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_8.png'),</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="40">
         <v>9</v>
       </c>
-      <c r="F12" s="62" t="str">
+      <c r="F12" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_9.png'),</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="40">
         <v>10</v>
       </c>
-      <c r="F13" s="62" t="str">
+      <c r="F13" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_10.png'),</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="40">
         <v>11</v>
       </c>
-      <c r="F14" s="62" t="str">
+      <c r="F14" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_11.png'),</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="40">
         <v>12</v>
       </c>
-      <c r="F15" s="62" t="str">
+      <c r="F15" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_12.png'),</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="40">
         <v>13</v>
       </c>
-      <c r="F16" s="62" t="str">
+      <c r="F16" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_13.png'),</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="40">
         <v>14</v>
       </c>
-      <c r="F17" s="62" t="str">
+      <c r="F17" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_14.png'),</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="40">
         <v>15</v>
       </c>
-      <c r="F18" s="62" t="str">
+      <c r="F18" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_15.png'),</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="40">
         <v>16</v>
       </c>
-      <c r="F19" s="62" t="str">
+      <c r="F19" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_16.png'),</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="40">
         <v>17</v>
       </c>
-      <c r="F20" s="62" t="str">
+      <c r="F20" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_17.png'),</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="40">
         <v>18</v>
       </c>
-      <c r="F21" s="62" t="str">
+      <c r="F21" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_18.png'),</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="40">
         <v>19</v>
       </c>
-      <c r="F22" s="62" t="str">
+      <c r="F22" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_19.png'),</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="40">
         <v>20</v>
       </c>
-      <c r="F23" s="62" t="str">
+      <c r="F23" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_20.png'),</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="40">
         <v>21</v>
       </c>
-      <c r="F24" s="62" t="str">
+      <c r="F24" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_21.png'),</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="40">
         <v>22</v>
       </c>
-      <c r="F25" s="62" t="str">
+      <c r="F25" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_22.png'),</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="40">
         <v>23</v>
       </c>
-      <c r="F26" s="62" t="str">
+      <c r="F26" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_23.png'),</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="40">
         <v>24</v>
       </c>
-      <c r="F27" s="62" t="str">
+      <c r="F27" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_24.png'),</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="40">
         <v>25</v>
       </c>
-      <c r="F28" s="62" t="str">
+      <c r="F28" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_25.png'),</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="40">
         <v>26</v>
       </c>
-      <c r="F29" s="62" t="str">
+      <c r="F29" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_26.png'),</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="40">
         <v>27</v>
       </c>
-      <c r="F30" s="62" t="str">
+      <c r="F30" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_27.png'),</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="40">
         <v>28</v>
       </c>
-      <c r="F31" s="62" t="str">
+      <c r="F31" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_28.png'),</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="40">
         <v>29</v>
       </c>
-      <c r="F32" s="62" t="str">
+      <c r="F32" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_29.png'),</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="40">
         <v>30</v>
       </c>
-      <c r="F33" s="62" t="str">
+      <c r="F33" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_30.png'),</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="40">
         <v>31</v>
       </c>
-      <c r="F34" s="62" t="str">
+      <c r="F34" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_31.png'),</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="40">
         <v>32</v>
       </c>
-      <c r="F35" s="62" t="str">
+      <c r="F35" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_32.png'),</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="40">
         <v>33</v>
       </c>
-      <c r="F36" s="62" t="str">
+      <c r="F36" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_33.png'),</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="40">
         <v>34</v>
       </c>
-      <c r="F37" s="62" t="str">
+      <c r="F37" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_34.png'),</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="40">
         <v>35</v>
       </c>
-      <c r="F38" s="62" t="str">
+      <c r="F38" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_35.png'),</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="40">
         <v>36</v>
       </c>
-      <c r="F39" s="62" t="str">
+      <c r="F39" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_36.png'),</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40" s="40">
         <v>37</v>
       </c>
-      <c r="F40" s="62" t="str">
+      <c r="F40" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_37.png'),</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="40">
         <v>38</v>
       </c>
-      <c r="F41" s="62" t="str">
+      <c r="F41" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_38.png'),</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="62">
+      <c r="C42" s="40">
         <v>39</v>
       </c>
-      <c r="F42" s="62" t="str">
+      <c r="F42" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_39.png'),</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="40">
         <v>40</v>
       </c>
-      <c r="F43" s="62" t="str">
+      <c r="F43" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_40.png'),</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="62">
+      <c r="C44" s="40">
         <v>41</v>
       </c>
-      <c r="F44" s="62" t="str">
+      <c r="F44" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_41.png'),</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="40">
         <v>42</v>
       </c>
-      <c r="F45" s="62" t="str">
+      <c r="F45" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_42.png'),</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="62">
+      <c r="C46" s="40">
         <v>43</v>
       </c>
-      <c r="F46" s="62" t="str">
+      <c r="F46" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_43.png'),</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="40">
         <v>44</v>
       </c>
-      <c r="F47" s="62" t="str">
+      <c r="F47" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_44.png'),</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="62">
+      <c r="C48" s="40">
         <v>45</v>
       </c>
-      <c r="F48" s="62" t="str">
+      <c r="F48" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_45.png'),</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="62">
+      <c r="C49" s="40">
         <v>46</v>
       </c>
-      <c r="F49" s="62" t="str">
+      <c r="F49" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_46.png'),</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="62">
+      <c r="C50" s="40">
         <v>47</v>
       </c>
-      <c r="F50" s="62" t="str">
+      <c r="F50" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_47.png'),</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="40">
         <v>48</v>
       </c>
-      <c r="F51" s="62" t="str">
+      <c r="F51" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_48.png'),</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="62">
+      <c r="C52" s="40">
         <v>49</v>
       </c>
-      <c r="F52" s="62" t="str">
+      <c r="F52" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_49.png'),</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="62">
+      <c r="C53" s="40">
         <v>50</v>
       </c>
-      <c r="F53" s="62" t="str">
+      <c r="F53" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_50.png'),</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="62">
+      <c r="C54" s="40">
         <v>51</v>
       </c>
-      <c r="F54" s="62" t="str">
+      <c r="F54" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_51.png'),</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="62">
+      <c r="C55" s="40">
         <v>52</v>
       </c>
-      <c r="F55" s="62" t="str">
+      <c r="F55" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_52.png'),</v>
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="62">
+      <c r="C56" s="40">
         <v>53</v>
       </c>
-      <c r="F56" s="62" t="str">
+      <c r="F56" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_53.png'),</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="62">
+      <c r="C57" s="40">
         <v>54</v>
       </c>
-      <c r="F57" s="62" t="str">
+      <c r="F57" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_54.png'),</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="62">
+      <c r="C58" s="40">
         <v>55</v>
       </c>
-      <c r="F58" s="62" t="str">
+      <c r="F58" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_55.png'),</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="62">
+      <c r="C59" s="40">
         <v>56</v>
       </c>
-      <c r="F59" s="62" t="str">
+      <c r="F59" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_56.png'),</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="62">
+      <c r="C60" s="40">
         <v>57</v>
       </c>
-      <c r="F60" s="62" t="str">
+      <c r="F60" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_57.png'),</v>
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="62">
+      <c r="C61" s="40">
         <v>58</v>
       </c>
-      <c r="F61" s="62" t="str">
+      <c r="F61" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_58.png'),</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="62">
+      <c r="C62" s="40">
         <v>59</v>
       </c>
-      <c r="F62" s="62" t="str">
+      <c r="F62" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_59.png'),</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="62">
+      <c r="C63" s="40">
         <v>60</v>
       </c>
-      <c r="F63" s="62" t="str">
+      <c r="F63" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_60.png'),</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="40">
         <v>61</v>
       </c>
-      <c r="F64" s="62" t="str">
+      <c r="F64" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_61.png'),</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C65" s="40">
         <v>62</v>
       </c>
-      <c r="F65" s="62" t="str">
+      <c r="F65" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_62.png'),</v>
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="62">
+      <c r="C66" s="40">
         <v>63</v>
       </c>
-      <c r="F66" s="62" t="str">
+      <c r="F66" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_63.png'),</v>
       </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="62">
+      <c r="C67" s="40">
         <v>64</v>
       </c>
-      <c r="F67" s="62" t="str">
+      <c r="F67" s="40" t="str">
         <f t="shared" si="0"/>
         <v>require('./Asset0/Asset0_64.png'),</v>
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="62">
+      <c r="C68" s="40">
         <v>65</v>
       </c>
-      <c r="F68" s="62" t="str">
+      <c r="F68" s="40" t="str">
         <f t="shared" ref="F68:F131" si="1">"require('./" &amp; B68 &amp; "/" &amp; B68 &amp; "_" &amp; C68 &amp; ".png'),"</f>
         <v>require('./Asset0/Asset0_65.png'),</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="62">
+      <c r="C69" s="40">
         <v>66</v>
       </c>
-      <c r="F69" s="62" t="str">
+      <c r="F69" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_66.png'),</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="62">
+      <c r="C70" s="40">
         <v>67</v>
       </c>
-      <c r="F70" s="62" t="str">
+      <c r="F70" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_67.png'),</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="62">
+      <c r="C71" s="40">
         <v>68</v>
       </c>
-      <c r="F71" s="62" t="str">
+      <c r="F71" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_68.png'),</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="62">
+      <c r="C72" s="40">
         <v>69</v>
       </c>
-      <c r="F72" s="62" t="str">
+      <c r="F72" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_69.png'),</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="62">
+      <c r="C73" s="40">
         <v>70</v>
       </c>
-      <c r="F73" s="62" t="str">
+      <c r="F73" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_70.png'),</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="62">
+      <c r="C74" s="40">
         <v>71</v>
       </c>
-      <c r="F74" s="62" t="str">
+      <c r="F74" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_71.png'),</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="40">
         <v>72</v>
       </c>
-      <c r="F75" s="62" t="str">
+      <c r="F75" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_72.png'),</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="62">
+      <c r="C76" s="40">
         <v>73</v>
       </c>
-      <c r="F76" s="62" t="str">
+      <c r="F76" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_73.png'),</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="62">
+      <c r="C77" s="40">
         <v>74</v>
       </c>
-      <c r="F77" s="62" t="str">
+      <c r="F77" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_74.png'),</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="62">
+      <c r="C78" s="40">
         <v>75</v>
       </c>
-      <c r="F78" s="62" t="str">
+      <c r="F78" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_75.png'),</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C79" s="62">
+      <c r="C79" s="40">
         <v>76</v>
       </c>
-      <c r="F79" s="62" t="str">
+      <c r="F79" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_76.png'),</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="62">
+      <c r="C80" s="40">
         <v>77</v>
       </c>
-      <c r="F80" s="62" t="str">
+      <c r="F80" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_77.png'),</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="62">
+      <c r="C81" s="40">
         <v>78</v>
       </c>
-      <c r="F81" s="62" t="str">
+      <c r="F81" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_78.png'),</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="62">
+      <c r="C82" s="40">
         <v>79</v>
       </c>
-      <c r="F82" s="62" t="str">
+      <c r="F82" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_79.png'),</v>
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="62">
+      <c r="C83" s="40">
         <v>80</v>
       </c>
-      <c r="F83" s="62" t="str">
+      <c r="F83" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_80.png'),</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="62">
+      <c r="C84" s="40">
         <v>81</v>
       </c>
-      <c r="F84" s="62" t="str">
+      <c r="F84" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_81.png'),</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="62">
+      <c r="C85" s="40">
         <v>82</v>
       </c>
-      <c r="F85" s="62" t="str">
+      <c r="F85" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_82.png'),</v>
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="62">
+      <c r="C86" s="40">
         <v>83</v>
       </c>
-      <c r="F86" s="62" t="str">
+      <c r="F86" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_83.png'),</v>
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="62">
+      <c r="C87" s="40">
         <v>84</v>
       </c>
-      <c r="F87" s="62" t="str">
+      <c r="F87" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_84.png'),</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="62">
+      <c r="C88" s="40">
         <v>85</v>
       </c>
-      <c r="F88" s="62" t="str">
+      <c r="F88" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_85.png'),</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="62">
+      <c r="C89" s="40">
         <v>86</v>
       </c>
-      <c r="F89" s="62" t="str">
+      <c r="F89" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_86.png'),</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="62">
+      <c r="C90" s="40">
         <v>87</v>
       </c>
-      <c r="F90" s="62" t="str">
+      <c r="F90" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_87.png'),</v>
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="62">
+      <c r="C91" s="40">
         <v>88</v>
       </c>
-      <c r="F91" s="62" t="str">
+      <c r="F91" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_88.png'),</v>
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="62">
+      <c r="C92" s="40">
         <v>89</v>
       </c>
-      <c r="F92" s="62" t="str">
+      <c r="F92" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_89.png'),</v>
       </c>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="62">
+      <c r="C93" s="40">
         <v>90</v>
       </c>
-      <c r="F93" s="62" t="str">
+      <c r="F93" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_90.png'),</v>
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="62">
+      <c r="C94" s="40">
         <v>91</v>
       </c>
-      <c r="F94" s="62" t="str">
+      <c r="F94" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_91.png'),</v>
       </c>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="62">
+      <c r="C95" s="40">
         <v>92</v>
       </c>
-      <c r="F95" s="62" t="str">
+      <c r="F95" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_92.png'),</v>
       </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="62">
+      <c r="C96" s="40">
         <v>93</v>
       </c>
-      <c r="F96" s="62" t="str">
+      <c r="F96" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_93.png'),</v>
       </c>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C97" s="62">
+      <c r="C97" s="40">
         <v>94</v>
       </c>
-      <c r="F97" s="62" t="str">
+      <c r="F97" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_94.png'),</v>
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="62" t="s">
+      <c r="B98" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="62">
+      <c r="C98" s="40">
         <v>95</v>
       </c>
-      <c r="F98" s="62" t="str">
+      <c r="F98" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_95.png'),</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="62">
+      <c r="C99" s="40">
         <v>96</v>
       </c>
-      <c r="F99" s="62" t="str">
+      <c r="F99" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_96.png'),</v>
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="62">
+      <c r="C100" s="40">
         <v>97</v>
       </c>
-      <c r="F100" s="62" t="str">
+      <c r="F100" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_97.png'),</v>
       </c>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="62">
+      <c r="C101" s="40">
         <v>98</v>
       </c>
-      <c r="F101" s="62" t="str">
+      <c r="F101" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_98.png'),</v>
       </c>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="62" t="s">
+      <c r="B102" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="62">
+      <c r="C102" s="40">
         <v>99</v>
       </c>
-      <c r="F102" s="62" t="str">
+      <c r="F102" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_99.png'),</v>
       </c>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C103" s="62">
+      <c r="C103" s="40">
         <v>100</v>
       </c>
-      <c r="F103" s="62" t="str">
+      <c r="F103" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_100.png'),</v>
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="62">
+      <c r="C104" s="40">
         <v>101</v>
       </c>
-      <c r="F104" s="62" t="str">
+      <c r="F104" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_101.png'),</v>
       </c>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="62">
+      <c r="C105" s="40">
         <v>102</v>
       </c>
-      <c r="F105" s="62" t="str">
+      <c r="F105" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_102.png'),</v>
       </c>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="62" t="s">
+      <c r="B106" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="62">
+      <c r="C106" s="40">
         <v>103</v>
       </c>
-      <c r="F106" s="62" t="str">
+      <c r="F106" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_103.png'),</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="62">
+      <c r="C107" s="40">
         <v>104</v>
       </c>
-      <c r="F107" s="62" t="str">
+      <c r="F107" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_104.png'),</v>
       </c>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="62" t="s">
+      <c r="B108" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="62">
+      <c r="C108" s="40">
         <v>105</v>
       </c>
-      <c r="F108" s="62" t="str">
+      <c r="F108" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_105.png'),</v>
       </c>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="62">
+      <c r="C109" s="40">
         <v>106</v>
       </c>
-      <c r="F109" s="62" t="str">
+      <c r="F109" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_106.png'),</v>
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="62" t="s">
+      <c r="B110" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="62">
+      <c r="C110" s="40">
         <v>107</v>
       </c>
-      <c r="F110" s="62" t="str">
+      <c r="F110" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_107.png'),</v>
       </c>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="62" t="s">
+      <c r="B111" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="62">
+      <c r="C111" s="40">
         <v>108</v>
       </c>
-      <c r="F111" s="62" t="str">
+      <c r="F111" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_108.png'),</v>
       </c>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="62">
+      <c r="C112" s="40">
         <v>109</v>
       </c>
-      <c r="F112" s="62" t="str">
+      <c r="F112" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_109.png'),</v>
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C113" s="62">
+      <c r="C113" s="40">
         <v>110</v>
       </c>
-      <c r="F113" s="62" t="str">
+      <c r="F113" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_110.png'),</v>
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="62">
+      <c r="C114" s="40">
         <v>111</v>
       </c>
-      <c r="F114" s="62" t="str">
+      <c r="F114" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_111.png'),</v>
       </c>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="62" t="s">
+      <c r="B115" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C115" s="62">
+      <c r="C115" s="40">
         <v>112</v>
       </c>
-      <c r="F115" s="62" t="str">
+      <c r="F115" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_112.png'),</v>
       </c>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="62">
+      <c r="C116" s="40">
         <v>113</v>
       </c>
-      <c r="F116" s="62" t="str">
+      <c r="F116" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_113.png'),</v>
       </c>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="62" t="s">
+      <c r="B117" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C117" s="62">
+      <c r="C117" s="40">
         <v>114</v>
       </c>
-      <c r="F117" s="62" t="str">
+      <c r="F117" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_114.png'),</v>
       </c>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C118" s="62">
+      <c r="C118" s="40">
         <v>115</v>
       </c>
-      <c r="F118" s="62" t="str">
+      <c r="F118" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_115.png'),</v>
       </c>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="62" t="s">
+      <c r="B119" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="62">
+      <c r="C119" s="40">
         <v>116</v>
       </c>
-      <c r="F119" s="62" t="str">
+      <c r="F119" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_116.png'),</v>
       </c>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="62" t="s">
+      <c r="B120" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C120" s="62">
+      <c r="C120" s="40">
         <v>117</v>
       </c>
-      <c r="F120" s="62" t="str">
+      <c r="F120" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_117.png'),</v>
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="62" t="s">
+      <c r="B121" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C121" s="62">
+      <c r="C121" s="40">
         <v>118</v>
       </c>
-      <c r="F121" s="62" t="str">
+      <c r="F121" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_118.png'),</v>
       </c>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="62" t="s">
+      <c r="B122" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C122" s="62">
+      <c r="C122" s="40">
         <v>119</v>
       </c>
-      <c r="F122" s="62" t="str">
+      <c r="F122" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_119.png'),</v>
       </c>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="62" t="s">
+      <c r="B123" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="62">
+      <c r="C123" s="40">
         <v>120</v>
       </c>
-      <c r="F123" s="62" t="str">
+      <c r="F123" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_120.png'),</v>
       </c>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="62" t="s">
+      <c r="B124" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="62">
+      <c r="C124" s="40">
         <v>121</v>
       </c>
-      <c r="F124" s="62" t="str">
+      <c r="F124" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_121.png'),</v>
       </c>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="62" t="s">
+      <c r="B125" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="62">
+      <c r="C125" s="40">
         <v>122</v>
       </c>
-      <c r="F125" s="62" t="str">
+      <c r="F125" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_122.png'),</v>
       </c>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="62" t="s">
+      <c r="B126" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C126" s="62">
+      <c r="C126" s="40">
         <v>123</v>
       </c>
-      <c r="F126" s="62" t="str">
+      <c r="F126" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset0/Asset0_123.png'),</v>
       </c>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="62" t="s">
+      <c r="B127" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="62">
+      <c r="C127" s="40">
         <v>1</v>
       </c>
-      <c r="F127" s="62" t="str">
+      <c r="F127" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset1/Asset1_1.png'),</v>
       </c>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="62" t="s">
+      <c r="B128" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="62">
+      <c r="C128" s="40">
         <v>2</v>
       </c>
-      <c r="F128" s="62" t="str">
+      <c r="F128" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset1/Asset1_2.png'),</v>
       </c>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="62" t="s">
+      <c r="B129" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C129" s="62">
+      <c r="C129" s="40">
         <v>3</v>
       </c>
-      <c r="F129" s="62" t="str">
+      <c r="F129" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset1/Asset1_3.png'),</v>
       </c>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="62" t="s">
+      <c r="B130" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C130" s="62">
+      <c r="C130" s="40">
         <v>4</v>
       </c>
-      <c r="F130" s="62" t="str">
+      <c r="F130" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset1/Asset1_4.png'),</v>
       </c>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="62" t="s">
+      <c r="B131" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="62">
+      <c r="C131" s="40">
         <v>5</v>
       </c>
-      <c r="F131" s="62" t="str">
+      <c r="F131" s="40" t="str">
         <f t="shared" si="1"/>
         <v>require('./Asset1/Asset1_5.png'),</v>
       </c>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="62" t="s">
+      <c r="B132" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C132" s="62">
+      <c r="C132" s="40">
         <v>6</v>
       </c>
-      <c r="F132" s="62" t="str">
-        <f t="shared" ref="F132:F146" si="2">"require('./" &amp; B132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".png'),"</f>
+      <c r="F132" s="40" t="str">
+        <f t="shared" ref="F132:F158" si="2">"require('./" &amp; B132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".png'),"</f>
         <v>require('./Asset1/Asset1_6.png'),</v>
       </c>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C133" s="62">
+      <c r="C133" s="40">
         <v>7</v>
       </c>
-      <c r="F133" s="62" t="str">
+      <c r="F133" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_7.png'),</v>
       </c>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="62" t="s">
+      <c r="B134" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C134" s="62">
+      <c r="C134" s="40">
         <v>8</v>
       </c>
-      <c r="F134" s="62" t="str">
+      <c r="F134" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_8.png'),</v>
       </c>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="62" t="s">
+      <c r="B135" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C135" s="62">
+      <c r="C135" s="40">
         <v>9</v>
       </c>
-      <c r="F135" s="62" t="str">
+      <c r="F135" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_9.png'),</v>
       </c>
     </row>
     <row r="136" spans="2:6">
-      <c r="B136" s="62" t="s">
+      <c r="B136" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="62">
+      <c r="C136" s="40">
         <v>10</v>
       </c>
-      <c r="F136" s="62" t="str">
+      <c r="F136" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_10.png'),</v>
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C137" s="62">
+      <c r="C137" s="40">
         <v>11</v>
       </c>
-      <c r="F137" s="62" t="str">
+      <c r="F137" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_11.png'),</v>
       </c>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="62" t="s">
+      <c r="B138" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="62">
+      <c r="C138" s="40">
         <v>12</v>
       </c>
-      <c r="F138" s="62" t="str">
+      <c r="F138" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_12.png'),</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="62" t="s">
+      <c r="B139" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C139" s="62">
+      <c r="C139" s="40">
         <v>13</v>
       </c>
-      <c r="F139" s="62" t="str">
+      <c r="F139" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_13.png'),</v>
       </c>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="62" t="s">
+      <c r="B140" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="62">
+      <c r="C140" s="40">
         <v>14</v>
       </c>
-      <c r="F140" s="62" t="str">
+      <c r="F140" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_14.png'),</v>
       </c>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="62" t="s">
+      <c r="B141" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="62">
+      <c r="C141" s="40">
         <v>15</v>
       </c>
-      <c r="F141" s="62" t="str">
+      <c r="F141" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_15.png'),</v>
       </c>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="62" t="s">
+      <c r="B142" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C142" s="62">
+      <c r="C142" s="40">
         <v>16</v>
       </c>
-      <c r="F142" s="62" t="str">
+      <c r="F142" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_16.png'),</v>
       </c>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="62" t="s">
+      <c r="B143" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C143" s="62">
+      <c r="C143" s="40">
         <v>17</v>
       </c>
-      <c r="F143" s="62" t="str">
+      <c r="F143" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_17.png'),</v>
       </c>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="62" t="s">
+      <c r="B144" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="62">
+      <c r="C144" s="40">
         <v>18</v>
       </c>
-      <c r="F144" s="62" t="str">
+      <c r="F144" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_18.png'),</v>
       </c>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="62" t="s">
+      <c r="B145" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="62">
+      <c r="C145" s="40">
         <v>19</v>
       </c>
-      <c r="F145" s="62" t="str">
+      <c r="F145" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_19.png'),</v>
       </c>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="62" t="s">
+      <c r="B146" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C146" s="62">
+      <c r="C146" s="40">
         <v>20</v>
       </c>
-      <c r="F146" s="62" t="str">
+      <c r="F146" s="40" t="str">
         <f t="shared" si="2"/>
         <v>require('./Asset1/Asset1_20.png'),</v>
       </c>
     </row>
     <row r="147" spans="2:6">
-      <c r="E147" s="62" t="s">
+      <c r="B147" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="40">
+        <v>21</v>
+      </c>
+      <c r="F147" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_21.png'),</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="40">
+        <v>22</v>
+      </c>
+      <c r="F148" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_22.png'),</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="40">
+        <v>23</v>
+      </c>
+      <c r="F149" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_23.png'),</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="40">
+        <v>24</v>
+      </c>
+      <c r="F150" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_24.png'),</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" s="40">
+        <v>25</v>
+      </c>
+      <c r="F151" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_25.png'),</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="40">
+        <v>26</v>
+      </c>
+      <c r="F152" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_26.png'),</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" s="40">
+        <v>27</v>
+      </c>
+      <c r="F153" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_27.png'),</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" s="40">
+        <v>28</v>
+      </c>
+      <c r="F154" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_28.png'),</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="40">
+        <v>29</v>
+      </c>
+      <c r="F155" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_29.png'),</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" s="40">
+        <v>30</v>
+      </c>
+      <c r="F156" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_30.png'),</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C157" s="40">
+        <v>31</v>
+      </c>
+      <c r="F157" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_31.png'),</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="40">
+        <v>32</v>
+      </c>
+      <c r="F158" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>require('./Asset1/Asset1_32.png'),</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="E159" s="40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="2:6">
-      <c r="E148" s="63" t="s">
+    <row r="160" spans="2:6">
+      <c r="E160" s="41" t="s">
         <v>172</v>
       </c>
     </row>
@@ -22030,1335 +22514,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
-  <dimension ref="A2:P33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="57" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6.28515625" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39" style="30" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" style="30" customWidth="1"/>
-    <col min="15" max="15" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" ht="38" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" outlineLevel="1">
-      <c r="E3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-    </row>
-    <row r="4" spans="1:16" ht="35" customHeight="1">
-      <c r="C4" s="33">
-        <v>44653</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="str">
-        <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H33" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
-        <v>[FC_01_01]</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K33" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
-        <v>[FC_01_01_01]</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="35" customHeight="1">
-      <c r="C5" s="33">
-        <v>44664</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="str">
-        <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G5">
-        <f>IF(I5=I4, G4, G4+1)</f>
-        <v>2</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_02]</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5">
-        <f>IF(I5=I4, J4+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_02_01]</v>
-      </c>
-      <c r="L5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="35" customHeight="1">
-      <c r="C6" s="33">
-        <v>44664</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="str">
-        <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G32" si="2">IF(I6=I5, G5, G5+1)</f>
-        <v>2</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_02]</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J32" si="3">IF(I6=I5, J5+1, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_02_02]</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="35" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33">
-        <v>44666</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="str">
-        <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_02]</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_02_03]</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="57">
-      <c r="A8" s="33"/>
-      <c r="C8" s="33">
-        <v>44656</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="str">
-        <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_03]</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_03_01]</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="44" customHeight="1">
-      <c r="A9" s="33">
-        <v>44656</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="str">
-        <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_03]</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_03_02]</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="19">
-      <c r="C10" s="33">
-        <v>44671</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="str">
-        <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_03]</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_03_03]</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="19">
-      <c r="C11" s="33"/>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="str">
-        <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_03]</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11">
-        <f>IF(I11=I10, J10+1, 1)</f>
-        <v>4</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_03_04]</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="95">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="str">
-        <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G12">
-        <f>IF(I12=I11, G11, G11+1)</f>
-        <v>4</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>[FC_01_04]</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>[FC_01_04_01]</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="35" customHeight="1">
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="str">
-        <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G13" t="e">
-        <f>IF(I13=#REF!,#REF!,#REF!+ 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="e">
-        <f>IF(I13=#REF!,#REF!+ 1, 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="35" customHeight="1">
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="str">
-        <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="64" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="C15" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="str">
-        <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G15" t="e">
-        <f>IF(I15=I14, G14, G14+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15">
-        <f>IF(I15=I14, J14+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="35" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="str">
-        <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K16" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="35" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="str">
-        <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" ref="G17" si="4">IF(I17=I16, G16, G16+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" ref="H17" si="5">"[FC_"&amp;TEXT(D17,"00")&amp;"_"&amp;TEXT(G17,"00")&amp;"]"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s">
-        <v>149</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="35" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="str">
-        <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G18" t="e">
-        <f t="shared" ref="G18" si="6">IF(I18=I17, G17, G17+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" ref="H18" si="7">"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"]"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="str">
-        <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" ref="G19" si="8">IF(I19=I18, G18, G18+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" ref="H19" si="9">"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"]"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="35" customHeight="1">
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" t="str">
-        <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣り場マップ作成</v>
-      </c>
-      <c r="G20" t="e">
-        <f>IF(I20=I16, G16, G16+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20">
-        <f>IF(I20=I16, J16+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K20" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="35" customHeight="1">
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="str">
-        <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K21" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="str">
-        <f>VLOOKUP(E22, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K22" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" t="str">
-        <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K23" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="str">
-        <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>釣果記録</v>
-      </c>
-      <c r="G24" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K24" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="35" customHeight="1" collapsed="1">
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" t="str">
-        <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>データ分析</v>
-      </c>
-      <c r="G25" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K25" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="35" customHeight="1">
-      <c r="C26" s="33">
-        <v>44652</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="str">
-        <f>VLOOKUP(E26, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G26" t="e">
-        <f>IF(I26=I25, G25, G25+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26">
-        <f>IF(I26=I25, J25+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K26" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="35" customHeight="1">
-      <c r="C27" s="33">
-        <v>44684</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="str">
-        <f>VLOOKUP(E27, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="35" customHeight="1">
-      <c r="C28" s="33">
-        <v>44684</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="str">
-        <f>VLOOKUP(E28, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="L28" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="35" customHeight="1">
-      <c r="C29" s="33">
-        <v>44684</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="str">
-        <f>VLOOKUP(E29, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="L29" t="s">
-        <v>145</v>
-      </c>
-      <c r="M29" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="35" customHeight="1">
-      <c r="C30" s="33">
-        <v>44652</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="str">
-        <f>VLOOKUP(E30, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G30" t="e">
-        <f>IF(I30=I26, G26, G26+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30">
-        <f>IF(I30=I26, J26+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K30" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="35" customHeight="1">
-      <c r="C31" s="33">
-        <v>44652</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="str">
-        <f>VLOOKUP(E31, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G31" t="e">
-        <f>IF(I31=I30, G30, G30+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31">
-        <f>IF(I31=I30, J30+1, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="35" customHeight="1">
-      <c r="C32" s="33">
-        <v>44652</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="str">
-        <f>VLOOKUP(E32, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G32" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="35" customHeight="1">
-      <c r="C33" s="33">
-        <v>44652</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="str">
-        <f>VLOOKUP(E33, 概要!$C$18:$D$40, 2, FALSE)</f>
-        <v>ユーザインターフェース</v>
-      </c>
-      <c r="G33" t="e">
-        <f>IF(I33=I32, G32, G32+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33">
-        <f>IF(I33=I32, J32+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K33" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:N3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D34:W1011 D4:W11 D5:D12 G12:H12 J11:K12 D31:W32 D31:D33 G31:H33 J31:K33 D28:F29 D21:W28 D14:W19">
-    <cfRule type="expression" dxfId="33" priority="9">
-      <formula>D4=D3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:P1048576">
-    <cfRule type="expression" dxfId="32" priority="25">
-      <formula>COUNTA($E4:$K4)&gt;=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:L21 L22:L33 E22:E33">
-    <cfRule type="expression" dxfId="31" priority="27">
-      <formula>E21=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32 J32:K32 G26:G28 J26:K28">
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>G26=G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:L9 G29 J29:K29 J16:J19 G16:G19">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>F8=F5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:W12 F8:L11 K13:K14 D29:W29 G22:G23 H22:H24 J16:J19 J22:J23 G16:G19">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>D8=D6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q1012">
-    <cfRule type="expression" dxfId="27" priority="3">
-      <formula>$C4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD112">
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>$B4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="expression" dxfId="25" priority="54">
-      <formula>I10=I6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:L12 I10:I11 G23:G24 H24:H25 J23:J24 D13:W13 D33:W33 K16:K19 K23:K28">
-    <cfRule type="expression" dxfId="24" priority="73">
-      <formula>D10=D7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD111">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>$A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12 K29 D30:W30 D20:W20">
-    <cfRule type="expression" dxfId="22" priority="79">
-      <formula>D12=D8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I14 H20:H22 G20 J20">
-    <cfRule type="expression" dxfId="21" priority="88">
-      <formula>G13=G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:L15 G30:G31 J30:K31 J20:K20 G20">
-    <cfRule type="expression" dxfId="20" priority="92">
-      <formula>F15=F10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13 G20:H21 J20:J21">
-    <cfRule type="expression" dxfId="19" priority="94">
-      <formula>G13=G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="18" priority="103">
-      <formula>I12=I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="17" priority="107">
-      <formula>I14=I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13 G13:H13 J13:K13">
-    <cfRule type="expression" dxfId="16" priority="109">
-      <formula>D13=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="15" priority="126">
-      <formula>K15=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:W33 K32">
-    <cfRule type="expression" dxfId="14" priority="133">
-      <formula>D32=D25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33 J33:K33">
-    <cfRule type="expression" dxfId="13" priority="147">
-      <formula>G33=G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K32 K20:K22">
-    <cfRule type="expression" dxfId="12" priority="149">
-      <formula>K20=K14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1CCEB-B7EE-0145-95D5-14C4BE27F322}">
   <dimension ref="A1:BG28"/>
   <sheetViews>
@@ -23379,12 +22534,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -23595,18 +22750,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -24338,45 +23493,45 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:BG1">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>YEAR(H1)=YEAR(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:BG2">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>MONTH(H2)=MONTH(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BG27">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>AND($B4&lt;&gt;"", B$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C1048576">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$B4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BG35">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>AND(H$3&gt;=$D4, H$3&lt;=$E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:BG3">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>H1 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BG1 A2:B2 D2:BG2 A3:BG1048576">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>OR(A1="n/a", A1="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>AND(H$3&gt;=$F4, H$3&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>AND($G4&lt;&gt;"", H$3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24384,7 +23539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B9A5A0-887B-5840-B59F-E03380C8F716}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -24402,7 +23557,1590 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49D6A3-7720-D34D-BC23-3F819B376C4F}">
+  <dimension ref="A2:P34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="57" workbookViewId="0">
+      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.28515625" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39" style="30" customWidth="1"/>
+    <col min="14" max="14" width="43.7109375" style="30" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="38" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="55"/>
+      <c r="M2" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" outlineLevel="1">
+      <c r="E3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+    </row>
+    <row r="4" spans="1:16" ht="35" customHeight="1">
+      <c r="C4" s="33">
+        <v>44653</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(E4, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H34" si="0">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"]"</f>
+        <v>[FC_01_01]</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K34" si="1">"[FC_"&amp;TEXT(D4,"00")&amp;"_"&amp;TEXT(G4,"00")&amp;"_"&amp;TEXT(J4,"00"&amp;"]")</f>
+        <v>[FC_01_01_01]</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="35" customHeight="1">
+      <c r="C5" s="33">
+        <v>44664</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(E5, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G5">
+        <f>IF(I5=I4, G4, G4+1)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_02]</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <f>IF(I5=I4, J4+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_02_01]</v>
+      </c>
+      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="35" customHeight="1">
+      <c r="C6" s="33">
+        <v>44664</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(E6, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G33" si="2">IF(I6=I5, G5, G5+1)</f>
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_02]</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J33" si="3">IF(I6=I5, J5+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_02_02]</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="35" customHeight="1">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
+        <v>44666</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(E7, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_02]</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_02_03]</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="57">
+      <c r="A8" s="33"/>
+      <c r="C8" s="33">
+        <v>44656</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(E8, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_03]</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_01]</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="44" customHeight="1">
+      <c r="A9" s="33">
+        <v>44656</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(E9, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_03]</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_02]</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19">
+      <c r="C10" s="33">
+        <v>44671</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(E10, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_03]</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_03]</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19">
+      <c r="C11" s="33"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(E11, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_03]</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11">
+        <f>IF(I11=I10, J10+1, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_03_04]</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="95">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(E12, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G12">
+        <f>IF(I12=I11, G11, G11+1)</f>
+        <v>4</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>[FC_01_04]</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>[FC_01_04_01]</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="19">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="E13" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(E13, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="35" customHeight="1">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(E14, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G14" t="e">
+        <f>IF(I14=#REF!,#REF!,#REF!+ 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="e">
+        <f>IF(I14=#REF!,#REF!+ 1, 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="35" customHeight="1">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(E15, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="64" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="C16" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(E16, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G16" t="e">
+        <f>IF(I16=I15, G15, G15+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16">
+        <f>IF(I16=I15, J15+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="35" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(E17, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="35" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(E18, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" ref="G18" si="4">IF(I18=I17, G17, G17+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" ref="H18" si="5">"[FC_"&amp;TEXT(D18,"00")&amp;"_"&amp;TEXT(G18,"00")&amp;"]"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="35" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(E19, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" ref="G19" si="6">IF(I19=I18, G18, G18+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" ref="H19" si="7">"[FC_"&amp;TEXT(D19,"00")&amp;"_"&amp;TEXT(G19,"00")&amp;"]"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="35" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(E20, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" ref="G20" si="8">IF(I20=I19, G19, G19+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" ref="H20" si="9">"[FC_"&amp;TEXT(D20,"00")&amp;"_"&amp;TEXT(G20,"00")&amp;"]"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="35" customHeight="1">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(E21, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣り場マップ作成</v>
+      </c>
+      <c r="G21" t="e">
+        <f>IF(I21=I17, G17, G17+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
+        <f>IF(I21=I17, J17+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="35" customHeight="1">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(E22, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(E23, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(E24, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="35" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(E25, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>釣果記録</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="35" customHeight="1" collapsed="1">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(E26, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>データ分析</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="35" customHeight="1">
+      <c r="C27" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(E27, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G27" t="e">
+        <f>IF(I27=I26, G26, G26+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27">
+        <f>IF(I27=I26, J26+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="35" customHeight="1">
+      <c r="C28" s="33">
+        <v>44684</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(E28, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="35" customHeight="1">
+      <c r="C29" s="33">
+        <v>44684</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(E29, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="L29" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="35" customHeight="1">
+      <c r="C30" s="33">
+        <v>44684</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(E30, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="L30" t="s">
+        <v>145</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="35" customHeight="1">
+      <c r="C31" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(E31, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G31" t="e">
+        <f>IF(I31=I27, G27, G27+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31">
+        <f>IF(I31=I27, J27+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="35" customHeight="1">
+      <c r="C32" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(E32, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G32" t="e">
+        <f>IF(I32=I31, G31, G31+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32">
+        <f>IF(I32=I31, J31+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="35" customHeight="1">
+      <c r="C33" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(E33, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="35" customHeight="1">
+      <c r="C34" s="33">
+        <v>44652</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(E34, 概要!$C$18:$D$40, 2, FALSE)</f>
+        <v>ユーザインターフェース</v>
+      </c>
+      <c r="G34" t="e">
+        <f>IF(I34=I33, G33, G33+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34">
+        <f>IF(I34=I33, J33+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D35:W1012 D4:W11 D5:D13 G12:H13 J11:K13 D32:W33 D32:D34 G32:H34 J32:K34 D29:F30 D22:W29 D15:W20">
+    <cfRule type="expression" dxfId="24" priority="9">
+      <formula>D4=D3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:P12 E14:P1048576 M13:P13 E13:K13">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>COUNTA($E4:$K4)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:L22 L23:L34 E23:E34">
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>E22=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33 J33:K33 G27:G29 J27:K29">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>G27=G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:L9 G30 J30:K30 J17:J20 G17:G20">
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>F8=F5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:W12 F8:L11 D30:W30 G23:G24 H23:H25 J17:J20 J23:J24 G17:G20 M13:W13 D13:K13">
+    <cfRule type="expression" dxfId="19" priority="32">
+      <formula>D8=D6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:Q12 C14:Q1013 M13:Q13 C13:K13">
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>$C4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD12 A14:XFD113 M13:XFD13 A13:K13">
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>$B4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="expression" dxfId="16" priority="54">
+      <formula>I10=I6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:L12 I10:I11 G24:G25 H25:H26 J24:J25 D34:W34 K17:K20 K24:K29 K14:K15 F13:K13">
+    <cfRule type="expression" dxfId="15" priority="73">
+      <formula>D10=D7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD12 A14:XFD112 M13:XFD13 A13:K13">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>$A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13 K30 D31:W31 D21:W21 D14:W14">
+    <cfRule type="expression" dxfId="13" priority="79">
+      <formula>D12=D8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H23 G21 J21 F16:L16">
+    <cfRule type="expression" dxfId="12" priority="88">
+      <formula>F16=F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32 J31:K32 J21:K21 G21">
+    <cfRule type="expression" dxfId="11" priority="92">
+      <formula>G21=G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H22 J21:J22">
+    <cfRule type="expression" dxfId="10" priority="94">
+      <formula>G21=G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13">
+    <cfRule type="expression" dxfId="9" priority="103">
+      <formula>I12=I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="8" priority="107">
+      <formula>I15=I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 G14:H14 J14:K14">
+    <cfRule type="expression" dxfId="7" priority="109">
+      <formula>D14=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="6" priority="126">
+      <formula>K16=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:W34 K33">
+    <cfRule type="expression" dxfId="5" priority="133">
+      <formula>D33=D26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34 J34:K34 I14:I15">
+    <cfRule type="expression" dxfId="4" priority="147">
+      <formula>G14=G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:K33 K21:K23 I14">
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>I14=I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B9B92-DC8D-184A-8445-5E5CFB531C4D}">
+  <dimension ref="B1:U28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="5" max="5" width="2" style="66" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="2" style="66" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="9" width="2" style="66" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="2" style="66" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="2" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2" customWidth="1"/>
+    <col min="15" max="15" width="2" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2" customWidth="1"/>
+    <col min="17" max="17" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21">
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="I7" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="E9" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="E10" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="E11" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="E12" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="E13" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="E16" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="R16" t="s">
+        <v>215</v>
+      </c>
+      <c r="U16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18">
+      <c r="E17" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18">
+      <c r="E18" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18">
+      <c r="E19" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18">
+      <c r="G20" s="66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18">
+      <c r="E22" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="R22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18">
+      <c r="E23" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18">
+      <c r="E24" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18">
+      <c r="E25" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18">
+      <c r="G26" s="68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18">
+      <c r="E28" s="66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDEC24F-6385-5942-9F41-DE45E3D45689}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -24420,7 +25158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC67A91-BABB-AD4B-96E9-145DE3E9B023}">
   <dimension ref="B1:N1"/>
   <sheetViews>
@@ -24451,7 +25189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDFB6F0-7BFB-6F41-A7BD-EC6D75B01C8A}">
   <dimension ref="D2:D3"/>
   <sheetViews>
@@ -24478,7 +25216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D113EB-BB1A-734C-B52F-FED93580043A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -24489,57 +25227,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE351FC9-1DAD-834F-981A-94EE3C637F88}">
-  <dimension ref="G3:L16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="3" spans="7:12">
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="7:12">
-      <c r="H7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12">
-      <c r="H8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12">
-      <c r="I11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="7:12">
-      <c r="I12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12">
-      <c r="J15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12">
-      <c r="J16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9CD07-0E7F-204D-A717-E1850D5BE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B4D86-CE31-8745-981A-58A12F4A5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18020" yWindow="500" windowWidth="10780" windowHeight="15880" activeTab="4" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="216">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1884,10 +1884,6 @@
     <rPh sb="1" eb="3">
       <t xml:space="preserve">シュウリョウ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -24905,10 +24901,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B9B92-DC8D-184A-8445-5E5CFB531C4D}">
-  <dimension ref="B1:U28"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="112" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -24931,32 +24927,32 @@
     <col min="17" max="17" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
+    <row r="1" spans="2:18">
       <c r="B1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:18">
       <c r="C2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:18">
       <c r="B3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:18">
       <c r="C4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:18">
       <c r="C5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>198</v>
       </c>
@@ -24971,7 +24967,7 @@
       <c r="J7" s="67"/>
       <c r="K7" s="67"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:18">
       <c r="E9" s="66" t="s">
         <v>190</v>
       </c>
@@ -24979,10 +24975,10 @@
         <v>185</v>
       </c>
       <c r="R9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
       <c r="E10" s="66" t="s">
         <v>187</v>
       </c>
@@ -24993,7 +24989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:18">
       <c r="E11" s="66" t="s">
         <v>188</v>
       </c>
@@ -25007,7 +25003,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:18">
       <c r="E12" s="66" t="s">
         <v>188</v>
       </c>
@@ -25015,7 +25011,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:18">
       <c r="E13" s="66" t="s">
         <v>186</v>
       </c>
@@ -25026,7 +25022,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:18">
       <c r="F14" t="s">
         <v>186</v>
       </c>
@@ -25037,7 +25033,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:18">
       <c r="E16" s="66" t="s">
         <v>189</v>
       </c>
@@ -25045,10 +25041,7 @@
         <v>204</v>
       </c>
       <c r="R16" t="s">
-        <v>215</v>
-      </c>
-      <c r="U16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="5:18">
@@ -25091,7 +25084,7 @@
         <v>211</v>
       </c>
       <c r="R22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="5:18">

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B4D86-CE31-8745-981A-58A12F4A5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D487A592-2F6E-F948-BE48-D5E172992CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="500" windowWidth="10780" windowHeight="15880" activeTab="4" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Asset.js" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1724,11 +1725,8 @@
   </si>
   <si>
     <t>■</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">キゾｎ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ドウイツ </t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キゾｎ ドウイツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2289,6 +2287,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2307,8 +2317,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2336,36 +2364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20001,8 +19999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE64E8C-6EAB-244E-ABE9-249F7AF9AA96}">
   <dimension ref="B1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -20070,7 +20068,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -20081,7 +20079,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="44"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
@@ -20090,7 +20088,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="44"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
@@ -20120,7 +20118,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -20131,7 +20129,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="46"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -20141,11 +20139,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20156,7 +20154,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="48"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
@@ -20165,7 +20163,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="48"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
@@ -20174,7 +20172,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="46"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
@@ -20184,8 +20182,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -20199,55 +20197,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -20260,11 +20263,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -20392,15 +20390,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:17">
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="12:17" ht="38">
       <c r="L5" s="37" t="s">
@@ -22530,12 +22528,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -22746,18 +22744,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -23594,30 +23592,30 @@
       <c r="C2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="55"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="52" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="63" t="s">
         <v>46</v>
       </c>
     </row>
@@ -23642,10 +23640,10 @@
       <c r="L3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16" ht="35" customHeight="1">
       <c r="C4" s="33">
@@ -24032,7 +24030,7 @@
         <f t="shared" si="1"/>
         <v>[FC_01_04_01]</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="59" t="s">
         <v>136</v>
       </c>
       <c r="M12" s="30" t="s">
@@ -24050,7 +24048,7 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="I13" s="30"/>
-      <c r="L13" s="65"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="30" t="s">
         <v>179</v>
       </c>
@@ -24903,8 +24901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B9B92-DC8D-184A-8445-5E5CFB531C4D}">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="112" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A3" zoomScale="112" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -24912,17 +24910,17 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="5" max="5" width="2" style="66" customWidth="1"/>
+    <col min="5" max="5" width="2" style="43" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="2" style="66" customWidth="1"/>
+    <col min="7" max="7" width="2" style="43" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
-    <col min="9" max="9" width="2" style="66" customWidth="1"/>
+    <col min="9" max="9" width="2" style="43" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="2" style="66" customWidth="1"/>
+    <col min="11" max="11" width="2" style="43" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="2" style="66" customWidth="1"/>
+    <col min="13" max="13" width="2" style="43" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="2" style="66" customWidth="1"/>
+    <col min="15" max="15" width="2" style="43" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
   </cols>
@@ -24956,22 +24954,22 @@
       <c r="B7" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="I7" s="67" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="I7" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="44" t="s">
         <v>185</v>
       </c>
       <c r="R9" t="s">
@@ -24979,24 +24977,24 @@
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="43" t="s">
         <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="43" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="43" t="s">
         <v>188</v>
       </c>
       <c r="F11" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="43" t="s">
         <v>192</v>
       </c>
       <c r="H11" t="s">
@@ -25004,7 +25002,7 @@
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="43" t="s">
         <v>188</v>
       </c>
       <c r="H12" t="s">
@@ -25012,13 +25010,13 @@
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="43" t="s">
         <v>186</v>
       </c>
       <c r="F13" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="43" t="s">
         <v>195</v>
       </c>
     </row>
@@ -25026,7 +25024,7 @@
       <c r="F14" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="43" t="s">
         <v>189</v>
       </c>
       <c r="H14" t="s">
@@ -25034,7 +25032,7 @@
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="43" t="s">
         <v>189</v>
       </c>
       <c r="F16" t="s">
@@ -25045,26 +25043,26 @@
       </c>
     </row>
     <row r="17" spans="5:18">
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="43" t="s">
         <v>187</v>
       </c>
       <c r="F17" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="43" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="5:18">
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="45" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="5:18">
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="43" t="s">
         <v>186</v>
       </c>
       <c r="F19" t="s">
@@ -25072,15 +25070,15 @@
       </c>
     </row>
     <row r="20" spans="5:18">
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="43" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="22" spans="5:18">
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="44" t="s">
         <v>211</v>
       </c>
       <c r="R22" t="s">
@@ -25088,42 +25086,42 @@
       </c>
     </row>
     <row r="23" spans="5:18">
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="43" t="s">
         <v>187</v>
       </c>
       <c r="F23" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="43" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="5:18">
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="45" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="25" spans="5:18">
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="43" t="s">
         <v>186</v>
       </c>
       <c r="F25" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="43" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26" spans="5:18">
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="45" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="28" spans="5:18">
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="43" t="s">
         <v>212</v>
       </c>
     </row>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D487A592-2F6E-F948-BE48-D5E172992CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749BE9D6-9BBD-D348-899A-794100078F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="13" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <sheet name="Asset.js" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1646,14 +1647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>const images = [</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>];</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>角度</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">カクド </t>
@@ -1912,6 +1905,14 @@
     <rPh sb="11" eb="13">
       <t xml:space="preserve">ショリ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>};</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const images : any = {</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2296,9 +2297,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2315,6 +2313,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19999,7 +20000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE64E8C-6EAB-244E-ABE9-249F7AF9AA96}">
   <dimension ref="B1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="107" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -20068,7 +20069,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -20079,7 +20080,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="48"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
@@ -20088,7 +20089,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
@@ -20118,7 +20119,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -20129,7 +20130,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="50"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -20139,11 +20140,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20154,7 +20155,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="52"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
@@ -20163,7 +20164,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
@@ -20172,7 +20173,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="50"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
@@ -20182,8 +20183,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -20197,60 +20198,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -20263,6 +20259,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -20590,8 +20591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D7CDE-3391-9D46-8031-EC40E3D62D72}">
   <dimension ref="B1:G160"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -20599,7 +20600,7 @@
     <col min="1" max="3" width="10.7109375" style="40"/>
     <col min="4" max="4" width="1.7109375" style="42" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="40" customWidth="1"/>
     <col min="7" max="7" width="1.85546875" style="42" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="40"/>
   </cols>
@@ -20616,7 +20617,7 @@
         <v>175</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -20627,8 +20628,8 @@
         <v>0</v>
       </c>
       <c r="F3" s="40" t="str">
-        <f>"require('./" &amp; B3 &amp; "/" &amp; B3 &amp; "_" &amp; C3 &amp; ".png'),"</f>
-        <v>require('./Asset0/Asset0_0.png'),</v>
+        <f>B3 &amp; "_" &amp; C3&amp;": "&amp;"require('./" &amp; B3 &amp; "/" &amp; B3 &amp; "_" &amp; C3 &amp; ".png'),"</f>
+        <v>Asset0_0: require('./Asset0/Asset0_0.png'),</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -20639,8 +20640,8 @@
         <v>1</v>
       </c>
       <c r="F4" s="40" t="str">
-        <f t="shared" ref="F4:F67" si="0">"require('./" &amp; B4 &amp; "/" &amp; B4 &amp; "_" &amp; C4 &amp; ".png'),"</f>
-        <v>require('./Asset0/Asset0_1.png'),</v>
+        <f t="shared" ref="F4:F67" si="0">B4 &amp; "_" &amp; C4&amp;": "&amp;"require('./" &amp; B4 &amp; "/" &amp; B4 &amp; "_" &amp; C4 &amp; ".png'),"</f>
+        <v>Asset0_1: require('./Asset0/Asset0_1.png'),</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -20652,7 +20653,7 @@
       </c>
       <c r="F5" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_2.png'),</v>
+        <v>Asset0_2: require('./Asset0/Asset0_2.png'),</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -20664,7 +20665,7 @@
       </c>
       <c r="F6" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_3.png'),</v>
+        <v>Asset0_3: require('./Asset0/Asset0_3.png'),</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F7" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_4.png'),</v>
+        <v>Asset0_4: require('./Asset0/Asset0_4.png'),</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -20688,7 +20689,7 @@
       </c>
       <c r="F8" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_5.png'),</v>
+        <v>Asset0_5: require('./Asset0/Asset0_5.png'),</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -20700,7 +20701,7 @@
       </c>
       <c r="F9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_6.png'),</v>
+        <v>Asset0_6: require('./Asset0/Asset0_6.png'),</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -20712,7 +20713,7 @@
       </c>
       <c r="F10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_7.png'),</v>
+        <v>Asset0_7: require('./Asset0/Asset0_7.png'),</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -20724,7 +20725,7 @@
       </c>
       <c r="F11" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_8.png'),</v>
+        <v>Asset0_8: require('./Asset0/Asset0_8.png'),</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F12" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_9.png'),</v>
+        <v>Asset0_9: require('./Asset0/Asset0_9.png'),</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -20748,7 +20749,7 @@
       </c>
       <c r="F13" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_10.png'),</v>
+        <v>Asset0_10: require('./Asset0/Asset0_10.png'),</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -20760,7 +20761,7 @@
       </c>
       <c r="F14" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_11.png'),</v>
+        <v>Asset0_11: require('./Asset0/Asset0_11.png'),</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -20772,7 +20773,7 @@
       </c>
       <c r="F15" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_12.png'),</v>
+        <v>Asset0_12: require('./Asset0/Asset0_12.png'),</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -20784,7 +20785,7 @@
       </c>
       <c r="F16" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_13.png'),</v>
+        <v>Asset0_13: require('./Asset0/Asset0_13.png'),</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F17" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_14.png'),</v>
+        <v>Asset0_14: require('./Asset0/Asset0_14.png'),</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -20808,7 +20809,7 @@
       </c>
       <c r="F18" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_15.png'),</v>
+        <v>Asset0_15: require('./Asset0/Asset0_15.png'),</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -20820,7 +20821,7 @@
       </c>
       <c r="F19" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_16.png'),</v>
+        <v>Asset0_16: require('./Asset0/Asset0_16.png'),</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -20832,7 +20833,7 @@
       </c>
       <c r="F20" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_17.png'),</v>
+        <v>Asset0_17: require('./Asset0/Asset0_17.png'),</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -20844,7 +20845,7 @@
       </c>
       <c r="F21" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_18.png'),</v>
+        <v>Asset0_18: require('./Asset0/Asset0_18.png'),</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F22" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_19.png'),</v>
+        <v>Asset0_19: require('./Asset0/Asset0_19.png'),</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -20868,7 +20869,7 @@
       </c>
       <c r="F23" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_20.png'),</v>
+        <v>Asset0_20: require('./Asset0/Asset0_20.png'),</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -20880,7 +20881,7 @@
       </c>
       <c r="F24" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_21.png'),</v>
+        <v>Asset0_21: require('./Asset0/Asset0_21.png'),</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -20892,7 +20893,7 @@
       </c>
       <c r="F25" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_22.png'),</v>
+        <v>Asset0_22: require('./Asset0/Asset0_22.png'),</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -20904,7 +20905,7 @@
       </c>
       <c r="F26" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_23.png'),</v>
+        <v>Asset0_23: require('./Asset0/Asset0_23.png'),</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F27" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_24.png'),</v>
+        <v>Asset0_24: require('./Asset0/Asset0_24.png'),</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -20928,7 +20929,7 @@
       </c>
       <c r="F28" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_25.png'),</v>
+        <v>Asset0_25: require('./Asset0/Asset0_25.png'),</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -20940,7 +20941,7 @@
       </c>
       <c r="F29" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_26.png'),</v>
+        <v>Asset0_26: require('./Asset0/Asset0_26.png'),</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -20952,7 +20953,7 @@
       </c>
       <c r="F30" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_27.png'),</v>
+        <v>Asset0_27: require('./Asset0/Asset0_27.png'),</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -20964,7 +20965,7 @@
       </c>
       <c r="F31" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_28.png'),</v>
+        <v>Asset0_28: require('./Asset0/Asset0_28.png'),</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F32" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_29.png'),</v>
+        <v>Asset0_29: require('./Asset0/Asset0_29.png'),</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -20988,7 +20989,7 @@
       </c>
       <c r="F33" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_30.png'),</v>
+        <v>Asset0_30: require('./Asset0/Asset0_30.png'),</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -21000,7 +21001,7 @@
       </c>
       <c r="F34" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_31.png'),</v>
+        <v>Asset0_31: require('./Asset0/Asset0_31.png'),</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -21012,7 +21013,7 @@
       </c>
       <c r="F35" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_32.png'),</v>
+        <v>Asset0_32: require('./Asset0/Asset0_32.png'),</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -21024,7 +21025,7 @@
       </c>
       <c r="F36" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_33.png'),</v>
+        <v>Asset0_33: require('./Asset0/Asset0_33.png'),</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F37" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_34.png'),</v>
+        <v>Asset0_34: require('./Asset0/Asset0_34.png'),</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -21048,7 +21049,7 @@
       </c>
       <c r="F38" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_35.png'),</v>
+        <v>Asset0_35: require('./Asset0/Asset0_35.png'),</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -21060,7 +21061,7 @@
       </c>
       <c r="F39" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_36.png'),</v>
+        <v>Asset0_36: require('./Asset0/Asset0_36.png'),</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -21072,7 +21073,7 @@
       </c>
       <c r="F40" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_37.png'),</v>
+        <v>Asset0_37: require('./Asset0/Asset0_37.png'),</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -21084,7 +21085,7 @@
       </c>
       <c r="F41" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_38.png'),</v>
+        <v>Asset0_38: require('./Asset0/Asset0_38.png'),</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F42" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_39.png'),</v>
+        <v>Asset0_39: require('./Asset0/Asset0_39.png'),</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -21108,7 +21109,7 @@
       </c>
       <c r="F43" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_40.png'),</v>
+        <v>Asset0_40: require('./Asset0/Asset0_40.png'),</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -21120,7 +21121,7 @@
       </c>
       <c r="F44" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_41.png'),</v>
+        <v>Asset0_41: require('./Asset0/Asset0_41.png'),</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -21132,7 +21133,7 @@
       </c>
       <c r="F45" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_42.png'),</v>
+        <v>Asset0_42: require('./Asset0/Asset0_42.png'),</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -21144,7 +21145,7 @@
       </c>
       <c r="F46" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_43.png'),</v>
+        <v>Asset0_43: require('./Asset0/Asset0_43.png'),</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F47" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_44.png'),</v>
+        <v>Asset0_44: require('./Asset0/Asset0_44.png'),</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -21168,7 +21169,7 @@
       </c>
       <c r="F48" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_45.png'),</v>
+        <v>Asset0_45: require('./Asset0/Asset0_45.png'),</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -21180,7 +21181,7 @@
       </c>
       <c r="F49" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_46.png'),</v>
+        <v>Asset0_46: require('./Asset0/Asset0_46.png'),</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -21192,7 +21193,7 @@
       </c>
       <c r="F50" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_47.png'),</v>
+        <v>Asset0_47: require('./Asset0/Asset0_47.png'),</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -21204,7 +21205,7 @@
       </c>
       <c r="F51" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_48.png'),</v>
+        <v>Asset0_48: require('./Asset0/Asset0_48.png'),</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -21216,7 +21217,7 @@
       </c>
       <c r="F52" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_49.png'),</v>
+        <v>Asset0_49: require('./Asset0/Asset0_49.png'),</v>
       </c>
     </row>
     <row r="53" spans="2:6">
@@ -21228,7 +21229,7 @@
       </c>
       <c r="F53" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_50.png'),</v>
+        <v>Asset0_50: require('./Asset0/Asset0_50.png'),</v>
       </c>
     </row>
     <row r="54" spans="2:6">
@@ -21240,7 +21241,7 @@
       </c>
       <c r="F54" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_51.png'),</v>
+        <v>Asset0_51: require('./Asset0/Asset0_51.png'),</v>
       </c>
     </row>
     <row r="55" spans="2:6">
@@ -21252,7 +21253,7 @@
       </c>
       <c r="F55" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_52.png'),</v>
+        <v>Asset0_52: require('./Asset0/Asset0_52.png'),</v>
       </c>
     </row>
     <row r="56" spans="2:6">
@@ -21264,7 +21265,7 @@
       </c>
       <c r="F56" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_53.png'),</v>
+        <v>Asset0_53: require('./Asset0/Asset0_53.png'),</v>
       </c>
     </row>
     <row r="57" spans="2:6">
@@ -21276,7 +21277,7 @@
       </c>
       <c r="F57" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_54.png'),</v>
+        <v>Asset0_54: require('./Asset0/Asset0_54.png'),</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -21288,7 +21289,7 @@
       </c>
       <c r="F58" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_55.png'),</v>
+        <v>Asset0_55: require('./Asset0/Asset0_55.png'),</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -21300,7 +21301,7 @@
       </c>
       <c r="F59" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_56.png'),</v>
+        <v>Asset0_56: require('./Asset0/Asset0_56.png'),</v>
       </c>
     </row>
     <row r="60" spans="2:6">
@@ -21312,7 +21313,7 @@
       </c>
       <c r="F60" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_57.png'),</v>
+        <v>Asset0_57: require('./Asset0/Asset0_57.png'),</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -21324,7 +21325,7 @@
       </c>
       <c r="F61" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_58.png'),</v>
+        <v>Asset0_58: require('./Asset0/Asset0_58.png'),</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -21336,7 +21337,7 @@
       </c>
       <c r="F62" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_59.png'),</v>
+        <v>Asset0_59: require('./Asset0/Asset0_59.png'),</v>
       </c>
     </row>
     <row r="63" spans="2:6">
@@ -21348,7 +21349,7 @@
       </c>
       <c r="F63" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_60.png'),</v>
+        <v>Asset0_60: require('./Asset0/Asset0_60.png'),</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -21360,7 +21361,7 @@
       </c>
       <c r="F64" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_61.png'),</v>
+        <v>Asset0_61: require('./Asset0/Asset0_61.png'),</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -21372,7 +21373,7 @@
       </c>
       <c r="F65" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_62.png'),</v>
+        <v>Asset0_62: require('./Asset0/Asset0_62.png'),</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -21384,7 +21385,7 @@
       </c>
       <c r="F66" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_63.png'),</v>
+        <v>Asset0_63: require('./Asset0/Asset0_63.png'),</v>
       </c>
     </row>
     <row r="67" spans="2:6">
@@ -21396,7 +21397,7 @@
       </c>
       <c r="F67" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>require('./Asset0/Asset0_64.png'),</v>
+        <v>Asset0_64: require('./Asset0/Asset0_64.png'),</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -21407,8 +21408,8 @@
         <v>65</v>
       </c>
       <c r="F68" s="40" t="str">
-        <f t="shared" ref="F68:F131" si="1">"require('./" &amp; B68 &amp; "/" &amp; B68 &amp; "_" &amp; C68 &amp; ".png'),"</f>
-        <v>require('./Asset0/Asset0_65.png'),</v>
+        <f t="shared" ref="F68:F131" si="1">B68 &amp; "_" &amp; C68&amp;": "&amp;"require('./" &amp; B68 &amp; "/" &amp; B68 &amp; "_" &amp; C68 &amp; ".png'),"</f>
+        <v>Asset0_65: require('./Asset0/Asset0_65.png'),</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -21420,7 +21421,7 @@
       </c>
       <c r="F69" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_66.png'),</v>
+        <v>Asset0_66: require('./Asset0/Asset0_66.png'),</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -21432,7 +21433,7 @@
       </c>
       <c r="F70" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_67.png'),</v>
+        <v>Asset0_67: require('./Asset0/Asset0_67.png'),</v>
       </c>
     </row>
     <row r="71" spans="2:6">
@@ -21444,7 +21445,7 @@
       </c>
       <c r="F71" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_68.png'),</v>
+        <v>Asset0_68: require('./Asset0/Asset0_68.png'),</v>
       </c>
     </row>
     <row r="72" spans="2:6">
@@ -21456,7 +21457,7 @@
       </c>
       <c r="F72" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_69.png'),</v>
+        <v>Asset0_69: require('./Asset0/Asset0_69.png'),</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -21468,7 +21469,7 @@
       </c>
       <c r="F73" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_70.png'),</v>
+        <v>Asset0_70: require('./Asset0/Asset0_70.png'),</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -21480,7 +21481,7 @@
       </c>
       <c r="F74" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_71.png'),</v>
+        <v>Asset0_71: require('./Asset0/Asset0_71.png'),</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -21492,7 +21493,7 @@
       </c>
       <c r="F75" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_72.png'),</v>
+        <v>Asset0_72: require('./Asset0/Asset0_72.png'),</v>
       </c>
     </row>
     <row r="76" spans="2:6">
@@ -21504,7 +21505,7 @@
       </c>
       <c r="F76" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_73.png'),</v>
+        <v>Asset0_73: require('./Asset0/Asset0_73.png'),</v>
       </c>
     </row>
     <row r="77" spans="2:6">
@@ -21516,7 +21517,7 @@
       </c>
       <c r="F77" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_74.png'),</v>
+        <v>Asset0_74: require('./Asset0/Asset0_74.png'),</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -21528,7 +21529,7 @@
       </c>
       <c r="F78" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_75.png'),</v>
+        <v>Asset0_75: require('./Asset0/Asset0_75.png'),</v>
       </c>
     </row>
     <row r="79" spans="2:6">
@@ -21540,7 +21541,7 @@
       </c>
       <c r="F79" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_76.png'),</v>
+        <v>Asset0_76: require('./Asset0/Asset0_76.png'),</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -21552,7 +21553,7 @@
       </c>
       <c r="F80" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_77.png'),</v>
+        <v>Asset0_77: require('./Asset0/Asset0_77.png'),</v>
       </c>
     </row>
     <row r="81" spans="2:6">
@@ -21564,7 +21565,7 @@
       </c>
       <c r="F81" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_78.png'),</v>
+        <v>Asset0_78: require('./Asset0/Asset0_78.png'),</v>
       </c>
     </row>
     <row r="82" spans="2:6">
@@ -21576,7 +21577,7 @@
       </c>
       <c r="F82" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_79.png'),</v>
+        <v>Asset0_79: require('./Asset0/Asset0_79.png'),</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -21588,7 +21589,7 @@
       </c>
       <c r="F83" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_80.png'),</v>
+        <v>Asset0_80: require('./Asset0/Asset0_80.png'),</v>
       </c>
     </row>
     <row r="84" spans="2:6">
@@ -21600,7 +21601,7 @@
       </c>
       <c r="F84" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_81.png'),</v>
+        <v>Asset0_81: require('./Asset0/Asset0_81.png'),</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -21612,7 +21613,7 @@
       </c>
       <c r="F85" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_82.png'),</v>
+        <v>Asset0_82: require('./Asset0/Asset0_82.png'),</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -21624,7 +21625,7 @@
       </c>
       <c r="F86" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_83.png'),</v>
+        <v>Asset0_83: require('./Asset0/Asset0_83.png'),</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -21636,7 +21637,7 @@
       </c>
       <c r="F87" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_84.png'),</v>
+        <v>Asset0_84: require('./Asset0/Asset0_84.png'),</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -21648,7 +21649,7 @@
       </c>
       <c r="F88" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_85.png'),</v>
+        <v>Asset0_85: require('./Asset0/Asset0_85.png'),</v>
       </c>
     </row>
     <row r="89" spans="2:6">
@@ -21660,7 +21661,7 @@
       </c>
       <c r="F89" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_86.png'),</v>
+        <v>Asset0_86: require('./Asset0/Asset0_86.png'),</v>
       </c>
     </row>
     <row r="90" spans="2:6">
@@ -21672,7 +21673,7 @@
       </c>
       <c r="F90" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_87.png'),</v>
+        <v>Asset0_87: require('./Asset0/Asset0_87.png'),</v>
       </c>
     </row>
     <row r="91" spans="2:6">
@@ -21684,7 +21685,7 @@
       </c>
       <c r="F91" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_88.png'),</v>
+        <v>Asset0_88: require('./Asset0/Asset0_88.png'),</v>
       </c>
     </row>
     <row r="92" spans="2:6">
@@ -21696,7 +21697,7 @@
       </c>
       <c r="F92" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_89.png'),</v>
+        <v>Asset0_89: require('./Asset0/Asset0_89.png'),</v>
       </c>
     </row>
     <row r="93" spans="2:6">
@@ -21708,7 +21709,7 @@
       </c>
       <c r="F93" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_90.png'),</v>
+        <v>Asset0_90: require('./Asset0/Asset0_90.png'),</v>
       </c>
     </row>
     <row r="94" spans="2:6">
@@ -21720,7 +21721,7 @@
       </c>
       <c r="F94" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_91.png'),</v>
+        <v>Asset0_91: require('./Asset0/Asset0_91.png'),</v>
       </c>
     </row>
     <row r="95" spans="2:6">
@@ -21732,7 +21733,7 @@
       </c>
       <c r="F95" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_92.png'),</v>
+        <v>Asset0_92: require('./Asset0/Asset0_92.png'),</v>
       </c>
     </row>
     <row r="96" spans="2:6">
@@ -21744,7 +21745,7 @@
       </c>
       <c r="F96" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_93.png'),</v>
+        <v>Asset0_93: require('./Asset0/Asset0_93.png'),</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -21756,7 +21757,7 @@
       </c>
       <c r="F97" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_94.png'),</v>
+        <v>Asset0_94: require('./Asset0/Asset0_94.png'),</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -21768,7 +21769,7 @@
       </c>
       <c r="F98" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_95.png'),</v>
+        <v>Asset0_95: require('./Asset0/Asset0_95.png'),</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -21780,7 +21781,7 @@
       </c>
       <c r="F99" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_96.png'),</v>
+        <v>Asset0_96: require('./Asset0/Asset0_96.png'),</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -21792,7 +21793,7 @@
       </c>
       <c r="F100" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_97.png'),</v>
+        <v>Asset0_97: require('./Asset0/Asset0_97.png'),</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -21804,7 +21805,7 @@
       </c>
       <c r="F101" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_98.png'),</v>
+        <v>Asset0_98: require('./Asset0/Asset0_98.png'),</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -21816,7 +21817,7 @@
       </c>
       <c r="F102" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_99.png'),</v>
+        <v>Asset0_99: require('./Asset0/Asset0_99.png'),</v>
       </c>
     </row>
     <row r="103" spans="2:6">
@@ -21828,7 +21829,7 @@
       </c>
       <c r="F103" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_100.png'),</v>
+        <v>Asset0_100: require('./Asset0/Asset0_100.png'),</v>
       </c>
     </row>
     <row r="104" spans="2:6">
@@ -21840,7 +21841,7 @@
       </c>
       <c r="F104" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_101.png'),</v>
+        <v>Asset0_101: require('./Asset0/Asset0_101.png'),</v>
       </c>
     </row>
     <row r="105" spans="2:6">
@@ -21852,7 +21853,7 @@
       </c>
       <c r="F105" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_102.png'),</v>
+        <v>Asset0_102: require('./Asset0/Asset0_102.png'),</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -21864,7 +21865,7 @@
       </c>
       <c r="F106" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_103.png'),</v>
+        <v>Asset0_103: require('./Asset0/Asset0_103.png'),</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -21876,7 +21877,7 @@
       </c>
       <c r="F107" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_104.png'),</v>
+        <v>Asset0_104: require('./Asset0/Asset0_104.png'),</v>
       </c>
     </row>
     <row r="108" spans="2:6">
@@ -21888,7 +21889,7 @@
       </c>
       <c r="F108" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_105.png'),</v>
+        <v>Asset0_105: require('./Asset0/Asset0_105.png'),</v>
       </c>
     </row>
     <row r="109" spans="2:6">
@@ -21900,7 +21901,7 @@
       </c>
       <c r="F109" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_106.png'),</v>
+        <v>Asset0_106: require('./Asset0/Asset0_106.png'),</v>
       </c>
     </row>
     <row r="110" spans="2:6">
@@ -21912,7 +21913,7 @@
       </c>
       <c r="F110" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_107.png'),</v>
+        <v>Asset0_107: require('./Asset0/Asset0_107.png'),</v>
       </c>
     </row>
     <row r="111" spans="2:6">
@@ -21924,7 +21925,7 @@
       </c>
       <c r="F111" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_108.png'),</v>
+        <v>Asset0_108: require('./Asset0/Asset0_108.png'),</v>
       </c>
     </row>
     <row r="112" spans="2:6">
@@ -21936,7 +21937,7 @@
       </c>
       <c r="F112" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_109.png'),</v>
+        <v>Asset0_109: require('./Asset0/Asset0_109.png'),</v>
       </c>
     </row>
     <row r="113" spans="2:6">
@@ -21948,7 +21949,7 @@
       </c>
       <c r="F113" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_110.png'),</v>
+        <v>Asset0_110: require('./Asset0/Asset0_110.png'),</v>
       </c>
     </row>
     <row r="114" spans="2:6">
@@ -21960,7 +21961,7 @@
       </c>
       <c r="F114" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_111.png'),</v>
+        <v>Asset0_111: require('./Asset0/Asset0_111.png'),</v>
       </c>
     </row>
     <row r="115" spans="2:6">
@@ -21972,7 +21973,7 @@
       </c>
       <c r="F115" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_112.png'),</v>
+        <v>Asset0_112: require('./Asset0/Asset0_112.png'),</v>
       </c>
     </row>
     <row r="116" spans="2:6">
@@ -21984,7 +21985,7 @@
       </c>
       <c r="F116" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_113.png'),</v>
+        <v>Asset0_113: require('./Asset0/Asset0_113.png'),</v>
       </c>
     </row>
     <row r="117" spans="2:6">
@@ -21996,7 +21997,7 @@
       </c>
       <c r="F117" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_114.png'),</v>
+        <v>Asset0_114: require('./Asset0/Asset0_114.png'),</v>
       </c>
     </row>
     <row r="118" spans="2:6">
@@ -22008,7 +22009,7 @@
       </c>
       <c r="F118" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_115.png'),</v>
+        <v>Asset0_115: require('./Asset0/Asset0_115.png'),</v>
       </c>
     </row>
     <row r="119" spans="2:6">
@@ -22020,7 +22021,7 @@
       </c>
       <c r="F119" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_116.png'),</v>
+        <v>Asset0_116: require('./Asset0/Asset0_116.png'),</v>
       </c>
     </row>
     <row r="120" spans="2:6">
@@ -22032,7 +22033,7 @@
       </c>
       <c r="F120" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_117.png'),</v>
+        <v>Asset0_117: require('./Asset0/Asset0_117.png'),</v>
       </c>
     </row>
     <row r="121" spans="2:6">
@@ -22044,7 +22045,7 @@
       </c>
       <c r="F121" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_118.png'),</v>
+        <v>Asset0_118: require('./Asset0/Asset0_118.png'),</v>
       </c>
     </row>
     <row r="122" spans="2:6">
@@ -22056,7 +22057,7 @@
       </c>
       <c r="F122" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_119.png'),</v>
+        <v>Asset0_119: require('./Asset0/Asset0_119.png'),</v>
       </c>
     </row>
     <row r="123" spans="2:6">
@@ -22068,7 +22069,7 @@
       </c>
       <c r="F123" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_120.png'),</v>
+        <v>Asset0_120: require('./Asset0/Asset0_120.png'),</v>
       </c>
     </row>
     <row r="124" spans="2:6">
@@ -22080,7 +22081,7 @@
       </c>
       <c r="F124" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_121.png'),</v>
+        <v>Asset0_121: require('./Asset0/Asset0_121.png'),</v>
       </c>
     </row>
     <row r="125" spans="2:6">
@@ -22092,7 +22093,7 @@
       </c>
       <c r="F125" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_122.png'),</v>
+        <v>Asset0_122: require('./Asset0/Asset0_122.png'),</v>
       </c>
     </row>
     <row r="126" spans="2:6">
@@ -22104,7 +22105,7 @@
       </c>
       <c r="F126" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset0/Asset0_123.png'),</v>
+        <v>Asset0_123: require('./Asset0/Asset0_123.png'),</v>
       </c>
     </row>
     <row r="127" spans="2:6">
@@ -22116,7 +22117,7 @@
       </c>
       <c r="F127" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset1/Asset1_1.png'),</v>
+        <v>Asset1_1: require('./Asset1/Asset1_1.png'),</v>
       </c>
     </row>
     <row r="128" spans="2:6">
@@ -22128,7 +22129,7 @@
       </c>
       <c r="F128" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset1/Asset1_2.png'),</v>
+        <v>Asset1_2: require('./Asset1/Asset1_2.png'),</v>
       </c>
     </row>
     <row r="129" spans="2:6">
@@ -22140,7 +22141,7 @@
       </c>
       <c r="F129" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset1/Asset1_3.png'),</v>
+        <v>Asset1_3: require('./Asset1/Asset1_3.png'),</v>
       </c>
     </row>
     <row r="130" spans="2:6">
@@ -22152,7 +22153,7 @@
       </c>
       <c r="F130" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset1/Asset1_4.png'),</v>
+        <v>Asset1_4: require('./Asset1/Asset1_4.png'),</v>
       </c>
     </row>
     <row r="131" spans="2:6">
@@ -22164,7 +22165,7 @@
       </c>
       <c r="F131" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>require('./Asset1/Asset1_5.png'),</v>
+        <v>Asset1_5: require('./Asset1/Asset1_5.png'),</v>
       </c>
     </row>
     <row r="132" spans="2:6">
@@ -22175,8 +22176,8 @@
         <v>6</v>
       </c>
       <c r="F132" s="40" t="str">
-        <f t="shared" ref="F132:F158" si="2">"require('./" &amp; B132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".png'),"</f>
-        <v>require('./Asset1/Asset1_6.png'),</v>
+        <f t="shared" ref="F132:F158" si="2">B132 &amp; "_" &amp; C132&amp;": "&amp;"require('./" &amp; B132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".png'),"</f>
+        <v>Asset1_6: require('./Asset1/Asset1_6.png'),</v>
       </c>
     </row>
     <row r="133" spans="2:6">
@@ -22188,7 +22189,7 @@
       </c>
       <c r="F133" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_7.png'),</v>
+        <v>Asset1_7: require('./Asset1/Asset1_7.png'),</v>
       </c>
     </row>
     <row r="134" spans="2:6">
@@ -22200,7 +22201,7 @@
       </c>
       <c r="F134" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_8.png'),</v>
+        <v>Asset1_8: require('./Asset1/Asset1_8.png'),</v>
       </c>
     </row>
     <row r="135" spans="2:6">
@@ -22212,7 +22213,7 @@
       </c>
       <c r="F135" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_9.png'),</v>
+        <v>Asset1_9: require('./Asset1/Asset1_9.png'),</v>
       </c>
     </row>
     <row r="136" spans="2:6">
@@ -22224,7 +22225,7 @@
       </c>
       <c r="F136" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_10.png'),</v>
+        <v>Asset1_10: require('./Asset1/Asset1_10.png'),</v>
       </c>
     </row>
     <row r="137" spans="2:6">
@@ -22236,7 +22237,7 @@
       </c>
       <c r="F137" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_11.png'),</v>
+        <v>Asset1_11: require('./Asset1/Asset1_11.png'),</v>
       </c>
     </row>
     <row r="138" spans="2:6">
@@ -22248,7 +22249,7 @@
       </c>
       <c r="F138" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_12.png'),</v>
+        <v>Asset1_12: require('./Asset1/Asset1_12.png'),</v>
       </c>
     </row>
     <row r="139" spans="2:6">
@@ -22260,7 +22261,7 @@
       </c>
       <c r="F139" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_13.png'),</v>
+        <v>Asset1_13: require('./Asset1/Asset1_13.png'),</v>
       </c>
     </row>
     <row r="140" spans="2:6">
@@ -22272,7 +22273,7 @@
       </c>
       <c r="F140" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_14.png'),</v>
+        <v>Asset1_14: require('./Asset1/Asset1_14.png'),</v>
       </c>
     </row>
     <row r="141" spans="2:6">
@@ -22284,7 +22285,7 @@
       </c>
       <c r="F141" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_15.png'),</v>
+        <v>Asset1_15: require('./Asset1/Asset1_15.png'),</v>
       </c>
     </row>
     <row r="142" spans="2:6">
@@ -22296,7 +22297,7 @@
       </c>
       <c r="F142" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_16.png'),</v>
+        <v>Asset1_16: require('./Asset1/Asset1_16.png'),</v>
       </c>
     </row>
     <row r="143" spans="2:6">
@@ -22308,7 +22309,7 @@
       </c>
       <c r="F143" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_17.png'),</v>
+        <v>Asset1_17: require('./Asset1/Asset1_17.png'),</v>
       </c>
     </row>
     <row r="144" spans="2:6">
@@ -22320,7 +22321,7 @@
       </c>
       <c r="F144" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_18.png'),</v>
+        <v>Asset1_18: require('./Asset1/Asset1_18.png'),</v>
       </c>
     </row>
     <row r="145" spans="2:6">
@@ -22332,7 +22333,7 @@
       </c>
       <c r="F145" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_19.png'),</v>
+        <v>Asset1_19: require('./Asset1/Asset1_19.png'),</v>
       </c>
     </row>
     <row r="146" spans="2:6">
@@ -22344,7 +22345,7 @@
       </c>
       <c r="F146" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_20.png'),</v>
+        <v>Asset1_20: require('./Asset1/Asset1_20.png'),</v>
       </c>
     </row>
     <row r="147" spans="2:6">
@@ -22356,7 +22357,7 @@
       </c>
       <c r="F147" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_21.png'),</v>
+        <v>Asset1_21: require('./Asset1/Asset1_21.png'),</v>
       </c>
     </row>
     <row r="148" spans="2:6">
@@ -22368,7 +22369,7 @@
       </c>
       <c r="F148" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_22.png'),</v>
+        <v>Asset1_22: require('./Asset1/Asset1_22.png'),</v>
       </c>
     </row>
     <row r="149" spans="2:6">
@@ -22380,7 +22381,7 @@
       </c>
       <c r="F149" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_23.png'),</v>
+        <v>Asset1_23: require('./Asset1/Asset1_23.png'),</v>
       </c>
     </row>
     <row r="150" spans="2:6">
@@ -22392,7 +22393,7 @@
       </c>
       <c r="F150" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_24.png'),</v>
+        <v>Asset1_24: require('./Asset1/Asset1_24.png'),</v>
       </c>
     </row>
     <row r="151" spans="2:6">
@@ -22404,7 +22405,7 @@
       </c>
       <c r="F151" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_25.png'),</v>
+        <v>Asset1_25: require('./Asset1/Asset1_25.png'),</v>
       </c>
     </row>
     <row r="152" spans="2:6">
@@ -22416,7 +22417,7 @@
       </c>
       <c r="F152" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_26.png'),</v>
+        <v>Asset1_26: require('./Asset1/Asset1_26.png'),</v>
       </c>
     </row>
     <row r="153" spans="2:6">
@@ -22428,7 +22429,7 @@
       </c>
       <c r="F153" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_27.png'),</v>
+        <v>Asset1_27: require('./Asset1/Asset1_27.png'),</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -22440,7 +22441,7 @@
       </c>
       <c r="F154" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_28.png'),</v>
+        <v>Asset1_28: require('./Asset1/Asset1_28.png'),</v>
       </c>
     </row>
     <row r="155" spans="2:6">
@@ -22452,7 +22453,7 @@
       </c>
       <c r="F155" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_29.png'),</v>
+        <v>Asset1_29: require('./Asset1/Asset1_29.png'),</v>
       </c>
     </row>
     <row r="156" spans="2:6">
@@ -22464,7 +22465,7 @@
       </c>
       <c r="F156" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_30.png'),</v>
+        <v>Asset1_30: require('./Asset1/Asset1_30.png'),</v>
       </c>
     </row>
     <row r="157" spans="2:6">
@@ -22476,7 +22477,7 @@
       </c>
       <c r="F157" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_31.png'),</v>
+        <v>Asset1_31: require('./Asset1/Asset1_31.png'),</v>
       </c>
     </row>
     <row r="158" spans="2:6">
@@ -22488,12 +22489,12 @@
       </c>
       <c r="F158" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>require('./Asset1/Asset1_32.png'),</v>
+        <v>Asset1_32: require('./Asset1/Asset1_32.png'),</v>
       </c>
     </row>
     <row r="159" spans="2:6">
       <c r="E159" s="40" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="2:6">
@@ -24050,7 +24051,7 @@
       <c r="I13" s="30"/>
       <c r="L13" s="59"/>
       <c r="M13" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="35" customHeight="1">
@@ -24927,202 +24928,202 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:18">
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="C4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="I7" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
     </row>
     <row r="9" spans="2:18">
       <c r="E9" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="E10" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="E11" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="E12" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="E13" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>193</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="F14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="E16" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="5:18">
       <c r="E17" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="s">
         <v>187</v>
       </c>
-      <c r="F17" t="s">
-        <v>189</v>
-      </c>
       <c r="G17" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="5:18">
       <c r="E18" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="5:18">
       <c r="E19" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="5:18">
       <c r="G20" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="5:18">
       <c r="E22" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="5:18">
       <c r="E23" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" t="s">
         <v>187</v>
       </c>
-      <c r="F23" t="s">
-        <v>189</v>
-      </c>
       <c r="G23" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="5:18">
       <c r="E24" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="5:18">
       <c r="E25" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="5:18">
       <c r="G26" s="45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="5:18">
       <c r="E28" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
